--- a/Data/NMR_weights.xlsx
+++ b/Data/NMR_weights.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hephaistos\Documents\NMR_GUI\NMRDataGui\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE83144B-13CA-4C3C-919B-08C116330A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D1A550-5EE2-4E57-887A-4C4CE73BAA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{378B74E6-3878-479E-B354-1180E1B108DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{378B74E6-3878-479E-B354-1180E1B108DE}"/>
   </bookViews>
   <sheets>
     <sheet name="AM_AcomArea" sheetId="3" r:id="rId1"/>
     <sheet name="AM_Spinsolve" sheetId="2" r:id="rId2"/>
+    <sheet name="KopierVorlage" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="191">
   <si>
     <t>Probe</t>
   </si>
@@ -566,6 +567,48 @@
   </si>
   <si>
     <t>#209</t>
+  </si>
+  <si>
+    <t>#210</t>
+  </si>
+  <si>
+    <t>#211</t>
+  </si>
+  <si>
+    <t>#213</t>
+  </si>
+  <si>
+    <t>#214</t>
+  </si>
+  <si>
+    <t>#215</t>
+  </si>
+  <si>
+    <t>#216</t>
+  </si>
+  <si>
+    <t>#217</t>
+  </si>
+  <si>
+    <t>#218</t>
+  </si>
+  <si>
+    <t>#219</t>
+  </si>
+  <si>
+    <t>#220</t>
+  </si>
+  <si>
+    <t>Anmerkungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Zeile 1 A-K markieren (wichtig für Formeln) </t>
+  </si>
+  <si>
+    <t>2. Heruntenziehen bis zu den gewünschten #Zahl</t>
+  </si>
+  <si>
+    <t>3. GUI nimmt Werte in Spalte H &amp; I</t>
   </si>
 </sst>
 </file>
@@ -610,10 +653,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -928,11 +972,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9562FCD5-922A-4647-AC42-CB794B9B6660}">
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3990,11 +4034,11 @@
         <v>1.8483000000000001</v>
       </c>
       <c r="H92" s="2">
-        <f>IF(B92="","",IF(E92="",B92,F92-G92))</f>
+        <f t="shared" ref="H92:H123" si="18">IF(B92="","",IF(E92="",B92,F92-G92))</f>
         <v>0.70020000000000016</v>
       </c>
       <c r="I92" s="2">
-        <f>IF(C92="","",IF(F92="",C92,G92-E92))</f>
+        <f t="shared" ref="I92:I123" si="19">IF(C92="","",IF(F92="",C92,G92-E92))</f>
         <v>0.12139999999999995</v>
       </c>
       <c r="J92" s="2">
@@ -4017,7 +4061,7 @@
         <v>0.4163</v>
       </c>
       <c r="D93" s="2">
-        <f>C93/B93</f>
+        <f t="shared" ref="D93:D124" si="20">C93/B93</f>
         <v>0.25879646897923658</v>
       </c>
       <c r="E93" s="2">
@@ -4030,19 +4074,19 @@
         <v>1.8669</v>
       </c>
       <c r="H93" s="2">
-        <f>IF(B93="","",IF(E93="",B93,F93-G93))</f>
+        <f t="shared" si="18"/>
         <v>0.6725000000000001</v>
       </c>
       <c r="I93" s="2">
-        <f>IF(C93="","",IF(F93="",C93,G93-E93))</f>
+        <f t="shared" si="19"/>
         <v>0.14749999999999996</v>
       </c>
       <c r="J93" s="2">
-        <f>I93/H93</f>
+        <f t="shared" ref="J93:J124" si="21">I93/H93</f>
         <v>0.21933085501858729</v>
       </c>
       <c r="K93" s="1">
-        <f>(D93-J93)/D93</f>
+        <f t="shared" ref="K93:K124" si="22">(D93-J93)/D93</f>
         <v>0.15249672499904027</v>
       </c>
     </row>
@@ -4057,7 +4101,7 @@
         <v>0.1145</v>
       </c>
       <c r="D94" s="2">
-        <f>C94/B94</f>
+        <f t="shared" si="20"/>
         <v>6.0565987833906376E-2</v>
       </c>
       <c r="E94" s="2">
@@ -4070,19 +4114,19 @@
         <v>1.7642</v>
       </c>
       <c r="H94" s="2">
-        <f>IF(B94="","",IF(E94="",B94,F94-G94))</f>
+        <f t="shared" si="18"/>
         <v>0.7379</v>
       </c>
       <c r="I94" s="2">
-        <f>IF(C94="","",IF(F94="",C94,G94-E94))</f>
+        <f t="shared" si="19"/>
         <v>4.5299999999999896E-2</v>
       </c>
       <c r="J94" s="2">
-        <f>I94/H94</f>
+        <f t="shared" si="21"/>
         <v>6.1390432307900658E-2</v>
       </c>
       <c r="K94" s="1">
-        <f>(D94-J94)/D94</f>
+        <f t="shared" si="22"/>
         <v>-1.3612334306429606E-2</v>
       </c>
     </row>
@@ -4097,7 +4141,7 @@
         <v>0.20169999999999999</v>
       </c>
       <c r="D95" s="2">
-        <f>C95/B95</f>
+        <f t="shared" si="20"/>
         <v>0.11103770988164051</v>
       </c>
       <c r="E95" s="2">
@@ -4110,19 +4154,19 @@
         <v>1.7977000000000001</v>
       </c>
       <c r="H95" s="2">
-        <f>IF(B95="","",IF(E95="",B95,F95-G95))</f>
+        <f t="shared" si="18"/>
         <v>0.75180000000000002</v>
       </c>
       <c r="I95" s="2">
-        <f>IF(C95="","",IF(F95="",C95,G95-E95))</f>
+        <f t="shared" si="19"/>
         <v>8.3300000000000152E-2</v>
       </c>
       <c r="J95" s="2">
-        <f>I95/H95</f>
+        <f t="shared" si="21"/>
         <v>0.11080074487895737</v>
       </c>
       <c r="K95" s="1">
-        <f>(D95-J95)/D95</f>
+        <f t="shared" si="22"/>
         <v>2.1340948308077277E-3</v>
       </c>
     </row>
@@ -4137,7 +4181,7 @@
         <v>0.3075</v>
       </c>
       <c r="D96" s="2">
-        <f>C96/B96</f>
+        <f t="shared" si="20"/>
         <v>0.17949915358122701</v>
       </c>
       <c r="E96" s="2">
@@ -4150,19 +4194,19 @@
         <v>1.8588</v>
       </c>
       <c r="H96" s="2">
-        <f>IF(B96="","",IF(E96="",B96,F96-G96))</f>
+        <f t="shared" si="18"/>
         <v>0.6846000000000001</v>
       </c>
       <c r="I96" s="2">
-        <f>IF(C96="","",IF(F96="",C96,G96-E96))</f>
+        <f t="shared" si="19"/>
         <v>0.14389999999999992</v>
       </c>
       <c r="J96" s="2">
-        <f>I96/H96</f>
+        <f t="shared" si="21"/>
         <v>0.21019573473561187</v>
       </c>
       <c r="K96" s="1">
-        <f>(D96-J96)/D96</f>
+        <f t="shared" si="22"/>
         <v>-0.17101240057098119</v>
       </c>
     </row>
@@ -4177,7 +4221,7 @@
         <v>0.40279999999999999</v>
       </c>
       <c r="D97" s="2">
-        <f>C97/B97</f>
+        <f t="shared" si="20"/>
         <v>0.25123183434167029</v>
       </c>
       <c r="E97" s="2">
@@ -4190,19 +4234,19 @@
         <v>1.9121999999999999</v>
       </c>
       <c r="H97" s="2">
-        <f>IF(B97="","",IF(E97="",B97,F97-G97))</f>
+        <f t="shared" si="18"/>
         <v>0.69890000000000008</v>
       </c>
       <c r="I97" s="2">
-        <f>IF(C97="","",IF(F97="",C97,G97-E97))</f>
+        <f t="shared" si="19"/>
         <v>0.18159999999999998</v>
       </c>
       <c r="J97" s="2">
-        <f>I97/H97</f>
+        <f t="shared" si="21"/>
         <v>0.25983688653598508</v>
       </c>
       <c r="K97" s="1">
-        <f>(D97-J97)/D97</f>
+        <f t="shared" si="22"/>
         <v>-3.4251440375235601E-2</v>
       </c>
     </row>
@@ -4217,7 +4261,7 @@
         <v>0.1046</v>
       </c>
       <c r="D98" s="2">
-        <f>C98/B98</f>
+        <f t="shared" si="20"/>
         <v>5.4752931323283079E-2</v>
       </c>
       <c r="E98" s="2">
@@ -4230,19 +4274,19 @@
         <v>1.7433000000000001</v>
       </c>
       <c r="H98" s="2">
-        <f>IF(B98="","",IF(E98="",B98,F98-G98))</f>
+        <f t="shared" si="18"/>
         <v>0.75229999999999997</v>
       </c>
       <c r="I98" s="2">
-        <f>IF(C98="","",IF(F98="",C98,G98-E98))</f>
+        <f t="shared" si="19"/>
         <v>3.9700000000000069E-2</v>
       </c>
       <c r="J98" s="2">
-        <f>I98/H98</f>
+        <f t="shared" si="21"/>
         <v>5.2771500731091416E-2</v>
       </c>
       <c r="K98" s="1">
-        <f>(D98-J98)/D98</f>
+        <f t="shared" si="22"/>
         <v>3.6188575557580815E-2</v>
       </c>
     </row>
@@ -4257,7 +4301,7 @@
         <v>0.21829999999999999</v>
       </c>
       <c r="D99" s="2">
-        <f>C99/B99</f>
+        <f t="shared" si="20"/>
         <v>0.12077455048409404</v>
       </c>
       <c r="E99" s="2">
@@ -4270,19 +4314,19 @@
         <v>1.7968</v>
       </c>
       <c r="H99" s="2">
-        <f>IF(B99="","",IF(E99="",B99,F99-G99))</f>
+        <f t="shared" si="18"/>
         <v>0.70350000000000024</v>
       </c>
       <c r="I99" s="2">
-        <f>IF(C99="","",IF(F99="",C99,G99-E99))</f>
+        <f t="shared" si="19"/>
         <v>9.1199999999999948E-2</v>
       </c>
       <c r="J99" s="2">
-        <f>I99/H99</f>
+        <f t="shared" si="21"/>
         <v>0.1296375266524519</v>
       </c>
       <c r="K99" s="1">
-        <f>(D99-J99)/D99</f>
+        <f t="shared" si="22"/>
         <v>-7.338446827442438E-2</v>
       </c>
     </row>
@@ -4297,7 +4341,7 @@
         <v>0.31459999999999999</v>
       </c>
       <c r="D100" s="2">
-        <f>C100/B100</f>
+        <f t="shared" si="20"/>
         <v>0.18330128765367359</v>
       </c>
       <c r="E100" s="2">
@@ -4310,19 +4354,19 @@
         <v>1.8327</v>
       </c>
       <c r="H100" s="2">
-        <f>IF(B100="","",IF(E100="",B100,F100-G100))</f>
+        <f t="shared" si="18"/>
         <v>0.69930000000000003</v>
       </c>
       <c r="I100" s="2">
-        <f>IF(C100="","",IF(F100="",C100,G100-E100))</f>
+        <f t="shared" si="19"/>
         <v>0.12769999999999992</v>
       </c>
       <c r="J100" s="2">
-        <f>I100/H100</f>
+        <f t="shared" si="21"/>
         <v>0.1826111826111825</v>
       </c>
       <c r="K100" s="1">
-        <f>(D100-J100)/D100</f>
+        <f t="shared" si="22"/>
         <v>3.7648674012315908E-3</v>
       </c>
     </row>
@@ -4337,7 +4381,7 @@
         <v>0.4032</v>
       </c>
       <c r="D101" s="2">
-        <f>C101/B101</f>
+        <f t="shared" si="20"/>
         <v>0.25184259837601497</v>
       </c>
       <c r="E101" s="2">
@@ -4350,19 +4394,19 @@
         <v>1.8989</v>
       </c>
       <c r="H101" s="2">
-        <f>IF(B101="","",IF(E101="",B101,F101-G101))</f>
+        <f t="shared" si="18"/>
         <v>0.67599999999999993</v>
       </c>
       <c r="I101" s="2">
-        <f>IF(C101="","",IF(F101="",C101,G101-E101))</f>
+        <f t="shared" si="19"/>
         <v>0.1826000000000001</v>
       </c>
       <c r="J101" s="2">
-        <f>I101/H101</f>
+        <f t="shared" si="21"/>
         <v>0.27011834319526645</v>
       </c>
       <c r="K101" s="1">
-        <f>(D101-J101)/D101</f>
+        <f t="shared" si="22"/>
         <v>-7.2568123649855223E-2</v>
       </c>
     </row>
@@ -4377,7 +4421,7 @@
         <v>0.11169999999999999</v>
       </c>
       <c r="D102" s="2">
-        <f>C102/B102</f>
+        <f t="shared" si="20"/>
         <v>5.8469430485762135E-2</v>
       </c>
       <c r="E102" s="2">
@@ -4390,19 +4434,19 @@
         <v>1.7503</v>
       </c>
       <c r="H102" s="2">
-        <f>IF(B102="","",IF(E102="",B102,F102-G102))</f>
+        <f t="shared" si="18"/>
         <v>0.7891999999999999</v>
       </c>
       <c r="I102" s="2">
-        <f>IF(C102="","",IF(F102="",C102,G102-E102))</f>
+        <f t="shared" si="19"/>
         <v>3.8699999999999957E-2</v>
       </c>
       <c r="J102" s="2">
-        <f>I102/H102</f>
+        <f t="shared" si="21"/>
         <v>4.9036999493157582E-2</v>
       </c>
       <c r="K102" s="1">
-        <f>(D102-J102)/D102</f>
+        <f t="shared" si="22"/>
         <v>0.16132243660046322</v>
       </c>
     </row>
@@ -4417,7 +4461,7 @@
         <v>0.20780000000000001</v>
       </c>
       <c r="D103" s="2">
-        <f>C103/B103</f>
+        <f t="shared" si="20"/>
         <v>0.1158951477969883</v>
       </c>
       <c r="E103" s="2">
@@ -4430,19 +4474,19 @@
         <v>1.7735000000000001</v>
       </c>
       <c r="H103" s="2">
-        <f>IF(B103="","",IF(E103="",B103,F103-G103))</f>
+        <f t="shared" si="18"/>
         <v>0.72539999999999982</v>
       </c>
       <c r="I103" s="2">
-        <f>IF(C103="","",IF(F103="",C103,G103-E103))</f>
+        <f t="shared" si="19"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="J103" s="2">
-        <f>I103/H103</f>
+        <f t="shared" si="21"/>
         <v>8.2712985938792491E-2</v>
       </c>
       <c r="K103" s="1">
-        <f>(D103-J103)/D103</f>
+        <f t="shared" si="22"/>
         <v>0.28631191632216113</v>
       </c>
     </row>
@@ -4457,7 +4501,7 @@
         <v>0.3256</v>
       </c>
       <c r="D104" s="2">
-        <f>C104/B104</f>
+        <f t="shared" si="20"/>
         <v>0.18948961182564164</v>
       </c>
       <c r="E104" s="2">
@@ -4470,19 +4514,19 @@
         <v>1.8292999999999999</v>
       </c>
       <c r="H104" s="2">
-        <f>IF(B104="","",IF(E104="",B104,F104-G104))</f>
+        <f t="shared" si="18"/>
         <v>0.68950000000000022</v>
       </c>
       <c r="I104" s="2">
-        <f>IF(C104="","",IF(F104="",C104,G104-E104))</f>
+        <f t="shared" si="19"/>
         <v>0.10909999999999997</v>
       </c>
       <c r="J104" s="2">
-        <f>I104/H104</f>
+        <f t="shared" si="21"/>
         <v>0.15823060188542412</v>
       </c>
       <c r="K104" s="1">
-        <f>(D104-J104)/D104</f>
+        <f t="shared" si="22"/>
         <v>0.16496424072566265</v>
       </c>
     </row>
@@ -4497,7 +4541,7 @@
         <v>0.40820000000000001</v>
       </c>
       <c r="D105" s="2">
-        <f>C105/B105</f>
+        <f t="shared" si="20"/>
         <v>0.25434606517540032</v>
       </c>
       <c r="E105" s="2">
@@ -4510,19 +4554,19 @@
         <v>1.8754999999999999</v>
       </c>
       <c r="H105" s="2">
-        <f>IF(B105="","",IF(E105="",B105,F105-G105))</f>
+        <f t="shared" si="18"/>
         <v>0.68879999999999986</v>
       </c>
       <c r="I105" s="2">
-        <f>IF(C105="","",IF(F105="",C105,G105-E105))</f>
+        <f t="shared" si="19"/>
         <v>0.1520999999999999</v>
       </c>
       <c r="J105" s="2">
-        <f>I105/H105</f>
+        <f t="shared" si="21"/>
         <v>0.22081881533101036</v>
       </c>
       <c r="K105" s="1">
-        <f>(D105-J105)/D105</f>
+        <f t="shared" si="22"/>
         <v>0.13181745045384968</v>
       </c>
     </row>
@@ -4537,7 +4581,7 @@
         <v>0.11070000000000001</v>
       </c>
       <c r="D106" s="2">
-        <f>C106/B106</f>
+        <f t="shared" si="20"/>
         <v>5.8192714082952214E-2</v>
       </c>
       <c r="E106" s="2">
@@ -4550,19 +4594,19 @@
         <v>1.7673000000000001</v>
       </c>
       <c r="H106" s="2">
-        <f>IF(B106="","",IF(E106="",B106,F106-G106))</f>
+        <f t="shared" si="18"/>
         <v>0.78419999999999979</v>
       </c>
       <c r="I106" s="2">
-        <f>IF(C106="","",IF(F106="",C106,G106-E106))</f>
+        <f t="shared" si="19"/>
         <v>4.2600000000000193E-2</v>
       </c>
       <c r="J106" s="2">
-        <f>I106/H106</f>
+        <f t="shared" si="21"/>
         <v>5.4322876817138745E-2</v>
       </c>
       <c r="K106" s="1">
-        <f>(D106-J106)/D106</f>
+        <f t="shared" si="22"/>
         <v>6.6500374261580522E-2</v>
       </c>
     </row>
@@ -4577,7 +4621,7 @@
         <v>0.2011</v>
       </c>
       <c r="D107" s="2">
-        <f>C107/B107</f>
+        <f t="shared" si="20"/>
         <v>0.11203342618384401</v>
       </c>
       <c r="E107" s="2">
@@ -4590,19 +4634,19 @@
         <v>1.7964</v>
       </c>
       <c r="H107" s="2">
-        <f>IF(B107="","",IF(E107="",B107,F107-G107))</f>
+        <f t="shared" si="18"/>
         <v>0.73149999999999982</v>
       </c>
       <c r="I107" s="2">
-        <f>IF(C107="","",IF(F107="",C107,G107-E107))</f>
+        <f t="shared" si="19"/>
         <v>7.5900000000000079E-2</v>
       </c>
       <c r="J107" s="2">
-        <f>I107/H107</f>
+        <f t="shared" si="21"/>
         <v>0.10375939849624073</v>
       </c>
       <c r="K107" s="1">
-        <f>(D107-J107)/D107</f>
+        <f t="shared" si="22"/>
         <v>7.3853205863987526E-2</v>
       </c>
     </row>
@@ -4617,7 +4661,7 @@
         <v>0.33379999999999999</v>
       </c>
       <c r="D108" s="2">
-        <f>C108/B108</f>
+        <f t="shared" si="20"/>
         <v>0.19513620951712848</v>
       </c>
       <c r="E108" s="2">
@@ -4630,19 +4674,19 @@
         <v>1.8466</v>
       </c>
       <c r="H108" s="2">
-        <f>IF(B108="","",IF(E108="",B108,F108-G108))</f>
+        <f t="shared" si="18"/>
         <v>0.70210000000000017</v>
       </c>
       <c r="I108" s="2">
-        <f>IF(C108="","",IF(F108="",C108,G108-E108))</f>
+        <f t="shared" si="19"/>
         <v>0.1301000000000001</v>
       </c>
       <c r="J108" s="2">
-        <f>I108/H108</f>
+        <f t="shared" si="21"/>
         <v>0.18530123913972379</v>
       </c>
       <c r="K108" s="1">
-        <f>(D108-J108)/D108</f>
+        <f t="shared" si="22"/>
         <v>5.0400540226448361E-2</v>
       </c>
     </row>
@@ -4657,7 +4701,7 @@
         <v>0.42299999999999999</v>
       </c>
       <c r="D109" s="2">
-        <f>C109/B109</f>
+        <f t="shared" si="20"/>
         <v>0.26348573564220756</v>
       </c>
       <c r="E109" s="2">
@@ -4670,19 +4714,19 @@
         <v>1.8743000000000001</v>
       </c>
       <c r="H109" s="2">
-        <f>IF(B109="","",IF(E109="",B109,F109-G109))</f>
+        <f t="shared" si="18"/>
         <v>0.67199999999999993</v>
       </c>
       <c r="I109" s="2">
-        <f>IF(C109="","",IF(F109="",C109,G109-E109))</f>
+        <f t="shared" si="19"/>
         <v>0.1543000000000001</v>
       </c>
       <c r="J109" s="2">
-        <f>I109/H109</f>
+        <f t="shared" si="21"/>
         <v>0.22961309523809542</v>
       </c>
       <c r="K109" s="1">
-        <f>(D109-J109)/D109</f>
+        <f t="shared" si="22"/>
         <v>0.1285558792074743</v>
       </c>
     </row>
@@ -4697,7 +4741,7 @@
         <v>0.108</v>
       </c>
       <c r="D110" s="2">
-        <f>C110/B110</f>
+        <f t="shared" si="20"/>
         <v>5.6916996047430828E-2</v>
       </c>
       <c r="E110" s="2">
@@ -4710,19 +4754,19 @@
         <v>1.7524999999999999</v>
       </c>
       <c r="H110" s="2">
-        <f>IF(B110="","",IF(E110="",B110,F110-G110))</f>
+        <f t="shared" si="18"/>
         <v>0.72150000000000025</v>
       </c>
       <c r="I110" s="2">
-        <f>IF(C110="","",IF(F110="",C110,G110-E110))</f>
+        <f t="shared" si="19"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="J110" s="2">
-        <f>I110/H110</f>
+        <f t="shared" si="21"/>
         <v>5.5440055440055473E-2</v>
       </c>
       <c r="K110" s="1">
-        <f>(D110-J110)/D110</f>
+        <f t="shared" si="22"/>
         <v>2.5949025949025324E-2</v>
       </c>
     </row>
@@ -4737,7 +4781,7 @@
         <v>0.2044</v>
       </c>
       <c r="D111" s="2">
-        <f>C111/B111</f>
+        <f t="shared" si="20"/>
         <v>0.11335403726708075</v>
       </c>
       <c r="E111" s="2">
@@ -4750,19 +4794,19 @@
         <v>1.8041</v>
       </c>
       <c r="H111" s="2">
-        <f>IF(B111="","",IF(E111="",B111,F111-G111))</f>
+        <f t="shared" si="18"/>
         <v>0.74299999999999988</v>
       </c>
       <c r="I111" s="2">
-        <f>IF(C111="","",IF(F111="",C111,G111-E111))</f>
+        <f t="shared" si="19"/>
         <v>8.6100000000000065E-2</v>
       </c>
       <c r="J111" s="2">
-        <f>I111/H111</f>
+        <f t="shared" si="21"/>
         <v>0.11588156123822352</v>
       </c>
       <c r="K111" s="1">
-        <f>(D111-J111)/D111</f>
+        <f t="shared" si="22"/>
         <v>-2.2297608731725233E-2</v>
       </c>
     </row>
@@ -4777,7 +4821,7 @@
         <v>0.30420000000000003</v>
       </c>
       <c r="D112" s="2">
-        <f>C112/B112</f>
+        <f t="shared" si="20"/>
         <v>0.17706635622817232</v>
       </c>
       <c r="E112" s="2">
@@ -4790,19 +4834,19 @@
         <v>1.8414999999999999</v>
       </c>
       <c r="H112" s="2">
-        <f>IF(B112="","",IF(E112="",B112,F112-G112))</f>
+        <f t="shared" si="18"/>
         <v>0.67930000000000001</v>
       </c>
       <c r="I112" s="2">
-        <f>IF(C112="","",IF(F112="",C112,G112-E112))</f>
+        <f t="shared" si="19"/>
         <v>0.12779999999999991</v>
       </c>
       <c r="J112" s="2">
-        <f>I112/H112</f>
+        <f t="shared" si="21"/>
         <v>0.18813484469306627</v>
       </c>
       <c r="K112" s="1">
-        <f>(D112-J112)/D112</f>
+        <f t="shared" si="22"/>
         <v>-6.2510398365180117E-2</v>
       </c>
     </row>
@@ -4817,7 +4861,7 @@
         <v>0.4007</v>
       </c>
       <c r="D113" s="2">
-        <f>C113/B113</f>
+        <f t="shared" si="20"/>
         <v>0.24948633335408754</v>
       </c>
       <c r="E113" s="2">
@@ -4830,19 +4874,19 @@
         <v>1.8900999999999999</v>
       </c>
       <c r="H113" s="2">
-        <f>IF(B113="","",IF(E113="",B113,F113-G113))</f>
+        <f t="shared" si="18"/>
         <v>0.70150000000000023</v>
       </c>
       <c r="I113" s="2">
-        <f>IF(C113="","",IF(F113="",C113,G113-E113))</f>
+        <f t="shared" si="19"/>
         <v>0.18159999999999998</v>
       </c>
       <c r="J113" s="2">
-        <f>I113/H113</f>
+        <f t="shared" si="21"/>
         <v>0.25887384176764067</v>
       </c>
       <c r="K113" s="1">
-        <f>(D113-J113)/D113</f>
+        <f t="shared" si="22"/>
         <v>-3.7627345303238517E-2</v>
       </c>
     </row>
@@ -4857,7 +4901,7 @@
         <v>0.1002</v>
       </c>
       <c r="D114" s="2">
-        <f>C114/B114</f>
+        <f t="shared" si="20"/>
         <v>5.233469131933563E-2</v>
       </c>
       <c r="E114" s="2">
@@ -4870,19 +4914,19 @@
         <v>1.7563</v>
       </c>
       <c r="H114" s="2">
-        <f>IF(B114="","",IF(E114="",B114,F114-G114))</f>
+        <f t="shared" si="18"/>
         <v>0.7488999999999999</v>
       </c>
       <c r="I114" s="2">
-        <f>IF(C114="","",IF(F114="",C114,G114-E114))</f>
+        <f t="shared" si="19"/>
         <v>3.8799999999999946E-2</v>
       </c>
       <c r="J114" s="2">
-        <f>I114/H114</f>
+        <f t="shared" si="21"/>
         <v>5.1809320336493457E-2</v>
       </c>
       <c r="K114" s="1">
-        <f>(D114-J114)/D114</f>
+        <f t="shared" si="22"/>
         <v>1.0038675486523197E-2</v>
       </c>
     </row>
@@ -4897,7 +4941,7 @@
         <v>0.20280000000000001</v>
       </c>
       <c r="D115" s="2">
-        <f>C115/B115</f>
+        <f t="shared" si="20"/>
         <v>0.11147757255936676</v>
       </c>
       <c r="E115" s="2">
@@ -4910,19 +4954,19 @@
         <v>1.7916000000000001</v>
       </c>
       <c r="H115" s="2">
-        <f>IF(B115="","",IF(E115="",B115,F115-G115))</f>
+        <f t="shared" si="18"/>
         <v>0.73520000000000008</v>
       </c>
       <c r="I115" s="2">
-        <f>IF(C115="","",IF(F115="",C115,G115-E115))</f>
+        <f t="shared" si="19"/>
         <v>8.1600000000000117E-2</v>
       </c>
       <c r="J115" s="2">
-        <f>I115/H115</f>
+        <f t="shared" si="21"/>
         <v>0.11099020674646369</v>
       </c>
       <c r="K115" s="1">
-        <f>(D115-J115)/D115</f>
+        <f t="shared" si="22"/>
         <v>4.3718732092369863E-3</v>
       </c>
     </row>
@@ -4937,7 +4981,7 @@
         <v>0.30769999999999997</v>
       </c>
       <c r="D116" s="2">
-        <f>C116/B116</f>
+        <f t="shared" si="20"/>
         <v>0.18105325095616356</v>
       </c>
       <c r="E116" s="2">
@@ -4950,19 +4994,19 @@
         <v>1.8465</v>
       </c>
       <c r="H116" s="2">
-        <f>IF(B116="","",IF(E116="",B116,F116-G116))</f>
+        <f t="shared" si="18"/>
         <v>0.7024999999999999</v>
       </c>
       <c r="I116" s="2">
-        <f>IF(C116="","",IF(F116="",C116,G116-E116))</f>
+        <f t="shared" si="19"/>
         <v>0.13000000000000012</v>
       </c>
       <c r="J116" s="2">
-        <f>I116/H116</f>
+        <f t="shared" si="21"/>
         <v>0.18505338078291833</v>
       </c>
       <c r="K116" s="1">
-        <f>(D116-J116)/D116</f>
+        <f t="shared" si="22"/>
         <v>-2.2093664740233106E-2</v>
       </c>
     </row>
@@ -4977,7 +5021,7 @@
         <v>0.41689999999999999</v>
       </c>
       <c r="D117" s="2">
-        <f>C117/B117</f>
+        <f t="shared" si="20"/>
         <v>0.26083964211975225</v>
       </c>
       <c r="E117" s="2">
@@ -4990,19 +5034,19 @@
         <v>1.8995</v>
       </c>
       <c r="H117" s="2">
-        <f>IF(B117="","",IF(E117="",B117,F117-G117))</f>
+        <f t="shared" si="18"/>
         <v>0.69000000000000017</v>
       </c>
       <c r="I117" s="2">
-        <f>IF(C117="","",IF(F117="",C117,G117-E117))</f>
+        <f t="shared" si="19"/>
         <v>0.18259999999999987</v>
       </c>
       <c r="J117" s="2">
-        <f>I117/H117</f>
+        <f t="shared" si="21"/>
         <v>0.26463768115942005</v>
       </c>
       <c r="K117" s="1">
-        <f>(D117-J117)/D117</f>
+        <f t="shared" si="22"/>
         <v>-1.4560819853924309E-2</v>
       </c>
     </row>
@@ -5017,7 +5061,7 @@
         <v>0.1014</v>
       </c>
       <c r="D118" s="2">
-        <f>C118/B118</f>
+        <f t="shared" si="20"/>
         <v>5.3139083953464006E-2</v>
       </c>
       <c r="E118" s="2">
@@ -5030,19 +5074,19 @@
         <v>1.7574000000000001</v>
       </c>
       <c r="H118" s="2">
-        <f>IF(B118="","",IF(E118="",B118,F118-G118))</f>
+        <f t="shared" si="18"/>
         <v>0.72149999999999981</v>
       </c>
       <c r="I118" s="2">
-        <f>IF(C118="","",IF(F118="",C118,G118-E118))</f>
+        <f t="shared" si="19"/>
         <v>3.5900000000000043E-2</v>
       </c>
       <c r="J118" s="2">
-        <f>I118/H118</f>
+        <f t="shared" si="21"/>
         <v>4.9757449757449827E-2</v>
       </c>
       <c r="K118" s="1">
-        <f>(D118-J118)/D118</f>
+        <f t="shared" si="22"/>
         <v>6.363741985043643E-2</v>
       </c>
     </row>
@@ -5057,7 +5101,7 @@
         <v>0.20030000000000001</v>
       </c>
       <c r="D119" s="2">
-        <f>C119/B119</f>
+        <f t="shared" si="20"/>
         <v>0.11144494519557115</v>
       </c>
       <c r="E119" s="2">
@@ -5070,19 +5114,19 @@
         <v>1.8076000000000001</v>
       </c>
       <c r="H119" s="2">
-        <f>IF(B119="","",IF(E119="",B119,F119-G119))</f>
+        <f t="shared" si="18"/>
         <v>0.71500000000000008</v>
       </c>
       <c r="I119" s="2">
-        <f>IF(C119="","",IF(F119="",C119,G119-E119))</f>
+        <f t="shared" si="19"/>
         <v>8.3100000000000174E-2</v>
       </c>
       <c r="J119" s="2">
-        <f>I119/H119</f>
+        <f t="shared" si="21"/>
         <v>0.11622377622377646</v>
       </c>
       <c r="K119" s="1">
-        <f>(D119-J119)/D119</f>
+        <f t="shared" si="22"/>
         <v>-4.2880644068863723E-2</v>
       </c>
     </row>
@@ -5097,7 +5141,7 @@
         <v>0.31290000000000001</v>
       </c>
       <c r="D120" s="2">
-        <f>C120/B120</f>
+        <f t="shared" si="20"/>
         <v>0.1842756183745583</v>
       </c>
       <c r="E120" s="2">
@@ -5110,19 +5154,19 @@
         <v>1.8964000000000001</v>
       </c>
       <c r="H120" s="2">
-        <f>IF(B120="","",IF(E120="",B120,F120-G120))</f>
+        <f t="shared" si="18"/>
         <v>0.6653</v>
       </c>
       <c r="I120" s="2">
-        <f>IF(C120="","",IF(F120="",C120,G120-E120))</f>
+        <f t="shared" si="19"/>
         <v>0.17590000000000017</v>
       </c>
       <c r="J120" s="2">
-        <f>I120/H120</f>
+        <f t="shared" si="21"/>
         <v>0.2643920036073954</v>
       </c>
       <c r="K120" s="1">
-        <f>(D120-J120)/D120</f>
+        <f t="shared" si="22"/>
         <v>-0.43476389301808049</v>
       </c>
     </row>
@@ -5137,7 +5181,7 @@
         <v>0.4022</v>
       </c>
       <c r="D121" s="2">
-        <f>C121/B121</f>
+        <f t="shared" si="20"/>
         <v>0.25205239080027575</v>
       </c>
       <c r="E121" s="2">
@@ -5150,19 +5194,19 @@
         <v>1.8907</v>
       </c>
       <c r="H121" s="2">
-        <f>IF(B121="","",IF(E121="",B121,F121-G121))</f>
+        <f t="shared" si="18"/>
         <v>0.68810000000000016</v>
       </c>
       <c r="I121" s="2">
-        <f>IF(C121="","",IF(F121="",C121,G121-E121))</f>
+        <f t="shared" si="19"/>
         <v>0.16500000000000004</v>
       </c>
       <c r="J121" s="2">
-        <f>I121/H121</f>
+        <f t="shared" si="21"/>
         <v>0.23979072809184712</v>
       </c>
       <c r="K121" s="1">
-        <f>(D121-J121)/D121</f>
+        <f t="shared" si="22"/>
         <v>4.8647277930978519E-2</v>
       </c>
     </row>
@@ -5177,7 +5221,7 @@
         <v>0.1028</v>
       </c>
       <c r="D122" s="2">
-        <f>C122/B122</f>
+        <f t="shared" si="20"/>
         <v>5.3785381677392351E-2</v>
       </c>
       <c r="E122" s="2">
@@ -5190,19 +5234,19 @@
         <v>1.7444999999999999</v>
       </c>
       <c r="H122" s="2">
-        <f>IF(B122="","",IF(E122="",B122,F122-G122))</f>
+        <f t="shared" si="18"/>
         <v>0.67379999999999995</v>
       </c>
       <c r="I122" s="2">
-        <f>IF(C122="","",IF(F122="",C122,G122-E122))</f>
+        <f t="shared" si="19"/>
         <v>3.5399999999999876E-2</v>
       </c>
       <c r="J122" s="2">
-        <f>I122/H122</f>
+        <f t="shared" si="21"/>
         <v>5.2537845057880499E-2</v>
       </c>
       <c r="K122" s="1">
-        <f>(D122-J122)/D122</f>
+        <f t="shared" si="22"/>
         <v>2.319471537814205E-2</v>
       </c>
     </row>
@@ -5217,7 +5261,7 @@
         <v>0.25190000000000001</v>
       </c>
       <c r="D123" s="2">
-        <f>C123/B123</f>
+        <f t="shared" si="20"/>
         <v>0.12213925523661755</v>
       </c>
       <c r="E123" s="2">
@@ -5230,19 +5274,19 @@
         <v>1.8388</v>
       </c>
       <c r="H123" s="2">
-        <f>IF(B123="","",IF(E123="",B123,F123-G123))</f>
+        <f t="shared" si="18"/>
         <v>0.7206999999999999</v>
       </c>
       <c r="I123" s="2">
-        <f>IF(C123="","",IF(F123="",C123,G123-E123))</f>
+        <f t="shared" si="19"/>
         <v>0.11569999999999991</v>
       </c>
       <c r="J123" s="2">
-        <f>I123/H123</f>
+        <f t="shared" si="21"/>
         <v>0.1605383654780074</v>
       </c>
       <c r="K123" s="1">
-        <f>(D123-J123)/D123</f>
+        <f t="shared" si="22"/>
         <v>-0.31438795141660353</v>
       </c>
     </row>
@@ -5257,7 +5301,7 @@
         <v>0.30270000000000002</v>
       </c>
       <c r="D124" s="2">
-        <f>C124/B124</f>
+        <f t="shared" si="20"/>
         <v>0.1780588235294118</v>
       </c>
       <c r="E124" s="2">
@@ -5270,19 +5314,19 @@
         <v>1.8856999999999999</v>
       </c>
       <c r="H124" s="2">
-        <f>IF(B124="","",IF(E124="",B124,F124-G124))</f>
+        <f t="shared" ref="H124:H155" si="23">IF(B124="","",IF(E124="",B124,F124-G124))</f>
         <v>0.65730000000000022</v>
       </c>
       <c r="I124" s="2">
-        <f>IF(C124="","",IF(F124="",C124,G124-E124))</f>
+        <f t="shared" ref="I124:I143" si="24">IF(C124="","",IF(F124="",C124,G124-E124))</f>
         <v>0.16189999999999993</v>
       </c>
       <c r="J124" s="2">
-        <f>I124/H124</f>
+        <f t="shared" si="21"/>
         <v>0.2463106648410161</v>
       </c>
       <c r="K124" s="1">
-        <f>(D124-J124)/D124</f>
+        <f t="shared" si="22"/>
         <v>-0.38331063835390583</v>
       </c>
     </row>
@@ -5297,7 +5341,7 @@
         <v>0.4042</v>
       </c>
       <c r="D125" s="2">
-        <f>C125/B125</f>
+        <f t="shared" ref="D125:D156" si="25">C125/B125</f>
         <v>0.25127440009946539</v>
       </c>
       <c r="E125" s="2">
@@ -5310,19 +5354,19 @@
         <v>1.9124000000000001</v>
       </c>
       <c r="H125" s="2">
-        <f>IF(B125="","",IF(E125="",B125,F125-G125))</f>
+        <f t="shared" si="23"/>
         <v>0.69389999999999996</v>
       </c>
       <c r="I125" s="2">
-        <f>IF(C125="","",IF(F125="",C125,G125-E125))</f>
+        <f t="shared" si="24"/>
         <v>0.19159999999999999</v>
       </c>
       <c r="J125" s="2">
-        <f>I125/H125</f>
+        <f t="shared" ref="J125:J156" si="26">I125/H125</f>
         <v>0.27612047845510879</v>
       </c>
       <c r="K125" s="1">
-        <f>(D125-J125)/D125</f>
+        <f t="shared" ref="K125:K156" si="27">(D125-J125)/D125</f>
         <v>-9.8880261362909366E-2</v>
       </c>
     </row>
@@ -5337,7 +5381,7 @@
         <v>1.95E-2</v>
       </c>
       <c r="D126" s="2">
-        <f>C126/B126</f>
+        <f t="shared" si="25"/>
         <v>9.8709187547456334E-3</v>
       </c>
       <c r="E126" s="2">
@@ -5350,19 +5394,19 @@
         <v>1.7123999999999999</v>
       </c>
       <c r="H126" s="2">
-        <f>IF(B126="","",IF(E126="",B126,F126-G126))</f>
+        <f t="shared" si="23"/>
         <v>0.86760000000000015</v>
       </c>
       <c r="I126" s="2">
-        <f>IF(C126="","",IF(F126="",C126,G126-E126))</f>
+        <f t="shared" si="24"/>
         <v>5.6999999999998163E-3</v>
       </c>
       <c r="J126" s="2">
-        <f>I126/H126</f>
+        <f t="shared" si="26"/>
         <v>6.5698478561546977E-3</v>
       </c>
       <c r="K126" s="1">
-        <f>(D126-J126)/D126</f>
+        <f t="shared" si="27"/>
         <v>0.33442387488032788</v>
       </c>
     </row>
@@ -5377,7 +5421,7 @@
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="D127" s="2">
-        <f>C127/B127</f>
+        <f t="shared" si="25"/>
         <v>3.0360824742268044E-2</v>
       </c>
       <c r="E127" s="2">
@@ -5390,19 +5434,19 @@
         <v>1.7114</v>
       </c>
       <c r="H127" s="2">
-        <f>IF(B127="","",IF(E127="",B127,F127-G127))</f>
+        <f t="shared" si="23"/>
         <v>0.6540999999999999</v>
       </c>
       <c r="I127" s="2">
-        <f>IF(C127="","",IF(F127="",C127,G127-E127))</f>
+        <f t="shared" si="24"/>
         <v>2.0100000000000007E-2</v>
       </c>
       <c r="J127" s="2">
-        <f>I127/H127</f>
+        <f t="shared" si="26"/>
         <v>3.0729246292615822E-2</v>
       </c>
       <c r="K127" s="1">
-        <f>(D127-J127)/D127</f>
+        <f t="shared" si="27"/>
         <v>-1.2134767532677252E-2</v>
       </c>
     </row>
@@ -5417,7 +5461,7 @@
         <v>0.10489999999999999</v>
       </c>
       <c r="D128" s="2">
-        <f>C128/B128</f>
+        <f t="shared" si="25"/>
         <v>5.5297838692672636E-2</v>
       </c>
       <c r="E128" s="2">
@@ -5430,19 +5474,19 @@
         <v>1.7392000000000001</v>
       </c>
       <c r="H128" s="2">
-        <f>IF(B128="","",IF(E128="",B128,F128-G128))</f>
+        <f t="shared" si="23"/>
         <v>0.65129999999999977</v>
       </c>
       <c r="I128" s="2">
-        <f>IF(C128="","",IF(F128="",C128,G128-E128))</f>
+        <f t="shared" si="24"/>
         <v>3.4700000000000175E-2</v>
       </c>
       <c r="J128" s="2">
-        <f>I128/H128</f>
+        <f t="shared" si="26"/>
         <v>5.3278059266083505E-2</v>
       </c>
       <c r="K128" s="1">
-        <f>(D128-J128)/D128</f>
+        <f t="shared" si="27"/>
         <v>3.652546780018668E-2</v>
       </c>
     </row>
@@ -5457,7 +5501,7 @@
         <v>0.13950000000000001</v>
       </c>
       <c r="D129" s="2">
-        <f>C129/B129</f>
+        <f t="shared" si="25"/>
         <v>7.5092856758357113E-2</v>
       </c>
       <c r="E129" s="2">
@@ -5470,19 +5514,19 @@
         <v>1.7701</v>
       </c>
       <c r="H129" s="2">
-        <f>IF(B129="","",IF(E129="",B129,F129-G129))</f>
+        <f t="shared" si="23"/>
         <v>0.60030000000000006</v>
       </c>
       <c r="I129" s="2">
-        <f>IF(C129="","",IF(F129="",C129,G129-E129))</f>
+        <f t="shared" si="24"/>
         <v>4.3199999999999905E-2</v>
       </c>
       <c r="J129" s="2">
-        <f>I129/H129</f>
+        <f t="shared" si="26"/>
         <v>7.1964017991004339E-2</v>
       </c>
       <c r="K129" s="1">
-        <f>(D129-J129)/D129</f>
+        <f t="shared" si="27"/>
         <v>4.1666263642374531E-2</v>
       </c>
     </row>
@@ -5490,350 +5534,631 @@
       <c r="A130" t="s">
         <v>163</v>
       </c>
-      <c r="D130" s="2" t="e">
-        <f>C130/B130</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H130" s="2" t="str">
-        <f>IF(B130="","",IF(E130="",B130,F130-G130))</f>
-        <v/>
-      </c>
-      <c r="I130" s="2" t="str">
-        <f>IF(C130="","",IF(F130="",C130,G130-E130))</f>
-        <v/>
-      </c>
-      <c r="J130" s="2" t="e">
-        <f>I130/H130</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K130" s="1" t="e">
-        <f>(D130-J130)/D130</f>
-        <v>#DIV/0!</v>
+      <c r="B130" s="2">
+        <v>3.9599000000000002</v>
+      </c>
+      <c r="C130" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D130" s="2">
+        <f t="shared" si="25"/>
+        <v>1.1111391701810651E-2</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1.6707000000000001</v>
+      </c>
+      <c r="F130" s="2">
+        <v>2.3456000000000001</v>
+      </c>
+      <c r="G130" s="2">
+        <v>1.6786000000000001</v>
+      </c>
+      <c r="H130" s="2">
+        <f t="shared" si="23"/>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="I130" s="2">
+        <f t="shared" si="24"/>
+        <v>7.9000000000000181E-3</v>
+      </c>
+      <c r="J130" s="2">
+        <f t="shared" si="26"/>
+        <v>1.1844077961019517E-2</v>
+      </c>
+      <c r="K130" s="1">
+        <f t="shared" si="27"/>
+        <v>-6.5940098132754282E-2</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>164</v>
       </c>
-      <c r="D131" s="2" t="e">
-        <f>C131/B131</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H131" s="2" t="str">
-        <f>IF(B131="","",IF(E131="",B131,F131-G131))</f>
-        <v/>
-      </c>
-      <c r="I131" s="2" t="str">
-        <f>IF(C131="","",IF(F131="",C131,G131-E131))</f>
-        <v/>
-      </c>
-      <c r="J131" s="2" t="e">
-        <f>I131/H131</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K131" s="1" t="e">
-        <f>(D131-J131)/D131</f>
-        <v>#DIV/0!</v>
+      <c r="B131" s="2">
+        <v>3.8832</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="D131" s="2">
+        <f t="shared" si="25"/>
+        <v>3.2344458178821589E-2</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1.7161999999999999</v>
+      </c>
+      <c r="F131" s="2">
+        <v>2.3948</v>
+      </c>
+      <c r="G131" s="2">
+        <v>1.7395</v>
+      </c>
+      <c r="H131" s="2">
+        <f t="shared" si="23"/>
+        <v>0.65529999999999999</v>
+      </c>
+      <c r="I131" s="2">
+        <f t="shared" si="24"/>
+        <v>2.3300000000000098E-2</v>
+      </c>
+      <c r="J131" s="2">
+        <f t="shared" si="26"/>
+        <v>3.5556233786052341E-2</v>
+      </c>
+      <c r="K131" s="1">
+        <f t="shared" si="27"/>
+        <v>-9.9299100621006817E-2</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>165</v>
       </c>
-      <c r="D132" s="2" t="e">
-        <f>C132/B132</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H132" s="2" t="str">
-        <f>IF(B132="","",IF(E132="",B132,F132-G132))</f>
-        <v/>
-      </c>
-      <c r="I132" s="2" t="str">
-        <f>IF(C132="","",IF(F132="",C132,G132-E132))</f>
-        <v/>
-      </c>
-      <c r="J132" s="2" t="e">
-        <f>I132/H132</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K132" s="1" t="e">
-        <f>(D132-J132)/D132</f>
-        <v>#DIV/0!</v>
+      <c r="B132" s="2">
+        <v>3.8012000000000001</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0.20219999999999999</v>
+      </c>
+      <c r="D132" s="2">
+        <f t="shared" si="25"/>
+        <v>5.3193728296327472E-2</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1.7124999999999999</v>
+      </c>
+      <c r="F132" s="2">
+        <v>2.4045000000000001</v>
+      </c>
+      <c r="G132" s="2">
+        <v>1.7507999999999999</v>
+      </c>
+      <c r="H132" s="2">
+        <f t="shared" si="23"/>
+        <v>0.65370000000000017</v>
+      </c>
+      <c r="I132" s="2">
+        <f t="shared" si="24"/>
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="J132" s="2">
+        <f t="shared" si="26"/>
+        <v>5.8589567079700151E-2</v>
+      </c>
+      <c r="K132" s="1">
+        <f t="shared" si="27"/>
+        <v>-0.10143749942312676</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>166</v>
       </c>
-      <c r="D133" s="2" t="e">
-        <f>C133/B133</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H133" s="2" t="str">
-        <f>IF(B133="","",IF(E133="",B133,F133-G133))</f>
-        <v/>
-      </c>
-      <c r="I133" s="2" t="str">
-        <f>IF(C133="","",IF(F133="",C133,G133-E133))</f>
-        <v/>
-      </c>
-      <c r="J133" s="2" t="e">
-        <f>I133/H133</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K133" s="1" t="e">
-        <f>(D133-J133)/D133</f>
-        <v>#DIV/0!</v>
+      <c r="B133" s="2">
+        <v>3.7269999999999999</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.28420000000000001</v>
+      </c>
+      <c r="D133" s="2">
+        <f t="shared" si="25"/>
+        <v>7.6254360075127453E-2</v>
+      </c>
+      <c r="E133" s="2">
+        <v>1.7161999999999999</v>
+      </c>
+      <c r="F133" s="2">
+        <v>2.1821000000000002</v>
+      </c>
+      <c r="G133" s="2">
+        <v>1.7656000000000001</v>
+      </c>
+      <c r="H133" s="2">
+        <f t="shared" si="23"/>
+        <v>0.41650000000000009</v>
+      </c>
+      <c r="I133" s="2">
+        <f t="shared" si="24"/>
+        <v>4.940000000000011E-2</v>
+      </c>
+      <c r="J133" s="2">
+        <f t="shared" si="26"/>
+        <v>0.11860744297719111</v>
+      </c>
+      <c r="K133" s="1">
+        <f t="shared" si="27"/>
+        <v>-0.55541850800841397</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>167</v>
       </c>
-      <c r="D134" s="2" t="e">
-        <f>C134/B134</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H134" s="2" t="str">
-        <f>IF(B134="","",IF(E134="",B134,F134-G134))</f>
-        <v/>
-      </c>
-      <c r="I134" s="2" t="str">
-        <f>IF(C134="","",IF(F134="",C134,G134-E134))</f>
-        <v/>
-      </c>
-      <c r="J134" s="2" t="e">
-        <f>I134/H134</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K134" s="1" t="e">
-        <f>(D134-J134)/D134</f>
-        <v>#DIV/0!</v>
+      <c r="B134" s="2">
+        <v>3.9563000000000001</v>
+      </c>
+      <c r="C134" s="2">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="D134" s="2">
+        <f t="shared" si="25"/>
+        <v>1.0843464853524758E-2</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1.7292000000000001</v>
+      </c>
+      <c r="F134" s="2">
+        <v>2.3426999999999998</v>
+      </c>
+      <c r="G134" s="2">
+        <v>1.7359</v>
+      </c>
+      <c r="H134" s="2">
+        <f t="shared" si="23"/>
+        <v>0.60679999999999978</v>
+      </c>
+      <c r="I134" s="2">
+        <f t="shared" si="24"/>
+        <v>6.6999999999999282E-3</v>
+      </c>
+      <c r="J134" s="2">
+        <f t="shared" si="26"/>
+        <v>1.1041529334212147E-2</v>
+      </c>
+      <c r="K134" s="1">
+        <f t="shared" si="27"/>
+        <v>-1.8265792656026014E-2</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>168</v>
       </c>
-      <c r="D135" s="2" t="e">
-        <f>C135/B135</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H135" s="2" t="str">
-        <f>IF(B135="","",IF(E135="",B135,F135-G135))</f>
-        <v/>
-      </c>
-      <c r="I135" s="2" t="str">
-        <f>IF(C135="","",IF(F135="",C135,G135-E135))</f>
-        <v/>
-      </c>
-      <c r="J135" s="2" t="e">
-        <f>I135/H135</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K135" s="1" t="e">
-        <f>(D135-J135)/D135</f>
-        <v>#DIV/0!</v>
+      <c r="B135" s="2">
+        <v>3.9163999999999999</v>
+      </c>
+      <c r="C135" s="2">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="D135" s="2">
+        <f t="shared" si="25"/>
+        <v>2.1550403431723011E-2</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="F135" s="2">
+        <v>2.3788</v>
+      </c>
+      <c r="G135" s="2">
+        <v>1.7289000000000001</v>
+      </c>
+      <c r="H135" s="2">
+        <f t="shared" ref="H135:H145" si="28">IF(B135="","",IF(E135="",B135,F135-G135))</f>
+        <v>0.64989999999999992</v>
+      </c>
+      <c r="I135" s="2">
+        <f t="shared" ref="I135:I145" si="29">IF(C135="","",IF(F135="",C135,G135-E135))</f>
+        <v>1.3900000000000023E-2</v>
+      </c>
+      <c r="J135" s="2">
+        <f t="shared" ref="J135:J145" si="30">I135/H135</f>
+        <v>2.138790583166645E-2</v>
+      </c>
+      <c r="K135" s="1">
+        <f t="shared" ref="K135:K145" si="31">(D135-J135)/D135</f>
+        <v>7.5403507211080044E-3</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>169</v>
       </c>
-      <c r="D136" s="2" t="e">
-        <f>C136/B136</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H136" s="2" t="str">
-        <f>IF(B136="","",IF(E136="",B136,F136-G136))</f>
-        <v/>
-      </c>
-      <c r="I136" s="2" t="str">
-        <f>IF(C136="","",IF(F136="",C136,G136-E136))</f>
-        <v/>
-      </c>
-      <c r="J136" s="2" t="e">
-        <f>I136/H136</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K136" s="1" t="e">
-        <f>(D136-J136)/D136</f>
-        <v>#DIV/0!</v>
+      <c r="B136" s="2">
+        <v>3.8834</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0.1235</v>
+      </c>
+      <c r="D136" s="2">
+        <f t="shared" si="25"/>
+        <v>3.1802029149714167E-2</v>
+      </c>
+      <c r="H136" s="2">
+        <f t="shared" si="28"/>
+        <v>3.8834</v>
+      </c>
+      <c r="I136" s="2">
+        <f t="shared" si="29"/>
+        <v>0.1235</v>
+      </c>
+      <c r="J136" s="2">
+        <f t="shared" si="30"/>
+        <v>3.1802029149714167E-2</v>
+      </c>
+      <c r="K136" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>170</v>
       </c>
-      <c r="D137" s="2" t="e">
-        <f>C137/B137</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H137" s="2" t="str">
-        <f>IF(B137="","",IF(E137="",B137,F137-G137))</f>
-        <v/>
-      </c>
-      <c r="I137" s="2" t="str">
-        <f>IF(C137="","",IF(F137="",C137,G137-E137))</f>
-        <v/>
-      </c>
-      <c r="J137" s="2" t="e">
-        <f>I137/H137</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K137" s="1" t="e">
-        <f>(D137-J137)/D137</f>
-        <v>#DIV/0!</v>
+      <c r="B137" s="2">
+        <v>3.8393000000000002</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="D137" s="2">
+        <f t="shared" si="25"/>
+        <v>4.1153335243403741E-2</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="F137" s="2">
+        <v>2.4062999999999999</v>
+      </c>
+      <c r="G137" s="2">
+        <v>1.7465999999999999</v>
+      </c>
+      <c r="H137" s="2">
+        <f t="shared" si="28"/>
+        <v>0.65969999999999995</v>
+      </c>
+      <c r="I137" s="2">
+        <f t="shared" si="29"/>
+        <v>2.6599999999999957E-2</v>
+      </c>
+      <c r="J137" s="2">
+        <f t="shared" si="30"/>
+        <v>4.0321358193118023E-2</v>
+      </c>
+      <c r="K137" s="1">
+        <f t="shared" si="31"/>
+        <v>2.0216515754189597E-2</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>171</v>
       </c>
-      <c r="D138" s="2" t="e">
-        <f>C138/B138</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H138" s="2" t="str">
-        <f>IF(B138="","",IF(E138="",B138,F138-G138))</f>
-        <v/>
-      </c>
-      <c r="I138" s="2" t="str">
-        <f>IF(C138="","",IF(F138="",C138,G138-E138))</f>
-        <v/>
-      </c>
-      <c r="J138" s="2" t="e">
-        <f>I138/H138</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K138" s="1" t="e">
-        <f>(D138-J138)/D138</f>
-        <v>#DIV/0!</v>
+      <c r="B138" s="2">
+        <v>3.8007</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.1983</v>
+      </c>
+      <c r="D138" s="2">
+        <f t="shared" si="25"/>
+        <v>5.2174599415897076E-2</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1.7081999999999999</v>
+      </c>
+      <c r="F138" s="2">
+        <v>2.1953999999999998</v>
+      </c>
+      <c r="G138" s="2">
+        <v>1.7424999999999999</v>
+      </c>
+      <c r="H138" s="2">
+        <f t="shared" si="28"/>
+        <v>0.45289999999999986</v>
+      </c>
+      <c r="I138" s="2">
+        <f t="shared" si="29"/>
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="J138" s="2">
+        <f t="shared" si="30"/>
+        <v>7.5734157650695536E-2</v>
+      </c>
+      <c r="K138" s="1">
+        <f t="shared" si="31"/>
+        <v>-0.45155225911749119</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>172</v>
       </c>
-      <c r="D139" s="2" t="e">
-        <f>C139/B139</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H139" s="2" t="str">
-        <f>IF(B139="","",IF(E139="",B139,F139-G139))</f>
-        <v/>
-      </c>
-      <c r="I139" s="2" t="str">
-        <f>IF(C139="","",IF(F139="",C139,G139-E139))</f>
-        <v/>
-      </c>
-      <c r="J139" s="2" t="e">
-        <f>I139/H139</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K139" s="1" t="e">
-        <f>(D139-J139)/D139</f>
-        <v>#DIV/0!</v>
+      <c r="B139" s="2">
+        <v>3.722</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="D139" s="2">
+        <f t="shared" si="25"/>
+        <v>7.5040300913487373E-2</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1.7197</v>
+      </c>
+      <c r="F139" s="2">
+        <v>2.3971</v>
+      </c>
+      <c r="G139" s="2">
+        <v>1.7666999999999999</v>
+      </c>
+      <c r="H139" s="2">
+        <f t="shared" si="28"/>
+        <v>0.63040000000000007</v>
+      </c>
+      <c r="I139" s="2">
+        <f t="shared" si="29"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="J139" s="2">
+        <f t="shared" si="30"/>
+        <v>7.455583756345166E-2</v>
+      </c>
+      <c r="K139" s="1">
+        <f t="shared" si="31"/>
+        <v>6.45604220849597E-3</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>173</v>
       </c>
-      <c r="D140" s="2" t="e">
-        <f>C140/B140</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H140" s="2" t="str">
-        <f>IF(B140="","",IF(E140="",B140,F140-G140))</f>
-        <v/>
-      </c>
-      <c r="I140" s="2" t="str">
-        <f>IF(C140="","",IF(F140="",C140,G140-E140))</f>
-        <v/>
-      </c>
-      <c r="J140" s="2" t="e">
-        <f>I140/H140</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K140" s="1" t="e">
-        <f>(D140-J140)/D140</f>
-        <v>#DIV/0!</v>
+      <c r="B140" s="2">
+        <v>3.9603999999999999</v>
+      </c>
+      <c r="C140" s="2">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="D140" s="2">
+        <f t="shared" si="25"/>
+        <v>9.8727401272598742E-3</v>
+      </c>
+      <c r="E140" s="2">
+        <v>1.7125999999999999</v>
+      </c>
+      <c r="F140" s="2">
+        <v>2.3167</v>
+      </c>
+      <c r="G140" s="2">
+        <v>1.7198</v>
+      </c>
+      <c r="H140" s="2">
+        <f t="shared" si="28"/>
+        <v>0.59689999999999999</v>
+      </c>
+      <c r="I140" s="2">
+        <f t="shared" si="29"/>
+        <v>7.2000000000000952E-3</v>
+      </c>
+      <c r="J140" s="2">
+        <f t="shared" si="30"/>
+        <v>1.2062321996984579E-2</v>
+      </c>
+      <c r="K140" s="1">
+        <f t="shared" si="31"/>
+        <v>-0.22178056360249923</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>174</v>
       </c>
-      <c r="D141" s="2" t="e">
-        <f>C141/B141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H141" s="2" t="str">
-        <f>IF(B141="","",IF(E141="",B141,F141-G141))</f>
-        <v/>
-      </c>
-      <c r="I141" s="2" t="str">
-        <f>IF(C141="","",IF(F141="",C141,G141-E141))</f>
-        <v/>
-      </c>
-      <c r="J141" s="2" t="e">
-        <f>I141/H141</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K141" s="1" t="e">
-        <f>(D141-J141)/D141</f>
-        <v>#DIV/0!</v>
+      <c r="B141" s="2">
+        <v>3.9201999999999999</v>
+      </c>
+      <c r="C141" s="2">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="D141" s="2">
+        <f t="shared" si="25"/>
+        <v>2.0458139890821896E-2</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1.7192000000000001</v>
+      </c>
+      <c r="F141" s="2">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="G141" s="2">
+        <v>1.7336</v>
+      </c>
+      <c r="H141" s="2">
+        <f t="shared" si="28"/>
+        <v>0.60740000000000016</v>
+      </c>
+      <c r="I141" s="2">
+        <f t="shared" si="29"/>
+        <v>1.4399999999999968E-2</v>
+      </c>
+      <c r="J141" s="2">
+        <f t="shared" si="30"/>
+        <v>2.3707606190319336E-2</v>
+      </c>
+      <c r="K141" s="1">
+        <f t="shared" si="31"/>
+        <v>-0.15883488512830257</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>175</v>
       </c>
-      <c r="D142" s="2" t="e">
-        <f>C142/B142</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H142" s="2" t="str">
-        <f>IF(B142="","",IF(E142="",B142,F142-G142))</f>
-        <v/>
-      </c>
-      <c r="I142" s="2" t="str">
-        <f>IF(C142="","",IF(F142="",C142,G142-E142))</f>
-        <v/>
-      </c>
-      <c r="J142" s="2" t="e">
-        <f>I142/H142</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K142" s="1" t="e">
-        <f>(D142-J142)/D142</f>
-        <v>#DIV/0!</v>
+      <c r="B142" s="2">
+        <v>3.8834</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0.1226</v>
+      </c>
+      <c r="D142" s="2">
+        <f t="shared" si="25"/>
+        <v>3.1570273471700057E-2</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1.7178</v>
+      </c>
+      <c r="F142" s="2">
+        <v>2.2997000000000001</v>
+      </c>
+      <c r="G142" s="2">
+        <v>1.7386999999999999</v>
+      </c>
+      <c r="H142" s="2">
+        <f t="shared" si="28"/>
+        <v>0.56100000000000017</v>
+      </c>
+      <c r="I142" s="2">
+        <f t="shared" si="29"/>
+        <v>2.0899999999999919E-2</v>
+      </c>
+      <c r="J142" s="2">
+        <f t="shared" si="30"/>
+        <v>3.7254901960784161E-2</v>
+      </c>
+      <c r="K142" s="1">
+        <f t="shared" si="31"/>
+        <v>-0.1800626939193247</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>176</v>
       </c>
-      <c r="D143" s="2" t="e">
-        <f>C143/B143</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H143" s="2" t="str">
-        <f>IF(B143="","",IF(E143="",B143,F143-G143))</f>
-        <v/>
-      </c>
-      <c r="I143" s="2" t="str">
-        <f>IF(C143="","",IF(F143="",C143,G143-E143))</f>
-        <v/>
-      </c>
-      <c r="J143" s="2" t="e">
-        <f>I143/H143</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K143" s="1" t="e">
-        <f>(D143-J143)/D143</f>
-        <v>#DIV/0!</v>
+      <c r="B143" s="2">
+        <v>3.843</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0.16009999999999999</v>
+      </c>
+      <c r="D143" s="2">
+        <f t="shared" si="25"/>
+        <v>4.1660161332292479E-2</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1.7165999999999999</v>
+      </c>
+      <c r="F143" s="2">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="G143" s="2">
+        <v>1.7383</v>
+      </c>
+      <c r="H143" s="2">
+        <f t="shared" si="28"/>
+        <v>0.63769999999999993</v>
+      </c>
+      <c r="I143" s="2">
+        <f t="shared" si="29"/>
+        <v>2.1700000000000053E-2</v>
+      </c>
+      <c r="J143" s="2">
+        <f t="shared" si="30"/>
+        <v>3.4028540065861777E-2</v>
+      </c>
+      <c r="K143" s="1">
+        <f t="shared" si="31"/>
+        <v>0.18318751109864578</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>177</v>
+      </c>
+      <c r="B144" s="2">
+        <v>3.8003</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0.19950000000000001</v>
+      </c>
+      <c r="D144" s="2">
+        <f t="shared" ref="D144:D145" si="32">C144/B144</f>
+        <v>5.2495855590348132E-2</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1.7135</v>
+      </c>
+      <c r="F144" s="2">
+        <v>2.4060999999999999</v>
+      </c>
+      <c r="G144" s="2">
+        <v>1.736</v>
+      </c>
+      <c r="H144" s="2">
+        <f t="shared" si="28"/>
+        <v>0.67009999999999992</v>
+      </c>
+      <c r="I144" s="2">
+        <f t="shared" si="29"/>
+        <v>2.2499999999999964E-2</v>
+      </c>
+      <c r="J144" s="2">
+        <f t="shared" si="30"/>
+        <v>3.3577078048052482E-2</v>
+      </c>
+      <c r="K144" s="1">
+        <f t="shared" si="31"/>
+        <v>0.36038611676183535</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>178</v>
+      </c>
+      <c r="B145" s="2">
+        <v>3.7229000000000001</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0.2802</v>
+      </c>
+      <c r="D145" s="2">
+        <f t="shared" si="32"/>
+        <v>7.526390716914233E-2</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="F145" s="2">
+        <v>2.3294999999999999</v>
+      </c>
+      <c r="G145" s="2">
+        <v>1.7413000000000001</v>
+      </c>
+      <c r="H145" s="2">
+        <f t="shared" si="28"/>
+        <v>0.58819999999999983</v>
+      </c>
+      <c r="I145" s="2">
+        <f t="shared" si="29"/>
+        <v>2.8299999999999992E-2</v>
+      </c>
+      <c r="J145" s="2">
+        <f t="shared" si="30"/>
+        <v>4.8112886773206395E-2</v>
+      </c>
+      <c r="K145" s="1">
+        <f t="shared" si="31"/>
+        <v>0.36074423209147</v>
       </c>
     </row>
   </sheetData>
@@ -5845,10 +6170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40402C03-3200-4D23-B22A-11038E74E04A}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5899,7 +6224,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
       <c r="D2" s="2">
-        <f>C2/B2</f>
+        <f t="shared" ref="D2:D25" si="0">C2/B2</f>
         <v>1.0965133906013138E-2</v>
       </c>
       <c r="E2" s="2">
@@ -5912,19 +6237,19 @@
         <v>1.7088000000000001</v>
       </c>
       <c r="H2" s="2">
-        <f>IF(B2="","",IF(E2="",B2,F2-G2))</f>
+        <f t="shared" ref="H2:H25" si="1">IF(B2="","",IF(E2="",B2,F2-G2))</f>
         <v>0.57669999999999977</v>
       </c>
       <c r="I2" s="2">
-        <f>IF(C2="","",IF(F2="",C2,G2-E2))</f>
+        <f t="shared" ref="I2:I25" si="2">IF(C2="","",IF(F2="",C2,G2-E2))</f>
         <v>9.6000000000000529E-3</v>
       </c>
       <c r="J2" s="2">
-        <f>I2/H2</f>
+        <f t="shared" ref="J2:J25" si="3">I2/H2</f>
         <v>1.6646436622160667E-2</v>
       </c>
       <c r="K2" s="1">
-        <f>(D2-J2)/D2</f>
+        <f t="shared" ref="K2:K25" si="4">(D2-J2)/D2</f>
         <v>-0.51812433526525159</v>
       </c>
     </row>
@@ -5939,7 +6264,7 @@
         <v>5.9799999999999999E-2</v>
       </c>
       <c r="D3" s="2">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>3.0864516129032259E-2</v>
       </c>
       <c r="E3" s="2">
@@ -5952,19 +6277,19 @@
         <v>1.7099</v>
       </c>
       <c r="H3" s="2">
-        <f>IF(B3="","",IF(E3="",B3,F3-G3))</f>
+        <f t="shared" si="1"/>
         <v>0.53990000000000005</v>
       </c>
       <c r="I3" s="2">
-        <f>IF(C3="","",IF(F3="",C3,G3-E3))</f>
+        <f t="shared" si="2"/>
         <v>2.1299999999999875E-2</v>
       </c>
       <c r="J3" s="2">
-        <f>I3/H3</f>
+        <f t="shared" si="3"/>
         <v>3.9451750324133866E-2</v>
       </c>
       <c r="K3" s="1">
-        <f>(D3-J3)/D3</f>
+        <f t="shared" si="4"/>
         <v>-0.27822351593661143</v>
       </c>
     </row>
@@ -5979,7 +6304,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="D4" s="2">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>2.1920455701352863E-2</v>
       </c>
       <c r="E4" s="2">
@@ -5992,19 +6317,19 @@
         <v>1.7097</v>
       </c>
       <c r="H4" s="2">
-        <f>IF(B4="","",IF(E4="",B4,F4-G4))</f>
+        <f t="shared" si="1"/>
         <v>0.64019999999999988</v>
       </c>
       <c r="I4" s="2">
-        <f>IF(C4="","",IF(F4="",C4,G4-E4))</f>
+        <f t="shared" si="2"/>
         <v>1.859999999999995E-2</v>
       </c>
       <c r="J4" s="2">
-        <f>I4/H4</f>
+        <f t="shared" si="3"/>
         <v>2.9053420805998053E-2</v>
       </c>
       <c r="K4" s="1">
-        <f>(D4-J4)/D4</f>
+        <f t="shared" si="4"/>
         <v>-0.32540222711724764</v>
       </c>
     </row>
@@ -6019,7 +6344,7 @@
         <v>8.0299999999999996E-2</v>
       </c>
       <c r="D5" s="2">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>4.1777222829197234E-2</v>
       </c>
       <c r="E5" s="2">
@@ -6032,19 +6357,19 @@
         <v>1.7274</v>
       </c>
       <c r="H5" s="2">
-        <f>IF(B5="","",IF(E5="",B5,F5-G5))</f>
+        <f t="shared" si="1"/>
         <v>0.62539999999999973</v>
       </c>
       <c r="I5" s="2">
-        <f>IF(C5="","",IF(F5="",C5,G5-E5))</f>
+        <f t="shared" si="2"/>
         <v>2.7000000000000135E-2</v>
       </c>
       <c r="J5" s="2">
-        <f>I5/H5</f>
+        <f t="shared" si="3"/>
         <v>4.3172369683402857E-2</v>
       </c>
       <c r="K5" s="1">
-        <f>(D5-J5)/D5</f>
+        <f t="shared" si="4"/>
         <v>-3.3394916170219523E-2</v>
       </c>
     </row>
@@ -6059,7 +6384,7 @@
         <v>2.06E-2</v>
       </c>
       <c r="D6" s="2">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>1.039983844911147E-2</v>
       </c>
       <c r="E6" s="2">
@@ -6072,19 +6397,19 @@
         <v>1.6948000000000001</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(B6="","",IF(E6="",B6,F6-G6))</f>
+        <f t="shared" si="1"/>
         <v>0.59909999999999974</v>
       </c>
       <c r="I6" s="2">
-        <f>IF(C6="","",IF(F6="",C6,G6-E6))</f>
+        <f t="shared" si="2"/>
         <v>6.1999999999999833E-3</v>
       </c>
       <c r="J6" s="2">
-        <f>I6/H6</f>
+        <f t="shared" si="3"/>
         <v>1.0348856618260701E-2</v>
       </c>
       <c r="K6" s="1">
-        <f>(D6-J6)/D6</f>
+        <f t="shared" si="4"/>
         <v>4.9021752693787675E-3</v>
       </c>
     </row>
@@ -6099,7 +6424,7 @@
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="D7" s="2">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>3.1026498585027013E-2</v>
       </c>
       <c r="E7" s="2">
@@ -6112,19 +6437,19 @@
         <v>1.7164999999999999</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(B7="","",IF(E7="",B7,F7-G7))</f>
+        <f t="shared" si="1"/>
         <v>0.57860000000000023</v>
       </c>
       <c r="I7" s="2">
-        <f>IF(C7="","",IF(F7="",C7,G7-E7))</f>
+        <f t="shared" si="2"/>
         <v>2.0899999999999919E-2</v>
       </c>
       <c r="J7" s="2">
-        <f>I7/H7</f>
+        <f t="shared" si="3"/>
         <v>3.6121673003802125E-2</v>
       </c>
       <c r="K7" s="1">
-        <f>(D7-J7)/D7</f>
+        <f t="shared" si="4"/>
         <v>-0.16422009092685624</v>
       </c>
     </row>
@@ -6139,7 +6464,7 @@
         <v>4.1099999999999998E-2</v>
       </c>
       <c r="D8" s="2">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>2.0913901892937105E-2</v>
       </c>
       <c r="E8" s="2">
@@ -6152,19 +6477,19 @@
         <v>1.7071000000000001</v>
       </c>
       <c r="H8" s="2">
-        <f>IF(B8="","",IF(E8="",B8,F8-G8))</f>
+        <f t="shared" si="1"/>
         <v>0.56469999999999976</v>
       </c>
       <c r="I8" s="2">
-        <f>IF(C8="","",IF(F8="",C8,G8-E8))</f>
+        <f t="shared" si="2"/>
         <v>1.5200000000000102E-2</v>
       </c>
       <c r="J8" s="2">
-        <f>I8/H8</f>
+        <f t="shared" si="3"/>
         <v>2.691694705153198E-2</v>
       </c>
       <c r="K8" s="1">
-        <f>(D8-J8)/D8</f>
+        <f t="shared" si="4"/>
         <v>-0.28703611546643915</v>
       </c>
     </row>
@@ -6179,7 +6504,7 @@
         <v>8.4099999999999994E-2</v>
       </c>
       <c r="D9" s="2">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>4.3690581328900198E-2</v>
       </c>
       <c r="E9" s="2">
@@ -6192,19 +6517,19 @@
         <v>1.7222999999999999</v>
       </c>
       <c r="H9" s="2">
-        <f>IF(B9="","",IF(E9="",B9,F9-G9))</f>
+        <f t="shared" si="1"/>
         <v>0.61029999999999984</v>
       </c>
       <c r="I9" s="2">
-        <f>IF(C9="","",IF(F9="",C9,G9-E9))</f>
+        <f t="shared" si="2"/>
         <v>3.2499999999999973E-2</v>
       </c>
       <c r="J9" s="2">
-        <f>I9/H9</f>
+        <f t="shared" si="3"/>
         <v>5.3252498771096154E-2</v>
       </c>
       <c r="K9" s="1">
-        <f>(D9-J9)/D9</f>
+        <f t="shared" si="4"/>
         <v>-0.21885534939932222</v>
       </c>
     </row>
@@ -6219,7 +6544,7 @@
         <v>0.1043</v>
       </c>
       <c r="D10" s="2">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>5.5054103985220378E-2</v>
       </c>
       <c r="E10" s="2">
@@ -6232,19 +6557,19 @@
         <v>2.6484999999999999</v>
       </c>
       <c r="H10" s="2">
-        <f>IF(B10="","",IF(E10="",B10,F10-G10))</f>
+        <f t="shared" si="1"/>
         <v>1.1005000000000003</v>
       </c>
       <c r="I10" s="2">
-        <f>IF(C10="","",IF(F10="",C10,G10-E10))</f>
+        <f t="shared" si="2"/>
         <v>5.9499999999999886E-2</v>
       </c>
       <c r="J10" s="2">
-        <f>I10/H10</f>
+        <f t="shared" si="3"/>
         <v>5.406633348477953E-2</v>
       </c>
       <c r="K10" s="1">
-        <f>(D10-J10)/D10</f>
+        <f t="shared" si="4"/>
         <v>1.7941814123539648E-2</v>
       </c>
     </row>
@@ -6259,7 +6584,7 @@
         <v>0.19989999999999999</v>
       </c>
       <c r="D11" s="2">
-        <f>C11/B11</f>
+        <f t="shared" si="0"/>
         <v>0.11087077093732668</v>
       </c>
       <c r="E11" s="2">
@@ -6272,19 +6597,19 @@
         <v>2.6947000000000001</v>
       </c>
       <c r="H11" s="2">
-        <f>IF(B11="","",IF(E11="",B11,F11-G11))</f>
+        <f t="shared" si="1"/>
         <v>1.0070999999999999</v>
       </c>
       <c r="I11" s="2">
-        <f>IF(C11="","",IF(F11="",C11,G11-E11))</f>
+        <f t="shared" si="2"/>
         <v>0.1036999999999999</v>
       </c>
       <c r="J11" s="2">
-        <f>I11/H11</f>
+        <f t="shared" si="3"/>
         <v>0.10296892066329055</v>
       </c>
       <c r="K11" s="1">
-        <f>(D11-J11)/D11</f>
+        <f t="shared" si="4"/>
         <v>7.1270815628249828E-2</v>
       </c>
     </row>
@@ -6299,7 +6624,7 @@
         <v>0.31540000000000001</v>
       </c>
       <c r="D12" s="2">
-        <f>C12/B12</f>
+        <f t="shared" si="0"/>
         <v>0.18586834816429962</v>
       </c>
       <c r="E12" s="2">
@@ -6312,19 +6637,19 @@
         <v>2.3302999999999998</v>
       </c>
       <c r="H12" s="2">
-        <f>IF(B12="","",IF(E12="",B12,F12-G12))</f>
+        <f t="shared" si="1"/>
         <v>1.0405000000000002</v>
       </c>
       <c r="I12" s="2">
-        <f>IF(C12="","",IF(F12="",C12,G12-E12))</f>
+        <f t="shared" si="2"/>
         <v>0.19869999999999965</v>
       </c>
       <c r="J12" s="2">
-        <f>I12/H12</f>
+        <f t="shared" si="3"/>
         <v>0.19096588178760174</v>
       </c>
       <c r="K12" s="1">
-        <f>(D12-J12)/D12</f>
+        <f t="shared" si="4"/>
         <v>-2.7425506675273829E-2</v>
       </c>
     </row>
@@ -6339,7 +6664,7 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="D13" s="2">
-        <f>C13/B13</f>
+        <f t="shared" si="0"/>
         <v>0.25405304677309148</v>
       </c>
       <c r="E13" s="2">
@@ -6352,19 +6677,19 @@
         <v>2.4184999999999999</v>
       </c>
       <c r="H13" s="2">
-        <f>IF(B13="","",IF(E13="",B13,F13-G13))</f>
+        <f t="shared" si="1"/>
         <v>1.0005000000000002</v>
       </c>
       <c r="I13" s="2">
-        <f>IF(C13="","",IF(F13="",C13,G13-E13))</f>
+        <f t="shared" si="2"/>
         <v>0.23059999999999992</v>
       </c>
       <c r="J13" s="2">
-        <f>I13/H13</f>
+        <f t="shared" si="3"/>
         <v>0.23048475762118928</v>
       </c>
       <c r="K13" s="1">
-        <f>(D13-J13)/D13</f>
+        <f t="shared" si="4"/>
         <v>9.27691655394801E-2</v>
       </c>
     </row>
@@ -6379,7 +6704,7 @@
         <v>0.1023</v>
       </c>
       <c r="D14" s="2">
-        <f>C14/B14</f>
+        <f t="shared" si="0"/>
         <v>5.3819444444444448E-2</v>
       </c>
       <c r="E14" s="2">
@@ -6392,19 +6717,19 @@
         <v>2.2393000000000001</v>
       </c>
       <c r="H14" s="2">
-        <f>IF(B14="","",IF(E14="",B14,F14-G14))</f>
+        <f t="shared" si="1"/>
         <v>1.1151999999999997</v>
       </c>
       <c r="I14" s="2">
-        <f>IF(C14="","",IF(F14="",C14,G14-E14))</f>
+        <f t="shared" si="2"/>
         <v>5.9299999999999908E-2</v>
       </c>
       <c r="J14" s="2">
-        <f>I14/H14</f>
+        <f t="shared" si="3"/>
         <v>5.3174318507890894E-2</v>
       </c>
       <c r="K14" s="1">
-        <f>(D14-J14)/D14</f>
+        <f t="shared" si="4"/>
         <v>1.1986856111446667E-2</v>
       </c>
     </row>
@@ -6419,7 +6744,7 @@
         <v>0.20419999999999999</v>
       </c>
       <c r="D15" s="2">
-        <f>C15/B15</f>
+        <f t="shared" si="0"/>
         <v>0.11275538376587521</v>
       </c>
       <c r="E15" s="2">
@@ -6432,19 +6757,19 @@
         <v>2.7073999999999998</v>
       </c>
       <c r="H15" s="2">
-        <f>IF(B15="","",IF(E15="",B15,F15-G15))</f>
+        <f t="shared" si="1"/>
         <v>1.0407000000000002</v>
       </c>
       <c r="I15" s="2">
-        <f>IF(C15="","",IF(F15="",C15,G15-E15))</f>
+        <f t="shared" si="2"/>
         <v>0.11589999999999989</v>
       </c>
       <c r="J15" s="2">
-        <f>I15/H15</f>
+        <f t="shared" si="3"/>
         <v>0.11136734889977887</v>
       </c>
       <c r="K15" s="1">
-        <f>(D15-J15)/D15</f>
+        <f t="shared" si="4"/>
         <v>1.2310142715477368E-2</v>
       </c>
     </row>
@@ -6459,7 +6784,7 @@
         <v>0.30009999999999998</v>
       </c>
       <c r="D16" s="2">
-        <f>C16/B16</f>
+        <f t="shared" si="0"/>
         <v>0.17623913554146109</v>
       </c>
       <c r="E16" s="2">
@@ -6472,19 +6797,19 @@
         <v>2.7650999999999999</v>
       </c>
       <c r="H16" s="2">
-        <f>IF(B16="","",IF(E16="",B16,F16-G16))</f>
+        <f t="shared" si="1"/>
         <v>1.0306000000000002</v>
       </c>
       <c r="I16" s="2">
-        <f>IF(C16="","",IF(F16="",C16,G16-E16))</f>
+        <f t="shared" si="2"/>
         <v>0.18789999999999996</v>
       </c>
       <c r="J16" s="2">
-        <f>I16/H16</f>
+        <f t="shared" si="3"/>
         <v>0.18232097807102651</v>
       </c>
       <c r="K16" s="1">
-        <f>(D16-J16)/D16</f>
+        <f t="shared" si="4"/>
         <v>-3.4509035186084655E-2</v>
       </c>
     </row>
@@ -6499,7 +6824,7 @@
         <v>0.4032</v>
       </c>
       <c r="D17" s="2">
-        <f>C17/B17</f>
+        <f t="shared" si="0"/>
         <v>0.25066832452595583</v>
       </c>
       <c r="E17" s="2">
@@ -6512,19 +6837,19 @@
         <v>2.8098999999999998</v>
       </c>
       <c r="H17" s="2">
-        <f>IF(B17="","",IF(E17="",B17,F17-G17))</f>
+        <f t="shared" si="1"/>
         <v>0.99490000000000034</v>
       </c>
       <c r="I17" s="2">
-        <f>IF(C17="","",IF(F17="",C17,G17-E17))</f>
+        <f t="shared" si="2"/>
         <v>0.24479999999999968</v>
       </c>
       <c r="J17" s="2">
-        <f>I17/H17</f>
+        <f t="shared" si="3"/>
         <v>0.24605487988742547</v>
       </c>
       <c r="K17" s="1">
-        <f>(D17-J17)/D17</f>
+        <f t="shared" si="4"/>
         <v>1.8404577631637123E-2</v>
       </c>
     </row>
@@ -6539,7 +6864,7 @@
         <v>0.1007</v>
       </c>
       <c r="D18" s="2">
-        <f>C18/B18</f>
+        <f t="shared" si="0"/>
         <v>5.3106212424849697E-2</v>
       </c>
       <c r="E18" s="2">
@@ -6552,19 +6877,19 @@
         <v>2.1833</v>
       </c>
       <c r="H18" s="2">
-        <f>IF(B18="","",IF(E18="",B18,F18-G18))</f>
+        <f t="shared" si="1"/>
         <v>1.0991</v>
       </c>
       <c r="I18" s="2">
-        <f>IF(C18="","",IF(F18="",C18,G18-E18))</f>
+        <f t="shared" si="2"/>
         <v>5.7799999999999851E-2</v>
       </c>
       <c r="J18" s="2">
-        <f>I18/H18</f>
+        <f t="shared" si="3"/>
         <v>5.258848148485111E-2</v>
       </c>
       <c r="K18" s="1">
-        <f>(D18-J18)/D18</f>
+        <f t="shared" si="4"/>
         <v>9.7489712852564109E-3</v>
       </c>
     </row>
@@ -6579,7 +6904,7 @@
         <v>0.2092</v>
       </c>
       <c r="D19" s="2">
-        <f>C19/B19</f>
+        <f t="shared" si="0"/>
         <v>0.11646809932078833</v>
       </c>
       <c r="E19" s="2">
@@ -6592,19 +6917,19 @@
         <v>2.7025000000000001</v>
       </c>
       <c r="H19" s="2">
-        <f>IF(B19="","",IF(E19="",B19,F19-G19))</f>
+        <f t="shared" si="1"/>
         <v>1.0255000000000001</v>
       </c>
       <c r="I19" s="2">
-        <f>IF(C19="","",IF(F19="",C19,G19-E19))</f>
+        <f t="shared" si="2"/>
         <v>0.1221000000000001</v>
       </c>
       <c r="J19" s="2">
-        <f>I19/H19</f>
+        <f t="shared" si="3"/>
         <v>0.11906387128230141</v>
       </c>
       <c r="K19" s="1">
-        <f>(D19-J19)/D19</f>
+        <f t="shared" si="4"/>
         <v>-2.2287407252723632E-2</v>
       </c>
     </row>
@@ -6619,7 +6944,7 @@
         <v>0.30980000000000002</v>
       </c>
       <c r="D20" s="2">
-        <f>C20/B20</f>
+        <f t="shared" si="0"/>
         <v>0.18216028694067149</v>
       </c>
       <c r="E20" s="2">
@@ -6632,19 +6957,19 @@
         <v>2.718</v>
       </c>
       <c r="H20" s="2">
-        <f>IF(B20="","",IF(E20="",B20,F20-G20))</f>
+        <f t="shared" si="1"/>
         <v>0.97719999999999985</v>
       </c>
       <c r="I20" s="2">
-        <f>IF(C20="","",IF(F20="",C20,G20-E20))</f>
+        <f t="shared" si="2"/>
         <v>0.18259999999999987</v>
       </c>
       <c r="J20" s="2">
-        <f>I20/H20</f>
+        <f t="shared" si="3"/>
         <v>0.18686041751944321</v>
       </c>
       <c r="K20" s="1">
-        <f>(D20-J20)/D20</f>
+        <f t="shared" si="4"/>
         <v>-2.5802169384496667E-2</v>
       </c>
     </row>
@@ -6659,7 +6984,7 @@
         <v>0.42009999999999997</v>
       </c>
       <c r="D21" s="2">
-        <f>C21/B21</f>
+        <f t="shared" si="0"/>
         <v>0.26310515438091059</v>
       </c>
       <c r="E21" s="2">
@@ -6672,19 +6997,19 @@
         <v>2.3988</v>
       </c>
       <c r="H21" s="2">
-        <f>IF(B21="","",IF(E21="",B21,F21-G21))</f>
+        <f t="shared" si="1"/>
         <v>1.0329000000000002</v>
       </c>
       <c r="I21" s="2">
-        <f>IF(C21="","",IF(F21="",C21,G21-E21))</f>
+        <f t="shared" si="2"/>
         <v>0.28500000000000014</v>
       </c>
       <c r="J21" s="2">
-        <f>I21/H21</f>
+        <f t="shared" si="3"/>
         <v>0.27592216090618654</v>
       </c>
       <c r="K21" s="1">
-        <f>(D21-J21)/D21</f>
+        <f t="shared" si="4"/>
         <v>-4.8714387809826516E-2</v>
       </c>
     </row>
@@ -6699,7 +7024,7 @@
         <v>0.1002</v>
       </c>
       <c r="D22" s="2">
-        <f>C22/B22</f>
+        <f t="shared" si="0"/>
         <v>5.2761834553209416E-2</v>
       </c>
       <c r="E22" s="2">
@@ -6712,19 +7037,19 @@
         <v>2.206</v>
       </c>
       <c r="H22" s="2">
-        <f>IF(B22="","",IF(E22="",B22,F22-G22))</f>
+        <f t="shared" si="1"/>
         <v>1.0927000000000002</v>
       </c>
       <c r="I22" s="2">
-        <f>IF(C22="","",IF(F22="",C22,G22-E22))</f>
+        <f t="shared" si="2"/>
         <v>5.7999999999999829E-2</v>
       </c>
       <c r="J22" s="2">
-        <f>I22/H22</f>
+        <f t="shared" si="3"/>
         <v>5.3079527775235488E-2</v>
       </c>
       <c r="K22" s="1">
-        <f>(D22-J22)/D22</f>
+        <f t="shared" si="4"/>
         <v>-6.0212694406159006E-3</v>
       </c>
     </row>
@@ -6739,7 +7064,7 @@
         <v>0.20180000000000001</v>
       </c>
       <c r="D23" s="2">
-        <f>C23/B23</f>
+        <f t="shared" si="0"/>
         <v>0.11231077471059663</v>
       </c>
       <c r="E23" s="2">
@@ -6752,19 +7077,19 @@
         <v>2.2587000000000002</v>
       </c>
       <c r="H23" s="2">
-        <f>IF(B23="","",IF(E23="",B23,F23-G23))</f>
+        <f t="shared" si="1"/>
         <v>1.1057999999999999</v>
       </c>
       <c r="I23" s="2">
-        <f>IF(C23="","",IF(F23="",C23,G23-E23))</f>
+        <f t="shared" si="2"/>
         <v>0.10329999999999995</v>
       </c>
       <c r="J23" s="2">
-        <f>I23/H23</f>
+        <f t="shared" si="3"/>
         <v>9.3416531018267274E-2</v>
       </c>
       <c r="K23" s="1">
-        <f>(D23-J23)/D23</f>
+        <f t="shared" si="4"/>
         <v>0.16823179913963021</v>
       </c>
     </row>
@@ -6779,7 +7104,7 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="D24" s="2">
-        <f>C24/B24</f>
+        <f t="shared" si="0"/>
         <v>0.2169043970293528</v>
       </c>
       <c r="E24" s="2">
@@ -6792,19 +7117,19 @@
         <v>2.4327999999999999</v>
       </c>
       <c r="H24" s="2">
-        <f>IF(B24="","",IF(E24="",B24,F24-G24))</f>
+        <f t="shared" si="1"/>
         <v>1.0256000000000003</v>
       </c>
       <c r="I24" s="2">
-        <f>IF(C24="","",IF(F24="",C24,G24-E24))</f>
+        <f t="shared" si="2"/>
         <v>0.22059999999999969</v>
       </c>
       <c r="J24" s="2">
-        <f>I24/H24</f>
+        <f t="shared" si="3"/>
         <v>0.2150936037441494</v>
       </c>
       <c r="K24" s="1">
-        <f>(D24-J24)/D24</f>
+        <f t="shared" si="4"/>
         <v>8.3483475208589071E-3</v>
       </c>
     </row>
@@ -6819,7 +7144,7 @@
         <v>0.40839999999999999</v>
       </c>
       <c r="D25" s="2">
-        <f>C25/B25</f>
+        <f t="shared" si="0"/>
         <v>0.25532979055954985</v>
       </c>
       <c r="E25" s="2">
@@ -6832,19 +7157,19 @@
         <v>2.4201999999999999</v>
       </c>
       <c r="H25" s="2">
-        <f>IF(B25="","",IF(E25="",B25,F25-G25))</f>
+        <f t="shared" si="1"/>
         <v>1.0094000000000003</v>
       </c>
       <c r="I25" s="2">
-        <f>IF(C25="","",IF(F25="",C25,G25-E25))</f>
+        <f t="shared" si="2"/>
         <v>0.2647999999999997</v>
       </c>
       <c r="J25" s="2">
-        <f>I25/H25</f>
+        <f t="shared" si="3"/>
         <v>0.26233405983752689</v>
       </c>
       <c r="K25" s="1">
-        <f>(D25-J25)/D25</f>
+        <f t="shared" si="4"/>
         <v>-2.7432244637914476E-2</v>
       </c>
     </row>
@@ -6852,244 +7177,1417 @@
       <c r="A26" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="e">
-        <f t="shared" ref="D26:D33" si="0">C26/B26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2" t="str">
-        <f t="shared" ref="H26:H33" si="1">IF(B26="","",IF(E26="",B26,F26-G26))</f>
-        <v/>
-      </c>
-      <c r="I26" s="2" t="str">
-        <f t="shared" ref="I26:I33" si="2">IF(C26="","",IF(F26="",C26,G26-E26))</f>
-        <v/>
-      </c>
-      <c r="J26" s="2" t="e">
-        <f t="shared" ref="J26:J33" si="3">I26/H26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K26" s="1" t="e">
-        <f t="shared" ref="K26:K33" si="4">(D26-J26)/D26</f>
-        <v>#DIV/0!</v>
+      <c r="B26" s="2">
+        <v>3.9599000000000002</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:D33" si="5">C26/B26</f>
+        <v>1.1111391701810651E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.1720999999999999</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3.1536</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2.1863999999999999</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" ref="H26:H33" si="6">IF(B26="","",IF(E26="",B26,F26-G26))</f>
+        <v>0.96720000000000006</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" ref="I26:I33" si="7">IF(C26="","",IF(F26="",C26,G26-E26))</f>
+        <v>1.4299999999999979E-2</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ref="J26:J33" si="8">I26/H26</f>
+        <v>1.4784946236559118E-2</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" ref="K26:K33" si="9">(D26-J26)/D26</f>
+        <v>-0.33061155913978307</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>164</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J27" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K27" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="B27" s="2">
+        <v>3.8832</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="5"/>
+        <v>3.2344458178821589E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.5794000000000001</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3.5078999999999998</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2.6126</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="6"/>
+        <v>0.89529999999999976</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="7"/>
+        <v>3.3199999999999896E-2</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="8"/>
+        <v>3.7082542164637446E-2</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="9"/>
+        <v>-0.14648827813471446</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J28" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K28" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="B28" s="2">
+        <v>3.8012000000000001</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.20219999999999999</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="5"/>
+        <v>5.3193728296327472E-2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.1756000000000002</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3.1850999999999998</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="6"/>
+        <v>0.95209999999999972</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="7"/>
+        <v>5.7399999999999896E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="8"/>
+        <v>6.0287784896544391E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="9"/>
+        <v>-0.13336265058726288</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J29" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="B29" s="2">
+        <v>3.7269999999999999</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.28420000000000001</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="5"/>
+        <v>7.6254360075127453E-2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.5506000000000002</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3.5087000000000002</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2.6269999999999998</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="6"/>
+        <v>0.88170000000000037</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="7"/>
+        <v>7.6399999999999579E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="8"/>
+        <v>8.6650788249971133E-2</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="9"/>
+        <v>-0.13633880298255593</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J30" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="B30" s="2">
+        <v>3.9563000000000001</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0843464853524758E-2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.1627000000000001</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3.1823000000000001</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2.1736</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0087000000000002</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="7"/>
+        <v>1.089999999999991E-2</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="8"/>
+        <v>1.0805987905224456E-2</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="9"/>
+        <v>3.4561783347432993E-3</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>168</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J31" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="B31" s="2">
+        <v>3.9163999999999999</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1550403431723011E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.1936</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3.1943999999999999</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2.2168000000000001</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="6"/>
+        <v>0.9775999999999998</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="7"/>
+        <v>2.3200000000000109E-2</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="8"/>
+        <v>2.3731587561374914E-2</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="9"/>
+        <v>-0.10121314603517433</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>169</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J32" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K32" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="B32" s="2">
+        <v>3.8834</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.1235</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="5"/>
+        <v>3.1802029149714167E-2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.1938</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3.2025000000000001</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="6"/>
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="7"/>
+        <v>3.1200000000000117E-2</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="8"/>
+        <v>3.1918158567775051E-2</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="9"/>
+        <v>-3.651635482571961E-3</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J33" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="B33" s="2">
+        <v>3.8393000000000002</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="5"/>
+        <v>4.1153335243403741E-2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.5407000000000002</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3.5122</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2.5807000000000002</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="6"/>
+        <v>0.93149999999999977</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="8"/>
+        <v>4.2941492216854588E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="9"/>
+        <v>-4.3451082709935675E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3.8007</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.1983</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" ref="D34:D41" si="10">C34/B34</f>
+        <v>5.2174599415897076E-2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2.1934</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3.2058</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2.2439</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" ref="H34:H41" si="11">IF(B34="","",IF(E34="",B34,F34-G34))</f>
+        <v>0.96189999999999998</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" ref="I34:I41" si="12">IF(C34="","",IF(F34="",C34,G34-E34))</f>
+        <v>5.0499999999999989E-2</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" ref="J34:J41" si="13">I34/H34</f>
+        <v>5.2500259902276733E-2</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" ref="K34:K41" si="14">(D34-J34)/D34</f>
+        <v>-6.2417438758606307E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3.722</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="10"/>
+        <v>7.5040300913487373E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2.1795</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3.2111999999999998</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2.2561</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="11"/>
+        <v>0.95509999999999984</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="12"/>
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="13"/>
+        <v>8.0201026070568546E-2</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="14"/>
+        <v>-6.8772714051758402E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3.9603999999999999</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="10"/>
+        <v>9.8727401272598742E-3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2.1613000000000002</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2.1726000000000001</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="11"/>
+        <v>1.0194000000000001</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="12"/>
+        <v>1.1299999999999866E-2</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="13"/>
+        <v>1.1084951932509187E-2</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.12278372464218358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3.9201999999999999</v>
+      </c>
+      <c r="C37" s="2">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="10"/>
+        <v>2.0458139890821896E-2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2.1324000000000001</v>
+      </c>
+      <c r="F37" s="2">
+        <v>3.1528</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2.1515</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="11"/>
+        <v>1.0013000000000001</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="12"/>
+        <v>1.9099999999999895E-2</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="13"/>
+        <v>1.9075202237091676E-2</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="14"/>
+        <v>6.7598406361012581E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3.8834</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.1226</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="10"/>
+        <v>3.1570273471700057E-2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2.1859999999999999</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3.1979000000000002</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2.2176</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="11"/>
+        <v>0.98030000000000017</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="12"/>
+        <v>3.1600000000000072E-2</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="13"/>
+        <v>3.2235030092828791E-2</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.105640997138113E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3.843</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.16009999999999999</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="10"/>
+        <v>4.1660161332292479E-2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.1501999999999999</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3.1511</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2.1852999999999998</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="11"/>
+        <v>0.96580000000000021</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="12"/>
+        <v>3.5099999999999909E-2</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="13"/>
+        <v>3.6342928142472461E-2</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="14"/>
+        <v>0.12763352372566103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3.8003</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.19950000000000001</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="10"/>
+        <v>5.2495855590348132E-2</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2.1669</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3.2016</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2.2010999999999998</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="11"/>
+        <v>1.0005000000000002</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="12"/>
+        <v>3.4199999999999786E-2</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="13"/>
+        <v>3.418290854572692E-2</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="14"/>
+        <v>0.34884557721139847</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3.7229000000000001</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.2802</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="10"/>
+        <v>7.526390716914233E-2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="F41" s="2">
+        <v>3.1932999999999998</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2.2256999999999998</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="11"/>
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="12"/>
+        <v>4.9699999999999633E-2</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="13"/>
+        <v>5.1364200082678411E-2</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="14"/>
+        <v>0.31754539440469853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42:D45" si="15">0.5*C42/(B42+C42)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="2">
+        <f>IF(B42="","",IF(E42="",B42+C42,F42-G42))</f>
+        <v>2.02</v>
+      </c>
+      <c r="I42" s="2">
+        <f>IF(C42="","",IF(F42="",C42*0.5,G42-E42))</f>
+        <v>1.01</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" ref="J42:J45" si="16">I42/H42</f>
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" ref="K42:K45" si="17">(D42-J42)/D42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.79810000000000003</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1.2024999999999999</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="15"/>
+        <v>0.30053483954813554</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" ref="H43:H45" si="18">IF(B43="","",IF(E43="",B43+C43,F43-G43))</f>
+        <v>2.0005999999999999</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" ref="I43:I45" si="19">IF(C43="","",IF(F43="",C43*0.5,G43-E43))</f>
+        <v>0.60124999999999995</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" ref="J43:J45" si="20">I43/H43</f>
+        <v>0.30053483954813554</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" ref="K43:K45" si="21">(D43-J43)/D43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1.597</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.40439999999999998</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10102927950434697</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="18"/>
+        <v>2.0013999999999998</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="19"/>
+        <v>0.20219999999999999</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="20"/>
+        <v>0.10102927950434697</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.798</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="15"/>
+        <v>5.1732734978808273E-2</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="18"/>
+        <v>2.0055000000000001</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="19"/>
+        <v>0.10375</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="20"/>
+        <v>5.1732734978808273E-2</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2.0023</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" ref="D46:D49" si="22">0.5*C46/(B46+C46)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" ref="H46:H49" si="23">IF(B46="","",IF(E46="",B46+C46,F46-G46))</f>
+        <v>2.0023</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" ref="I46:I49" si="24">IF(C46="","",IF(F46="",C46*0.5,G46-E46))</f>
+        <v>1.00115</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" ref="J46:J49" si="25">I46/H46</f>
+        <v>0.5</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" ref="K46:K49" si="26">(D46-J46)/D46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.79979999999999996</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="22"/>
+        <v>0.30102497760971242</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="23"/>
+        <v>2.0097999999999998</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="24"/>
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="25"/>
+        <v>0.30102497760971242</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.6218999999999999</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.41139999999999999</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="22"/>
+        <v>0.1011655928785718</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="23"/>
+        <v>2.0332999999999997</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="24"/>
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="25"/>
+        <v>0.1011655928785718</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1.7941</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="22"/>
+        <v>5.178874787648647E-2</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="23"/>
+        <v>2.0013999999999998</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="24"/>
+        <v>0.10365000000000001</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="25"/>
+        <v>5.178874787648647E-2</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF2F39C-D11D-4E2A-8159-8E8BA276F6D7}">
+  <dimension ref="A1:M145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.42578125" style="2"/>
+    <col min="13" max="13" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="2" t="e">
+        <f t="shared" ref="D2:D65" si="0">C2/B2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>IF(B2="","",IF(E2="",B2,F2-G2))</f>
+        <v/>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>IF(C2="","",IF(F2="",C2,G2-E2))</f>
+        <v/>
+      </c>
+      <c r="J2" s="2" t="e">
+        <f>I2/H2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K2" s="1" t="e">
+        <f t="shared" ref="K2:K65" si="1">(D2-J2)/D2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="1"/>
+      <c r="M3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="1"/>
+      <c r="M4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K129" s="1"/>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K134" s="1"/>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K135" s="1"/>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K137" s="1"/>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K138" s="1"/>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K139" s="1"/>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K140" s="1"/>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K141" s="1"/>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K142" s="1"/>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K145" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/NMR_weights.xlsx
+++ b/Data/NMR_weights.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hephaistos\Documents\NMR_GUI\NMRDataGui\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\nmr\Python_Scripts_GUI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D1A550-5EE2-4E57-887A-4C4CE73BAA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FE5210-A2F7-4C38-9236-3B95105814FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{378B74E6-3878-479E-B354-1180E1B108DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{378B74E6-3878-479E-B354-1180E1B108DE}"/>
   </bookViews>
   <sheets>
     <sheet name="AM_AcomArea" sheetId="3" r:id="rId1"/>
@@ -974,9 +974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9562FCD5-922A-4647-AC42-CB794B9B6660}">
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,21 +2400,30 @@
         <f t="shared" ref="D46:D92" si="9">C46/B46</f>
         <v>5.4297693920335434E-2</v>
       </c>
+      <c r="E46" s="2">
+        <v>1.706</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2.4719000000000002</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1.7354000000000001</v>
+      </c>
       <c r="H46" s="2">
         <f t="shared" ref="H46:H91" si="10">IF(B46="","",IF(E46="",B46,F46-G46))</f>
-        <v>1.9079999999999999</v>
+        <v>0.73650000000000015</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" ref="I46:I91" si="11">IF(C46="","",IF(F46="",C46,G46-E46))</f>
-        <v>0.1036</v>
+        <v>2.9400000000000093E-2</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" ref="J46:J92" si="12">I46/H46</f>
-        <v>5.4297693920335434E-2</v>
+        <v>3.9918533604888104E-2</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" ref="K46:K92" si="13">(D46-J46)/D46</f>
-        <v>0</v>
+        <v>0.26482082897561299</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2431,21 +2440,30 @@
         <f t="shared" si="9"/>
         <v>0.11929258661920916</v>
       </c>
+      <c r="E47" s="2">
+        <v>1.7145999999999999</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2.5015999999999998</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1.7846</v>
+      </c>
       <c r="H47" s="2">
         <f t="shared" si="10"/>
-        <v>1.7981</v>
+        <v>0.71699999999999986</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="11"/>
-        <v>0.2145</v>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="12"/>
-        <v>0.11929258661920916</v>
+        <v>9.7629009762901078E-2</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.18160036151667863</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2462,21 +2480,30 @@
         <f t="shared" si="9"/>
         <v>0.18586310399623332</v>
       </c>
+      <c r="E48" s="2">
+        <v>1.7241</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2.5348000000000002</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1.8342000000000001</v>
+      </c>
       <c r="H48" s="2">
         <f t="shared" si="10"/>
-        <v>1.6991000000000001</v>
+        <v>0.70060000000000011</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="11"/>
-        <v>0.31580000000000003</v>
+        <v>0.11010000000000009</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="12"/>
-        <v>0.18586310399623332</v>
+        <v>0.15715101341707119</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.15447977550048883</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2648,21 +2675,30 @@
         <f t="shared" si="9"/>
         <v>5.8483830323393528E-2</v>
       </c>
+      <c r="E54" s="2">
+        <v>1.7143999999999999</v>
+      </c>
+      <c r="F54" s="2">
+        <v>2.4876999999999998</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1.7533000000000001</v>
+      </c>
       <c r="H54" s="2">
         <f t="shared" si="10"/>
-        <v>1.9048</v>
+        <v>0.73439999999999972</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" si="11"/>
-        <v>0.1114</v>
+        <v>3.8900000000000157E-2</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="12"/>
-        <v>5.8483830323393528E-2</v>
+        <v>5.2968409586056878E-2</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.4306763199989693E-2</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2679,21 +2715,30 @@
         <f t="shared" si="9"/>
         <v>0.11246133451171011</v>
       </c>
+      <c r="E55" s="2">
+        <v>1.7157</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2.5059</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1.7965</v>
+      </c>
       <c r="H55" s="2">
         <f t="shared" si="10"/>
-        <v>1.8104</v>
+        <v>0.70940000000000003</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" si="11"/>
-        <v>0.2036</v>
+        <v>8.0799999999999983E-2</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="12"/>
-        <v>0.11246133451171011</v>
+        <v>0.11389906963631234</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-1.2784261638408014E-2</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2710,21 +2755,30 @@
         <f t="shared" si="9"/>
         <v>0.17588851806311845</v>
       </c>
+      <c r="E56" s="2">
+        <v>1.7135</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2.5177999999999998</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1.8251999999999999</v>
+      </c>
       <c r="H56" s="2">
         <f t="shared" ref="H56" si="14">IF(B56="","",IF(E56="",B56,F56-G56))</f>
-        <v>1.7079</v>
+        <v>0.69259999999999988</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" ref="I56" si="15">IF(C56="","",IF(F56="",C56,G56-E56))</f>
-        <v>0.3004</v>
+        <v>0.11169999999999991</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" ref="J56" si="16">I56/H56</f>
-        <v>0.17588851806311845</v>
+        <v>0.16127634998556156</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" ref="K56" si="17">(D56-J56)/D56</f>
-        <v>0</v>
+        <v>8.3076304459585235E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2741,21 +2795,30 @@
         <f>C56/B57</f>
         <v>0.18678107318286388</v>
       </c>
+      <c r="E57" s="2">
+        <v>1.718</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2.5493999999999999</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1.8479000000000001</v>
+      </c>
       <c r="H57" s="2">
         <f t="shared" si="10"/>
-        <v>1.6083000000000001</v>
+        <v>0.70149999999999979</v>
       </c>
       <c r="I57" s="2">
         <f>IF(C56="","",IF(F57="",C56,G57-E57))</f>
-        <v>0.3004</v>
+        <v>0.12990000000000013</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="12"/>
-        <v>0.18678107318286388</v>
+        <v>0.1851746258018534</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8.6006968138454109E-3</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3478,7 +3541,7 @@
         <v>0.7542000000000002</v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" si="11"/>
+        <f>IF(C78="","",IF(F78="",C78,G78-E78))</f>
         <v>3.8699999999999957E-2</v>
       </c>
       <c r="J78" s="2">
@@ -3558,7 +3621,7 @@
         <v>0.71360000000000001</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="11"/>
+        <f>IF(C80="","",IF(F80="",C80,G80-E80))</f>
         <v>0.123</v>
       </c>
       <c r="J80" s="2">
@@ -5314,11 +5377,11 @@
         <v>1.8856999999999999</v>
       </c>
       <c r="H124" s="2">
-        <f t="shared" ref="H124:H155" si="23">IF(B124="","",IF(E124="",B124,F124-G124))</f>
+        <f t="shared" ref="H124:H134" si="23">IF(B124="","",IF(E124="",B124,F124-G124))</f>
         <v>0.65730000000000022</v>
       </c>
       <c r="I124" s="2">
-        <f t="shared" ref="I124:I143" si="24">IF(C124="","",IF(F124="",C124,G124-E124))</f>
+        <f t="shared" ref="I124:I134" si="24">IF(C124="","",IF(F124="",C124,G124-E124))</f>
         <v>0.16189999999999993</v>
       </c>
       <c r="J124" s="2">
@@ -5341,7 +5404,7 @@
         <v>0.4042</v>
       </c>
       <c r="D125" s="2">
-        <f t="shared" ref="D125:D156" si="25">C125/B125</f>
+        <f t="shared" ref="D125:D143" si="25">C125/B125</f>
         <v>0.25127440009946539</v>
       </c>
       <c r="E125" s="2">
@@ -5362,11 +5425,11 @@
         <v>0.19159999999999999</v>
       </c>
       <c r="J125" s="2">
-        <f t="shared" ref="J125:J156" si="26">I125/H125</f>
+        <f t="shared" ref="J125:J134" si="26">I125/H125</f>
         <v>0.27612047845510879</v>
       </c>
       <c r="K125" s="1">
-        <f t="shared" ref="K125:K156" si="27">(D125-J125)/D125</f>
+        <f t="shared" ref="K125:K134" si="27">(D125-J125)/D125</f>
         <v>-9.8880261362909366E-2</v>
       </c>
     </row>
@@ -7836,11 +7899,11 @@
         <v>1.01</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" ref="J42:J45" si="16">I42/H42</f>
+        <f t="shared" ref="J42" si="16">I42/H42</f>
         <v>0.5</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" ref="K42:K45" si="17">(D42-J42)/D42</f>
+        <f t="shared" ref="K42" si="17">(D42-J42)/D42</f>
         <v>0</v>
       </c>
     </row>
@@ -8071,7 +8134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF2F39C-D11D-4E2A-8159-8E8BA276F6D7}">
   <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
@@ -8128,7 +8191,7 @@
         <v>82</v>
       </c>
       <c r="D2" s="2" t="e">
-        <f t="shared" ref="D2:D65" si="0">C2/B2</f>
+        <f t="shared" ref="D2" si="0">C2/B2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H2" s="2" t="str">
@@ -8144,7 +8207,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K2" s="1" t="e">
-        <f t="shared" ref="K2:K65" si="1">(D2-J2)/D2</f>
+        <f t="shared" ref="K2" si="1">(D2-J2)/D2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M2" s="3" t="s">

--- a/Data/NMR_weights.xlsx
+++ b/Data/NMR_weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\nmr\Python_Scripts_GUI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FE5210-A2F7-4C38-9236-3B95105814FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C87893F-D91E-41D1-B207-6535A4131A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{378B74E6-3878-479E-B354-1180E1B108DE}"/>
+    <workbookView xWindow="-19320" yWindow="-2340" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{378B74E6-3878-479E-B354-1180E1B108DE}"/>
   </bookViews>
   <sheets>
     <sheet name="AM_AcomArea" sheetId="3" r:id="rId1"/>
@@ -972,11 +972,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9562FCD5-922A-4647-AC42-CB794B9B6660}">
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,8 +1033,8 @@
         <v>9.9199999999999997E-2</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2" si="0">C2/B2</f>
-        <v>5.2508998517891169E-2</v>
+        <f>C2/(B2+C2)</f>
+        <v>4.9889358278012469E-2</v>
       </c>
       <c r="H2" s="2">
         <f>IF(B2="","",IF(E2="",B2,F2-G2))</f>
@@ -1045,11 +1045,11 @@
         <v>9.9199999999999997E-2</v>
       </c>
       <c r="J2" s="2">
-        <f>I2/H2</f>
-        <v>5.2508998517891169E-2</v>
+        <f>I2/(H2+I2)</f>
+        <v>4.9889358278012469E-2</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" ref="K2" si="1">(D2-J2)/D2</f>
+        <f t="shared" ref="K2" si="0">(D2-J2)/D2</f>
         <v>0</v>
       </c>
     </row>
@@ -1064,20 +1064,20 @@
         <v>0.2072</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3" si="2">C3/B3</f>
-        <v>0.11493870305652631</v>
+        <f t="shared" ref="D3:D66" si="1">C3/(B3+C3)</f>
+        <v>0.10308970595552017</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H45" si="3">IF(B3="","",IF(E3="",B3,F3-G3))</f>
+        <f t="shared" ref="H3:H45" si="2">IF(B3="","",IF(E3="",B3,F3-G3))</f>
         <v>1.8027</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I45" si="4">IF(C3="","",IF(F3="",C3,G3-E3))</f>
+        <f t="shared" ref="I3:I45" si="3">IF(C3="","",IF(F3="",C3,G3-E3))</f>
         <v>0.2072</v>
       </c>
       <c r="J3" s="2">
-        <f>I3/H3</f>
-        <v>0.11493870305652631</v>
+        <f t="shared" ref="J3:J66" si="4">I3/(H3+I3)</f>
+        <v>0.10308970595552017</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3" si="5">(D3-J3)/D3</f>
@@ -1095,23 +1095,23 @@
         <v>0.40029999999999999</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D45" si="6">C4/B4</f>
-        <v>0.249252801992528</v>
+        <f t="shared" si="1"/>
+        <v>0.1995215072521557</v>
       </c>
       <c r="H4" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="I4" s="2">
         <f t="shared" si="3"/>
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="4"/>
         <v>0.40029999999999999</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J45" si="7">I4/H4</f>
-        <v>0.249252801992528</v>
+        <f t="shared" si="4"/>
+        <v>0.1995215072521557</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K45" si="8">(D4-J4)/D4</f>
+        <f t="shared" ref="K4:K45" si="6">(D4-J4)/D4</f>
         <v>0</v>
       </c>
     </row>
@@ -1126,23 +1126,23 @@
         <v>0.60860000000000003</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30167542381282836</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4088000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.60860000000000003</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.30167542381282836</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="6"/>
-        <v>0.43199886428165818</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="3"/>
-        <v>1.4088000000000001</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="4"/>
-        <v>0.60860000000000003</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="7"/>
-        <v>0.43199886428165818</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1157,23 +1157,23 @@
         <v>0.19980000000000001</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>9.959126707207655E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8064</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19980000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>9.959126707207655E-2</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="6"/>
-        <v>0.11060673162090345</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8064</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.19980000000000001</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11060673162090345</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1188,23 +1188,23 @@
         <v>0.29970000000000002</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14931247508967715</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7075</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29970000000000002</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.14931247508967715</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="6"/>
-        <v>0.17551976573938508</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="3"/>
-        <v>1.7075</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="4"/>
-        <v>0.29970000000000002</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="7"/>
-        <v>0.17551976573938508</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1219,23 +1219,23 @@
         <v>0.60609999999999997</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30149728896184647</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4041999999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.30149728896184647</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="6"/>
-        <v>0.43163367041731948</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="3"/>
-        <v>1.4041999999999999</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="4"/>
-        <v>0.60609999999999997</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="7"/>
-        <v>0.43163367041731948</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1250,23 +1250,23 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1281,23 +1281,23 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="1" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1312,23 +1312,23 @@
         <v>0.2059</v>
       </c>
       <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10270351157222667</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7988999999999999</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2059</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10270351157222667</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="6"/>
-        <v>0.11445883595530602</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="3"/>
-        <v>1.7988999999999999</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2059</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11445883595530602</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1343,23 +1343,23 @@
         <v>0.1996</v>
       </c>
       <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9700299700299713E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8024</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1996</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
+        <v>9.9700299700299713E-2</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="6"/>
-        <v>0.11074123391034177</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8024</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1996</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11074123391034177</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1374,23 +1374,23 @@
         <v>0.20480000000000001</v>
       </c>
       <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10181962811971761</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8066</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10181962811971761</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="6"/>
-        <v>0.11336211668327245</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8066</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="4"/>
-        <v>0.20480000000000001</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11336211668327245</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1405,23 +1405,23 @@
         <v>0.2006</v>
       </c>
       <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10005486557933063</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8043</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2006</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10005486557933063</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="6"/>
-        <v>0.11117885052374882</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8043</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2006</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11117885052374882</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1436,23 +1436,23 @@
         <v>0.1018</v>
       </c>
       <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0851690893651033E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9000999999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1018</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="4"/>
+        <v>5.0851690893651033E-2</v>
+      </c>
+      <c r="K15" s="1">
         <f t="shared" si="6"/>
-        <v>5.3576127572233047E-2</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="3"/>
-        <v>1.9000999999999999</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1018</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="7"/>
-        <v>5.3576127572233047E-2</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1467,23 +1467,23 @@
         <v>0.1996</v>
       </c>
       <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9456873785440242E-2</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8072999999999999</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1996</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="4"/>
+        <v>9.9456873785440242E-2</v>
+      </c>
+      <c r="K16" s="1">
         <f t="shared" si="6"/>
-        <v>0.11044098932108672</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8072999999999999</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1996</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11044098932108672</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1498,23 +1498,23 @@
         <v>0.3054</v>
       </c>
       <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15179680898653017</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7064999999999999</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.3054</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="4"/>
+        <v>0.15179680898653017</v>
+      </c>
+      <c r="K17" s="1">
         <f t="shared" si="6"/>
-        <v>0.17896278933489601</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="3"/>
-        <v>1.7064999999999999</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="4"/>
-        <v>0.3054</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="7"/>
-        <v>0.17896278933489601</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1529,23 +1529,23 @@
         <v>0.39879999999999999</v>
       </c>
       <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19905165959570753</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6047</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.39879999999999999</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="4"/>
+        <v>0.19905165959570753</v>
+      </c>
+      <c r="K18" s="1">
         <f t="shared" si="6"/>
-        <v>0.24851997258054465</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="3"/>
-        <v>1.6047</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="4"/>
-        <v>0.39879999999999999</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="7"/>
-        <v>0.24851997258054465</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1560,23 +1560,23 @@
         <v>0.60209999999999997</v>
       </c>
       <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29967151104917378</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4071</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.60209999999999997</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29967151104917378</v>
+      </c>
+      <c r="K19" s="1">
         <f t="shared" si="6"/>
-        <v>0.42790135740174823</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="3"/>
-        <v>1.4071</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="4"/>
-        <v>0.60209999999999997</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="7"/>
-        <v>0.42790135740174823</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1591,23 +1591,23 @@
         <v>0.1008</v>
       </c>
       <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>5.014176988509178E-2</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9095</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1008</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="4"/>
+        <v>5.014176988509178E-2</v>
+      </c>
+      <c r="K20" s="1">
         <f t="shared" si="6"/>
-        <v>5.2788688138256087E-2</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="3"/>
-        <v>1.9095</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1008</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="7"/>
-        <v>5.2788688138256087E-2</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1622,23 +1622,23 @@
         <v>0.20080000000000001</v>
       </c>
       <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10031473247739421</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8008999999999999</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10031473247739421</v>
+      </c>
+      <c r="K21" s="1">
         <f t="shared" si="6"/>
-        <v>0.1114998056527292</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8008999999999999</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="4"/>
-        <v>0.20080000000000001</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1114998056527292</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1653,23 +1653,23 @@
         <v>0.30259999999999998</v>
       </c>
       <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15146661327460206</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6952</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.30259999999999998</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.15146661327460206</v>
+      </c>
+      <c r="K22" s="1">
         <f t="shared" si="6"/>
-        <v>0.1785040113260972</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="3"/>
-        <v>1.6952</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="4"/>
-        <v>0.30259999999999998</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1785040113260972</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1684,23 +1684,23 @@
         <v>0.40920000000000001</v>
       </c>
       <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20370370370370372</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5995999999999999</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="3"/>
+        <v>0.40920000000000001</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="4"/>
+        <v>0.20370370370370372</v>
+      </c>
+      <c r="K23" s="1">
         <f t="shared" si="6"/>
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="3"/>
-        <v>1.5995999999999999</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="4"/>
-        <v>0.40920000000000001</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="7"/>
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1715,23 +1715,23 @@
         <v>0.60119999999999996</v>
       </c>
       <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30124768251741241</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3945000000000001</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>0.60119999999999996</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="4"/>
+        <v>0.30124768251741241</v>
+      </c>
+      <c r="K24" s="1">
         <f t="shared" si="6"/>
-        <v>0.43112226604517745</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="3"/>
-        <v>1.3945000000000001</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="4"/>
-        <v>0.60119999999999996</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="7"/>
-        <v>0.43112226604517745</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1746,23 +1746,23 @@
         <v>0.2069</v>
       </c>
       <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10294556672305703</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8028999999999999</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2069</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10294556672305703</v>
+      </c>
+      <c r="K25" s="1">
         <f t="shared" si="6"/>
-        <v>0.11475955405180543</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8028999999999999</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2069</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11475955405180543</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1777,23 +1777,23 @@
         <v>0.20230000000000001</v>
       </c>
       <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10106914468425261</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7992999999999999</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10106914468425261</v>
+      </c>
+      <c r="K26" s="1">
         <f t="shared" si="6"/>
-        <v>0.11243261268270996</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="3"/>
-        <v>1.7992999999999999</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="4"/>
-        <v>0.20230000000000001</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11243261268270996</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1808,23 +1808,23 @@
         <v>0.20180000000000001</v>
       </c>
       <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10091009100910091</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="2"/>
+        <v>1.798</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20180000000000001</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10091009100910091</v>
+      </c>
+      <c r="K27" s="1">
         <f t="shared" si="6"/>
-        <v>0.11223581757508343</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="3"/>
-        <v>1.798</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="4"/>
-        <v>0.20180000000000001</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11223581757508343</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1839,23 +1839,23 @@
         <v>0.20849999999999999</v>
       </c>
       <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10403153377906396</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7957000000000001</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20849999999999999</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10403153377906396</v>
+      </c>
+      <c r="K28" s="1">
         <f t="shared" si="6"/>
-        <v>0.11611070891574315</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="3"/>
-        <v>1.7957000000000001</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="4"/>
-        <v>0.20849999999999999</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11611070891574315</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1870,23 +1870,23 @@
         <v>0.21149999999999999</v>
       </c>
       <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10501489572989077</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8025</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10501489572989077</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="6"/>
-        <v>0.11733703190013869</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8025</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="4"/>
-        <v>0.21149999999999999</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11733703190013869</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1901,23 +1901,23 @@
         <v>0.2024</v>
       </c>
       <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10059142189751999</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8097000000000001</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2024</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10059142189751999</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="6"/>
-        <v>0.11184174172514781</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8097000000000001</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2024</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11184174172514781</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1932,23 +1932,23 @@
         <v>0.2092</v>
       </c>
       <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10417807878093721</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7988999999999999</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2092</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10417807878093721</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="6"/>
-        <v>0.11629329034409917</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="3"/>
-        <v>1.7988999999999999</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2092</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11629329034409917</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1963,23 +1963,23 @@
         <v>0.2114</v>
       </c>
       <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10527888446215139</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7966</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2114</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10527888446215139</v>
+      </c>
+      <c r="K32" s="1">
         <f t="shared" si="6"/>
-        <v>0.11766670377379496</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="3"/>
-        <v>1.7966</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2114</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11766670377379496</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1994,23 +1994,23 @@
         <v>0.2087</v>
       </c>
       <c r="D33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1035577829603533</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8066</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2087</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="4"/>
+        <v>0.1035577829603533</v>
+      </c>
+      <c r="K33" s="1">
         <f t="shared" si="6"/>
-        <v>0.11552086792870586</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8066</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2087</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11552086792870586</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2025,23 +2025,23 @@
         <v>0.2014</v>
       </c>
       <c r="D34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10030379999003936</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8065</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2014</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10030379999003936</v>
+      </c>
+      <c r="K34" s="1">
         <f t="shared" si="6"/>
-        <v>0.11148629947412123</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8065</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2014</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11148629947412123</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2056,23 +2056,23 @@
         <v>0.2084</v>
       </c>
       <c r="D35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10376935716775382</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7999000000000001</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2084</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10376935716775382</v>
+      </c>
+      <c r="K35" s="1">
         <f t="shared" si="6"/>
-        <v>0.11578421023390188</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="3"/>
-        <v>1.7999000000000001</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2084</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11578421023390188</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2087,23 +2087,23 @@
         <v>0.19969999999999999</v>
       </c>
       <c r="D36" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9939945951356218E-2</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7985</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19969999999999999</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="4"/>
+        <v>9.9939945951356218E-2</v>
+      </c>
+      <c r="K36" s="1">
         <f t="shared" si="6"/>
-        <v>0.11103697525715873</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="3"/>
-        <v>1.7985</v>
-      </c>
-      <c r="I36" s="2">
-        <f t="shared" si="4"/>
-        <v>0.19969999999999999</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11103697525715873</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2118,23 +2118,23 @@
         <v>0.2092</v>
       </c>
       <c r="D37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10392965373341943</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8037000000000001</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2092</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10392965373341943</v>
+      </c>
+      <c r="K37" s="1">
         <f t="shared" si="6"/>
-        <v>0.1159838110550535</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8037000000000001</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2092</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1159838110550535</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2149,23 +2149,23 @@
         <v>0.2049</v>
       </c>
       <c r="D38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10192508580808834</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8053999999999999</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2049</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10192508580808834</v>
+      </c>
+      <c r="K38" s="1">
         <f t="shared" si="6"/>
-        <v>0.11349285476902626</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8053999999999999</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2049</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11349285476902626</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2180,23 +2180,23 @@
         <v>0.2064</v>
       </c>
       <c r="D39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10259469132120488</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8053999999999999</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2064</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10259469132120488</v>
+      </c>
+      <c r="K39" s="1">
         <f t="shared" si="6"/>
-        <v>0.11432369557992689</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8053999999999999</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2064</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11432369557992689</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2211,23 +2211,23 @@
         <v>0.2147</v>
       </c>
       <c r="D40" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10622928108455791</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8064</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2147</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10622928108455791</v>
+      </c>
+      <c r="K40" s="1">
         <f t="shared" si="6"/>
-        <v>0.11885518157661648</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8064</v>
-      </c>
-      <c r="I40" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2147</v>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" si="7"/>
-        <v>0.11885518157661648</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2242,23 +2242,23 @@
         <v>0.1024</v>
       </c>
       <c r="D41" s="2">
+        <f t="shared" si="1"/>
+        <v>5.1036682615629991E-2</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1024</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="4"/>
+        <v>5.1036682615629991E-2</v>
+      </c>
+      <c r="K41" s="1">
         <f t="shared" si="6"/>
-        <v>5.378151260504202E-2</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" si="3"/>
-        <v>1.9039999999999999</v>
-      </c>
-      <c r="I41" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1024</v>
-      </c>
-      <c r="J41" s="2">
-        <f t="shared" si="7"/>
-        <v>5.378151260504202E-2</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2273,23 +2273,23 @@
         <v>0.19939999999999999</v>
       </c>
       <c r="D42" s="2">
+        <f t="shared" si="1"/>
+        <v>9.907089978635665E-2</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8132999999999999</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19939999999999999</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="4"/>
+        <v>9.907089978635665E-2</v>
+      </c>
+      <c r="K42" s="1">
         <f t="shared" si="6"/>
-        <v>0.10996525671427784</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8132999999999999</v>
-      </c>
-      <c r="I42" s="2">
-        <f t="shared" si="4"/>
-        <v>0.19939999999999999</v>
-      </c>
-      <c r="J42" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10996525671427784</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2304,23 +2304,23 @@
         <v>0.3</v>
       </c>
       <c r="D43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14994751836857098</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7007000000000001</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="4"/>
+        <v>0.14994751836857098</v>
+      </c>
+      <c r="K43" s="1">
         <f t="shared" si="6"/>
-        <v>0.1763979537837361</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" si="3"/>
-        <v>1.7007000000000001</v>
-      </c>
-      <c r="I43" s="2">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="J43" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1763979537837361</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2335,23 +2335,23 @@
         <v>0.40960000000000002</v>
       </c>
       <c r="D44" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20237154150197628</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6144000000000001</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="3"/>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="4"/>
+        <v>0.20237154150197628</v>
+      </c>
+      <c r="K44" s="1">
         <f t="shared" si="6"/>
-        <v>0.25371655104063429</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="3"/>
-        <v>1.6144000000000001</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" si="4"/>
-        <v>0.40960000000000002</v>
-      </c>
-      <c r="J44" s="2">
-        <f t="shared" si="7"/>
-        <v>0.25371655104063429</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2366,23 +2366,23 @@
         <v>0.60819999999999996</v>
       </c>
       <c r="D45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30056832221398566</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4153</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="3"/>
+        <v>0.60819999999999996</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="4"/>
+        <v>0.30056832221398566</v>
+      </c>
+      <c r="K45" s="1">
         <f t="shared" si="6"/>
-        <v>0.4297322122518194</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" si="3"/>
-        <v>1.4153</v>
-      </c>
-      <c r="I45" s="2">
-        <f t="shared" si="4"/>
-        <v>0.60819999999999996</v>
-      </c>
-      <c r="J45" s="2">
-        <f t="shared" si="7"/>
-        <v>0.4297322122518194</v>
-      </c>
-      <c r="K45" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2397,8 +2397,8 @@
         <v>0.1036</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" ref="D46:D92" si="9">C46/B46</f>
-        <v>5.4297693920335434E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.1501292503479817E-2</v>
       </c>
       <c r="E46" s="2">
         <v>1.706</v>
@@ -2410,20 +2410,20 @@
         <v>1.7354000000000001</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" ref="H46:H91" si="10">IF(B46="","",IF(E46="",B46,F46-G46))</f>
+        <f t="shared" ref="H46:H91" si="7">IF(B46="","",IF(E46="",B46,F46-G46))</f>
         <v>0.73650000000000015</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" ref="I46:I91" si="11">IF(C46="","",IF(F46="",C46,G46-E46))</f>
+        <f t="shared" ref="I46:I91" si="8">IF(C46="","",IF(F46="",C46,G46-E46))</f>
         <v>2.9400000000000093E-2</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" ref="J46:J92" si="12">I46/H46</f>
-        <v>3.9918533604888104E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.8386212299255887E-2</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" ref="K46:K92" si="13">(D46-J46)/D46</f>
-        <v>0.26482082897561299</v>
+        <f t="shared" ref="K46:K92" si="9">(D46-J46)/D46</f>
+        <v>0.25465536041329012</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2437,8 +2437,8 @@
         <v>0.2145</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="9"/>
-        <v>0.11929258661920916</v>
+        <f t="shared" si="1"/>
+        <v>0.10657855510285204</v>
       </c>
       <c r="E47" s="2">
         <v>1.7145999999999999</v>
@@ -2450,20 +2450,20 @@
         <v>1.7846</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.71699999999999986</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="12"/>
-        <v>9.7629009762901078E-2</v>
+        <f t="shared" si="4"/>
+        <v>8.8945362134688774E-2</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="13"/>
-        <v>0.18160036151667863</v>
+        <f t="shared" si="9"/>
+        <v>0.16544785159778733</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2477,8 +2477,8 @@
         <v>0.31580000000000003</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="9"/>
-        <v>0.18586310399623332</v>
+        <f t="shared" si="1"/>
+        <v>0.15673234403692493</v>
       </c>
       <c r="E48" s="2">
         <v>1.7241</v>
@@ -2490,20 +2490,20 @@
         <v>1.8342000000000001</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.70060000000000011</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.11010000000000009</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="12"/>
-        <v>0.15715101341707119</v>
+        <f t="shared" si="4"/>
+        <v>0.13580856050326887</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="13"/>
-        <v>0.15447977550048883</v>
+        <f t="shared" si="9"/>
+        <v>0.13350009956289929</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2517,23 +2517,23 @@
         <v>0.41870000000000002</v>
       </c>
       <c r="D49" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20727722772277229</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6012999999999999</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="8"/>
+        <v>0.41870000000000002</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="4"/>
+        <v>0.20727722772277229</v>
+      </c>
+      <c r="K49" s="1">
         <f t="shared" si="9"/>
-        <v>0.26147505152063949</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" si="10"/>
-        <v>1.6012999999999999</v>
-      </c>
-      <c r="I49" s="2">
-        <f t="shared" si="11"/>
-        <v>0.41870000000000002</v>
-      </c>
-      <c r="J49" s="2">
-        <f t="shared" si="12"/>
-        <v>0.26147505152063949</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2548,23 +2548,23 @@
         <v>9.74E-2</v>
       </c>
       <c r="D50" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8397515527950304E-2</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="7"/>
+        <v>1.9151</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="8"/>
+        <v>9.74E-2</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="4"/>
+        <v>4.8397515527950304E-2</v>
+      </c>
+      <c r="K50" s="1">
         <f t="shared" si="9"/>
-        <v>5.0858962978434549E-2</v>
-      </c>
-      <c r="H50" s="2">
-        <f t="shared" si="10"/>
-        <v>1.9151</v>
-      </c>
-      <c r="I50" s="2">
-        <f t="shared" si="11"/>
-        <v>9.74E-2</v>
-      </c>
-      <c r="J50" s="2">
-        <f t="shared" si="12"/>
-        <v>5.0858962978434549E-2</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2579,23 +2579,23 @@
         <v>0.20949999999999999</v>
       </c>
       <c r="D51" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10335981054812768</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8173999999999999</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="8"/>
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10335981054812768</v>
+      </c>
+      <c r="K51" s="1">
         <f t="shared" si="9"/>
-        <v>0.11527456806426764</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="10"/>
-        <v>1.8173999999999999</v>
-      </c>
-      <c r="I51" s="2">
-        <f t="shared" si="11"/>
-        <v>0.20949999999999999</v>
-      </c>
-      <c r="J51" s="2">
-        <f t="shared" si="12"/>
-        <v>0.11527456806426764</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2610,23 +2610,23 @@
         <v>0.30909999999999999</v>
       </c>
       <c r="D52" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15261182976202231</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="7"/>
+        <v>1.7162999999999999</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="8"/>
+        <v>0.30909999999999999</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="4"/>
+        <v>0.15261182976202231</v>
+      </c>
+      <c r="K52" s="1">
         <f t="shared" si="9"/>
-        <v>0.18009671968770027</v>
-      </c>
-      <c r="H52" s="2">
-        <f t="shared" si="10"/>
-        <v>1.7162999999999999</v>
-      </c>
-      <c r="I52" s="2">
-        <f t="shared" si="11"/>
-        <v>0.30909999999999999</v>
-      </c>
-      <c r="J52" s="2">
-        <f t="shared" si="12"/>
-        <v>0.18009671968770027</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2641,23 +2641,23 @@
         <v>0.40289999999999998</v>
       </c>
       <c r="D53" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20103787236165863</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6012</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="8"/>
+        <v>0.40289999999999998</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="4"/>
+        <v>0.20103787236165863</v>
+      </c>
+      <c r="K53" s="1">
         <f t="shared" si="9"/>
-        <v>0.25162378216337744</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="10"/>
-        <v>1.6012</v>
-      </c>
-      <c r="I53" s="2">
-        <f t="shared" si="11"/>
-        <v>0.40289999999999998</v>
-      </c>
-      <c r="J53" s="2">
-        <f t="shared" si="12"/>
-        <v>0.25162378216337744</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2672,8 +2672,8 @@
         <v>0.1114</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="9"/>
-        <v>5.8483830323393528E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.5252455113579999E-2</v>
       </c>
       <c r="E54" s="2">
         <v>1.7143999999999999</v>
@@ -2685,20 +2685,20 @@
         <v>1.7533000000000001</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.73439999999999972</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.8900000000000157E-2</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="12"/>
-        <v>5.2968409586056878E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.0303892409155775E-2</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="13"/>
-        <v>9.4306763199989693E-2</v>
+        <f t="shared" si="9"/>
+        <v>8.9562765930521732E-2</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2712,8 +2712,8 @@
         <v>0.2036</v>
       </c>
       <c r="D55" s="2">
-        <f t="shared" si="9"/>
-        <v>0.11246133451171011</v>
+        <f t="shared" si="1"/>
+        <v>0.10109235352532273</v>
       </c>
       <c r="E55" s="2">
         <v>1.7157</v>
@@ -2725,20 +2725,20 @@
         <v>1.7965</v>
       </c>
       <c r="H55" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.70940000000000003</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>8.0799999999999983E-2</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" si="12"/>
-        <v>0.11389906963631234</v>
+        <f t="shared" si="4"/>
+        <v>0.10225259427992911</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="13"/>
-        <v>-1.2784261638408014E-2</v>
+        <f t="shared" si="9"/>
+        <v>-1.1477037719927594E-2</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2752,8 +2752,8 @@
         <v>0.3004</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="9"/>
-        <v>0.17588851806311845</v>
+        <f t="shared" si="1"/>
+        <v>0.14957924612856643</v>
       </c>
       <c r="E56" s="2">
         <v>1.7135</v>
@@ -2765,20 +2765,20 @@
         <v>1.8251999999999999</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" ref="H56" si="14">IF(B56="","",IF(E56="",B56,F56-G56))</f>
+        <f t="shared" ref="H56" si="10">IF(B56="","",IF(E56="",B56,F56-G56))</f>
         <v>0.69259999999999988</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" ref="I56" si="15">IF(C56="","",IF(F56="",C56,G56-E56))</f>
+        <f t="shared" ref="I56" si="11">IF(C56="","",IF(F56="",C56,G56-E56))</f>
         <v>0.11169999999999991</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" ref="J56" si="16">I56/H56</f>
-        <v>0.16127634998556156</v>
+        <f t="shared" si="4"/>
+        <v>0.13887852791247041</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" ref="K56" si="17">(D56-J56)/D56</f>
-        <v>8.3076304459585235E-2</v>
+        <f t="shared" ref="K56" si="12">(D56-J56)/D56</f>
+        <v>7.1538789591829743E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2792,8 +2792,8 @@
         <v>0.40489999999999998</v>
       </c>
       <c r="D57" s="2">
-        <f>C56/B57</f>
-        <v>0.18678107318286388</v>
+        <f t="shared" si="1"/>
+        <v>0.2011225909000596</v>
       </c>
       <c r="E57" s="2">
         <v>1.718</v>
@@ -2805,7 +2805,7 @@
         <v>1.8479000000000001</v>
       </c>
       <c r="H57" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.70149999999999979</v>
       </c>
       <c r="I57" s="2">
@@ -2813,12 +2813,12 @@
         <v>0.12990000000000013</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="12"/>
-        <v>0.1851746258018534</v>
+        <f t="shared" si="4"/>
+        <v>0.15624248255953829</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="13"/>
-        <v>8.6006968138454109E-3</v>
+        <f t="shared" si="9"/>
+        <v>0.22314802200824277</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2832,23 +2832,23 @@
         <v>0.1032</v>
       </c>
       <c r="D58" s="2">
+        <f t="shared" si="1"/>
+        <v>5.1576790444300059E-2</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8976999999999999</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1032</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="4"/>
+        <v>5.1576790444300059E-2</v>
+      </c>
+      <c r="K58" s="1">
         <f t="shared" si="9"/>
-        <v>5.4381619855614696E-2</v>
-      </c>
-      <c r="H58" s="2">
-        <f t="shared" si="10"/>
-        <v>1.8976999999999999</v>
-      </c>
-      <c r="I58" s="2">
-        <f t="shared" si="11"/>
-        <v>0.1032</v>
-      </c>
-      <c r="J58" s="2">
-        <f t="shared" si="12"/>
-        <v>5.4381619855614696E-2</v>
-      </c>
-      <c r="K58" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2863,23 +2863,23 @@
         <v>0.21529999999999999</v>
       </c>
       <c r="D59" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10654196357878068</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8055000000000001</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="8"/>
+        <v>0.21529999999999999</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10654196357878068</v>
+      </c>
+      <c r="K59" s="1">
         <f t="shared" si="9"/>
-        <v>0.11924674605372472</v>
-      </c>
-      <c r="H59" s="2">
-        <f t="shared" si="10"/>
-        <v>1.8055000000000001</v>
-      </c>
-      <c r="I59" s="2">
-        <f t="shared" si="11"/>
-        <v>0.21529999999999999</v>
-      </c>
-      <c r="J59" s="2">
-        <f t="shared" si="12"/>
-        <v>0.11924674605372472</v>
-      </c>
-      <c r="K59" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2894,23 +2894,23 @@
         <v>0.30459999999999998</v>
       </c>
       <c r="D60" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15053869724226548</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="7"/>
+        <v>1.7188000000000001</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="8"/>
+        <v>0.30459999999999998</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="4"/>
+        <v>0.15053869724226548</v>
+      </c>
+      <c r="K60" s="1">
         <f t="shared" si="9"/>
-        <v>0.17721666278799161</v>
-      </c>
-      <c r="H60" s="2">
-        <f t="shared" si="10"/>
-        <v>1.7188000000000001</v>
-      </c>
-      <c r="I60" s="2">
-        <f t="shared" si="11"/>
-        <v>0.30459999999999998</v>
-      </c>
-      <c r="J60" s="2">
-        <f t="shared" si="12"/>
-        <v>0.17721666278799161</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2925,23 +2925,23 @@
         <v>0.41149999999999998</v>
       </c>
       <c r="D61" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20320987654320988</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6134999999999999</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="8"/>
+        <v>0.41149999999999998</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="4"/>
+        <v>0.20320987654320988</v>
+      </c>
+      <c r="K61" s="1">
         <f t="shared" si="9"/>
-        <v>0.25503563681437869</v>
-      </c>
-      <c r="H61" s="2">
-        <f t="shared" si="10"/>
-        <v>1.6134999999999999</v>
-      </c>
-      <c r="I61" s="2">
-        <f t="shared" si="11"/>
-        <v>0.41149999999999998</v>
-      </c>
-      <c r="J61" s="2">
-        <f t="shared" si="12"/>
-        <v>0.25503563681437869</v>
-      </c>
-      <c r="K61" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2956,8 +2956,8 @@
         <v>0.1094</v>
       </c>
       <c r="D62" s="2">
-        <f t="shared" si="9"/>
-        <v>5.7235534163440412E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.4136975455265239E-2</v>
       </c>
       <c r="E62" s="2">
         <v>1.7264999999999999</v>
@@ -2969,20 +2969,20 @@
         <v>1.7658</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.74160000000000004</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.9300000000000113E-2</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="12"/>
-        <v>5.2993527508090763E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.0326546292739284E-2</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="13"/>
-        <v>7.411491335498463E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.0384965737042504E-2</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -2996,8 +2996,8 @@
         <v>0.21110000000000001</v>
       </c>
       <c r="D63" s="2">
-        <f t="shared" si="9"/>
-        <v>0.11627010354703679</v>
+        <f t="shared" si="1"/>
+        <v>0.10415947106133124</v>
       </c>
       <c r="E63" s="2">
         <v>1.7257</v>
@@ -3009,20 +3009,20 @@
         <v>1.8092999999999999</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.69310000000000027</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>8.3599999999999897E-2</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="12"/>
-        <v>0.12061751551002722</v>
+        <f t="shared" si="4"/>
+        <v>0.10763486545641802</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="13"/>
-        <v>-3.7390626054028563E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.336609104937184E-2</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3036,8 +3036,8 @@
         <v>0.30649999999999999</v>
       </c>
       <c r="D64" s="2">
-        <f t="shared" si="9"/>
-        <v>0.1786963619402985</v>
+        <f t="shared" si="1"/>
+        <v>0.15160508482959884</v>
       </c>
       <c r="E64" s="2">
         <v>1.7188000000000001</v>
@@ -3049,20 +3049,20 @@
         <v>1.85</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.69289999999999985</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.13119999999999998</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" si="12"/>
-        <v>0.18934911242603553</v>
+        <f t="shared" si="4"/>
+        <v>0.15920398009950251</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="13"/>
-        <v>-5.9613695377279417E-2</v>
+        <f t="shared" si="9"/>
+        <v>-5.0122957804777379E-2</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3076,8 +3076,8 @@
         <v>0.4083</v>
       </c>
       <c r="D65" s="2">
-        <f t="shared" si="9"/>
-        <v>0.25372856077554062</v>
+        <f t="shared" si="1"/>
+        <v>0.20237918215613382</v>
       </c>
       <c r="E65" s="2">
         <v>1.702</v>
@@ -3089,20 +3089,20 @@
         <v>1.8714</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.91610000000000014</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.1694</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="12"/>
-        <v>0.18491431066477457</v>
+        <f t="shared" si="4"/>
+        <v>0.15605711653615842</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="13"/>
-        <v>0.27121207758570842</v>
+        <f t="shared" si="9"/>
+        <v>0.22888750278790196</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3116,23 +3116,23 @@
         <v>0.1138</v>
       </c>
       <c r="D66" s="2">
+        <f t="shared" si="1"/>
+        <v>5.6203081785855397E-2</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="7"/>
+        <v>1.911</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1138</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="4"/>
+        <v>5.6203081785855397E-2</v>
+      </c>
+      <c r="K66" s="1">
         <f t="shared" si="9"/>
-        <v>5.9549973835688122E-2</v>
-      </c>
-      <c r="H66" s="2">
-        <f t="shared" si="10"/>
-        <v>1.911</v>
-      </c>
-      <c r="I66" s="2">
-        <f t="shared" si="11"/>
-        <v>0.1138</v>
-      </c>
-      <c r="J66" s="2">
-        <f t="shared" si="12"/>
-        <v>5.9549973835688122E-2</v>
-      </c>
-      <c r="K66" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3147,23 +3147,23 @@
         <v>0.21229999999999999</v>
       </c>
       <c r="D67" s="2">
+        <f t="shared" ref="D67:D130" si="13">C67/(B67+C67)</f>
+        <v>0.10496390784139226</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8103</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" si="8"/>
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" ref="J67:J130" si="14">I67/(H67+I67)</f>
+        <v>0.10496390784139226</v>
+      </c>
+      <c r="K67" s="1">
         <f t="shared" si="9"/>
-        <v>0.11727338010274539</v>
-      </c>
-      <c r="H67" s="2">
-        <f t="shared" si="10"/>
-        <v>1.8103</v>
-      </c>
-      <c r="I67" s="2">
-        <f t="shared" si="11"/>
-        <v>0.21229999999999999</v>
-      </c>
-      <c r="J67" s="2">
-        <f t="shared" si="12"/>
-        <v>0.11727338010274539</v>
-      </c>
-      <c r="K67" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3178,23 +3178,23 @@
         <v>0.30819999999999997</v>
       </c>
       <c r="D68" s="2">
+        <f t="shared" si="13"/>
+        <v>0.15360079740842261</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6982999999999999</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" si="8"/>
+        <v>0.30819999999999997</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" si="14"/>
+        <v>0.15360079740842261</v>
+      </c>
+      <c r="K68" s="1">
         <f t="shared" si="9"/>
-        <v>0.1814755932402991</v>
-      </c>
-      <c r="H68" s="2">
-        <f t="shared" si="10"/>
-        <v>1.6982999999999999</v>
-      </c>
-      <c r="I68" s="2">
-        <f t="shared" si="11"/>
-        <v>0.30819999999999997</v>
-      </c>
-      <c r="J68" s="2">
-        <f t="shared" si="12"/>
-        <v>0.1814755932402991</v>
-      </c>
-      <c r="K68" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3209,23 +3209,23 @@
         <v>0.43240000000000001</v>
       </c>
       <c r="D69" s="2">
+        <f t="shared" si="13"/>
+        <v>0.21175318315377084</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6095999999999999</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="8"/>
+        <v>0.43240000000000001</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="14"/>
+        <v>0.21175318315377084</v>
+      </c>
+      <c r="K69" s="1">
         <f t="shared" si="9"/>
-        <v>0.2686381709741551</v>
-      </c>
-      <c r="H69" s="2">
-        <f t="shared" si="10"/>
-        <v>1.6095999999999999</v>
-      </c>
-      <c r="I69" s="2">
-        <f t="shared" si="11"/>
-        <v>0.43240000000000001</v>
-      </c>
-      <c r="J69" s="2">
-        <f t="shared" si="12"/>
-        <v>0.2686381709741551</v>
-      </c>
-      <c r="K69" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3240,8 +3240,8 @@
         <v>0.1171</v>
       </c>
       <c r="D70" s="2">
-        <f t="shared" si="9"/>
-        <v>6.130248141555858E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.7761554777289996E-2</v>
       </c>
       <c r="E70" s="2">
         <v>1.7263999999999999</v>
@@ -3253,20 +3253,20 @@
         <v>1.7743</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.7266999999999999</v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>4.7900000000000054E-2</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" si="12"/>
-        <v>6.5914407595981925E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.1838368190033639E-2</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="13"/>
-        <v>-7.5232291971346496E-2</v>
+        <f t="shared" si="9"/>
+        <v>-7.0580049800642086E-2</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3280,8 +3280,8 @@
         <v>0.20660000000000001</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" si="9"/>
-        <v>0.114491548905514</v>
+        <f t="shared" si="13"/>
+        <v>0.10272984933618419</v>
       </c>
       <c r="E71" s="2">
         <v>1.7130000000000001</v>
@@ -3293,20 +3293,20 @@
         <v>1.7982</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.71640000000000015</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>8.5199999999999942E-2</v>
       </c>
       <c r="J71" s="2">
-        <f t="shared" si="12"/>
-        <v>0.11892797319932988</v>
+        <f t="shared" si="14"/>
+        <v>0.10628742514970052</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="13"/>
-        <v>-3.8748923708570956E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.4630400380264728E-2</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3320,8 +3320,8 @@
         <v>0.30380000000000001</v>
       </c>
       <c r="D72" s="2">
-        <f t="shared" si="9"/>
-        <v>0.17736003269309358</v>
+        <f t="shared" si="13"/>
+        <v>0.15064213814647692</v>
       </c>
       <c r="E72" s="2">
         <v>1.7170000000000001</v>
@@ -3333,20 +3333,20 @@
         <v>1.8464</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.92700000000000005</v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.12939999999999996</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="12"/>
-        <v>0.13959007551240557</v>
+        <f t="shared" si="14"/>
+        <v>0.12249148049981064</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="13"/>
-        <v>0.21295641756023864</v>
+        <f t="shared" si="9"/>
+        <v>0.18687107069134923</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3360,8 +3360,8 @@
         <v>0.4299</v>
       </c>
       <c r="D73" s="2">
-        <f t="shared" si="9"/>
-        <v>0.26683632300912419</v>
+        <f t="shared" si="13"/>
+        <v>0.21063204311611955</v>
       </c>
       <c r="E73" s="2">
         <v>1.7099</v>
@@ -3373,20 +3373,20 @@
         <v>1.8915999999999999</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.65459999999999985</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.18169999999999997</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="12"/>
-        <v>0.27757409104796826</v>
+        <f t="shared" si="14"/>
+        <v>0.21726653114910918</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="13"/>
-        <v>-4.0241028349340992E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.1497999710006608E-2</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3400,23 +3400,23 @@
         <v>0.1055</v>
       </c>
       <c r="D74" s="2">
+        <f t="shared" si="13"/>
+        <v>5.2555544485404004E-2</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" si="7"/>
+        <v>1.9018999999999999</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1055</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" si="14"/>
+        <v>5.2555544485404004E-2</v>
+      </c>
+      <c r="K74" s="1">
         <f t="shared" si="9"/>
-        <v>5.5470844944529155E-2</v>
-      </c>
-      <c r="H74" s="2">
-        <f t="shared" si="10"/>
-        <v>1.9018999999999999</v>
-      </c>
-      <c r="I74" s="2">
-        <f t="shared" si="11"/>
-        <v>0.1055</v>
-      </c>
-      <c r="J74" s="2">
-        <f t="shared" si="12"/>
-        <v>5.5470844944529155E-2</v>
-      </c>
-      <c r="K74" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3431,23 +3431,23 @@
         <v>0.2056</v>
       </c>
       <c r="D75" s="2">
+        <f t="shared" si="13"/>
+        <v>0.10212596860719252</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8076000000000001</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="8"/>
+        <v>0.2056</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" si="14"/>
+        <v>0.10212596860719252</v>
+      </c>
+      <c r="K75" s="1">
         <f t="shared" si="9"/>
-        <v>0.11374197831378623</v>
-      </c>
-      <c r="H75" s="2">
-        <f t="shared" si="10"/>
-        <v>1.8076000000000001</v>
-      </c>
-      <c r="I75" s="2">
-        <f t="shared" si="11"/>
-        <v>0.2056</v>
-      </c>
-      <c r="J75" s="2">
-        <f t="shared" si="12"/>
-        <v>0.11374197831378623</v>
-      </c>
-      <c r="K75" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3462,23 +3462,23 @@
         <v>0.30370000000000003</v>
       </c>
       <c r="D76" s="2">
+        <f t="shared" si="13"/>
+        <v>0.15150910451484162</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" si="7"/>
+        <v>1.7008000000000001</v>
+      </c>
+      <c r="I76" s="2">
+        <f t="shared" si="8"/>
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="J76" s="2">
+        <f t="shared" si="14"/>
+        <v>0.15150910451484162</v>
+      </c>
+      <c r="K76" s="1">
         <f t="shared" si="9"/>
-        <v>0.17856302916274694</v>
-      </c>
-      <c r="H76" s="2">
-        <f t="shared" si="10"/>
-        <v>1.7008000000000001</v>
-      </c>
-      <c r="I76" s="2">
-        <f t="shared" si="11"/>
-        <v>0.30370000000000003</v>
-      </c>
-      <c r="J76" s="2">
-        <f t="shared" si="12"/>
-        <v>0.17856302916274694</v>
-      </c>
-      <c r="K76" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3493,23 +3493,23 @@
         <v>0.40670000000000001</v>
       </c>
       <c r="D77" s="2">
+        <f t="shared" si="13"/>
+        <v>0.20158612143742255</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6108</v>
+      </c>
+      <c r="I77" s="2">
+        <f t="shared" si="8"/>
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="J77" s="2">
+        <f t="shared" si="14"/>
+        <v>0.20158612143742255</v>
+      </c>
+      <c r="K77" s="1">
         <f t="shared" si="9"/>
-        <v>0.25248323814253787</v>
-      </c>
-      <c r="H77" s="2">
-        <f t="shared" si="10"/>
-        <v>1.6108</v>
-      </c>
-      <c r="I77" s="2">
-        <f t="shared" si="11"/>
-        <v>0.40670000000000001</v>
-      </c>
-      <c r="J77" s="2">
-        <f t="shared" si="12"/>
-        <v>0.25248323814253787</v>
-      </c>
-      <c r="K77" s="1">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3524,8 +3524,8 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="D78" s="2">
-        <f t="shared" si="9"/>
-        <v>5.3587222308932939E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.0861685842674427E-2</v>
       </c>
       <c r="E78" s="2">
         <v>1.7179</v>
@@ -3537,7 +3537,7 @@
         <v>1.7565999999999999</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.7542000000000002</v>
       </c>
       <c r="I78" s="2">
@@ -3545,12 +3545,12 @@
         <v>3.8699999999999957E-2</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="12"/>
-        <v>5.1312649164677732E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.8808172531214465E-2</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="13"/>
-        <v>4.2446184859931388E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.0374464145995818E-2</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3564,8 +3564,8 @@
         <v>0.214</v>
       </c>
       <c r="D79" s="2">
-        <f t="shared" si="9"/>
-        <v>0.11817981002871659</v>
+        <f t="shared" si="13"/>
+        <v>0.10568945080995654</v>
       </c>
       <c r="E79" s="2">
         <v>1.7042999999999999</v>
@@ -3577,20 +3577,20 @@
         <v>1.7878000000000001</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.71460000000000012</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>8.350000000000013E-2</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" si="12"/>
-        <v>0.11684858662188653</v>
+        <f t="shared" si="14"/>
+        <v>0.10462348076682133</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="13"/>
-        <v>1.126438946302746E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.0085869828692334E-2</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3604,8 +3604,8 @@
         <v>0.31130000000000002</v>
       </c>
       <c r="D80" s="2">
-        <f t="shared" si="9"/>
-        <v>0.18203613823752998</v>
+        <f t="shared" si="13"/>
+        <v>0.15400217670921146</v>
       </c>
       <c r="E80" s="2">
         <v>1.7116</v>
@@ -3617,7 +3617,7 @@
         <v>1.8346</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.71360000000000001</v>
       </c>
       <c r="I80" s="2">
@@ -3625,12 +3625,12 @@
         <v>0.123</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="12"/>
-        <v>0.17236547085201792</v>
+        <f t="shared" si="14"/>
+        <v>0.14702366722448004</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="13"/>
-        <v>5.3124986495227025E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.531435615944774E-2</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3644,8 +3644,8 @@
         <v>0.3997</v>
       </c>
       <c r="D81" s="2">
-        <f t="shared" si="9"/>
-        <v>0.24937609183928125</v>
+        <f t="shared" si="13"/>
+        <v>0.19960049937578028</v>
       </c>
       <c r="E81" s="2">
         <v>1.7119</v>
@@ -3657,20 +3657,20 @@
         <v>1.8846000000000001</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.70879999999999987</v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.17270000000000008</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="12"/>
-        <v>0.24365124153498885</v>
+        <f t="shared" si="14"/>
+        <v>0.19591605218377775</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="13"/>
-        <v>2.2956692688816262E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.8459108086027198E-2</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3684,8 +3684,8 @@
         <v>0.1013</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" si="9"/>
-        <v>5.3042203372080848E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.037044403560241E-2</v>
       </c>
       <c r="E82" s="2">
         <v>1.7097</v>
@@ -3697,20 +3697,20 @@
         <v>1.7485999999999999</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.752</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.8899999999999935E-2</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="12"/>
-        <v>5.1728723404255231E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.9184473384751473E-2</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="13"/>
-        <v>2.4762922433893036E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.3544971134514505E-2</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3724,8 +3724,8 @@
         <v>0.2039</v>
       </c>
       <c r="D83" s="2">
-        <f t="shared" si="9"/>
-        <v>0.11313321866503911</v>
+        <f t="shared" si="13"/>
+        <v>0.10163493171169374</v>
       </c>
       <c r="E83" s="2">
         <v>1.7071000000000001</v>
@@ -3737,20 +3737,20 @@
         <v>1.7895000000000001</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.72589999999999999</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>8.2400000000000029E-2</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="12"/>
-        <v>0.11351425816228135</v>
+        <f t="shared" si="14"/>
+        <v>0.10194234813806759</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="13"/>
-        <v>-3.3680602544368657E-3</v>
+        <f t="shared" si="9"/>
+        <v>-3.0247122834291588E-3</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -3764,8 +3764,8 @@
         <v>0.31009999999999999</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" si="9"/>
-        <v>0.18205835730640521</v>
+        <f t="shared" si="13"/>
+        <v>0.15401807887156055</v>
       </c>
       <c r="E84" s="2">
         <v>1.7232000000000001</v>
@@ -3777,20 +3777,20 @@
         <v>1.8442000000000001</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.67699999999999982</v>
       </c>
       <c r="I84" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.121</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="12"/>
-        <v>0.17872968980797641</v>
+        <f t="shared" si="14"/>
+        <v>0.15162907268170428</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="13"/>
-        <v>1.8283519348835164E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.5511206264613386E-2</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -3804,8 +3804,8 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="D85" s="2">
-        <f t="shared" si="9"/>
-        <v>0.25327510917030571</v>
+        <f t="shared" si="13"/>
+        <v>0.20209059233449481</v>
       </c>
       <c r="E85" s="2">
         <v>1.7099</v>
@@ -3817,20 +3817,20 @@
         <v>1.8755999999999999</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.6554000000000002</v>
       </c>
       <c r="I85" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.16569999999999996</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" si="12"/>
-        <v>0.25282270369240145</v>
+        <f t="shared" si="14"/>
+        <v>0.2018024601144805</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="13"/>
-        <v>1.7862216282771672E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.4257577093811486E-3</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -3844,8 +3844,8 @@
         <v>0.12189999999999999</v>
       </c>
       <c r="D86" s="2">
-        <f t="shared" si="9"/>
-        <v>6.3668651415439245E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.9857598821507478E-2</v>
       </c>
       <c r="E86" s="2">
         <v>1.7141</v>
@@ -3857,20 +3857,20 @@
         <v>1.7504</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.7381000000000002</v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.6299999999999999E-2</v>
       </c>
       <c r="J86" s="2">
-        <f t="shared" si="12"/>
-        <v>4.9180327868852444E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.6874999999999986E-2</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="13"/>
-        <v>0.22755819739372513</v>
+        <f t="shared" si="9"/>
+        <v>0.21689140689089428</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -3884,8 +3884,8 @@
         <v>0.2195</v>
       </c>
       <c r="D87" s="2">
-        <f t="shared" si="9"/>
-        <v>0.12129752431476569</v>
+        <f t="shared" si="13"/>
+        <v>0.10817603863781972</v>
       </c>
       <c r="E87" s="2">
         <v>1.7161999999999999</v>
@@ -3897,20 +3897,20 @@
         <v>1.7972999999999999</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.71379999999999999</v>
       </c>
       <c r="I87" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>8.109999999999995E-2</v>
       </c>
       <c r="J87" s="2">
-        <f t="shared" si="12"/>
-        <v>0.11361725973662083</v>
+        <f t="shared" si="14"/>
+        <v>0.10202541200150957</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="13"/>
-        <v>6.3317570754491737E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.6857569511329954E-2</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -3924,8 +3924,8 @@
         <v>0.31130000000000002</v>
       </c>
       <c r="D88" s="2">
-        <f t="shared" si="9"/>
-        <v>0.18279506752789196</v>
+        <f t="shared" si="13"/>
+        <v>0.15454500322692749</v>
       </c>
       <c r="E88" s="2">
         <v>1.7157</v>
@@ -3937,20 +3937,20 @@
         <v>1.8136000000000001</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.69850000000000012</v>
       </c>
       <c r="I88" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>9.7900000000000098E-2</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" si="12"/>
-        <v>0.14015748031496075</v>
+        <f t="shared" si="14"/>
+        <v>0.1229281767955802</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="13"/>
-        <v>0.23325348867209073</v>
+        <f t="shared" si="9"/>
+        <v>0.20458006257842223</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -3964,8 +3964,8 @@
         <v>0.43219999999999997</v>
       </c>
       <c r="D89" s="2">
-        <f t="shared" si="9"/>
-        <v>0.25423529411764706</v>
+        <f t="shared" si="13"/>
+        <v>0.20270143513741673</v>
       </c>
       <c r="E89" s="2">
         <v>1.722</v>
@@ -3977,20 +3977,20 @@
         <v>1.9091</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.71700000000000008</v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.18710000000000004</v>
       </c>
       <c r="J89" s="2">
-        <f t="shared" si="12"/>
-        <v>0.26094839609483966</v>
+        <f t="shared" si="14"/>
+        <v>0.20694613427718175</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="13"/>
-        <v>-2.640507487558405E-2</v>
+        <f t="shared" si="9"/>
+        <v>-2.0940646704782472E-2</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4004,8 +4004,8 @@
         <v>0.1028</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" si="9"/>
-        <v>5.3850183342063908E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.1098518739437319E-2</v>
       </c>
       <c r="E90" s="2">
         <v>1.7079</v>
@@ -4017,20 +4017,20 @@
         <v>1.7459</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.72439999999999993</v>
       </c>
       <c r="I90" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.8000000000000034E-2</v>
       </c>
       <c r="J90" s="2">
-        <f t="shared" si="12"/>
-        <v>5.2457205963556096E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.9842602308499524E-2</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="13"/>
-        <v>2.5867644120344487E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.4578333421796269E-2</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4044,8 +4044,8 @@
         <v>0.22509999999999999</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" si="9"/>
-        <v>0.12423422926210055</v>
+        <f t="shared" si="13"/>
+        <v>0.11050564555719194</v>
       </c>
       <c r="E91" s="2">
         <v>1.7105999999999999</v>
@@ -4057,20 +4057,20 @@
         <v>1.7951999999999999</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.7246999999999999</v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>8.4600000000000009E-2</v>
       </c>
       <c r="J91" s="2">
-        <f t="shared" si="12"/>
-        <v>0.11673796053539398</v>
+        <f t="shared" si="14"/>
+        <v>0.10453478314592861</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="13"/>
-        <v>6.0339801447888204E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.4032193388464753E-2</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4084,8 +4084,8 @@
         <v>0.31559999999999999</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" si="9"/>
-        <v>0.18509178347311006</v>
+        <f t="shared" si="13"/>
+        <v>0.15618350076706089</v>
       </c>
       <c r="E92" s="2">
         <v>1.7269000000000001</v>
@@ -4097,20 +4097,20 @@
         <v>1.8483000000000001</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" ref="H92:H123" si="18">IF(B92="","",IF(E92="",B92,F92-G92))</f>
+        <f t="shared" ref="H92:H123" si="15">IF(B92="","",IF(E92="",B92,F92-G92))</f>
         <v>0.70020000000000016</v>
       </c>
       <c r="I92" s="2">
-        <f t="shared" ref="I92:I123" si="19">IF(C92="","",IF(F92="",C92,G92-E92))</f>
+        <f t="shared" ref="I92:I123" si="16">IF(C92="","",IF(F92="",C92,G92-E92))</f>
         <v>0.12139999999999995</v>
       </c>
       <c r="J92" s="2">
-        <f t="shared" si="12"/>
-        <v>0.17337903456155374</v>
+        <f t="shared" si="14"/>
+        <v>0.14776046738072046</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="13"/>
-        <v>6.3280760992061758E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.3930366171667007E-2</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4124,8 +4124,8 @@
         <v>0.4163</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" ref="D93:D124" si="20">C93/B93</f>
-        <v>0.25879646897923658</v>
+        <f t="shared" si="13"/>
+        <v>0.2055903995259025</v>
       </c>
       <c r="E93" s="2">
         <v>1.7194</v>
@@ -4137,20 +4137,20 @@
         <v>1.8669</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.6725000000000001</v>
       </c>
       <c r="I93" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.14749999999999996</v>
       </c>
       <c r="J93" s="2">
-        <f t="shared" ref="J93:J124" si="21">I93/H93</f>
-        <v>0.21933085501858729</v>
+        <f t="shared" si="14"/>
+        <v>0.17987804878048774</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" ref="K93:K124" si="22">(D93-J93)/D93</f>
-        <v>0.15249672499904027</v>
+        <f t="shared" ref="K93:K124" si="17">(D93-J93)/D93</f>
+        <v>0.12506591166079831</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4164,8 +4164,8 @@
         <v>0.1145</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" si="20"/>
-        <v>6.0565987833906376E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.7107231920199508E-2</v>
       </c>
       <c r="E94" s="2">
         <v>1.7189000000000001</v>
@@ -4177,20 +4177,20 @@
         <v>1.7642</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.7379</v>
       </c>
       <c r="I94" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>4.5299999999999896E-2</v>
       </c>
       <c r="J94" s="2">
-        <f t="shared" si="21"/>
-        <v>6.1390432307900658E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.7839632277834396E-2</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="22"/>
-        <v>-1.3612334306429606E-2</v>
+        <f t="shared" si="17"/>
+        <v>-1.2825001895702624E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4204,8 +4204,8 @@
         <v>0.20169999999999999</v>
       </c>
       <c r="D95" s="2">
-        <f t="shared" si="20"/>
-        <v>0.11103770988164051</v>
+        <f t="shared" si="13"/>
+        <v>9.9940541076206507E-2</v>
       </c>
       <c r="E95" s="2">
         <v>1.7143999999999999</v>
@@ -4217,20 +4217,20 @@
         <v>1.7977000000000001</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.75180000000000002</v>
       </c>
       <c r="I95" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>8.3300000000000152E-2</v>
       </c>
       <c r="J95" s="2">
-        <f t="shared" si="21"/>
-        <v>0.11080074487895737</v>
+        <f t="shared" si="14"/>
+        <v>9.9748533109807372E-2</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="22"/>
-        <v>2.1340948308077277E-3</v>
+        <f t="shared" si="17"/>
+        <v>1.9212220019173771E-3</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4244,8 +4244,8 @@
         <v>0.3075</v>
       </c>
       <c r="D96" s="2">
-        <f t="shared" si="20"/>
-        <v>0.17949915358122701</v>
+        <f t="shared" si="13"/>
+        <v>0.15218252004355143</v>
       </c>
       <c r="E96" s="2">
         <v>1.7149000000000001</v>
@@ -4257,20 +4257,20 @@
         <v>1.8588</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.6846000000000001</v>
       </c>
       <c r="I96" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.14389999999999992</v>
       </c>
       <c r="J96" s="2">
-        <f t="shared" si="21"/>
-        <v>0.21019573473561187</v>
+        <f t="shared" si="14"/>
+        <v>0.17368738684369331</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.17101240057098119</v>
+        <f t="shared" si="17"/>
+        <v>-0.14130970359794043</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4284,8 +4284,8 @@
         <v>0.40279999999999999</v>
       </c>
       <c r="D97" s="2">
-        <f t="shared" si="20"/>
-        <v>0.25123183434167029</v>
+        <f t="shared" si="13"/>
+        <v>0.20078759782662878</v>
       </c>
       <c r="E97" s="2">
         <v>1.7305999999999999</v>
@@ -4297,20 +4297,20 @@
         <v>1.9121999999999999</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.69890000000000008</v>
       </c>
       <c r="I97" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.18159999999999998</v>
       </c>
       <c r="J97" s="2">
-        <f t="shared" si="21"/>
-        <v>0.25983688653598508</v>
+        <f t="shared" si="14"/>
+        <v>0.20624645088018168</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="22"/>
-        <v>-3.4251440375235601E-2</v>
+        <f t="shared" si="17"/>
+        <v>-2.7187202360309009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -4324,8 +4324,8 @@
         <v>0.1046</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" si="20"/>
-        <v>5.4752931323283079E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.1910669975186098E-2</v>
       </c>
       <c r="E98" s="2">
         <v>1.7036</v>
@@ -4337,20 +4337,20 @@
         <v>1.7433000000000001</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.75229999999999997</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3.9700000000000069E-2</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="21"/>
-        <v>5.2771500731091416E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.0126262626262713E-2</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="22"/>
-        <v>3.6188575557580815E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.4374577515111103E-2</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4364,8 +4364,8 @@
         <v>0.21829999999999999</v>
       </c>
       <c r="D99" s="2">
-        <f t="shared" si="20"/>
-        <v>0.12077455048409404</v>
+        <f t="shared" si="13"/>
+        <v>0.10775989732451376</v>
       </c>
       <c r="E99" s="2">
         <v>1.7056</v>
@@ -4377,20 +4377,20 @@
         <v>1.7968</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.70350000000000024</v>
       </c>
       <c r="I99" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>9.1199999999999948E-2</v>
       </c>
       <c r="J99" s="2">
-        <f t="shared" si="21"/>
-        <v>0.1296375266524519</v>
+        <f t="shared" si="14"/>
+        <v>0.11476028690071716</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="22"/>
-        <v>-7.338446827442438E-2</v>
+        <f t="shared" si="17"/>
+        <v>-6.4962845641194922E-2</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4404,8 +4404,8 @@
         <v>0.31459999999999999</v>
       </c>
       <c r="D100" s="2">
-        <f t="shared" si="20"/>
-        <v>0.18330128765367359</v>
+        <f t="shared" si="13"/>
+        <v>0.15490669161455511</v>
       </c>
       <c r="E100" s="2">
         <v>1.7050000000000001</v>
@@ -4417,20 +4417,20 @@
         <v>1.8327</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.69930000000000003</v>
       </c>
       <c r="I100" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.12769999999999992</v>
       </c>
       <c r="J100" s="2">
-        <f t="shared" si="21"/>
-        <v>0.1826111826111825</v>
+        <f t="shared" si="14"/>
+        <v>0.15441354292623935</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="22"/>
-        <v>3.7648674012315908E-3</v>
+        <f t="shared" si="17"/>
+        <v>3.1835208871598404E-3</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4444,8 +4444,8 @@
         <v>0.4032</v>
       </c>
       <c r="D101" s="2">
-        <f t="shared" si="20"/>
-        <v>0.25184259837601497</v>
+        <f t="shared" si="13"/>
+        <v>0.20117752719289492</v>
       </c>
       <c r="E101" s="2">
         <v>1.7162999999999999</v>
@@ -4457,20 +4457,20 @@
         <v>1.8989</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.67599999999999993</v>
       </c>
       <c r="I101" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.1826000000000001</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" si="21"/>
-        <v>0.27011834319526645</v>
+        <f t="shared" si="14"/>
+        <v>0.21267179128814359</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="22"/>
-        <v>-7.2568123649855223E-2</v>
+        <f t="shared" si="17"/>
+        <v>-5.7134930802820914E-2</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4484,8 +4484,8 @@
         <v>0.11169999999999999</v>
       </c>
       <c r="D102" s="2">
-        <f t="shared" si="20"/>
-        <v>5.8469430485762135E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.5239602393551253E-2</v>
       </c>
       <c r="E102" s="2">
         <v>1.7116</v>
@@ -4497,20 +4497,20 @@
         <v>1.7503</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.7891999999999999</v>
       </c>
       <c r="I102" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3.8699999999999957E-2</v>
       </c>
       <c r="J102" s="2">
-        <f t="shared" si="21"/>
-        <v>4.9036999493157582E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.6744775939123039E-2</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="22"/>
-        <v>0.16132243660046322</v>
+        <f t="shared" si="17"/>
+        <v>0.15378145544762126</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4524,8 +4524,8 @@
         <v>0.20780000000000001</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" si="20"/>
-        <v>0.1158951477969883</v>
+        <f t="shared" si="13"/>
+        <v>0.10385845661735307</v>
       </c>
       <c r="E103" s="2">
         <v>1.7135</v>
@@ -4537,20 +4537,20 @@
         <v>1.7735000000000001</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.72539999999999982</v>
       </c>
       <c r="I103" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="J103" s="2">
-        <f t="shared" si="21"/>
-        <v>8.2712985938792491E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.6394194041252944E-2</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" si="22"/>
-        <v>0.28631191632216113</v>
+        <f t="shared" si="17"/>
+        <v>0.26443934823032306</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4564,8 +4564,8 @@
         <v>0.3256</v>
       </c>
       <c r="D104" s="2">
-        <f t="shared" si="20"/>
-        <v>0.18948961182564164</v>
+        <f t="shared" si="13"/>
+        <v>0.15930329272469301</v>
       </c>
       <c r="E104" s="2">
         <v>1.7202</v>
@@ -4577,20 +4577,20 @@
         <v>1.8292999999999999</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.68950000000000022</v>
       </c>
       <c r="I104" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.10909999999999997</v>
       </c>
       <c r="J104" s="2">
-        <f t="shared" si="21"/>
-        <v>0.15823060188542412</v>
+        <f t="shared" si="14"/>
+        <v>0.13661407463060349</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="22"/>
-        <v>0.16496424072566265</v>
+        <f t="shared" si="17"/>
+        <v>0.14242780363178617</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4604,8 +4604,8 @@
         <v>0.40820000000000001</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" si="20"/>
-        <v>0.25434606517540032</v>
+        <f t="shared" si="13"/>
+        <v>0.20277184441905519</v>
       </c>
       <c r="E105" s="2">
         <v>1.7234</v>
@@ -4617,20 +4617,20 @@
         <v>1.8754999999999999</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.68879999999999986</v>
       </c>
       <c r="I105" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.1520999999999999</v>
       </c>
       <c r="J105" s="2">
-        <f t="shared" si="21"/>
-        <v>0.22081881533101036</v>
+        <f t="shared" si="14"/>
+        <v>0.18087763110952546</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="22"/>
-        <v>0.13181745045384968</v>
+        <f t="shared" si="17"/>
+        <v>0.10797462227686012</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4644,8 +4644,8 @@
         <v>0.11070000000000001</v>
       </c>
       <c r="D106" s="2">
-        <f t="shared" si="20"/>
-        <v>5.8192714082952214E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.4992548435171394E-2</v>
       </c>
       <c r="E106" s="2">
         <v>1.7246999999999999</v>
@@ -4657,20 +4657,20 @@
         <v>1.7673000000000001</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.78419999999999979</v>
       </c>
       <c r="I106" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>4.2600000000000193E-2</v>
       </c>
       <c r="J106" s="2">
-        <f t="shared" si="21"/>
-        <v>5.4322876817138745E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.1523947750363078E-2</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="22"/>
-        <v>6.6500374261580522E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.3074012452747422E-2</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4684,8 +4684,8 @@
         <v>0.2011</v>
       </c>
       <c r="D107" s="2">
-        <f t="shared" si="20"/>
-        <v>0.11203342618384401</v>
+        <f t="shared" si="13"/>
+        <v>0.10074645558839737</v>
       </c>
       <c r="E107" s="2">
         <v>1.7204999999999999</v>
@@ -4697,20 +4697,20 @@
         <v>1.7964</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.73149999999999982</v>
       </c>
       <c r="I107" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>7.5900000000000079E-2</v>
       </c>
       <c r="J107" s="2">
-        <f t="shared" si="21"/>
-        <v>0.10375939849624073</v>
+        <f t="shared" si="14"/>
+        <v>9.4005449591280765E-2</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="22"/>
-        <v>7.3853205863987526E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.6910602042985864E-2</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4724,8 +4724,8 @@
         <v>0.33379999999999999</v>
       </c>
       <c r="D108" s="2">
-        <f t="shared" si="20"/>
-        <v>0.19513620951712848</v>
+        <f t="shared" si="13"/>
+        <v>0.16327528859323029</v>
       </c>
       <c r="E108" s="2">
         <v>1.7164999999999999</v>
@@ -4737,20 +4737,20 @@
         <v>1.8466</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.70210000000000017</v>
       </c>
       <c r="I108" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.1301000000000001</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="21"/>
-        <v>0.18530123913972379</v>
+        <f t="shared" si="14"/>
+        <v>0.15633261235279988</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" si="22"/>
-        <v>5.0400540226448361E-2</v>
+        <f t="shared" si="17"/>
+        <v>4.2521292108855371E-2</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4764,8 +4764,8 @@
         <v>0.42299999999999999</v>
       </c>
       <c r="D109" s="2">
-        <f t="shared" si="20"/>
-        <v>0.26348573564220756</v>
+        <f t="shared" si="13"/>
+        <v>0.20853874975350029</v>
       </c>
       <c r="E109" s="2">
         <v>1.72</v>
@@ -4777,20 +4777,20 @@
         <v>1.8743000000000001</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.67199999999999993</v>
       </c>
       <c r="I109" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.1543000000000001</v>
       </c>
       <c r="J109" s="2">
-        <f t="shared" si="21"/>
-        <v>0.22961309523809542</v>
+        <f t="shared" si="14"/>
+        <v>0.18673605228125389</v>
       </c>
       <c r="K109" s="1">
-        <f t="shared" si="22"/>
-        <v>0.1285558792074743</v>
+        <f t="shared" si="17"/>
+        <v>0.10454986182672478</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -4804,8 +4804,8 @@
         <v>0.108</v>
       </c>
       <c r="D110" s="2">
-        <f t="shared" si="20"/>
-        <v>5.6916996047430828E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.3851907255048612E-2</v>
       </c>
       <c r="E110" s="2">
         <v>1.7124999999999999</v>
@@ -4817,20 +4817,20 @@
         <v>1.7524999999999999</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.72150000000000025</v>
       </c>
       <c r="I110" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="J110" s="2">
-        <f t="shared" si="21"/>
-        <v>5.5440055440055473E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.2527905449770214E-2</v>
       </c>
       <c r="K110" s="1">
-        <f t="shared" si="22"/>
-        <v>2.5949025949025324E-2</v>
+        <f t="shared" si="17"/>
+        <v>2.4585977967461359E-2</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -4844,8 +4844,8 @@
         <v>0.2044</v>
       </c>
       <c r="D111" s="2">
-        <f t="shared" si="20"/>
-        <v>0.11335403726708075</v>
+        <f t="shared" si="13"/>
+        <v>0.10181311018131102</v>
       </c>
       <c r="E111" s="2">
         <v>1.718</v>
@@ -4857,20 +4857,20 @@
         <v>1.8041</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.74299999999999988</v>
       </c>
       <c r="I111" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>8.6100000000000065E-2</v>
       </c>
       <c r="J111" s="2">
-        <f t="shared" si="21"/>
-        <v>0.11588156123822352</v>
+        <f t="shared" si="14"/>
+        <v>0.10384754553129909</v>
       </c>
       <c r="K111" s="1">
-        <f t="shared" si="22"/>
-        <v>-2.2297608731725233E-2</v>
+        <f t="shared" si="17"/>
+        <v>-1.9982056793718415E-2</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -4884,8 +4884,8 @@
         <v>0.30420000000000003</v>
       </c>
       <c r="D112" s="2">
-        <f t="shared" si="20"/>
-        <v>0.17706635622817232</v>
+        <f t="shared" si="13"/>
+        <v>0.15043022450796165</v>
       </c>
       <c r="E112" s="2">
         <v>1.7137</v>
@@ -4897,20 +4897,20 @@
         <v>1.8414999999999999</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.67930000000000001</v>
       </c>
       <c r="I112" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.12779999999999991</v>
       </c>
       <c r="J112" s="2">
-        <f t="shared" si="21"/>
-        <v>0.18813484469306627</v>
+        <f t="shared" si="14"/>
+        <v>0.15834469086854161</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="22"/>
-        <v>-6.2510398365180117E-2</v>
+        <f t="shared" si="17"/>
+        <v>-5.2612208659976331E-2</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -4924,8 +4924,8 @@
         <v>0.4007</v>
       </c>
       <c r="D113" s="2">
-        <f t="shared" si="20"/>
-        <v>0.24948633335408754</v>
+        <f t="shared" si="13"/>
+        <v>0.19967111819812636</v>
       </c>
       <c r="E113" s="2">
         <v>1.7084999999999999</v>
@@ -4937,20 +4937,20 @@
         <v>1.8900999999999999</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.70150000000000023</v>
       </c>
       <c r="I113" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.18159999999999998</v>
       </c>
       <c r="J113" s="2">
-        <f t="shared" si="21"/>
-        <v>0.25887384176764067</v>
+        <f t="shared" si="14"/>
+        <v>0.2056392254557807</v>
       </c>
       <c r="K113" s="1">
-        <f t="shared" si="22"/>
-        <v>-3.7627345303238517E-2</v>
+        <f t="shared" si="17"/>
+        <v>-2.9889687159123372E-2</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -4964,8 +4964,8 @@
         <v>0.1002</v>
       </c>
       <c r="D114" s="2">
-        <f t="shared" si="20"/>
-        <v>5.233469131933563E-2</v>
+        <f t="shared" si="13"/>
+        <v>4.9731983323406788E-2</v>
       </c>
       <c r="E114" s="2">
         <v>1.7175</v>
@@ -4977,20 +4977,20 @@
         <v>1.7563</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.7488999999999999</v>
       </c>
       <c r="I114" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3.8799999999999946E-2</v>
       </c>
       <c r="J114" s="2">
-        <f t="shared" si="21"/>
-        <v>5.1809320336493457E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.925733147137229E-2</v>
       </c>
       <c r="K114" s="1">
-        <f t="shared" si="22"/>
-        <v>1.0038675486523197E-2</v>
+        <f t="shared" si="17"/>
+        <v>9.5441971205499666E-3</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5004,8 +5004,8 @@
         <v>0.20280000000000001</v>
       </c>
       <c r="D115" s="2">
-        <f t="shared" si="20"/>
-        <v>0.11147757255936676</v>
+        <f t="shared" si="13"/>
+        <v>0.10029673590504452</v>
       </c>
       <c r="E115" s="2">
         <v>1.71</v>
@@ -5017,20 +5017,20 @@
         <v>1.7916000000000001</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.73520000000000008</v>
       </c>
       <c r="I115" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>8.1600000000000117E-2</v>
       </c>
       <c r="J115" s="2">
-        <f t="shared" si="21"/>
-        <v>0.11099020674646369</v>
+        <f t="shared" si="14"/>
+        <v>9.9902056807052025E-2</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" si="22"/>
-        <v>4.3718732092369863E-3</v>
+        <f t="shared" si="17"/>
+        <v>3.9351140835346687E-3</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5044,8 +5044,8 @@
         <v>0.30769999999999997</v>
       </c>
       <c r="D116" s="2">
-        <f t="shared" si="20"/>
-        <v>0.18105325095616356</v>
+        <f t="shared" si="13"/>
+        <v>0.15329812674372259</v>
       </c>
       <c r="E116" s="2">
         <v>1.7164999999999999</v>
@@ -5057,20 +5057,20 @@
         <v>1.8465</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.7024999999999999</v>
       </c>
       <c r="I116" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.13000000000000012</v>
       </c>
       <c r="J116" s="2">
-        <f t="shared" si="21"/>
-        <v>0.18505338078291833</v>
+        <f t="shared" si="14"/>
+        <v>0.1561561561561563</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" si="22"/>
-        <v>-2.2093664740233106E-2</v>
+        <f t="shared" si="17"/>
+        <v>-1.8643602978995592E-2</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5084,8 +5084,8 @@
         <v>0.41689999999999999</v>
       </c>
       <c r="D117" s="2">
-        <f t="shared" si="20"/>
-        <v>0.26083964211975225</v>
+        <f t="shared" si="13"/>
+        <v>0.20687772925764192</v>
       </c>
       <c r="E117" s="2">
         <v>1.7169000000000001</v>
@@ -5097,20 +5097,20 @@
         <v>1.8995</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.69000000000000017</v>
       </c>
       <c r="I117" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.18259999999999987</v>
       </c>
       <c r="J117" s="2">
-        <f t="shared" si="21"/>
-        <v>0.26463768115942005</v>
+        <f t="shared" si="14"/>
+        <v>0.20925968370387332</v>
       </c>
       <c r="K117" s="1">
-        <f t="shared" si="22"/>
-        <v>-1.4560819853924309E-2</v>
+        <f t="shared" si="17"/>
+        <v>-1.1513827296823043E-2</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -5124,8 +5124,8 @@
         <v>0.1014</v>
       </c>
       <c r="D118" s="2">
-        <f t="shared" si="20"/>
-        <v>5.3139083953464006E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.0457802547770707E-2</v>
       </c>
       <c r="E118" s="2">
         <v>1.7215</v>
@@ -5137,20 +5137,20 @@
         <v>1.7574000000000001</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.72149999999999981</v>
       </c>
       <c r="I118" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3.5900000000000043E-2</v>
       </c>
       <c r="J118" s="2">
-        <f t="shared" si="21"/>
-        <v>4.9757449757449827E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.7398996567203658E-2</v>
       </c>
       <c r="K118" s="1">
-        <f t="shared" si="22"/>
-        <v>6.363741985043643E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.0621070005399812E-2</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -5164,8 +5164,8 @@
         <v>0.20030000000000001</v>
       </c>
       <c r="D119" s="2">
-        <f t="shared" si="20"/>
-        <v>0.11144494519557115</v>
+        <f t="shared" si="13"/>
+        <v>0.10027032438926713</v>
       </c>
       <c r="E119" s="2">
         <v>1.7244999999999999</v>
@@ -5177,20 +5177,20 @@
         <v>1.8076000000000001</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.71500000000000008</v>
       </c>
       <c r="I119" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>8.3100000000000174E-2</v>
       </c>
       <c r="J119" s="2">
-        <f t="shared" si="21"/>
-        <v>0.11622377622377646</v>
+        <f t="shared" si="14"/>
+        <v>0.10412229043979469</v>
       </c>
       <c r="K119" s="1">
-        <f t="shared" si="22"/>
-        <v>-4.2880644068863723E-2</v>
+        <f t="shared" si="17"/>
+        <v>-3.8415813192880011E-2</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -5204,8 +5204,8 @@
         <v>0.31290000000000001</v>
       </c>
       <c r="D120" s="2">
-        <f t="shared" si="20"/>
-        <v>0.1842756183745583</v>
+        <f t="shared" si="13"/>
+        <v>0.15560196926749217</v>
       </c>
       <c r="E120" s="2">
         <v>1.7204999999999999</v>
@@ -5217,20 +5217,20 @@
         <v>1.8964000000000001</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.6653</v>
       </c>
       <c r="I120" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.17590000000000017</v>
       </c>
       <c r="J120" s="2">
-        <f t="shared" si="21"/>
-        <v>0.2643920036073954</v>
+        <f t="shared" si="14"/>
+        <v>0.20910603899191646</v>
       </c>
       <c r="K120" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.43476389301808049</v>
+        <f t="shared" si="17"/>
+        <v>-0.34385213745236431</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5244,8 +5244,8 @@
         <v>0.4022</v>
       </c>
       <c r="D121" s="2">
-        <f t="shared" si="20"/>
-        <v>0.25205239080027575</v>
+        <f t="shared" si="13"/>
+        <v>0.20131137694579307</v>
       </c>
       <c r="E121" s="2">
         <v>1.7257</v>
@@ -5257,20 +5257,20 @@
         <v>1.8907</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.68810000000000016</v>
       </c>
       <c r="I121" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.16500000000000004</v>
       </c>
       <c r="J121" s="2">
-        <f t="shared" si="21"/>
-        <v>0.23979072809184712</v>
+        <f t="shared" si="14"/>
+        <v>0.19341226116516236</v>
       </c>
       <c r="K121" s="1">
-        <f t="shared" si="22"/>
-        <v>4.8647277930978519E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9238297906817751E-2</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5284,8 +5284,8 @@
         <v>0.1028</v>
       </c>
       <c r="D122" s="2">
-        <f t="shared" si="20"/>
-        <v>5.3785381677392351E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.1040166823891564E-2</v>
       </c>
       <c r="E122" s="2">
         <v>1.7091000000000001</v>
@@ -5297,20 +5297,20 @@
         <v>1.7444999999999999</v>
       </c>
       <c r="H122" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.67379999999999995</v>
       </c>
       <c r="I122" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3.5399999999999876E-2</v>
       </c>
       <c r="J122" s="2">
-        <f t="shared" si="21"/>
-        <v>5.2537845057880499E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.9915397631133507E-2</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" si="22"/>
-        <v>2.319471537814205E-2</v>
+        <f t="shared" si="17"/>
+        <v>2.2036941937101196E-2</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5324,8 +5324,8 @@
         <v>0.25190000000000001</v>
       </c>
       <c r="D123" s="2">
-        <f t="shared" si="20"/>
-        <v>0.12213925523661755</v>
+        <f t="shared" si="13"/>
+        <v>0.10884500712958564</v>
       </c>
       <c r="E123" s="2">
         <v>1.7231000000000001</v>
@@ -5337,20 +5337,20 @@
         <v>1.8388</v>
       </c>
       <c r="H123" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.7206999999999999</v>
       </c>
       <c r="I123" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.11569999999999991</v>
       </c>
       <c r="J123" s="2">
-        <f t="shared" si="21"/>
-        <v>0.1605383654780074</v>
+        <f t="shared" si="14"/>
+        <v>0.13833094213295066</v>
       </c>
       <c r="K123" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.31438795141660353</v>
+        <f t="shared" si="17"/>
+        <v>-0.2708983699018962</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5364,8 +5364,8 @@
         <v>0.30270000000000002</v>
       </c>
       <c r="D124" s="2">
-        <f t="shared" si="20"/>
-        <v>0.1780588235294118</v>
+        <f t="shared" si="13"/>
+        <v>0.15114595296349928</v>
       </c>
       <c r="E124" s="2">
         <v>1.7238</v>
@@ -5377,20 +5377,20 @@
         <v>1.8856999999999999</v>
       </c>
       <c r="H124" s="2">
-        <f t="shared" ref="H124:H134" si="23">IF(B124="","",IF(E124="",B124,F124-G124))</f>
+        <f t="shared" ref="H124:H142" si="18">IF(B124="","",IF(E124="",B124,F124-G124))</f>
         <v>0.65730000000000022</v>
       </c>
       <c r="I124" s="2">
-        <f t="shared" ref="I124:I134" si="24">IF(C124="","",IF(F124="",C124,G124-E124))</f>
+        <f t="shared" ref="I124:I142" si="19">IF(C124="","",IF(F124="",C124,G124-E124))</f>
         <v>0.16189999999999993</v>
       </c>
       <c r="J124" s="2">
-        <f t="shared" si="21"/>
-        <v>0.2463106648410161</v>
+        <f t="shared" si="14"/>
+        <v>0.19763183593749989</v>
       </c>
       <c r="K124" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.38331063835390583</v>
+        <f t="shared" si="17"/>
+        <v>-0.30755625316164853</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5404,8 +5404,8 @@
         <v>0.4042</v>
       </c>
       <c r="D125" s="2">
-        <f t="shared" ref="D125:D143" si="25">C125/B125</f>
-        <v>0.25127440009946539</v>
+        <f t="shared" si="13"/>
+        <v>0.20081478537360892</v>
       </c>
       <c r="E125" s="2">
         <v>1.7208000000000001</v>
@@ -5417,20 +5417,20 @@
         <v>1.9124000000000001</v>
       </c>
       <c r="H125" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.69389999999999996</v>
       </c>
       <c r="I125" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0.19159999999999999</v>
       </c>
       <c r="J125" s="2">
-        <f t="shared" ref="J125:J134" si="26">I125/H125</f>
-        <v>0.27612047845510879</v>
+        <f t="shared" si="14"/>
+        <v>0.21637492941840769</v>
       </c>
       <c r="K125" s="1">
-        <f t="shared" ref="K125:K134" si="27">(D125-J125)/D125</f>
-        <v>-9.8880261362909366E-2</v>
+        <f t="shared" ref="K125:K142" si="20">(D125-J125)/D125</f>
+        <v>-7.7485051789636245E-2</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5444,8 +5444,8 @@
         <v>1.95E-2</v>
       </c>
       <c r="D126" s="2">
-        <f t="shared" si="25"/>
-        <v>9.8709187547456334E-3</v>
+        <f t="shared" si="13"/>
+        <v>9.7744360902255641E-3</v>
       </c>
       <c r="E126" s="2">
         <v>1.7067000000000001</v>
@@ -5457,20 +5457,20 @@
         <v>1.7123999999999999</v>
       </c>
       <c r="H126" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.86760000000000015</v>
       </c>
       <c r="I126" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>5.6999999999998163E-3</v>
       </c>
       <c r="J126" s="2">
-        <f t="shared" si="26"/>
-        <v>6.5698478561546977E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.5269666781172754E-3</v>
       </c>
       <c r="K126" s="1">
-        <f t="shared" si="27"/>
-        <v>0.33442387488032788</v>
+        <f t="shared" si="20"/>
+        <v>0.3322411013926172</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5484,8 +5484,8 @@
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="D127" s="2">
-        <f t="shared" si="25"/>
-        <v>3.0360824742268044E-2</v>
+        <f t="shared" si="13"/>
+        <v>2.9466206413527443E-2</v>
       </c>
       <c r="E127" s="2">
         <v>1.6913</v>
@@ -5497,20 +5497,20 @@
         <v>1.7114</v>
       </c>
       <c r="H127" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.6540999999999999</v>
       </c>
       <c r="I127" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>2.0100000000000007E-2</v>
       </c>
       <c r="J127" s="2">
-        <f t="shared" si="26"/>
-        <v>3.0729246292615822E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.9813111836250385E-2</v>
       </c>
       <c r="K127" s="1">
-        <f t="shared" si="27"/>
-        <v>-1.2134767532677252E-2</v>
+        <f t="shared" si="20"/>
+        <v>-1.1772992351118637E-2</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5524,8 +5524,8 @@
         <v>0.10489999999999999</v>
       </c>
       <c r="D128" s="2">
-        <f t="shared" si="25"/>
-        <v>5.5297838692672636E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.2400219791198355E-2</v>
       </c>
       <c r="E128" s="2">
         <v>1.7044999999999999</v>
@@ -5537,20 +5537,20 @@
         <v>1.7392000000000001</v>
       </c>
       <c r="H128" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.65129999999999977</v>
       </c>
       <c r="I128" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>3.4700000000000175E-2</v>
       </c>
       <c r="J128" s="2">
-        <f t="shared" si="26"/>
-        <v>5.3278059266083505E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.0583090379009009E-2</v>
       </c>
       <c r="K128" s="1">
-        <f t="shared" si="27"/>
-        <v>3.652546780018668E-2</v>
+        <f t="shared" si="20"/>
+        <v>3.467789676131413E-2</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -5564,8 +5564,8 @@
         <v>0.13950000000000001</v>
       </c>
       <c r="D129" s="2">
-        <f t="shared" si="25"/>
-        <v>7.5092856758357113E-2</v>
+        <f t="shared" si="13"/>
+        <v>6.9847786901662337E-2</v>
       </c>
       <c r="E129" s="2">
         <v>1.7269000000000001</v>
@@ -5577,651 +5577,971 @@
         <v>1.7701</v>
       </c>
       <c r="H129" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.60030000000000006</v>
       </c>
       <c r="I129" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>4.3199999999999905E-2</v>
       </c>
       <c r="J129" s="2">
-        <f t="shared" si="26"/>
-        <v>7.1964017991004339E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.7132867132866994E-2</v>
       </c>
       <c r="K129" s="1">
-        <f t="shared" si="27"/>
-        <v>4.1666263642374531E-2</v>
+        <f t="shared" si="20"/>
+        <v>3.886908790134809E-2</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B130" s="2">
-        <v>3.9599000000000002</v>
+        <v>1.9790000000000001</v>
       </c>
       <c r="C130" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="D130" s="2">
-        <f t="shared" si="25"/>
-        <v>1.1111391701810651E-2</v>
+        <f t="shared" si="13"/>
+        <v>1.0846203828659969E-2</v>
       </c>
       <c r="E130" s="2">
-        <v>1.6707000000000001</v>
+        <v>1.6992</v>
       </c>
       <c r="F130" s="2">
-        <v>2.3456000000000001</v>
+        <v>2.2854999999999999</v>
       </c>
       <c r="G130" s="2">
-        <v>1.6786000000000001</v>
+        <v>1.7088000000000001</v>
       </c>
       <c r="H130" s="2">
-        <f t="shared" si="23"/>
-        <v>0.66700000000000004</v>
+        <f t="shared" si="18"/>
+        <v>0.57669999999999977</v>
       </c>
       <c r="I130" s="2">
-        <f t="shared" si="24"/>
-        <v>7.9000000000000181E-3</v>
+        <f t="shared" si="19"/>
+        <v>9.6000000000000529E-3</v>
       </c>
       <c r="J130" s="2">
-        <f t="shared" si="26"/>
-        <v>1.1844077961019517E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.6373870032406711E-2</v>
       </c>
       <c r="K130" s="1">
-        <f t="shared" si="27"/>
-        <v>-6.5940098132754282E-2</v>
+        <f t="shared" si="20"/>
+        <v>-0.50964063473899113</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="B131" s="2">
-        <v>3.8832</v>
+        <v>1.9375</v>
       </c>
       <c r="C131" s="2">
-        <v>0.12559999999999999</v>
+        <v>5.9799999999999999E-2</v>
       </c>
       <c r="D131" s="2">
-        <f t="shared" si="25"/>
-        <v>3.2344458178821589E-2</v>
+        <f t="shared" ref="D131:D153" si="21">C131/(B131+C131)</f>
+        <v>2.9940419566414658E-2</v>
       </c>
       <c r="E131" s="2">
-        <v>1.7161999999999999</v>
+        <v>1.6886000000000001</v>
       </c>
       <c r="F131" s="2">
-        <v>2.3948</v>
+        <v>2.2498</v>
       </c>
       <c r="G131" s="2">
-        <v>1.7395</v>
+        <v>1.7099</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" si="23"/>
-        <v>0.65529999999999999</v>
+        <f t="shared" si="18"/>
+        <v>0.53990000000000005</v>
       </c>
       <c r="I131" s="2">
-        <f t="shared" si="24"/>
-        <v>2.3300000000000098E-2</v>
+        <f t="shared" si="19"/>
+        <v>2.1299999999999875E-2</v>
       </c>
       <c r="J131" s="2">
-        <f t="shared" si="26"/>
-        <v>3.5556233786052341E-2</v>
+        <f t="shared" ref="J131:J153" si="22">I131/(H131+I131)</f>
+        <v>3.7954383464005481E-2</v>
       </c>
       <c r="K131" s="1">
-        <f t="shared" si="27"/>
-        <v>-9.9299100621006817E-2</v>
+        <f t="shared" si="20"/>
+        <v>-0.26766371392404936</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="B132" s="2">
-        <v>3.8012000000000001</v>
+        <v>1.9661999999999999</v>
       </c>
       <c r="C132" s="2">
-        <v>0.20219999999999999</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="D132" s="2">
-        <f t="shared" si="25"/>
-        <v>5.3193728296327472E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.1450256308167021E-2</v>
       </c>
       <c r="E132" s="2">
-        <v>1.7124999999999999</v>
+        <v>1.6911</v>
       </c>
       <c r="F132" s="2">
-        <v>2.4045000000000001</v>
+        <v>2.3498999999999999</v>
       </c>
       <c r="G132" s="2">
-        <v>1.7507999999999999</v>
+        <v>1.7097</v>
       </c>
       <c r="H132" s="2">
-        <f t="shared" si="23"/>
-        <v>0.65370000000000017</v>
+        <f t="shared" si="18"/>
+        <v>0.64019999999999988</v>
       </c>
       <c r="I132" s="2">
-        <f t="shared" si="24"/>
-        <v>3.8300000000000001E-2</v>
+        <f t="shared" si="19"/>
+        <v>1.859999999999995E-2</v>
       </c>
       <c r="J132" s="2">
-        <f t="shared" si="26"/>
-        <v>5.8589567079700151E-2</v>
+        <f t="shared" si="22"/>
+        <v>2.8233151183970788E-2</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" si="27"/>
-        <v>-0.10143749942312676</v>
+        <f t="shared" si="20"/>
+        <v>-0.31621509684344573</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="B133" s="2">
-        <v>3.7269999999999999</v>
+        <v>1.9220999999999999</v>
       </c>
       <c r="C133" s="2">
-        <v>0.28420000000000001</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="D133" s="2">
-        <f t="shared" si="25"/>
-        <v>7.6254360075127453E-2</v>
+        <f t="shared" si="21"/>
+        <v>4.0101877746703957E-2</v>
       </c>
       <c r="E133" s="2">
-        <v>1.7161999999999999</v>
+        <v>1.7003999999999999</v>
       </c>
       <c r="F133" s="2">
-        <v>2.1821000000000002</v>
+        <v>2.3527999999999998</v>
       </c>
       <c r="G133" s="2">
-        <v>1.7656000000000001</v>
+        <v>1.7274</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" si="23"/>
-        <v>0.41650000000000009</v>
+        <f t="shared" si="18"/>
+        <v>0.62539999999999973</v>
       </c>
       <c r="I133" s="2">
-        <f t="shared" si="24"/>
-        <v>4.940000000000011E-2</v>
+        <f t="shared" si="19"/>
+        <v>2.7000000000000135E-2</v>
       </c>
       <c r="J133" s="2">
-        <f t="shared" si="26"/>
-        <v>0.11860744297719111</v>
+        <f t="shared" si="22"/>
+        <v>4.1385652973636021E-2</v>
       </c>
       <c r="K133" s="1">
-        <f t="shared" si="27"/>
-        <v>-0.55541850800841397</v>
+        <f t="shared" si="20"/>
+        <v>-3.2012845758515138E-2</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="B134" s="2">
-        <v>3.9563000000000001</v>
+        <v>1.9807999999999999</v>
       </c>
       <c r="C134" s="2">
-        <v>4.2900000000000001E-2</v>
+        <v>2.06E-2</v>
       </c>
       <c r="D134" s="2">
-        <f t="shared" si="25"/>
-        <v>1.0843464853524758E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.0292795043469572E-2</v>
       </c>
       <c r="E134" s="2">
-        <v>1.7292000000000001</v>
+        <v>1.6886000000000001</v>
       </c>
       <c r="F134" s="2">
-        <v>2.3426999999999998</v>
+        <v>2.2938999999999998</v>
       </c>
       <c r="G134" s="2">
-        <v>1.7359</v>
+        <v>1.6948000000000001</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="23"/>
-        <v>0.60679999999999978</v>
+        <f t="shared" si="18"/>
+        <v>0.59909999999999974</v>
       </c>
       <c r="I134" s="2">
-        <f t="shared" si="24"/>
-        <v>6.6999999999999282E-3</v>
+        <f t="shared" si="19"/>
+        <v>6.1999999999999833E-3</v>
       </c>
       <c r="J134" s="2">
-        <f t="shared" si="26"/>
-        <v>1.1041529334212147E-2</v>
+        <f t="shared" si="22"/>
+        <v>1.0242854782752331E-2</v>
       </c>
       <c r="K134" s="1">
-        <f t="shared" si="27"/>
-        <v>-1.8265792656026014E-2</v>
+        <f t="shared" si="20"/>
+        <v>4.8519629999750798E-3</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="B135" s="2">
-        <v>3.9163999999999999</v>
+        <v>1.9435</v>
       </c>
       <c r="C135" s="2">
-        <v>8.4400000000000003E-2</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="D135" s="2">
-        <f t="shared" si="25"/>
-        <v>2.1550403431723011E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.0092823635093323E-2</v>
       </c>
       <c r="E135" s="2">
-        <v>1.7150000000000001</v>
+        <v>1.6956</v>
       </c>
       <c r="F135" s="2">
-        <v>2.3788</v>
+        <v>2.2951000000000001</v>
       </c>
       <c r="G135" s="2">
-        <v>1.7289000000000001</v>
+        <v>1.7164999999999999</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" ref="H135:H145" si="28">IF(B135="","",IF(E135="",B135,F135-G135))</f>
-        <v>0.64989999999999992</v>
+        <f t="shared" si="18"/>
+        <v>0.57860000000000023</v>
       </c>
       <c r="I135" s="2">
-        <f t="shared" ref="I135:I145" si="29">IF(C135="","",IF(F135="",C135,G135-E135))</f>
-        <v>1.3900000000000023E-2</v>
+        <f t="shared" si="19"/>
+        <v>2.0899999999999919E-2</v>
       </c>
       <c r="J135" s="2">
-        <f t="shared" ref="J135:J145" si="30">I135/H135</f>
-        <v>2.138790583166645E-2</v>
+        <f t="shared" si="22"/>
+        <v>3.4862385321100774E-2</v>
       </c>
       <c r="K135" s="1">
-        <f t="shared" ref="K135:K145" si="31">(D135-J135)/D135</f>
-        <v>7.5403507211080044E-3</v>
+        <f t="shared" si="20"/>
+        <v>-0.158494986839498</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B136" s="2">
-        <v>3.8834</v>
+        <v>1.9652000000000001</v>
       </c>
       <c r="C136" s="2">
-        <v>0.1235</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="D136" s="2">
-        <f t="shared" si="25"/>
-        <v>3.1802029149714167E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.0485470767083687E-2</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1.6919</v>
+      </c>
+      <c r="F136" s="2">
+        <v>2.2717999999999998</v>
+      </c>
+      <c r="G136" s="2">
+        <v>1.7071000000000001</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="28"/>
-        <v>3.8834</v>
+        <f t="shared" si="18"/>
+        <v>0.56469999999999976</v>
       </c>
       <c r="I136" s="2">
-        <f t="shared" si="29"/>
-        <v>0.1235</v>
+        <f t="shared" si="19"/>
+        <v>1.5200000000000102E-2</v>
       </c>
       <c r="J136" s="2">
-        <f t="shared" si="30"/>
-        <v>3.1802029149714167E-2</v>
+        <f t="shared" si="22"/>
+        <v>2.6211415761338345E-2</v>
       </c>
       <c r="K136" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>-0.2795124925054287</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="B137" s="2">
-        <v>3.8393000000000002</v>
+        <v>1.9249000000000001</v>
       </c>
       <c r="C137" s="2">
-        <v>0.158</v>
+        <v>8.4099999999999994E-2</v>
       </c>
       <c r="D137" s="2">
-        <f t="shared" si="25"/>
-        <v>4.1153335243403741E-2</v>
+        <f t="shared" si="21"/>
+        <v>4.1861622697859632E-2</v>
       </c>
       <c r="E137" s="2">
-        <v>1.72</v>
+        <v>1.6898</v>
       </c>
       <c r="F137" s="2">
-        <v>2.4062999999999999</v>
+        <v>2.3325999999999998</v>
       </c>
       <c r="G137" s="2">
-        <v>1.7465999999999999</v>
+        <v>1.7222999999999999</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="28"/>
-        <v>0.65969999999999995</v>
+        <f t="shared" si="18"/>
+        <v>0.61029999999999984</v>
       </c>
       <c r="I137" s="2">
-        <f t="shared" si="29"/>
-        <v>2.6599999999999957E-2</v>
+        <f t="shared" si="19"/>
+        <v>3.2499999999999973E-2</v>
       </c>
       <c r="J137" s="2">
-        <f t="shared" si="30"/>
-        <v>4.0321358193118023E-2</v>
+        <f t="shared" si="22"/>
+        <v>5.0560049782202833E-2</v>
       </c>
       <c r="K137" s="1">
-        <f t="shared" si="31"/>
-        <v>2.0216515754189597E-2</v>
+        <f t="shared" si="20"/>
+        <v>-0.20779001203859085</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B138" s="2">
-        <v>3.8007</v>
+        <v>3.9599000000000002</v>
       </c>
       <c r="C138" s="2">
-        <v>0.1983</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D138" s="2">
-        <f t="shared" si="25"/>
-        <v>5.2174599415897076E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.0989285446689478E-2</v>
       </c>
       <c r="E138" s="2">
-        <v>1.7081999999999999</v>
+        <v>1.6707000000000001</v>
       </c>
       <c r="F138" s="2">
-        <v>2.1953999999999998</v>
+        <v>2.3456000000000001</v>
       </c>
       <c r="G138" s="2">
-        <v>1.7424999999999999</v>
+        <v>1.6786000000000001</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="28"/>
-        <v>0.45289999999999986</v>
+        <f t="shared" si="18"/>
+        <v>0.66700000000000004</v>
       </c>
       <c r="I138" s="2">
-        <f t="shared" si="29"/>
-        <v>3.4299999999999997E-2</v>
+        <f t="shared" si="19"/>
+        <v>7.9000000000000181E-3</v>
       </c>
       <c r="J138" s="2">
-        <f t="shared" si="30"/>
-        <v>7.5734157650695536E-2</v>
+        <f t="shared" si="22"/>
+        <v>1.1705437842643381E-2</v>
       </c>
       <c r="K138" s="1">
-        <f t="shared" si="31"/>
-        <v>-0.45155225911749119</v>
+        <f t="shared" si="20"/>
+        <v>-6.5168240412723427E-2</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B139" s="2">
-        <v>3.722</v>
+        <v>3.8832</v>
       </c>
       <c r="C139" s="2">
-        <v>0.27929999999999999</v>
+        <v>0.12559999999999999</v>
       </c>
       <c r="D139" s="2">
-        <f t="shared" si="25"/>
-        <v>7.5040300913487373E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.133107164238675E-2</v>
       </c>
       <c r="E139" s="2">
-        <v>1.7197</v>
+        <v>1.7161999999999999</v>
       </c>
       <c r="F139" s="2">
-        <v>2.3971</v>
+        <v>2.3948</v>
       </c>
       <c r="G139" s="2">
-        <v>1.7666999999999999</v>
+        <v>1.7395</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="28"/>
-        <v>0.63040000000000007</v>
+        <f t="shared" si="18"/>
+        <v>0.65529999999999999</v>
       </c>
       <c r="I139" s="2">
-        <f t="shared" si="29"/>
-        <v>4.6999999999999931E-2</v>
+        <f t="shared" si="19"/>
+        <v>2.3300000000000098E-2</v>
       </c>
       <c r="J139" s="2">
-        <f t="shared" si="30"/>
-        <v>7.455583756345166E-2</v>
+        <f t="shared" si="22"/>
+        <v>3.4335396404362062E-2</v>
       </c>
       <c r="K139" s="1">
-        <f t="shared" si="31"/>
-        <v>6.45604220849597E-3</v>
+        <f t="shared" si="20"/>
+        <v>-9.5889626638587813E-2</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B140" s="2">
-        <v>3.9603999999999999</v>
+        <v>3.8012000000000001</v>
       </c>
       <c r="C140" s="2">
-        <v>3.9100000000000003E-2</v>
+        <v>0.20219999999999999</v>
       </c>
       <c r="D140" s="2">
-        <f t="shared" si="25"/>
-        <v>9.8727401272598742E-3</v>
+        <f t="shared" si="21"/>
+        <v>5.0507068991357346E-2</v>
       </c>
       <c r="E140" s="2">
-        <v>1.7125999999999999</v>
+        <v>1.7124999999999999</v>
       </c>
       <c r="F140" s="2">
-        <v>2.3167</v>
+        <v>2.4045000000000001</v>
       </c>
       <c r="G140" s="2">
-        <v>1.7198</v>
+        <v>1.7507999999999999</v>
       </c>
       <c r="H140" s="2">
-        <f t="shared" si="28"/>
-        <v>0.59689999999999999</v>
+        <f t="shared" si="18"/>
+        <v>0.65370000000000017</v>
       </c>
       <c r="I140" s="2">
-        <f t="shared" si="29"/>
-        <v>7.2000000000000952E-3</v>
+        <f t="shared" si="19"/>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="J140" s="2">
-        <f t="shared" si="30"/>
-        <v>1.2062321996984579E-2</v>
+        <f t="shared" si="22"/>
+        <v>5.5346820809248541E-2</v>
       </c>
       <c r="K140" s="1">
-        <f t="shared" si="31"/>
-        <v>-0.22178056360249923</v>
+        <f t="shared" si="20"/>
+        <v>-9.5823256319216676E-2</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B141" s="2">
-        <v>3.9201999999999999</v>
+        <v>3.7269999999999999</v>
       </c>
       <c r="C141" s="2">
-        <v>8.0199999999999994E-2</v>
+        <v>0.28420000000000001</v>
       </c>
       <c r="D141" s="2">
-        <f t="shared" si="25"/>
-        <v>2.0458139890821896E-2</v>
+        <f t="shared" si="21"/>
+        <v>7.0851615476665339E-2</v>
       </c>
       <c r="E141" s="2">
-        <v>1.7192000000000001</v>
+        <v>1.7161999999999999</v>
       </c>
       <c r="F141" s="2">
-        <v>2.3410000000000002</v>
+        <v>2.1821000000000002</v>
       </c>
       <c r="G141" s="2">
-        <v>1.7336</v>
+        <v>1.7656000000000001</v>
       </c>
       <c r="H141" s="2">
-        <f t="shared" si="28"/>
-        <v>0.60740000000000016</v>
+        <f t="shared" si="18"/>
+        <v>0.41650000000000009</v>
       </c>
       <c r="I141" s="2">
-        <f t="shared" si="29"/>
-        <v>1.4399999999999968E-2</v>
+        <f t="shared" si="19"/>
+        <v>4.940000000000011E-2</v>
       </c>
       <c r="J141" s="2">
-        <f t="shared" si="30"/>
-        <v>2.3707606190319336E-2</v>
+        <f t="shared" si="22"/>
+        <v>0.10603133719682355</v>
       </c>
       <c r="K141" s="1">
-        <f t="shared" si="31"/>
-        <v>-0.15883488512830257</v>
+        <f t="shared" si="20"/>
+        <v>-0.49652674090041732</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B142" s="2">
-        <v>3.8834</v>
+        <v>3.9563000000000001</v>
       </c>
       <c r="C142" s="2">
-        <v>0.1226</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="D142" s="2">
-        <f t="shared" si="25"/>
-        <v>3.1570273471700057E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.0727145429085818E-2</v>
       </c>
       <c r="E142" s="2">
-        <v>1.7178</v>
+        <v>1.7292000000000001</v>
       </c>
       <c r="F142" s="2">
-        <v>2.2997000000000001</v>
+        <v>2.3426999999999998</v>
       </c>
       <c r="G142" s="2">
-        <v>1.7386999999999999</v>
+        <v>1.7359</v>
       </c>
       <c r="H142" s="2">
-        <f t="shared" si="28"/>
-        <v>0.56100000000000017</v>
+        <f t="shared" si="18"/>
+        <v>0.60679999999999978</v>
       </c>
       <c r="I142" s="2">
-        <f t="shared" si="29"/>
-        <v>2.0899999999999919E-2</v>
+        <f t="shared" si="19"/>
+        <v>6.6999999999999282E-3</v>
       </c>
       <c r="J142" s="2">
-        <f t="shared" si="30"/>
-        <v>3.7254901960784161E-2</v>
+        <f t="shared" si="22"/>
+        <v>1.0920945395272911E-2</v>
       </c>
       <c r="K142" s="1">
-        <f t="shared" si="31"/>
-        <v>-0.1800626939193247</v>
+        <f t="shared" si="20"/>
+        <v>-1.8066312931828081E-2</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B143" s="2">
-        <v>3.843</v>
+        <v>3.9163999999999999</v>
       </c>
       <c r="C143" s="2">
-        <v>0.16009999999999999</v>
+        <v>8.4400000000000003E-2</v>
       </c>
       <c r="D143" s="2">
-        <f t="shared" si="25"/>
-        <v>4.1660161332292479E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.1095780843831236E-2</v>
       </c>
       <c r="E143" s="2">
-        <v>1.7165999999999999</v>
+        <v>1.7150000000000001</v>
       </c>
       <c r="F143" s="2">
-        <v>2.3759999999999999</v>
+        <v>2.3788</v>
       </c>
       <c r="G143" s="2">
-        <v>1.7383</v>
+        <v>1.7289000000000001</v>
       </c>
       <c r="H143" s="2">
-        <f t="shared" si="28"/>
-        <v>0.63769999999999993</v>
+        <f t="shared" ref="H143:H153" si="23">IF(B143="","",IF(E143="",B143,F143-G143))</f>
+        <v>0.64989999999999992</v>
       </c>
       <c r="I143" s="2">
-        <f t="shared" si="29"/>
-        <v>2.1700000000000053E-2</v>
+        <f t="shared" ref="I143:I153" si="24">IF(C143="","",IF(F143="",C143,G143-E143))</f>
+        <v>1.3900000000000023E-2</v>
       </c>
       <c r="J143" s="2">
-        <f t="shared" si="30"/>
-        <v>3.4028540065861777E-2</v>
+        <f t="shared" si="22"/>
+        <v>2.0940042181379969E-2</v>
       </c>
       <c r="K143" s="1">
-        <f t="shared" si="31"/>
-        <v>0.18318751109864578</v>
+        <f t="shared" ref="K143:K153" si="25">(D143-J143)/D143</f>
+        <v>7.3824554589458158E-3</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B144" s="2">
-        <v>3.8003</v>
+        <v>3.8834</v>
       </c>
       <c r="C144" s="2">
-        <v>0.19950000000000001</v>
+        <v>0.1235</v>
       </c>
       <c r="D144" s="2">
-        <f t="shared" ref="D144:D145" si="32">C144/B144</f>
-        <v>5.2495855590348132E-2</v>
-      </c>
-      <c r="E144" s="2">
-        <v>1.7135</v>
-      </c>
-      <c r="F144" s="2">
-        <v>2.4060999999999999</v>
-      </c>
-      <c r="G144" s="2">
-        <v>1.736</v>
+        <f t="shared" si="21"/>
+        <v>3.0821832339214855E-2</v>
       </c>
       <c r="H144" s="2">
-        <f t="shared" si="28"/>
-        <v>0.67009999999999992</v>
+        <f t="shared" si="23"/>
+        <v>3.8834</v>
       </c>
       <c r="I144" s="2">
-        <f t="shared" si="29"/>
-        <v>2.2499999999999964E-2</v>
+        <f t="shared" si="24"/>
+        <v>0.1235</v>
       </c>
       <c r="J144" s="2">
-        <f t="shared" si="30"/>
-        <v>3.3577078048052482E-2</v>
+        <f t="shared" si="22"/>
+        <v>3.0821832339214855E-2</v>
       </c>
       <c r="K144" s="1">
-        <f t="shared" si="31"/>
-        <v>0.36038611676183535</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>170</v>
+      </c>
+      <c r="B145" s="2">
+        <v>3.8393000000000002</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="D145" s="2">
+        <f t="shared" si="21"/>
+        <v>3.9526680509343805E-2</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="F145" s="2">
+        <v>2.4062999999999999</v>
+      </c>
+      <c r="G145" s="2">
+        <v>1.7465999999999999</v>
+      </c>
+      <c r="H145" s="2">
+        <f t="shared" si="23"/>
+        <v>0.65969999999999995</v>
+      </c>
+      <c r="I145" s="2">
+        <f t="shared" si="24"/>
+        <v>2.6599999999999957E-2</v>
+      </c>
+      <c r="J145" s="2">
+        <f t="shared" si="22"/>
+        <v>3.8758560396328079E-2</v>
+      </c>
+      <c r="K145" s="1">
+        <f t="shared" si="25"/>
+        <v>1.9432952707327603E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>171</v>
+      </c>
+      <c r="B146" s="2">
+        <v>3.8007</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0.1983</v>
+      </c>
+      <c r="D146" s="2">
+        <f t="shared" si="21"/>
+        <v>4.9587396849212304E-2</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1.7081999999999999</v>
+      </c>
+      <c r="F146" s="2">
+        <v>2.1953999999999998</v>
+      </c>
+      <c r="G146" s="2">
+        <v>1.7424999999999999</v>
+      </c>
+      <c r="H146" s="2">
+        <f t="shared" si="23"/>
+        <v>0.45289999999999986</v>
+      </c>
+      <c r="I146" s="2">
+        <f t="shared" si="24"/>
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="J146" s="2">
+        <f t="shared" si="22"/>
+        <v>7.0402298850574724E-2</v>
+      </c>
+      <c r="K146" s="1">
+        <f t="shared" si="25"/>
+        <v>-0.41976194202444939</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>172</v>
+      </c>
+      <c r="B147" s="2">
+        <v>3.722</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="D147" s="2">
+        <f t="shared" si="21"/>
+        <v>6.9802314247869451E-2</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1.7197</v>
+      </c>
+      <c r="F147" s="2">
+        <v>2.3971</v>
+      </c>
+      <c r="G147" s="2">
+        <v>1.7666999999999999</v>
+      </c>
+      <c r="H147" s="2">
+        <f t="shared" si="23"/>
+        <v>0.63040000000000007</v>
+      </c>
+      <c r="I147" s="2">
+        <f t="shared" si="24"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="J147" s="2">
+        <f t="shared" si="22"/>
+        <v>6.9382934750516573E-2</v>
+      </c>
+      <c r="K147" s="1">
+        <f t="shared" si="25"/>
+        <v>6.00810305319754E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" s="2">
+        <v>3.9603999999999999</v>
+      </c>
+      <c r="C148" s="2">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="D148" s="2">
+        <f t="shared" si="21"/>
+        <v>9.7762220277534707E-3</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1.7125999999999999</v>
+      </c>
+      <c r="F148" s="2">
+        <v>2.3167</v>
+      </c>
+      <c r="G148" s="2">
+        <v>1.7198</v>
+      </c>
+      <c r="H148" s="2">
+        <f t="shared" si="23"/>
+        <v>0.59689999999999999</v>
+      </c>
+      <c r="I148" s="2">
+        <f t="shared" si="24"/>
+        <v>7.2000000000000952E-3</v>
+      </c>
+      <c r="J148" s="2">
+        <f t="shared" si="22"/>
+        <v>1.1918556530375922E-2</v>
+      </c>
+      <c r="K148" s="1">
+        <f t="shared" si="25"/>
+        <v>-0.2191372594178643</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>174</v>
+      </c>
+      <c r="B149" s="2">
+        <v>3.9201999999999999</v>
+      </c>
+      <c r="C149" s="2">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="D149" s="2">
+        <f t="shared" si="21"/>
+        <v>2.0047995200479951E-2</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1.7192000000000001</v>
+      </c>
+      <c r="F149" s="2">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="G149" s="2">
+        <v>1.7336</v>
+      </c>
+      <c r="H149" s="2">
+        <f t="shared" si="23"/>
+        <v>0.60740000000000016</v>
+      </c>
+      <c r="I149" s="2">
+        <f t="shared" si="24"/>
+        <v>1.4399999999999968E-2</v>
+      </c>
+      <c r="J149" s="2">
+        <f t="shared" si="22"/>
+        <v>2.3158571888066849E-2</v>
+      </c>
+      <c r="K149" s="1">
+        <f t="shared" si="25"/>
+        <v>-0.15515649602272599</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>175</v>
+      </c>
+      <c r="B150" s="2">
+        <v>3.8834</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0.1226</v>
+      </c>
+      <c r="D150" s="2">
+        <f t="shared" si="21"/>
+        <v>3.060409385921118E-2</v>
+      </c>
+      <c r="E150" s="2">
+        <v>1.7178</v>
+      </c>
+      <c r="F150" s="2">
+        <v>2.2997000000000001</v>
+      </c>
+      <c r="G150" s="2">
+        <v>1.7386999999999999</v>
+      </c>
+      <c r="H150" s="2">
+        <f t="shared" si="23"/>
+        <v>0.56100000000000017</v>
+      </c>
+      <c r="I150" s="2">
+        <f t="shared" si="24"/>
+        <v>2.0899999999999919E-2</v>
+      </c>
+      <c r="J150" s="2">
+        <f t="shared" si="22"/>
+        <v>3.5916824196597211E-2</v>
+      </c>
+      <c r="K150" s="1">
+        <f t="shared" si="25"/>
+        <v>-0.17359541379745874</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>176</v>
+      </c>
+      <c r="B151" s="2">
+        <v>3.843</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0.16009999999999999</v>
+      </c>
+      <c r="D151" s="2">
+        <f t="shared" si="21"/>
+        <v>3.9994004646399038E-2</v>
+      </c>
+      <c r="E151" s="2">
+        <v>1.7165999999999999</v>
+      </c>
+      <c r="F151" s="2">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="G151" s="2">
+        <v>1.7383</v>
+      </c>
+      <c r="H151" s="2">
+        <f t="shared" si="23"/>
+        <v>0.63769999999999993</v>
+      </c>
+      <c r="I151" s="2">
+        <f t="shared" si="24"/>
+        <v>2.1700000000000053E-2</v>
+      </c>
+      <c r="J151" s="2">
+        <f t="shared" si="22"/>
+        <v>3.2908704883227259E-2</v>
+      </c>
+      <c r="K151" s="1">
+        <f t="shared" si="25"/>
+        <v>0.17715904735760743</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>177</v>
+      </c>
+      <c r="B152" s="2">
+        <v>3.8003</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0.19950000000000001</v>
+      </c>
+      <c r="D152" s="2">
+        <f t="shared" si="21"/>
+        <v>4.9877493874693736E-2</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1.7135</v>
+      </c>
+      <c r="F152" s="2">
+        <v>2.4060999999999999</v>
+      </c>
+      <c r="G152" s="2">
+        <v>1.736</v>
+      </c>
+      <c r="H152" s="2">
+        <f t="shared" si="23"/>
+        <v>0.67009999999999992</v>
+      </c>
+      <c r="I152" s="2">
+        <f t="shared" si="24"/>
+        <v>2.2499999999999964E-2</v>
+      </c>
+      <c r="J152" s="2">
+        <f t="shared" si="22"/>
+        <v>3.2486283569159641E-2</v>
+      </c>
+      <c r="K152" s="1">
+        <f t="shared" si="25"/>
+        <v>0.34867851117832216</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>178</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B153" s="2">
         <v>3.7229000000000001</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C153" s="2">
         <v>0.2802</v>
       </c>
-      <c r="D145" s="2">
-        <f t="shared" si="32"/>
-        <v>7.526390716914233E-2</v>
-      </c>
-      <c r="E145" s="2">
+      <c r="D153" s="2">
+        <f t="shared" si="21"/>
+        <v>6.9995753291199322E-2</v>
+      </c>
+      <c r="E153" s="2">
         <v>1.7130000000000001</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F153" s="2">
         <v>2.3294999999999999</v>
       </c>
-      <c r="G145" s="2">
+      <c r="G153" s="2">
         <v>1.7413000000000001</v>
       </c>
-      <c r="H145" s="2">
-        <f t="shared" si="28"/>
+      <c r="H153" s="2">
+        <f t="shared" si="23"/>
         <v>0.58819999999999983</v>
       </c>
-      <c r="I145" s="2">
-        <f t="shared" si="29"/>
+      <c r="I153" s="2">
+        <f t="shared" si="24"/>
         <v>2.8299999999999992E-2</v>
       </c>
-      <c r="J145" s="2">
-        <f t="shared" si="30"/>
-        <v>4.8112886773206395E-2</v>
-      </c>
-      <c r="K145" s="1">
-        <f t="shared" si="31"/>
-        <v>0.36074423209147</v>
+      <c r="J153" s="2">
+        <f t="shared" si="22"/>
+        <v>4.5904298459042987E-2</v>
+      </c>
+      <c r="K153" s="1">
+        <f t="shared" si="25"/>
+        <v>0.34418452119416498</v>
       </c>
     </row>
   </sheetData>
@@ -6233,10 +6553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40402C03-3200-4D23-B22A-11038E74E04A}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="J2" sqref="J2:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6278,1850 +6598,1530 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2">
-        <v>1.9790000000000001</v>
+        <v>1.8945000000000001</v>
       </c>
       <c r="C2" s="2">
-        <v>2.1700000000000001E-2</v>
+        <v>0.1043</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D25" si="0">C2/B2</f>
-        <v>1.0965133906013138E-2</v>
+        <f>C2/(B2+C2)</f>
+        <v>5.2181308785271163E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>1.6992</v>
+        <v>2.589</v>
       </c>
       <c r="F2" s="2">
-        <v>2.2854999999999999</v>
+        <v>3.7490000000000001</v>
       </c>
       <c r="G2" s="2">
-        <v>1.7088000000000001</v>
+        <v>2.6484999999999999</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H25" si="1">IF(B2="","",IF(E2="",B2,F2-G2))</f>
-        <v>0.57669999999999977</v>
+        <f t="shared" ref="H2:H17" si="0">IF(B2="","",IF(E2="",B2,F2-G2))</f>
+        <v>1.1005000000000003</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I25" si="2">IF(C2="","",IF(F2="",C2,G2-E2))</f>
-        <v>9.6000000000000529E-3</v>
+        <f t="shared" ref="I2:I17" si="1">IF(C2="","",IF(F2="",C2,G2-E2))</f>
+        <v>5.9499999999999886E-2</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J25" si="3">I2/H2</f>
-        <v>1.6646436622160667E-2</v>
+        <f>I2/(H2+I2)</f>
+        <v>5.1293103448275756E-2</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" ref="K2:K25" si="4">(D2-J2)/D2</f>
-        <v>-0.51812433526525159</v>
+        <f t="shared" ref="K2:K17" si="2">(D2-J2)/D2</f>
+        <v>1.7021522795651192E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2">
-        <v>1.9375</v>
+        <v>1.8029999999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>5.9799999999999999E-2</v>
+        <v>0.19989999999999999</v>
       </c>
       <c r="D3" s="2">
+        <f t="shared" ref="D2:D17" si="3">C3/B3</f>
+        <v>0.11087077093732668</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.5910000000000002</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3.7018</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.6947000000000001</v>
+      </c>
+      <c r="H3" s="2">
         <f t="shared" si="0"/>
-        <v>3.0864516129032259E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.6886000000000001</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2.2498</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1.7099</v>
-      </c>
-      <c r="H3" s="2">
+        <v>1.0070999999999999</v>
+      </c>
+      <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>0.53990000000000005</v>
-      </c>
-      <c r="I3" s="2">
+        <v>0.1036999999999999</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J41" si="4">I3/(H3+I3)</f>
+        <v>9.3356139719121281E-2</v>
+      </c>
+      <c r="K3" s="1">
         <f t="shared" si="2"/>
-        <v>2.1299999999999875E-2</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" si="3"/>
-        <v>3.9451750324133866E-2</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.27822351593661143</v>
+        <v>0.15797338712568454</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2">
-        <v>1.9661999999999999</v>
+        <v>1.6969000000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>4.3099999999999999E-2</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="D4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18586834816429962</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.1316000000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3.3708</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.3302999999999998</v>
+      </c>
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1920455701352863E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.6911</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.3498999999999999</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.7097</v>
-      </c>
-      <c r="H4" s="2">
+        <v>1.0405000000000002</v>
+      </c>
+      <c r="I4" s="2">
         <f t="shared" si="1"/>
-        <v>0.64019999999999988</v>
-      </c>
-      <c r="I4" s="2">
+        <v>0.19869999999999965</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.16034538411878604</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="2"/>
-        <v>1.859999999999995E-2</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="3"/>
-        <v>2.9053420805998053E-2</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.32540222711724764</v>
+        <v>0.13731743084601136</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2">
-        <v>1.9220999999999999</v>
+        <v>1.6099000000000001</v>
       </c>
       <c r="C5" s="2">
-        <v>8.0299999999999996E-2</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25405304677309148</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.1879</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.419</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.4184999999999999</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>4.1777222829197234E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.7003999999999999</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.3527999999999998</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.7274</v>
-      </c>
-      <c r="H5" s="2">
+        <v>1.0005000000000002</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="1"/>
-        <v>0.62539999999999973</v>
-      </c>
-      <c r="I5" s="2">
+        <v>0.23059999999999992</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.18731215985703834</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>2.7000000000000135E-2</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="3"/>
-        <v>4.3172369683402857E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="4"/>
-        <v>-3.3394916170219523E-2</v>
+        <v>0.26270453263118332</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2">
-        <v>1.9807999999999999</v>
+        <v>1.9008</v>
       </c>
       <c r="C6" s="2">
-        <v>2.06E-2</v>
+        <v>0.1023</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" si="3"/>
+        <v>5.3819444444444448E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.3544999999999998</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.2393000000000001</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>1.039983844911147E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.6886000000000001</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.2938999999999998</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.6948000000000001</v>
-      </c>
-      <c r="H6" s="2">
+        <v>1.1151999999999997</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
-        <v>0.59909999999999974</v>
-      </c>
-      <c r="I6" s="2">
+        <v>5.9299999999999908E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>5.0489570029799855E-2</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>6.1999999999999833E-3</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="3"/>
-        <v>1.0348856618260701E-2</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="4"/>
-        <v>4.9021752693787675E-3</v>
+        <v>6.1871214930170497E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2">
-        <v>1.9435</v>
+        <v>1.8109999999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>6.0299999999999999E-2</v>
+        <v>0.20419999999999999</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11275538376587521</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.5914999999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.7481</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.7073999999999998</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>3.1026498585027013E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.6956</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2.2951000000000001</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1.7164999999999999</v>
-      </c>
-      <c r="H7" s="2">
+        <v>1.0407000000000002</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
-        <v>0.57860000000000023</v>
-      </c>
-      <c r="I7" s="2">
+        <v>0.11589999999999989</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10020750475531721</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>2.0899999999999919E-2</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="3"/>
-        <v>3.6121673003802125E-2</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.16422009092685624</v>
+        <v>0.11128407878609467</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2">
-        <v>1.9652000000000001</v>
+        <v>1.7028000000000001</v>
       </c>
       <c r="C8" s="2">
-        <v>4.1099999999999998E-2</v>
+        <v>0.30009999999999998</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17623913554146109</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.5771999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.7957000000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.7650999999999999</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>2.0913901892937105E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.6919</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2.2717999999999998</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1.7071000000000001</v>
-      </c>
-      <c r="H8" s="2">
+        <v>1.0306000000000002</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
-        <v>0.56469999999999976</v>
-      </c>
-      <c r="I8" s="2">
+        <v>0.18789999999999996</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.15420599097250712</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>1.5200000000000102E-2</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="3"/>
-        <v>2.691694705153198E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.28703611546643915</v>
+        <v>0.12501845575479784</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2">
-        <v>1.9249000000000001</v>
+        <v>1.6085</v>
       </c>
       <c r="C9" s="2">
-        <v>8.4099999999999994E-2</v>
+        <v>0.4032</v>
       </c>
       <c r="D9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25066832452595583</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.5651000000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3.8048000000000002</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.8098999999999998</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>4.3690581328900198E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.6898</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2.3325999999999998</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1.7222999999999999</v>
-      </c>
-      <c r="H9" s="2">
+        <v>0.99490000000000034</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>0.61029999999999984</v>
-      </c>
-      <c r="I9" s="2">
+        <v>0.24479999999999968</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.19746712914414752</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>3.2499999999999973E-2</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="3"/>
-        <v>5.3252498771096154E-2</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.21885534939932222</v>
+        <v>0.21223740766775467</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="B10" s="2">
-        <v>1.8945000000000001</v>
+        <v>1.8962000000000001</v>
       </c>
       <c r="C10" s="2">
-        <v>0.1043</v>
+        <v>0.1007</v>
       </c>
       <c r="D10" s="2">
+        <f t="shared" si="3"/>
+        <v>5.3106212424849697E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.1255000000000002</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3.2824</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2.1833</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>5.5054103985220378E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2.589</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3.7490000000000001</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2.6484999999999999</v>
-      </c>
-      <c r="H10" s="2">
+        <v>1.0991</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="1"/>
-        <v>1.1005000000000003</v>
-      </c>
-      <c r="I10" s="2">
+        <v>5.7799999999999851E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="4"/>
+        <v>4.9961102947532081E-2</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
-        <v>5.9499999999999886E-2</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="3"/>
-        <v>5.406633348477953E-2</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="4"/>
-        <v>1.7941814123539648E-2</v>
+        <v>5.9223004874773229E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="B11" s="2">
-        <v>1.8029999999999999</v>
+        <v>1.7962</v>
       </c>
       <c r="C11" s="2">
-        <v>0.19989999999999999</v>
+        <v>0.2092</v>
       </c>
       <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11646809932078833</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5804</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3.7280000000000002</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2.7025000000000001</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>0.11087077093732668</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.5910000000000002</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3.7018</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2.6947000000000001</v>
-      </c>
-      <c r="H11" s="2">
+        <v>1.0255000000000001</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="1"/>
-        <v>1.0070999999999999</v>
-      </c>
-      <c r="I11" s="2">
+        <v>0.1221000000000001</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.1063959567793657</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
-        <v>0.1036999999999999</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="3"/>
-        <v>0.10296892066329055</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="4"/>
-        <v>7.1270815628249828E-2</v>
+        <v>8.647983954542704E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="B12" s="2">
-        <v>1.6969000000000001</v>
+        <v>1.7007000000000001</v>
       </c>
       <c r="C12" s="2">
-        <v>0.31540000000000001</v>
+        <v>0.30980000000000002</v>
       </c>
       <c r="D12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18216028694067149</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.5354000000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3.6951999999999998</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2.718</v>
+      </c>
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>0.18586834816429962</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2.1316000000000002</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3.3708</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2.3302999999999998</v>
-      </c>
-      <c r="H12" s="2">
+        <v>0.97719999999999985</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="1"/>
-        <v>1.0405000000000002</v>
-      </c>
-      <c r="I12" s="2">
+        <v>0.18259999999999987</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.15744093809277454</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="2"/>
-        <v>0.19869999999999965</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="3"/>
-        <v>0.19096588178760174</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="4"/>
-        <v>-2.7425506675273829E-2</v>
+        <v>0.13570108646100174</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2">
-        <v>1.6099000000000001</v>
+        <v>1.5967</v>
       </c>
       <c r="C13" s="2">
-        <v>0.40899999999999997</v>
+        <v>0.42009999999999997</v>
       </c>
       <c r="D13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26310515438091059</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.1137999999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3.4317000000000002</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2.3988</v>
+      </c>
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>0.25405304677309148</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.1879</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3.419</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2.4184999999999999</v>
-      </c>
-      <c r="H13" s="2">
+        <v>1.0329000000000002</v>
+      </c>
+      <c r="I13" s="2">
         <f t="shared" si="1"/>
-        <v>1.0005000000000002</v>
-      </c>
-      <c r="I13" s="2">
+        <v>0.28500000000000014</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.21625312997951293</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="2"/>
-        <v>0.23059999999999992</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="3"/>
-        <v>0.23048475762118928</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="4"/>
-        <v>9.27691655394801E-2</v>
+        <v>0.17807338100859713</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2">
-        <v>1.9008</v>
+        <v>1.8991</v>
       </c>
       <c r="C14" s="2">
-        <v>0.1023</v>
+        <v>0.1002</v>
       </c>
       <c r="D14" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2761834553209416E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3.2987000000000002</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.206</v>
+      </c>
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
-        <v>5.3819444444444448E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3.3544999999999998</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2.2393000000000001</v>
-      </c>
-      <c r="H14" s="2">
+        <v>1.0927000000000002</v>
+      </c>
+      <c r="I14" s="2">
         <f t="shared" si="1"/>
-        <v>1.1151999999999997</v>
-      </c>
-      <c r="I14" s="2">
+        <v>5.7999999999999829E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="4"/>
+        <v>5.0404101851047038E-2</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="2"/>
-        <v>5.9299999999999908E-2</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="3"/>
-        <v>5.3174318507890894E-2</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="4"/>
-        <v>1.1986856111446667E-2</v>
+        <v>4.4686329088588543E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2">
-        <v>1.8109999999999999</v>
+        <v>1.7968</v>
       </c>
       <c r="C15" s="2">
-        <v>0.20419999999999999</v>
+        <v>0.20180000000000001</v>
       </c>
       <c r="D15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11231077471059663</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.1554000000000002</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3.3645</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.2587000000000002</v>
+      </c>
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>0.11275538376587521</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.5914999999999999</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3.7481</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2.7073999999999998</v>
-      </c>
-      <c r="H15" s="2">
+        <v>1.1057999999999999</v>
+      </c>
+      <c r="I15" s="2">
         <f t="shared" si="1"/>
-        <v>1.0407000000000002</v>
-      </c>
-      <c r="I15" s="2">
+        <v>0.10329999999999995</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="4"/>
+        <v>8.5435447853775506E-2</v>
+      </c>
+      <c r="K15" s="1">
         <f t="shared" si="2"/>
-        <v>0.11589999999999989</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="3"/>
-        <v>0.11136734889977887</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="4"/>
-        <v>1.2310142715477368E-2</v>
+        <v>0.23929428789066493</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2">
-        <v>1.7028000000000001</v>
+        <v>1.6966000000000001</v>
       </c>
       <c r="C16" s="2">
-        <v>0.30009999999999998</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2169043970293528</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.2122000000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3.4584000000000001</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2.4327999999999999</v>
+      </c>
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>0.17623913554146109</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2.5771999999999999</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3.7957000000000001</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2.7650999999999999</v>
-      </c>
-      <c r="H16" s="2">
+        <v>1.0256000000000003</v>
+      </c>
+      <c r="I16" s="2">
         <f t="shared" si="1"/>
-        <v>1.0306000000000002</v>
-      </c>
-      <c r="I16" s="2">
+        <v>0.22059999999999969</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.17701813513079737</v>
+      </c>
+      <c r="K16" s="1">
         <f t="shared" si="2"/>
-        <v>0.18789999999999996</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="3"/>
-        <v>0.18232097807102651</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="4"/>
-        <v>-3.4509035186084655E-2</v>
+        <v>0.18388867374209009</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="B17" s="2">
-        <v>1.6085</v>
+        <v>1.5994999999999999</v>
       </c>
       <c r="C17" s="2">
-        <v>0.4032</v>
+        <v>0.40839999999999999</v>
       </c>
       <c r="D17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25532979055954985</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.1554000000000002</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.4296000000000002</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.4201999999999999</v>
+      </c>
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
-        <v>0.25066832452595583</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.5651000000000002</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3.8048000000000002</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2.8098999999999998</v>
-      </c>
-      <c r="H17" s="2">
+        <v>1.0094000000000003</v>
+      </c>
+      <c r="I17" s="2">
         <f t="shared" si="1"/>
-        <v>0.99490000000000034</v>
-      </c>
-      <c r="I17" s="2">
+        <v>0.2647999999999997</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="4"/>
+        <v>0.20781666928268694</v>
+      </c>
+      <c r="K17" s="1">
         <f t="shared" si="2"/>
-        <v>0.24479999999999968</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="3"/>
-        <v>0.24605487988742547</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8404577631637123E-2</v>
+        <v>0.18608530235637177</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B18" s="2">
-        <v>1.8962000000000001</v>
+        <v>3.9599000000000002</v>
       </c>
       <c r="C18" s="2">
-        <v>0.1007</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>5.3106212424849697E-2</v>
+        <f t="shared" ref="D18:D25" si="5">C18/B18</f>
+        <v>1.1111391701810651E-2</v>
       </c>
       <c r="E18" s="2">
-        <v>2.1255000000000002</v>
+        <v>2.1720999999999999</v>
       </c>
       <c r="F18" s="2">
-        <v>3.2824</v>
+        <v>3.1536</v>
       </c>
       <c r="G18" s="2">
-        <v>2.1833</v>
+        <v>2.1863999999999999</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0991</v>
+        <f t="shared" ref="H18:H25" si="6">IF(B18="","",IF(E18="",B18,F18-G18))</f>
+        <v>0.96720000000000006</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="2"/>
-        <v>5.7799999999999851E-2</v>
+        <f t="shared" ref="I18:I25" si="7">IF(C18="","",IF(F18="",C18,G18-E18))</f>
+        <v>1.4299999999999979E-2</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
-        <v>5.258848148485111E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.4569536423841038E-2</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
-        <v>9.7489712852564109E-3</v>
+        <f t="shared" ref="K18:K25" si="8">(D18-J18)/D18</f>
+        <v>-0.31122516556291202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2">
-        <v>1.7962</v>
+        <v>3.8832</v>
       </c>
       <c r="C19" s="2">
-        <v>0.2092</v>
+        <v>0.12559999999999999</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11646809932078833</v>
+        <f t="shared" si="5"/>
+        <v>3.2344458178821589E-2</v>
       </c>
       <c r="E19" s="2">
-        <v>2.5804</v>
+        <v>2.5794000000000001</v>
       </c>
       <c r="F19" s="2">
-        <v>3.7280000000000002</v>
+        <v>3.5078999999999998</v>
       </c>
       <c r="G19" s="2">
-        <v>2.7025000000000001</v>
+        <v>2.6126</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0255000000000001</v>
+        <f t="shared" si="6"/>
+        <v>0.89529999999999976</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="2"/>
-        <v>0.1221000000000001</v>
+        <f t="shared" si="7"/>
+        <v>3.3199999999999896E-2</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="3"/>
-        <v>0.11906387128230141</v>
+        <f t="shared" si="4"/>
+        <v>3.5756596661281538E-2</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
-        <v>-2.2287407252723632E-2</v>
+        <f t="shared" si="8"/>
+        <v>-0.10549375919656429</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2">
-        <v>1.7007000000000001</v>
+        <v>3.8012000000000001</v>
       </c>
       <c r="C20" s="2">
-        <v>0.30980000000000002</v>
+        <v>0.20219999999999999</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18216028694067149</v>
+        <f t="shared" si="5"/>
+        <v>5.3193728296327472E-2</v>
       </c>
       <c r="E20" s="2">
-        <v>2.5354000000000001</v>
+        <v>2.1756000000000002</v>
       </c>
       <c r="F20" s="2">
-        <v>3.6951999999999998</v>
+        <v>3.1850999999999998</v>
       </c>
       <c r="G20" s="2">
-        <v>2.718</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="1"/>
-        <v>0.97719999999999985</v>
+        <f t="shared" si="6"/>
+        <v>0.95209999999999972</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18259999999999987</v>
+        <f t="shared" si="7"/>
+        <v>5.7399999999999896E-2</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="3"/>
-        <v>0.18686041751944321</v>
+        <f t="shared" si="4"/>
+        <v>5.6859831599801798E-2</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
-        <v>-2.5802169384496667E-2</v>
+        <f t="shared" si="8"/>
+        <v>-6.8919841133366022E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2">
-        <v>1.5967</v>
+        <v>3.7269999999999999</v>
       </c>
       <c r="C21" s="2">
-        <v>0.42009999999999997</v>
+        <v>0.28420000000000001</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.26310515438091059</v>
+        <f t="shared" si="5"/>
+        <v>7.6254360075127453E-2</v>
       </c>
       <c r="E21" s="2">
-        <v>2.1137999999999999</v>
+        <v>2.5506000000000002</v>
       </c>
       <c r="F21" s="2">
-        <v>3.4317000000000002</v>
+        <v>3.5087000000000002</v>
       </c>
       <c r="G21" s="2">
-        <v>2.3988</v>
+        <v>2.6269999999999998</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0329000000000002</v>
+        <f t="shared" si="6"/>
+        <v>0.88170000000000037</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="2"/>
-        <v>0.28500000000000014</v>
+        <f t="shared" si="7"/>
+        <v>7.6399999999999579E-2</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="3"/>
-        <v>0.27592216090618654</v>
+        <f t="shared" si="4"/>
+        <v>7.9741154368019609E-2</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
-        <v>-4.8714387809826516E-2</v>
+        <f t="shared" si="8"/>
+        <v>-4.5725835079553363E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2">
-        <v>1.8991</v>
+        <v>3.9563000000000001</v>
       </c>
       <c r="C22" s="2">
-        <v>0.1002</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>5.2761834553209416E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.0843464853524758E-2</v>
       </c>
       <c r="E22" s="2">
-        <v>2.1480000000000001</v>
+        <v>2.1627000000000001</v>
       </c>
       <c r="F22" s="2">
-        <v>3.2987000000000002</v>
+        <v>3.1823000000000001</v>
       </c>
       <c r="G22" s="2">
-        <v>2.206</v>
+        <v>2.1736</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0927000000000002</v>
+        <f t="shared" si="6"/>
+        <v>1.0087000000000002</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="2"/>
-        <v>5.7999999999999829E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.089999999999991E-2</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="3"/>
-        <v>5.3079527775235488E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.0690466849744909E-2</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
-        <v>-6.0212694406159006E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.4109697024573847E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B23" s="2">
-        <v>1.7968</v>
+        <v>3.9163999999999999</v>
       </c>
       <c r="C23" s="2">
-        <v>0.20180000000000001</v>
+        <v>8.4400000000000003E-2</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11231077471059663</v>
+        <f t="shared" si="5"/>
+        <v>2.1550403431723011E-2</v>
       </c>
       <c r="E23" s="2">
-        <v>2.1554000000000002</v>
+        <v>2.1936</v>
       </c>
       <c r="F23" s="2">
-        <v>3.3645</v>
+        <v>3.1943999999999999</v>
       </c>
       <c r="G23" s="2">
-        <v>2.2587000000000002</v>
+        <v>2.2168000000000001</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1057999999999999</v>
+        <f t="shared" si="6"/>
+        <v>0.9775999999999998</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.10329999999999995</v>
+        <f t="shared" si="7"/>
+        <v>2.3200000000000109E-2</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="3"/>
-        <v>9.3416531018267274E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.3181454836131207E-2</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
-        <v>0.16823179913963021</v>
+        <f t="shared" si="8"/>
+        <v>-7.5685423225405904E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B24" s="2">
-        <v>1.6966000000000001</v>
+        <v>3.8834</v>
       </c>
       <c r="C24" s="2">
-        <v>0.36799999999999999</v>
+        <v>0.1235</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2169043970293528</v>
+        <f t="shared" si="5"/>
+        <v>3.1802029149714167E-2</v>
       </c>
       <c r="E24" s="2">
-        <v>2.2122000000000002</v>
+        <v>2.1938</v>
       </c>
       <c r="F24" s="2">
-        <v>3.4584000000000001</v>
+        <v>3.2025000000000001</v>
       </c>
       <c r="G24" s="2">
-        <v>2.4327999999999999</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0256000000000003</v>
+        <f t="shared" si="6"/>
+        <v>0.97750000000000004</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.22059999999999969</v>
+        <f t="shared" si="7"/>
+        <v>3.1200000000000117E-2</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2150936037441494</v>
+        <f t="shared" si="4"/>
+        <v>3.0930901159908906E-2</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
-        <v>8.3483475208589071E-3</v>
+        <f t="shared" si="8"/>
+        <v>2.7392214053520259E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B25" s="2">
-        <v>1.5994999999999999</v>
+        <v>3.8393000000000002</v>
       </c>
       <c r="C25" s="2">
-        <v>0.40839999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>0.25532979055954985</v>
+        <f t="shared" si="5"/>
+        <v>4.1153335243403741E-2</v>
       </c>
       <c r="E25" s="2">
-        <v>2.1554000000000002</v>
+        <v>2.5407000000000002</v>
       </c>
       <c r="F25" s="2">
-        <v>3.4296000000000002</v>
+        <v>3.5122</v>
       </c>
       <c r="G25" s="2">
-        <v>2.4201999999999999</v>
+        <v>2.5807000000000002</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0094000000000003</v>
+        <f t="shared" si="6"/>
+        <v>0.93149999999999977</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="2"/>
-        <v>0.2647999999999997</v>
+        <f t="shared" si="7"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="3"/>
-        <v>0.26233405983752689</v>
+        <f t="shared" si="4"/>
+        <v>4.1173443129181725E-2</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
-        <v>-2.7432244637914476E-2</v>
+        <f t="shared" si="8"/>
+        <v>-4.8860889789502664E-4</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B26" s="2">
-        <v>3.9599000000000002</v>
+        <v>3.8007</v>
       </c>
       <c r="C26" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>0.1983</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" ref="D26:D33" si="5">C26/B26</f>
-        <v>1.1111391701810651E-2</v>
+        <f t="shared" ref="D26:D33" si="9">C26/B26</f>
+        <v>5.2174599415897076E-2</v>
       </c>
       <c r="E26" s="2">
-        <v>2.1720999999999999</v>
+        <v>2.1934</v>
       </c>
       <c r="F26" s="2">
-        <v>3.1536</v>
+        <v>3.2058</v>
       </c>
       <c r="G26" s="2">
-        <v>2.1863999999999999</v>
+        <v>2.2439</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" ref="H26:H33" si="6">IF(B26="","",IF(E26="",B26,F26-G26))</f>
-        <v>0.96720000000000006</v>
+        <f t="shared" ref="H26:H33" si="10">IF(B26="","",IF(E26="",B26,F26-G26))</f>
+        <v>0.96189999999999998</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" ref="I26:I33" si="7">IF(C26="","",IF(F26="",C26,G26-E26))</f>
-        <v>1.4299999999999979E-2</v>
+        <f t="shared" ref="I26:I33" si="11">IF(C26="","",IF(F26="",C26,G26-E26))</f>
+        <v>5.0499999999999989E-2</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" ref="J26:J33" si="8">I26/H26</f>
-        <v>1.4784946236559118E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.9881469774792561E-2</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" ref="K26:K33" si="9">(D26-J26)/D26</f>
-        <v>-0.33061155913978307</v>
+        <f t="shared" ref="K26:K33" si="12">(D26-J26)/D26</f>
+        <v>4.3951073257417692E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B27" s="2">
-        <v>3.8832</v>
+        <v>3.722</v>
       </c>
       <c r="C27" s="2">
-        <v>0.12559999999999999</v>
+        <v>0.27929999999999999</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="5"/>
-        <v>3.2344458178821589E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.5040300913487373E-2</v>
       </c>
       <c r="E27" s="2">
-        <v>2.5794000000000001</v>
+        <v>2.1795</v>
       </c>
       <c r="F27" s="2">
-        <v>3.5078999999999998</v>
+        <v>3.2111999999999998</v>
       </c>
       <c r="G27" s="2">
-        <v>2.6126</v>
+        <v>2.2561</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="6"/>
-        <v>0.89529999999999976</v>
+        <f t="shared" si="10"/>
+        <v>0.95509999999999984</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="7"/>
-        <v>3.3199999999999896E-2</v>
+        <f t="shared" si="11"/>
+        <v>7.6600000000000001E-2</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="8"/>
-        <v>3.7082542164637446E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.4246389454298747E-2</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.14648827813471446</v>
+        <f t="shared" si="12"/>
+        <v>1.0579801113856304E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B28" s="2">
-        <v>3.8012000000000001</v>
+        <v>3.9603999999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>0.20219999999999999</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="5"/>
-        <v>5.3193728296327472E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.8727401272598742E-3</v>
       </c>
       <c r="E28" s="2">
-        <v>2.1756000000000002</v>
+        <v>2.1613000000000002</v>
       </c>
       <c r="F28" s="2">
-        <v>3.1850999999999998</v>
+        <v>3.1920000000000002</v>
       </c>
       <c r="G28" s="2">
-        <v>2.2330000000000001</v>
+        <v>2.1726000000000001</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="6"/>
-        <v>0.95209999999999972</v>
+        <f t="shared" si="10"/>
+        <v>1.0194000000000001</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="7"/>
-        <v>5.7399999999999896E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.1299999999999866E-2</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="8"/>
-        <v>6.0287784896544391E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.0963422916464408E-2</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.13336265058726288</v>
+        <f t="shared" si="12"/>
+        <v>-0.11047417182520809</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B29" s="2">
-        <v>3.7269999999999999</v>
+        <v>3.9201999999999999</v>
       </c>
       <c r="C29" s="2">
-        <v>0.28420000000000001</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="5"/>
-        <v>7.6254360075127453E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.0458139890821896E-2</v>
       </c>
       <c r="E29" s="2">
-        <v>2.5506000000000002</v>
+        <v>2.1324000000000001</v>
       </c>
       <c r="F29" s="2">
-        <v>3.5087000000000002</v>
+        <v>3.1528</v>
       </c>
       <c r="G29" s="2">
-        <v>2.6269999999999998</v>
+        <v>2.1515</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="6"/>
-        <v>0.88170000000000037</v>
+        <f t="shared" si="10"/>
+        <v>1.0013000000000001</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="7"/>
-        <v>7.6399999999999579E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.9099999999999895E-2</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="8"/>
-        <v>8.6650788249971133E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.8718149745197858E-2</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.13633880298255593</v>
+        <f t="shared" si="12"/>
+        <v>8.5051239013408372E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B30" s="2">
-        <v>3.9563000000000001</v>
+        <v>3.8834</v>
       </c>
       <c r="C30" s="2">
-        <v>4.2900000000000001E-2</v>
+        <v>0.1226</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="5"/>
-        <v>1.0843464853524758E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.1570273471700057E-2</v>
       </c>
       <c r="E30" s="2">
-        <v>2.1627000000000001</v>
+        <v>2.1859999999999999</v>
       </c>
       <c r="F30" s="2">
-        <v>3.1823000000000001</v>
+        <v>3.1979000000000002</v>
       </c>
       <c r="G30" s="2">
-        <v>2.1736</v>
+        <v>2.2176</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="6"/>
-        <v>1.0087000000000002</v>
+        <f t="shared" si="10"/>
+        <v>0.98030000000000017</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="7"/>
-        <v>1.089999999999991E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.1600000000000072E-2</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="8"/>
-        <v>1.0805987905224456E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.1228382251210659E-2</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="9"/>
-        <v>3.4561783347432993E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.08295298992539E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B31" s="2">
-        <v>3.9163999999999999</v>
+        <v>3.843</v>
       </c>
       <c r="C31" s="2">
-        <v>8.4400000000000003E-2</v>
+        <v>0.16009999999999999</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="5"/>
-        <v>2.1550403431723011E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.1660161332292479E-2</v>
       </c>
       <c r="E31" s="2">
-        <v>2.1936</v>
+        <v>2.1501999999999999</v>
       </c>
       <c r="F31" s="2">
-        <v>3.1943999999999999</v>
+        <v>3.1511</v>
       </c>
       <c r="G31" s="2">
-        <v>2.2168000000000001</v>
+        <v>2.1852999999999998</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="6"/>
-        <v>0.9775999999999998</v>
+        <f t="shared" si="10"/>
+        <v>0.96580000000000021</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="7"/>
-        <v>2.3200000000000109E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.5099999999999909E-2</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="8"/>
-        <v>2.3731587561374914E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.5068438405435012E-2</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.10121314603517433</v>
+        <f t="shared" si="12"/>
+        <v>0.15822605376585414</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B32" s="2">
-        <v>3.8834</v>
+        <v>3.8003</v>
       </c>
       <c r="C32" s="2">
-        <v>0.1235</v>
+        <v>0.19950000000000001</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="5"/>
-        <v>3.1802029149714167E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.2495855590348132E-2</v>
       </c>
       <c r="E32" s="2">
-        <v>2.1938</v>
+        <v>2.1669</v>
       </c>
       <c r="F32" s="2">
-        <v>3.2025000000000001</v>
+        <v>3.2016</v>
       </c>
       <c r="G32" s="2">
-        <v>2.2250000000000001</v>
+        <v>2.2010999999999998</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="6"/>
-        <v>0.97750000000000004</v>
+        <f t="shared" si="10"/>
+        <v>1.0005000000000002</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="7"/>
-        <v>3.1200000000000117E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.4199999999999786E-2</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="8"/>
-        <v>3.1918158567775051E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.3053058857639692E-2</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="9"/>
-        <v>-3.651635482571961E-3</v>
+        <f t="shared" si="12"/>
+        <v>0.37036822267324254</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B33" s="2">
-        <v>3.8393000000000002</v>
+        <v>3.7229000000000001</v>
       </c>
       <c r="C33" s="2">
-        <v>0.158</v>
+        <v>0.2802</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="5"/>
-        <v>4.1153335243403741E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.526390716914233E-2</v>
       </c>
       <c r="E33" s="2">
-        <v>2.5407000000000002</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="F33" s="2">
-        <v>3.5122</v>
+        <v>3.1932999999999998</v>
       </c>
       <c r="G33" s="2">
-        <v>2.5807000000000002</v>
+        <v>2.2256999999999998</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="6"/>
-        <v>0.93149999999999977</v>
+        <f t="shared" si="10"/>
+        <v>0.96760000000000002</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="7"/>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" si="11"/>
+        <v>4.9699999999999633E-2</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="8"/>
-        <v>4.2941492216854588E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.8854811756610293E-2</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="9"/>
-        <v>-4.3451082709935675E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.35088658569348868</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B34" s="2">
-        <v>3.8007</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2">
-        <v>0.1983</v>
+        <v>2.02</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:D41" si="10">C34/B34</f>
-        <v>5.2174599415897076E-2</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2.1934</v>
-      </c>
-      <c r="F34" s="2">
-        <v>3.2058</v>
-      </c>
-      <c r="G34" s="2">
-        <v>2.2439</v>
+        <f t="shared" ref="D34:D37" si="13">0.5*C34/(B34+C34)</f>
+        <v>0.5</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" ref="H34:H41" si="11">IF(B34="","",IF(E34="",B34,F34-G34))</f>
-        <v>0.96189999999999998</v>
+        <f>IF(B34="","",IF(E34="",B34+C34,F34-G34))</f>
+        <v>2.02</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" ref="I34:I41" si="12">IF(C34="","",IF(F34="",C34,G34-E34))</f>
-        <v>5.0499999999999989E-2</v>
+        <f>IF(C34="","",IF(F34="",C34*0.5,G34-E34))</f>
+        <v>1.01</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34:J41" si="13">I34/H34</f>
-        <v>5.2500259902276733E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" ref="K34:K41" si="14">(D34-J34)/D34</f>
-        <v>-6.2417438758606307E-3</v>
+        <f t="shared" ref="K34" si="14">(D34-J34)/D34</f>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B35" s="2">
-        <v>3.722</v>
+        <v>0.79810000000000003</v>
       </c>
       <c r="C35" s="2">
-        <v>0.27929999999999999</v>
+        <v>1.2024999999999999</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="10"/>
-        <v>7.5040300913487373E-2</v>
-      </c>
-      <c r="E35" s="2">
-        <v>2.1795</v>
-      </c>
-      <c r="F35" s="2">
-        <v>3.2111999999999998</v>
-      </c>
-      <c r="G35" s="2">
-        <v>2.2561</v>
+        <f t="shared" si="13"/>
+        <v>0.30053483954813554</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="11"/>
-        <v>0.95509999999999984</v>
+        <f t="shared" ref="H35:H37" si="15">IF(B35="","",IF(E35="",B35+C35,F35-G35))</f>
+        <v>2.0005999999999999</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="12"/>
-        <v>7.6600000000000001E-2</v>
+        <f t="shared" ref="I35:I37" si="16">IF(C35="","",IF(F35="",C35*0.5,G35-E35))</f>
+        <v>0.60124999999999995</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="13"/>
-        <v>8.0201026070568546E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.23108557372638699</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="14"/>
-        <v>-6.8772714051758402E-2</v>
+        <f t="shared" ref="K35:K37" si="17">(D35-J35)/D35</f>
+        <v>0.23108557372638694</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B36" s="2">
-        <v>3.9603999999999999</v>
+        <v>1.597</v>
       </c>
       <c r="C36" s="2">
-        <v>3.9100000000000003E-2</v>
+        <v>0.40439999999999998</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="10"/>
-        <v>9.8727401272598742E-3</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2.1613000000000002</v>
-      </c>
-      <c r="F36" s="2">
-        <v>3.1920000000000002</v>
-      </c>
-      <c r="G36" s="2">
-        <v>2.1726000000000001</v>
+        <f t="shared" si="13"/>
+        <v>0.10102927950434697</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="11"/>
-        <v>1.0194000000000001</v>
+        <f t="shared" si="15"/>
+        <v>2.0013999999999998</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="12"/>
-        <v>1.1299999999999866E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.20219999999999999</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="13"/>
-        <v>1.1084951932509187E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.1758939916500276E-2</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.12278372464218358</v>
+        <f t="shared" si="17"/>
+        <v>9.1758939916500318E-2</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B37" s="2">
-        <v>3.9201999999999999</v>
+        <v>1.798</v>
       </c>
       <c r="C37" s="2">
-        <v>8.0199999999999994E-2</v>
+        <v>0.20749999999999999</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="10"/>
-        <v>2.0458139890821896E-2</v>
-      </c>
-      <c r="E37" s="2">
-        <v>2.1324000000000001</v>
-      </c>
-      <c r="F37" s="2">
-        <v>3.1528</v>
-      </c>
-      <c r="G37" s="2">
-        <v>2.1515</v>
+        <f t="shared" si="13"/>
+        <v>5.1732734978808273E-2</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="11"/>
-        <v>1.0013000000000001</v>
+        <f t="shared" si="15"/>
+        <v>2.0055000000000001</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="12"/>
-        <v>1.9099999999999895E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.10375</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="13"/>
-        <v>1.9075202237091676E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.9188100035557666E-2</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="14"/>
-        <v>6.7598406361012581E-2</v>
+        <f t="shared" si="17"/>
+        <v>4.9188100035557514E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B38" s="2">
-        <v>3.8834</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>0.1226</v>
+        <v>2.0023</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="10"/>
-        <v>3.1570273471700057E-2</v>
-      </c>
-      <c r="E38" s="2">
-        <v>2.1859999999999999</v>
-      </c>
-      <c r="F38" s="2">
-        <v>3.1979000000000002</v>
-      </c>
-      <c r="G38" s="2">
-        <v>2.2176</v>
+        <f t="shared" ref="D38:D41" si="18">0.5*C38/(B38+C38)</f>
+        <v>0.5</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="11"/>
-        <v>0.98030000000000017</v>
+        <f t="shared" ref="H38:H41" si="19">IF(B38="","",IF(E38="",B38+C38,F38-G38))</f>
+        <v>2.0023</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="12"/>
-        <v>3.1600000000000072E-2</v>
+        <f t="shared" ref="I38:I41" si="20">IF(C38="","",IF(F38="",C38*0.5,G38-E38))</f>
+        <v>1.00115</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="13"/>
-        <v>3.2235030092828791E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="14"/>
-        <v>-2.105640997138113E-2</v>
+        <f t="shared" ref="K38:K41" si="21">(D38-J38)/D38</f>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B39" s="2">
-        <v>3.843</v>
+        <v>0.79979999999999996</v>
       </c>
       <c r="C39" s="2">
-        <v>0.16009999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="10"/>
-        <v>4.1660161332292479E-2</v>
-      </c>
-      <c r="E39" s="2">
-        <v>2.1501999999999999</v>
-      </c>
-      <c r="F39" s="2">
-        <v>3.1511</v>
-      </c>
-      <c r="G39" s="2">
-        <v>2.1852999999999998</v>
+        <f t="shared" si="18"/>
+        <v>0.30102497760971242</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="11"/>
-        <v>0.96580000000000021</v>
+        <f t="shared" si="19"/>
+        <v>2.0097999999999998</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="12"/>
-        <v>3.5099999999999909E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.60499999999999998</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="13"/>
-        <v>3.6342928142472461E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.23137524858497782</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="14"/>
-        <v>0.12763352372566103</v>
+        <f t="shared" si="21"/>
+        <v>0.23137524858497782</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B40" s="2">
-        <v>3.8003</v>
+        <v>1.6218999999999999</v>
       </c>
       <c r="C40" s="2">
-        <v>0.19950000000000001</v>
+        <v>0.41139999999999999</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="10"/>
-        <v>5.2495855590348132E-2</v>
-      </c>
-      <c r="E40" s="2">
-        <v>2.1669</v>
-      </c>
-      <c r="F40" s="2">
-        <v>3.2016</v>
-      </c>
-      <c r="G40" s="2">
-        <v>2.2010999999999998</v>
+        <f t="shared" si="18"/>
+        <v>0.1011655928785718</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="11"/>
-        <v>1.0005000000000002</v>
+        <f t="shared" si="19"/>
+        <v>2.0332999999999997</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="12"/>
-        <v>3.4199999999999786E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.20569999999999999</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="13"/>
-        <v>3.418290854572692E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.1871371147833863E-2</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="14"/>
-        <v>0.34884557721139847</v>
+        <f t="shared" si="21"/>
+        <v>9.1871371147833919E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B41" s="2">
-        <v>3.7229000000000001</v>
+        <v>1.7941</v>
       </c>
       <c r="C41" s="2">
-        <v>0.2802</v>
+        <v>0.20730000000000001</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="10"/>
-        <v>7.526390716914233E-2</v>
-      </c>
-      <c r="E41" s="2">
-        <v>2.1760000000000002</v>
-      </c>
-      <c r="F41" s="2">
-        <v>3.1932999999999998</v>
-      </c>
-      <c r="G41" s="2">
-        <v>2.2256999999999998</v>
+        <f t="shared" si="18"/>
+        <v>5.178874787648647E-2</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="11"/>
-        <v>0.96760000000000002</v>
+        <f t="shared" si="19"/>
+        <v>2.0013999999999998</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="12"/>
-        <v>4.9699999999999633E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.10365000000000001</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="13"/>
-        <v>5.1364200082678411E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.9238735421961478E-2</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="14"/>
-        <v>0.31754539440469853</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0</v>
-      </c>
-      <c r="C42" s="2">
-        <v>2.02</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" ref="D42:D45" si="15">0.5*C42/(B42+C42)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="2">
-        <f>IF(B42="","",IF(E42="",B42+C42,F42-G42))</f>
-        <v>2.02</v>
-      </c>
-      <c r="I42" s="2">
-        <f>IF(C42="","",IF(F42="",C42*0.5,G42-E42))</f>
-        <v>1.01</v>
-      </c>
-      <c r="J42" s="2">
-        <f t="shared" ref="J42" si="16">I42/H42</f>
-        <v>0.5</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" ref="K42" si="17">(D42-J42)/D42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>180</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0.79810000000000003</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1.2024999999999999</v>
-      </c>
-      <c r="D43" s="2">
-        <f t="shared" si="15"/>
-        <v>0.30053483954813554</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" ref="H43:H45" si="18">IF(B43="","",IF(E43="",B43+C43,F43-G43))</f>
-        <v>2.0005999999999999</v>
-      </c>
-      <c r="I43" s="2">
-        <f t="shared" ref="I43:I45" si="19">IF(C43="","",IF(F43="",C43*0.5,G43-E43))</f>
-        <v>0.60124999999999995</v>
-      </c>
-      <c r="J43" s="2">
-        <f t="shared" ref="J43:J45" si="20">I43/H43</f>
-        <v>0.30053483954813554</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" ref="K43:K45" si="21">(D43-J43)/D43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1.597</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.40439999999999998</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" si="15"/>
-        <v>0.10102927950434697</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="18"/>
-        <v>2.0013999999999998</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" si="19"/>
-        <v>0.20219999999999999</v>
-      </c>
-      <c r="J44" s="2">
-        <f t="shared" si="20"/>
-        <v>0.10102927950434697</v>
-      </c>
-      <c r="K44" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>182</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1.798</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.20749999999999999</v>
-      </c>
-      <c r="D45" s="2">
-        <f t="shared" si="15"/>
-        <v>5.1732734978808273E-2</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" si="18"/>
-        <v>2.0055000000000001</v>
-      </c>
-      <c r="I45" s="2">
-        <f t="shared" si="19"/>
-        <v>0.10375</v>
-      </c>
-      <c r="J45" s="2">
-        <f t="shared" si="20"/>
-        <v>5.1732734978808273E-2</v>
-      </c>
-      <c r="K45" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="2">
-        <v>0</v>
-      </c>
-      <c r="C46" s="2">
-        <v>2.0023</v>
-      </c>
-      <c r="D46" s="2">
-        <f t="shared" ref="D46:D49" si="22">0.5*C46/(B46+C46)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H46" s="2">
-        <f t="shared" ref="H46:H49" si="23">IF(B46="","",IF(E46="",B46+C46,F46-G46))</f>
-        <v>2.0023</v>
-      </c>
-      <c r="I46" s="2">
-        <f t="shared" ref="I46:I49" si="24">IF(C46="","",IF(F46="",C46*0.5,G46-E46))</f>
-        <v>1.00115</v>
-      </c>
-      <c r="J46" s="2">
-        <f t="shared" ref="J46:J49" si="25">I46/H46</f>
-        <v>0.5</v>
-      </c>
-      <c r="K46" s="1">
-        <f t="shared" ref="K46:K49" si="26">(D46-J46)/D46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0.79979999999999996</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="D47" s="2">
-        <f t="shared" si="22"/>
-        <v>0.30102497760971242</v>
-      </c>
-      <c r="H47" s="2">
-        <f t="shared" si="23"/>
-        <v>2.0097999999999998</v>
-      </c>
-      <c r="I47" s="2">
-        <f t="shared" si="24"/>
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="J47" s="2">
-        <f t="shared" si="25"/>
-        <v>0.30102497760971242</v>
-      </c>
-      <c r="K47" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1.6218999999999999</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.41139999999999999</v>
-      </c>
-      <c r="D48" s="2">
-        <f t="shared" si="22"/>
-        <v>0.1011655928785718</v>
-      </c>
-      <c r="H48" s="2">
-        <f t="shared" si="23"/>
-        <v>2.0332999999999997</v>
-      </c>
-      <c r="I48" s="2">
-        <f t="shared" si="24"/>
-        <v>0.20569999999999999</v>
-      </c>
-      <c r="J48" s="2">
-        <f t="shared" si="25"/>
-        <v>0.1011655928785718</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49" s="2">
-        <v>1.7941</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.20730000000000001</v>
-      </c>
-      <c r="D49" s="2">
-        <f t="shared" si="22"/>
-        <v>5.178874787648647E-2</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" si="23"/>
-        <v>2.0013999999999998</v>
-      </c>
-      <c r="I49" s="2">
-        <f t="shared" si="24"/>
-        <v>0.10365000000000001</v>
-      </c>
-      <c r="J49" s="2">
-        <f t="shared" si="25"/>
-        <v>5.178874787648647E-2</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4.9238735421961569E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8134,9 +8134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF2F39C-D11D-4E2A-8159-8E8BA276F6D7}">
   <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8191,7 +8191,7 @@
         <v>82</v>
       </c>
       <c r="D2" s="2" t="e">
-        <f t="shared" ref="D2" si="0">C2/B2</f>
+        <f>C2/(B2+C2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H2" s="2" t="str">
@@ -8203,11 +8203,11 @@
         <v/>
       </c>
       <c r="J2" s="2" t="e">
-        <f>I2/H2</f>
+        <f>I2/(H2+I2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="K2" s="1" t="e">
-        <f t="shared" ref="K2" si="1">(D2-J2)/D2</f>
+        <f t="shared" ref="K2" si="0">(D2-J2)/D2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M2" s="3" t="s">

--- a/Data/NMR_weights.xlsx
+++ b/Data/NMR_weights.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\nmr\Python_Scripts_GUI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C87893F-D91E-41D1-B207-6535A4131A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A5D82A-A15C-4A96-8E5E-862044E97844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2340" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{378B74E6-3878-479E-B354-1180E1B108DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AM_AcomArea" sheetId="3" r:id="rId1"/>
+    <sheet name="AM_AcornArea" sheetId="3" r:id="rId1"/>
     <sheet name="AM_Spinsolve" sheetId="2" r:id="rId2"/>
-    <sheet name="KopierVorlage" sheetId="4" r:id="rId3"/>
+    <sheet name="EF_AcornArea" sheetId="5" r:id="rId3"/>
+    <sheet name="KopierVorlage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="206">
   <si>
     <t>Probe</t>
   </si>
@@ -71,12 +72,234 @@
     <t>V_Vergl</t>
   </si>
   <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>#24</t>
+  </si>
+  <si>
+    <t>#25</t>
+  </si>
+  <si>
+    <t>#26</t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>#28</t>
+  </si>
+  <si>
+    <t>#29</t>
+  </si>
+  <si>
+    <t>#30</t>
+  </si>
+  <si>
+    <t>#31</t>
+  </si>
+  <si>
+    <t>#32</t>
+  </si>
+  <si>
+    <t>#33</t>
+  </si>
+  <si>
+    <t>#34</t>
+  </si>
+  <si>
+    <t>#39</t>
+  </si>
+  <si>
+    <t>#40</t>
+  </si>
+  <si>
+    <t>#41</t>
+  </si>
+  <si>
+    <t>#42</t>
+  </si>
+  <si>
+    <t>#43</t>
+  </si>
+  <si>
+    <t>#44</t>
+  </si>
+  <si>
+    <t>#45</t>
+  </si>
+  <si>
+    <t>#46</t>
+  </si>
+  <si>
+    <t>#47</t>
+  </si>
+  <si>
+    <t>#48</t>
+  </si>
+  <si>
+    <t>#49</t>
+  </si>
+  <si>
+    <t>#50</t>
+  </si>
+  <si>
+    <t>#51</t>
+  </si>
+  <si>
+    <t>#52</t>
+  </si>
+  <si>
+    <t>#53</t>
+  </si>
+  <si>
+    <t>#54</t>
+  </si>
+  <si>
+    <t>#55</t>
+  </si>
+  <si>
+    <t>#56</t>
+  </si>
+  <si>
+    <t>#57</t>
+  </si>
+  <si>
+    <t>#58</t>
+  </si>
+  <si>
+    <t>#59</t>
+  </si>
+  <si>
+    <t>#60</t>
+  </si>
+  <si>
+    <t>#61</t>
+  </si>
+  <si>
+    <t>#62</t>
+  </si>
+  <si>
+    <t>#63</t>
+  </si>
+  <si>
+    <t>#64</t>
+  </si>
+  <si>
     <t>#76</t>
   </si>
   <si>
     <t>#77</t>
   </si>
   <si>
+    <t>#78</t>
+  </si>
+  <si>
+    <t>#79</t>
+  </si>
+  <si>
+    <t>#80</t>
+  </si>
+  <si>
+    <t>#81</t>
+  </si>
+  <si>
+    <t>#82</t>
+  </si>
+  <si>
+    <t>#83</t>
+  </si>
+  <si>
+    <t>#84</t>
+  </si>
+  <si>
+    <t>#85</t>
+  </si>
+  <si>
+    <t>#86</t>
+  </si>
+  <si>
+    <t>#87</t>
+  </si>
+  <si>
+    <t>#88</t>
+  </si>
+  <si>
+    <t>#89</t>
+  </si>
+  <si>
+    <t>#90</t>
+  </si>
+  <si>
+    <t>#91</t>
+  </si>
+  <si>
+    <t>#92</t>
+  </si>
+  <si>
+    <t>#93</t>
+  </si>
+  <si>
+    <t>#94</t>
+  </si>
+  <si>
+    <t>#95</t>
+  </si>
+  <si>
+    <t>#96</t>
+  </si>
+  <si>
+    <t>#97</t>
+  </si>
+  <si>
+    <t>#98</t>
+  </si>
+  <si>
+    <t>#99</t>
+  </si>
+  <si>
+    <t>#100</t>
+  </si>
+  <si>
+    <t>#101</t>
+  </si>
+  <si>
+    <t>#102</t>
+  </si>
+  <si>
+    <t>#103</t>
+  </si>
+  <si>
+    <t>#104</t>
+  </si>
+  <si>
+    <t>#105</t>
+  </si>
+  <si>
+    <t>#106</t>
+  </si>
+  <si>
+    <t>#107</t>
+  </si>
+  <si>
     <t>#116</t>
   </si>
   <si>
@@ -257,6 +480,54 @@
     <t>#179</t>
   </si>
   <si>
+    <t>#196</t>
+  </si>
+  <si>
+    <t>#197</t>
+  </si>
+  <si>
+    <t>#198</t>
+  </si>
+  <si>
+    <t>#199</t>
+  </si>
+  <si>
+    <t>#200</t>
+  </si>
+  <si>
+    <t>#201</t>
+  </si>
+  <si>
+    <t>#202</t>
+  </si>
+  <si>
+    <t>#203</t>
+  </si>
+  <si>
+    <t>#204</t>
+  </si>
+  <si>
+    <t>#205</t>
+  </si>
+  <si>
+    <t>#206</t>
+  </si>
+  <si>
+    <t>#207</t>
+  </si>
+  <si>
+    <t>#208</t>
+  </si>
+  <si>
+    <t>#209</t>
+  </si>
+  <si>
+    <t>#210</t>
+  </si>
+  <si>
+    <t>#211</t>
+  </si>
+  <si>
     <t>#180</t>
   </si>
   <si>
@@ -281,228 +552,6 @@
     <t>#187</t>
   </si>
   <si>
-    <t>#79</t>
-  </si>
-  <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>#2</t>
-  </si>
-  <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>#4</t>
-  </si>
-  <si>
-    <t>#5</t>
-  </si>
-  <si>
-    <t>#22</t>
-  </si>
-  <si>
-    <t>#23</t>
-  </si>
-  <si>
-    <t>#24</t>
-  </si>
-  <si>
-    <t>#25</t>
-  </si>
-  <si>
-    <t>#26</t>
-  </si>
-  <si>
-    <t>#27</t>
-  </si>
-  <si>
-    <t>#28</t>
-  </si>
-  <si>
-    <t>#29</t>
-  </si>
-  <si>
-    <t>#30</t>
-  </si>
-  <si>
-    <t>#31</t>
-  </si>
-  <si>
-    <t>#32</t>
-  </si>
-  <si>
-    <t>#33</t>
-  </si>
-  <si>
-    <t>#34</t>
-  </si>
-  <si>
-    <t>#39</t>
-  </si>
-  <si>
-    <t>#40</t>
-  </si>
-  <si>
-    <t>#41</t>
-  </si>
-  <si>
-    <t>#42</t>
-  </si>
-  <si>
-    <t>#43</t>
-  </si>
-  <si>
-    <t>#44</t>
-  </si>
-  <si>
-    <t>#45</t>
-  </si>
-  <si>
-    <t>#46</t>
-  </si>
-  <si>
-    <t>#47</t>
-  </si>
-  <si>
-    <t>#48</t>
-  </si>
-  <si>
-    <t>#49</t>
-  </si>
-  <si>
-    <t>#50</t>
-  </si>
-  <si>
-    <t>#51</t>
-  </si>
-  <si>
-    <t>#52</t>
-  </si>
-  <si>
-    <t>#53</t>
-  </si>
-  <si>
-    <t>#54</t>
-  </si>
-  <si>
-    <t>#55</t>
-  </si>
-  <si>
-    <t>#56</t>
-  </si>
-  <si>
-    <t>#57</t>
-  </si>
-  <si>
-    <t>#58</t>
-  </si>
-  <si>
-    <t>#59</t>
-  </si>
-  <si>
-    <t>#60</t>
-  </si>
-  <si>
-    <t>#61</t>
-  </si>
-  <si>
-    <t>#62</t>
-  </si>
-  <si>
-    <t>#63</t>
-  </si>
-  <si>
-    <t>#64</t>
-  </si>
-  <si>
-    <t>#78</t>
-  </si>
-  <si>
-    <t>#80</t>
-  </si>
-  <si>
-    <t>#81</t>
-  </si>
-  <si>
-    <t>#82</t>
-  </si>
-  <si>
-    <t>#83</t>
-  </si>
-  <si>
-    <t>#84</t>
-  </si>
-  <si>
-    <t>#85</t>
-  </si>
-  <si>
-    <t>#86</t>
-  </si>
-  <si>
-    <t>#87</t>
-  </si>
-  <si>
-    <t>#88</t>
-  </si>
-  <si>
-    <t>#89</t>
-  </si>
-  <si>
-    <t>#90</t>
-  </si>
-  <si>
-    <t>#91</t>
-  </si>
-  <si>
-    <t>#92</t>
-  </si>
-  <si>
-    <t>#93</t>
-  </si>
-  <si>
-    <t>#94</t>
-  </si>
-  <si>
-    <t>#95</t>
-  </si>
-  <si>
-    <t>#96</t>
-  </si>
-  <si>
-    <t>#97</t>
-  </si>
-  <si>
-    <t>#98</t>
-  </si>
-  <si>
-    <t>#99</t>
-  </si>
-  <si>
-    <t>#100</t>
-  </si>
-  <si>
-    <t>#101</t>
-  </si>
-  <si>
-    <t>#102</t>
-  </si>
-  <si>
-    <t>#103</t>
-  </si>
-  <si>
-    <t>#104</t>
-  </si>
-  <si>
-    <t>#105</t>
-  </si>
-  <si>
-    <t>#106</t>
-  </si>
-  <si>
-    <t>#107</t>
-  </si>
-  <si>
     <t>#188</t>
   </si>
   <si>
@@ -527,54 +576,6 @@
     <t>#195</t>
   </si>
   <si>
-    <t>#196</t>
-  </si>
-  <si>
-    <t>#197</t>
-  </si>
-  <si>
-    <t>#198</t>
-  </si>
-  <si>
-    <t>#199</t>
-  </si>
-  <si>
-    <t>#200</t>
-  </si>
-  <si>
-    <t>#201</t>
-  </si>
-  <si>
-    <t>#202</t>
-  </si>
-  <si>
-    <t>#203</t>
-  </si>
-  <si>
-    <t>#204</t>
-  </si>
-  <si>
-    <t>#205</t>
-  </si>
-  <si>
-    <t>#206</t>
-  </si>
-  <si>
-    <t>#207</t>
-  </si>
-  <si>
-    <t>#208</t>
-  </si>
-  <si>
-    <t>#209</t>
-  </si>
-  <si>
-    <t>#210</t>
-  </si>
-  <si>
-    <t>#211</t>
-  </si>
-  <si>
     <t>#213</t>
   </si>
   <si>
@@ -609,6 +610,51 @@
   </si>
   <si>
     <t>3. GUI nimmt Werte in Spalte H &amp; I</t>
+  </si>
+  <si>
+    <t>Anmerkung</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>Silica 150 nm Sigma Aldrich</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>Silica 500 nm Sigma Aldrich</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>Silica 1µm Sigma Aldrich</t>
+  </si>
+  <si>
+    <t>#20</t>
+  </si>
+  <si>
+    <t>#21</t>
   </si>
 </sst>
 </file>
@@ -633,12 +679,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -653,11 +705,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -971,12 +1027,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9562FCD5-922A-4647-AC42-CB794B9B6660}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J153"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1080,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>1.8892</v>
@@ -1033,8 +1089,8 @@
         <v>9.9199999999999997E-2</v>
       </c>
       <c r="D2" s="2">
-        <f>C2/(B2+C2)</f>
-        <v>4.9889358278012469E-2</v>
+        <f t="shared" ref="D2" si="0">C2/B2</f>
+        <v>5.2508998517891169E-2</v>
       </c>
       <c r="H2" s="2">
         <f>IF(B2="","",IF(E2="",B2,F2-G2))</f>
@@ -1044,18 +1100,18 @@
         <f>IF(C2="","",IF(F2="",C2,G2-E2))</f>
         <v>9.9199999999999997E-2</v>
       </c>
-      <c r="J2" s="2">
-        <f>I2/(H2+I2)</f>
+      <c r="J2" s="7">
+        <f t="shared" ref="J2:J65" si="1">I2/(H2+I2)</f>
         <v>4.9889358278012469E-2</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" ref="K2" si="0">(D2-J2)/D2</f>
-        <v>0</v>
+        <f t="shared" ref="K2" si="2">(D2-J2)/D2</f>
+        <v>4.9889358278012497E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>1.8027</v>
@@ -1064,29 +1120,29 @@
         <v>0.2072</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D66" si="1">C3/(B3+C3)</f>
+        <f t="shared" ref="D3" si="3">C3/B3</f>
+        <v>0.11493870305652631</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H45" si="4">IF(B3="","",IF(E3="",B3,F3-G3))</f>
+        <v>1.8027</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I45" si="5">IF(C3="","",IF(F3="",C3,G3-E3))</f>
+        <v>0.2072</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" si="1"/>
         <v>0.10308970595552017</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H45" si="2">IF(B3="","",IF(E3="",B3,F3-G3))</f>
-        <v>1.8027</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I45" si="3">IF(C3="","",IF(F3="",C3,G3-E3))</f>
-        <v>0.2072</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J66" si="4">I3/(H3+I3)</f>
-        <v>0.10308970595552017</v>
-      </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3" si="5">(D3-J3)/D3</f>
-        <v>0</v>
+        <f t="shared" ref="K3" si="6">(D3-J3)/D3</f>
+        <v>0.10308970595552019</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>1.6060000000000001</v>
@@ -1095,29 +1151,29 @@
         <v>0.40029999999999999</v>
       </c>
       <c r="D4" s="2">
+        <f t="shared" ref="D4:D45" si="7">C4/B4</f>
+        <v>0.249252801992528</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="5"/>
+        <v>0.40029999999999999</v>
+      </c>
+      <c r="J4" s="7">
         <f t="shared" si="1"/>
         <v>0.1995215072521557</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.40029999999999999</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1995215072521557</v>
-      </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K45" si="6">(D4-J4)/D4</f>
-        <v>0</v>
+        <f t="shared" ref="K4:K45" si="8">(D4-J4)/D4</f>
+        <v>0.19952150725215567</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>1.4088000000000001</v>
@@ -1126,29 +1182,29 @@
         <v>0.60860000000000003</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" si="7"/>
+        <v>0.43199886428165818</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4088000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="5"/>
+        <v>0.60860000000000003</v>
+      </c>
+      <c r="J5" s="7">
         <f t="shared" si="1"/>
         <v>0.30167542381282836</v>
       </c>
-      <c r="H5" s="2">
-        <f t="shared" si="2"/>
-        <v>1.4088000000000001</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="3"/>
-        <v>0.60860000000000003</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="4"/>
-        <v>0.30167542381282836</v>
-      </c>
       <c r="K5" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.30167542381282852</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>1.8064</v>
@@ -1157,29 +1213,29 @@
         <v>0.19980000000000001</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11060673162090345</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8064</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19980000000000001</v>
+      </c>
+      <c r="J6" s="7">
         <f t="shared" si="1"/>
         <v>9.959126707207655E-2</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8064</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="3"/>
-        <v>0.19980000000000001</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="4"/>
-        <v>9.959126707207655E-2</v>
-      </c>
       <c r="K6" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>9.9591267072076661E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>1.7075</v>
@@ -1188,29 +1244,29 @@
         <v>0.29970000000000002</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.17551976573938508</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7075</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.29970000000000002</v>
+      </c>
+      <c r="J7" s="7">
         <f t="shared" si="1"/>
         <v>0.14931247508967715</v>
       </c>
-      <c r="H7" s="2">
-        <f t="shared" si="2"/>
-        <v>1.7075</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="3"/>
-        <v>0.29970000000000002</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="4"/>
-        <v>0.14931247508967715</v>
-      </c>
       <c r="K7" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.14931247508967724</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>1.4041999999999999</v>
@@ -1219,29 +1275,29 @@
         <v>0.60609999999999997</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="7"/>
+        <v>0.43163367041731948</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4041999999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="5"/>
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="J8" s="7">
         <f t="shared" si="1"/>
         <v>0.30149728896184647</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="2"/>
-        <v>1.4041999999999999</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.60609999999999997</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="4"/>
-        <v>0.30149728896184647</v>
-      </c>
       <c r="K8" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.30149728896184658</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1250,29 +1306,29 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="K9" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1281,29 +1337,29 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="K10" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>1.7988999999999999</v>
@@ -1312,29 +1368,29 @@
         <v>0.2059</v>
       </c>
       <c r="D11" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11445883595530602</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7988999999999999</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2059</v>
+      </c>
+      <c r="J11" s="7">
         <f t="shared" si="1"/>
         <v>0.10270351157222667</v>
       </c>
-      <c r="H11" s="2">
-        <f t="shared" si="2"/>
-        <v>1.7988999999999999</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2059</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10270351157222667</v>
-      </c>
       <c r="K11" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.1027035115722266</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2">
         <v>1.8024</v>
@@ -1343,29 +1399,29 @@
         <v>0.1996</v>
       </c>
       <c r="D12" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11074123391034177</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8024</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1996</v>
+      </c>
+      <c r="J12" s="7">
         <f t="shared" si="1"/>
         <v>9.9700299700299713E-2</v>
       </c>
-      <c r="H12" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8024</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="3"/>
-        <v>0.1996</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="4"/>
-        <v>9.9700299700299713E-2</v>
-      </c>
       <c r="K12" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>9.9700299700299602E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>1.8066</v>
@@ -1374,29 +1430,29 @@
         <v>0.20480000000000001</v>
       </c>
       <c r="D13" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11336211668327245</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8066</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="5"/>
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="J13" s="7">
         <f t="shared" si="1"/>
         <v>0.10181962811971761</v>
       </c>
-      <c r="H13" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8066</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="3"/>
-        <v>0.20480000000000001</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10181962811971761</v>
-      </c>
       <c r="K13" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.10181962811971769</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
         <v>1.8043</v>
@@ -1405,29 +1461,29 @@
         <v>0.2006</v>
       </c>
       <c r="D14" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11117885052374882</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8043</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2006</v>
+      </c>
+      <c r="J14" s="7">
         <f t="shared" si="1"/>
         <v>0.10005486557933063</v>
       </c>
-      <c r="H14" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8043</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2006</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10005486557933063</v>
-      </c>
       <c r="K14" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.10005486557933067</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
         <v>1.9000999999999999</v>
@@ -1436,29 +1492,29 @@
         <v>0.1018</v>
       </c>
       <c r="D15" s="2">
+        <f t="shared" si="7"/>
+        <v>5.3576127572233047E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9000999999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1018</v>
+      </c>
+      <c r="J15" s="7">
         <f t="shared" si="1"/>
         <v>5.0851690893651033E-2</v>
       </c>
-      <c r="H15" s="2">
-        <f t="shared" si="2"/>
-        <v>1.9000999999999999</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="3"/>
-        <v>0.1018</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="4"/>
-        <v>5.0851690893651033E-2</v>
-      </c>
       <c r="K15" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>5.0851690893651116E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
         <v>1.8072999999999999</v>
@@ -1467,29 +1523,29 @@
         <v>0.1996</v>
       </c>
       <c r="D16" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11044098932108672</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8072999999999999</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1996</v>
+      </c>
+      <c r="J16" s="7">
         <f t="shared" si="1"/>
         <v>9.9456873785440242E-2</v>
       </c>
-      <c r="H16" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8072999999999999</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="3"/>
-        <v>0.1996</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="4"/>
-        <v>9.9456873785440242E-2</v>
-      </c>
       <c r="K16" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>9.9456873785440228E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>1.7064999999999999</v>
@@ -1498,29 +1554,29 @@
         <v>0.3054</v>
       </c>
       <c r="D17" s="2">
+        <f t="shared" si="7"/>
+        <v>0.17896278933489601</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7064999999999999</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3054</v>
+      </c>
+      <c r="J17" s="7">
         <f t="shared" si="1"/>
         <v>0.15179680898653017</v>
       </c>
-      <c r="H17" s="2">
-        <f t="shared" si="2"/>
-        <v>1.7064999999999999</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="3"/>
-        <v>0.3054</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="4"/>
-        <v>0.15179680898653017</v>
-      </c>
       <c r="K17" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.15179680898653014</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
         <v>1.6047</v>
@@ -1529,29 +1585,29 @@
         <v>0.39879999999999999</v>
       </c>
       <c r="D18" s="2">
+        <f t="shared" si="7"/>
+        <v>0.24851997258054465</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6047</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="5"/>
+        <v>0.39879999999999999</v>
+      </c>
+      <c r="J18" s="7">
         <f t="shared" si="1"/>
         <v>0.19905165959570753</v>
       </c>
-      <c r="H18" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6047</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="3"/>
-        <v>0.39879999999999999</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="4"/>
-        <v>0.19905165959570753</v>
-      </c>
       <c r="K18" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.19905165959570742</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
         <v>1.4071</v>
@@ -1560,29 +1616,29 @@
         <v>0.60209999999999997</v>
       </c>
       <c r="D19" s="2">
+        <f t="shared" si="7"/>
+        <v>0.42790135740174823</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4071</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="5"/>
+        <v>0.60209999999999997</v>
+      </c>
+      <c r="J19" s="7">
         <f t="shared" si="1"/>
         <v>0.29967151104917378</v>
       </c>
-      <c r="H19" s="2">
-        <f t="shared" si="2"/>
-        <v>1.4071</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="3"/>
-        <v>0.60209999999999997</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="4"/>
+      <c r="K19" s="1">
+        <f t="shared" si="8"/>
         <v>0.29967151104917378</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2">
         <v>1.9095</v>
@@ -1591,29 +1647,29 @@
         <v>0.1008</v>
       </c>
       <c r="D20" s="2">
+        <f t="shared" si="7"/>
+        <v>5.2788688138256087E-2</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9095</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1008</v>
+      </c>
+      <c r="J20" s="7">
         <f t="shared" si="1"/>
         <v>5.014176988509178E-2</v>
       </c>
-      <c r="H20" s="2">
-        <f t="shared" si="2"/>
-        <v>1.9095</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="3"/>
-        <v>0.1008</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="4"/>
-        <v>5.014176988509178E-2</v>
-      </c>
       <c r="K20" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>5.0141769885091711E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
         <v>1.8008999999999999</v>
@@ -1622,29 +1678,29 @@
         <v>0.20080000000000001</v>
       </c>
       <c r="D21" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1114998056527292</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8008999999999999</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="5"/>
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="J21" s="7">
         <f t="shared" si="1"/>
         <v>0.10031473247739421</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8008999999999999</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="3"/>
-        <v>0.20080000000000001</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10031473247739421</v>
-      </c>
       <c r="K21" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.10031473247739431</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2">
         <v>1.6952</v>
@@ -1653,29 +1709,29 @@
         <v>0.30259999999999998</v>
       </c>
       <c r="D22" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1785040113260972</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6952</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="5"/>
+        <v>0.30259999999999998</v>
+      </c>
+      <c r="J22" s="7">
         <f t="shared" si="1"/>
         <v>0.15146661327460206</v>
       </c>
-      <c r="H22" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6952</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="3"/>
-        <v>0.30259999999999998</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="4"/>
-        <v>0.15146661327460206</v>
-      </c>
       <c r="K22" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.15146661327460195</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2">
         <v>1.5995999999999999</v>
@@ -1684,29 +1740,29 @@
         <v>0.40920000000000001</v>
       </c>
       <c r="D23" s="2">
+        <f t="shared" si="7"/>
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5995999999999999</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="5"/>
+        <v>0.40920000000000001</v>
+      </c>
+      <c r="J23" s="7">
         <f t="shared" si="1"/>
         <v>0.20370370370370372</v>
       </c>
-      <c r="H23" s="2">
-        <f t="shared" si="2"/>
-        <v>1.5995999999999999</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="3"/>
-        <v>0.40920000000000001</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="4"/>
-        <v>0.20370370370370372</v>
-      </c>
       <c r="K23" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.20370370370370366</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2">
         <v>1.3945000000000001</v>
@@ -1715,29 +1771,29 @@
         <v>0.60119999999999996</v>
       </c>
       <c r="D24" s="2">
+        <f t="shared" si="7"/>
+        <v>0.43112226604517745</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3945000000000001</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="5"/>
+        <v>0.60119999999999996</v>
+      </c>
+      <c r="J24" s="7">
         <f t="shared" si="1"/>
         <v>0.30124768251741241</v>
       </c>
-      <c r="H24" s="2">
-        <f t="shared" si="2"/>
-        <v>1.3945000000000001</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="3"/>
-        <v>0.60119999999999996</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="4"/>
-        <v>0.30124768251741241</v>
-      </c>
       <c r="K24" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.30124768251741246</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2">
         <v>1.8028999999999999</v>
@@ -1746,29 +1802,29 @@
         <v>0.2069</v>
       </c>
       <c r="D25" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11475955405180543</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8028999999999999</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2069</v>
+      </c>
+      <c r="J25" s="7">
         <f t="shared" si="1"/>
         <v>0.10294556672305703</v>
       </c>
-      <c r="H25" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8028999999999999</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2069</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10294556672305703</v>
-      </c>
       <c r="K25" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.10294556672305699</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2">
         <v>1.7992999999999999</v>
@@ -1777,29 +1833,29 @@
         <v>0.20230000000000001</v>
       </c>
       <c r="D26" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11243261268270996</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7992999999999999</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="5"/>
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="J26" s="7">
         <f t="shared" si="1"/>
         <v>0.10106914468425261</v>
       </c>
-      <c r="H26" s="2">
-        <f t="shared" si="2"/>
-        <v>1.7992999999999999</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="3"/>
-        <v>0.20230000000000001</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10106914468425261</v>
-      </c>
       <c r="K26" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.1010691446842526</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2">
         <v>1.798</v>
@@ -1808,29 +1864,29 @@
         <v>0.20180000000000001</v>
       </c>
       <c r="D27" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11223581757508343</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="4"/>
+        <v>1.798</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.20180000000000001</v>
+      </c>
+      <c r="J27" s="7">
         <f t="shared" si="1"/>
         <v>0.10091009100910091</v>
       </c>
-      <c r="H27" s="2">
-        <f t="shared" si="2"/>
-        <v>1.798</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="3"/>
-        <v>0.20180000000000001</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10091009100910091</v>
-      </c>
       <c r="K27" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.10091009100910094</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2">
         <v>1.7957000000000001</v>
@@ -1839,29 +1895,29 @@
         <v>0.20849999999999999</v>
       </c>
       <c r="D28" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11611070891574315</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7957000000000001</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="5"/>
+        <v>0.20849999999999999</v>
+      </c>
+      <c r="J28" s="7">
         <f t="shared" si="1"/>
         <v>0.10403153377906396</v>
       </c>
-      <c r="H28" s="2">
-        <f t="shared" si="2"/>
-        <v>1.7957000000000001</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="3"/>
-        <v>0.20849999999999999</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10403153377906396</v>
-      </c>
       <c r="K28" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.10403153377906393</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2">
         <v>1.8025</v>
@@ -1870,29 +1926,29 @@
         <v>0.21149999999999999</v>
       </c>
       <c r="D29" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11733703190013869</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8025</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="5"/>
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="J29" s="7">
         <f t="shared" si="1"/>
         <v>0.10501489572989077</v>
       </c>
-      <c r="H29" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8025</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="3"/>
-        <v>0.21149999999999999</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10501489572989077</v>
-      </c>
       <c r="K29" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.1050148957298907</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2">
         <v>1.8097000000000001</v>
@@ -1901,29 +1957,29 @@
         <v>0.2024</v>
       </c>
       <c r="D30" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11184174172514781</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8097000000000001</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2024</v>
+      </c>
+      <c r="J30" s="7">
         <f t="shared" si="1"/>
         <v>0.10059142189751999</v>
       </c>
-      <c r="H30" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8097000000000001</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2024</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10059142189751999</v>
-      </c>
       <c r="K30" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.10059142189752011</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2">
         <v>1.7988999999999999</v>
@@ -1932,29 +1988,29 @@
         <v>0.2092</v>
       </c>
       <c r="D31" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11629329034409917</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7988999999999999</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2092</v>
+      </c>
+      <c r="J31" s="7">
         <f t="shared" si="1"/>
         <v>0.10417807878093721</v>
       </c>
-      <c r="H31" s="2">
-        <f t="shared" si="2"/>
-        <v>1.7988999999999999</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2092</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10417807878093721</v>
-      </c>
       <c r="K31" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.10417807878093716</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2">
         <v>1.7966</v>
@@ -1963,29 +2019,29 @@
         <v>0.2114</v>
       </c>
       <c r="D32" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11766670377379496</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7966</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2114</v>
+      </c>
+      <c r="J32" s="7">
         <f t="shared" si="1"/>
         <v>0.10527888446215139</v>
       </c>
-      <c r="H32" s="2">
-        <f t="shared" si="2"/>
-        <v>1.7966</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2114</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10527888446215139</v>
-      </c>
       <c r="K32" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.10527888446215151</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2">
         <v>1.8066</v>
@@ -1994,29 +2050,29 @@
         <v>0.2087</v>
       </c>
       <c r="D33" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11552086792870586</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8066</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2087</v>
+      </c>
+      <c r="J33" s="7">
         <f t="shared" si="1"/>
         <v>0.1035577829603533</v>
       </c>
-      <c r="H33" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8066</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2087</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1035577829603533</v>
-      </c>
       <c r="K33" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.10355778296035333</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2">
         <v>1.8065</v>
@@ -2025,29 +2081,29 @@
         <v>0.2014</v>
       </c>
       <c r="D34" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11148629947412123</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8065</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2014</v>
+      </c>
+      <c r="J34" s="7">
         <f t="shared" si="1"/>
         <v>0.10030379999003936</v>
       </c>
-      <c r="H34" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8065</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2014</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10030379999003936</v>
-      </c>
       <c r="K34" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.10030379999003922</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2">
         <v>1.7999000000000001</v>
@@ -2056,29 +2112,29 @@
         <v>0.2084</v>
       </c>
       <c r="D35" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11578421023390188</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7999000000000001</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2084</v>
+      </c>
+      <c r="J35" s="7">
         <f t="shared" si="1"/>
         <v>0.10376935716775382</v>
       </c>
-      <c r="H35" s="2">
-        <f t="shared" si="2"/>
-        <v>1.7999000000000001</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2084</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10376935716775382</v>
-      </c>
       <c r="K35" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.10376935716775385</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2">
         <v>1.7985</v>
@@ -2087,29 +2143,29 @@
         <v>0.19969999999999999</v>
       </c>
       <c r="D36" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11103697525715873</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7985</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19969999999999999</v>
+      </c>
+      <c r="J36" s="7">
         <f t="shared" si="1"/>
         <v>9.9939945951356218E-2</v>
       </c>
-      <c r="H36" s="2">
-        <f t="shared" si="2"/>
-        <v>1.7985</v>
-      </c>
-      <c r="I36" s="2">
-        <f t="shared" si="3"/>
-        <v>0.19969999999999999</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" si="4"/>
-        <v>9.9939945951356218E-2</v>
-      </c>
       <c r="K36" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>9.9939945951356177E-2</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2">
         <v>1.8037000000000001</v>
@@ -2118,29 +2174,29 @@
         <v>0.2092</v>
       </c>
       <c r="D37" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1159838110550535</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8037000000000001</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2092</v>
+      </c>
+      <c r="J37" s="7">
         <f t="shared" si="1"/>
         <v>0.10392965373341943</v>
       </c>
-      <c r="H37" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8037000000000001</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2092</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10392965373341943</v>
-      </c>
       <c r="K37" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.1039296537334195</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2">
         <v>1.8053999999999999</v>
@@ -2149,29 +2205,29 @@
         <v>0.2049</v>
       </c>
       <c r="D38" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11349285476902626</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8053999999999999</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2049</v>
+      </c>
+      <c r="J38" s="7">
         <f t="shared" si="1"/>
         <v>0.10192508580808834</v>
       </c>
-      <c r="H38" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8053999999999999</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2049</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10192508580808834</v>
-      </c>
       <c r="K38" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.10192508580808841</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2">
         <v>1.8053999999999999</v>
@@ -2180,29 +2236,29 @@
         <v>0.2064</v>
       </c>
       <c r="D39" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11432369557992689</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8053999999999999</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2064</v>
+      </c>
+      <c r="J39" s="7">
         <f t="shared" si="1"/>
         <v>0.10259469132120488</v>
       </c>
-      <c r="H39" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8053999999999999</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2064</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10259469132120488</v>
-      </c>
       <c r="K39" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.10259469132120497</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2">
         <v>1.8064</v>
@@ -2211,29 +2267,29 @@
         <v>0.2147</v>
       </c>
       <c r="D40" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11885518157661648</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8064</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2147</v>
+      </c>
+      <c r="J40" s="7">
         <f t="shared" si="1"/>
         <v>0.10622928108455791</v>
       </c>
-      <c r="H40" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8064</v>
-      </c>
-      <c r="I40" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2147</v>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10622928108455791</v>
-      </c>
       <c r="K40" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.10622928108455798</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2">
         <v>1.9039999999999999</v>
@@ -2242,29 +2298,29 @@
         <v>0.1024</v>
       </c>
       <c r="D41" s="2">
+        <f t="shared" si="7"/>
+        <v>5.378151260504202E-2</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1024</v>
+      </c>
+      <c r="J41" s="7">
         <f t="shared" si="1"/>
         <v>5.1036682615629991E-2</v>
       </c>
-      <c r="H41" s="2">
-        <f t="shared" si="2"/>
-        <v>1.9039999999999999</v>
-      </c>
-      <c r="I41" s="2">
-        <f t="shared" si="3"/>
-        <v>0.1024</v>
-      </c>
-      <c r="J41" s="2">
-        <f t="shared" si="4"/>
-        <v>5.1036682615629991E-2</v>
-      </c>
       <c r="K41" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>5.1036682615629908E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2">
         <v>1.8132999999999999</v>
@@ -2273,29 +2329,29 @@
         <v>0.19939999999999999</v>
       </c>
       <c r="D42" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10996525671427784</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8132999999999999</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19939999999999999</v>
+      </c>
+      <c r="J42" s="7">
         <f t="shared" si="1"/>
         <v>9.907089978635665E-2</v>
       </c>
-      <c r="H42" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8132999999999999</v>
-      </c>
-      <c r="I42" s="2">
-        <f t="shared" si="3"/>
-        <v>0.19939999999999999</v>
-      </c>
-      <c r="J42" s="2">
-        <f t="shared" si="4"/>
-        <v>9.907089978635665E-2</v>
-      </c>
       <c r="K42" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>9.9070899786356553E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2">
         <v>1.7007000000000001</v>
@@ -2304,29 +2360,29 @@
         <v>0.3</v>
       </c>
       <c r="D43" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1763979537837361</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7007000000000001</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="J43" s="7">
         <f t="shared" si="1"/>
         <v>0.14994751836857098</v>
       </c>
-      <c r="H43" s="2">
-        <f t="shared" si="2"/>
-        <v>1.7007000000000001</v>
-      </c>
-      <c r="I43" s="2">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="J43" s="2">
-        <f t="shared" si="4"/>
-        <v>0.14994751836857098</v>
-      </c>
       <c r="K43" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.14994751836857106</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2">
         <v>1.6144000000000001</v>
@@ -2335,29 +2391,29 @@
         <v>0.40960000000000002</v>
       </c>
       <c r="D44" s="2">
+        <f t="shared" si="7"/>
+        <v>0.25371655104063429</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6144000000000001</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="5"/>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="J44" s="7">
         <f t="shared" si="1"/>
         <v>0.20237154150197628</v>
       </c>
-      <c r="H44" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6144000000000001</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" si="3"/>
-        <v>0.40960000000000002</v>
-      </c>
-      <c r="J44" s="2">
-        <f t="shared" si="4"/>
+      <c r="K44" s="1">
+        <f t="shared" si="8"/>
         <v>0.20237154150197628</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="B45" s="2">
         <v>1.4153</v>
@@ -2366,29 +2422,29 @@
         <v>0.60819999999999996</v>
       </c>
       <c r="D45" s="2">
+        <f t="shared" si="7"/>
+        <v>0.4297322122518194</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4153</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="5"/>
+        <v>0.60819999999999996</v>
+      </c>
+      <c r="J45" s="7">
         <f t="shared" si="1"/>
         <v>0.30056832221398566</v>
       </c>
-      <c r="H45" s="2">
-        <f t="shared" si="2"/>
-        <v>1.4153</v>
-      </c>
-      <c r="I45" s="2">
-        <f t="shared" si="3"/>
-        <v>0.60819999999999996</v>
-      </c>
-      <c r="J45" s="2">
-        <f t="shared" si="4"/>
+      <c r="K45" s="1">
+        <f t="shared" si="8"/>
         <v>0.30056832221398566</v>
-      </c>
-      <c r="K45" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B46" s="2">
         <v>1.9079999999999999</v>
@@ -2397,8 +2453,8 @@
         <v>0.1036</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="1"/>
-        <v>5.1501292503479817E-2</v>
+        <f t="shared" ref="D46:D92" si="9">C46/B46</f>
+        <v>5.4297693920335434E-2</v>
       </c>
       <c r="E46" s="2">
         <v>1.706</v>
@@ -2410,25 +2466,25 @@
         <v>1.7354000000000001</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" ref="H46:H91" si="7">IF(B46="","",IF(E46="",B46,F46-G46))</f>
+        <f t="shared" ref="H46:H91" si="10">IF(B46="","",IF(E46="",B46,F46-G46))</f>
         <v>0.73650000000000015</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" ref="I46:I91" si="8">IF(C46="","",IF(F46="",C46,G46-E46))</f>
+        <f t="shared" ref="I46:I91" si="11">IF(C46="","",IF(F46="",C46,G46-E46))</f>
         <v>2.9400000000000093E-2</v>
       </c>
-      <c r="J46" s="2">
-        <f t="shared" si="4"/>
+      <c r="J46" s="7">
+        <f t="shared" si="1"/>
         <v>3.8386212299255887E-2</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" ref="K46:K92" si="9">(D46-J46)/D46</f>
-        <v>0.25465536041329012</v>
+        <f t="shared" ref="K46:K92" si="12">(D46-J46)/D46</f>
+        <v>0.29304157271254605</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2">
         <v>1.7981</v>
@@ -2437,8 +2493,8 @@
         <v>0.2145</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="1"/>
-        <v>0.10657855510285204</v>
+        <f t="shared" si="9"/>
+        <v>0.11929258661920916</v>
       </c>
       <c r="E47" s="2">
         <v>1.7145999999999999</v>
@@ -2450,25 +2506,25 @@
         <v>1.7846</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.71699999999999986</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="J47" s="2">
-        <f t="shared" si="4"/>
+      <c r="J47" s="7">
+        <f t="shared" si="1"/>
         <v>8.8945362134688774E-2</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="9"/>
-        <v>0.16544785159778733</v>
+        <f t="shared" si="12"/>
+        <v>0.25439321373247603</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2">
         <v>1.6991000000000001</v>
@@ -2477,8 +2533,8 @@
         <v>0.31580000000000003</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="1"/>
-        <v>0.15673234403692493</v>
+        <f t="shared" si="9"/>
+        <v>0.18586310399623332</v>
       </c>
       <c r="E48" s="2">
         <v>1.7241</v>
@@ -2490,25 +2546,25 @@
         <v>1.8342000000000001</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.70060000000000011</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.11010000000000009</v>
       </c>
-      <c r="J48" s="2">
-        <f t="shared" si="4"/>
+      <c r="J48" s="7">
+        <f t="shared" si="1"/>
         <v>0.13580856050326887</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="9"/>
-        <v>0.13350009956289929</v>
+        <f t="shared" si="12"/>
+        <v>0.2693086600661681</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2">
         <v>1.6012999999999999</v>
@@ -2517,29 +2573,29 @@
         <v>0.41870000000000002</v>
       </c>
       <c r="D49" s="2">
+        <f t="shared" si="9"/>
+        <v>0.26147505152063949</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="10"/>
+        <v>1.6012999999999999</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="11"/>
+        <v>0.41870000000000002</v>
+      </c>
+      <c r="J49" s="7">
         <f t="shared" si="1"/>
         <v>0.20727722772277229</v>
       </c>
-      <c r="H49" s="2">
-        <f t="shared" si="7"/>
-        <v>1.6012999999999999</v>
-      </c>
-      <c r="I49" s="2">
-        <f t="shared" si="8"/>
-        <v>0.41870000000000002</v>
-      </c>
-      <c r="J49" s="2">
-        <f t="shared" si="4"/>
-        <v>0.20727722772277229</v>
-      </c>
       <c r="K49" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.20727722772277224</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2">
         <v>1.9151</v>
@@ -2548,29 +2604,29 @@
         <v>9.74E-2</v>
       </c>
       <c r="D50" s="2">
+        <f t="shared" si="9"/>
+        <v>5.0858962978434549E-2</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="10"/>
+        <v>1.9151</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="11"/>
+        <v>9.74E-2</v>
+      </c>
+      <c r="J50" s="7">
         <f t="shared" si="1"/>
         <v>4.8397515527950304E-2</v>
       </c>
-      <c r="H50" s="2">
-        <f t="shared" si="7"/>
-        <v>1.9151</v>
-      </c>
-      <c r="I50" s="2">
-        <f t="shared" si="8"/>
-        <v>9.74E-2</v>
-      </c>
-      <c r="J50" s="2">
-        <f t="shared" si="4"/>
-        <v>4.8397515527950304E-2</v>
-      </c>
       <c r="K50" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>4.8397515527950498E-2</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="B51" s="2">
         <v>1.8173999999999999</v>
@@ -2579,29 +2635,29 @@
         <v>0.20949999999999999</v>
       </c>
       <c r="D51" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11527456806426764</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="10"/>
+        <v>1.8173999999999999</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="11"/>
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="J51" s="7">
         <f t="shared" si="1"/>
         <v>0.10335981054812768</v>
       </c>
-      <c r="H51" s="2">
-        <f t="shared" si="7"/>
-        <v>1.8173999999999999</v>
-      </c>
-      <c r="I51" s="2">
-        <f t="shared" si="8"/>
-        <v>0.20949999999999999</v>
-      </c>
-      <c r="J51" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10335981054812768</v>
-      </c>
       <c r="K51" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.10335981054812776</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2">
         <v>1.7162999999999999</v>
@@ -2610,29 +2666,29 @@
         <v>0.30909999999999999</v>
       </c>
       <c r="D52" s="2">
+        <f t="shared" si="9"/>
+        <v>0.18009671968770027</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="10"/>
+        <v>1.7162999999999999</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="11"/>
+        <v>0.30909999999999999</v>
+      </c>
+      <c r="J52" s="7">
         <f t="shared" si="1"/>
         <v>0.15261182976202231</v>
       </c>
-      <c r="H52" s="2">
-        <f t="shared" si="7"/>
-        <v>1.7162999999999999</v>
-      </c>
-      <c r="I52" s="2">
-        <f t="shared" si="8"/>
-        <v>0.30909999999999999</v>
-      </c>
-      <c r="J52" s="2">
-        <f t="shared" si="4"/>
-        <v>0.15261182976202231</v>
-      </c>
       <c r="K52" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.15261182976202228</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2">
         <v>1.6012</v>
@@ -2641,29 +2697,29 @@
         <v>0.40289999999999998</v>
       </c>
       <c r="D53" s="2">
+        <f t="shared" si="9"/>
+        <v>0.25162378216337744</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="10"/>
+        <v>1.6012</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="11"/>
+        <v>0.40289999999999998</v>
+      </c>
+      <c r="J53" s="7">
         <f t="shared" si="1"/>
         <v>0.20103787236165863</v>
       </c>
-      <c r="H53" s="2">
-        <f t="shared" si="7"/>
-        <v>1.6012</v>
-      </c>
-      <c r="I53" s="2">
-        <f t="shared" si="8"/>
-        <v>0.40289999999999998</v>
-      </c>
-      <c r="J53" s="2">
-        <f t="shared" si="4"/>
-        <v>0.20103787236165863</v>
-      </c>
       <c r="K53" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.2010378723616584</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="B54" s="2">
         <v>1.9048</v>
@@ -2672,8 +2728,8 @@
         <v>0.1114</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="1"/>
-        <v>5.5252455113579999E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.8483830323393528E-2</v>
       </c>
       <c r="E54" s="2">
         <v>1.7143999999999999</v>
@@ -2685,25 +2741,25 @@
         <v>1.7533000000000001</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.73439999999999972</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.8900000000000157E-2</v>
       </c>
-      <c r="J54" s="2">
-        <f t="shared" si="4"/>
+      <c r="J54" s="7">
+        <f t="shared" si="1"/>
         <v>5.0303892409155775E-2</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="9"/>
-        <v>8.9562765930521732E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.13986665833967751</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2">
         <v>1.8104</v>
@@ -2712,8 +2768,8 @@
         <v>0.2036</v>
       </c>
       <c r="D55" s="2">
-        <f t="shared" si="1"/>
-        <v>0.10109235352532273</v>
+        <f t="shared" si="9"/>
+        <v>0.11246133451171011</v>
       </c>
       <c r="E55" s="2">
         <v>1.7157</v>
@@ -2725,25 +2781,25 @@
         <v>1.7965</v>
       </c>
       <c r="H55" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.70940000000000003</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.0799999999999983E-2</v>
       </c>
-      <c r="J55" s="2">
-        <f t="shared" si="4"/>
+      <c r="J55" s="7">
+        <f t="shared" si="1"/>
         <v>0.10225259427992911</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.1477037719927594E-2</v>
+        <f t="shared" si="12"/>
+        <v>9.0775556560001636E-2</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="B56" s="2">
         <v>1.7079</v>
@@ -2752,8 +2808,8 @@
         <v>0.3004</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="1"/>
-        <v>0.14957924612856643</v>
+        <f t="shared" si="9"/>
+        <v>0.17588851806311845</v>
       </c>
       <c r="E56" s="2">
         <v>1.7135</v>
@@ -2765,25 +2821,25 @@
         <v>1.8251999999999999</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" ref="H56" si="10">IF(B56="","",IF(E56="",B56,F56-G56))</f>
+        <f t="shared" ref="H56" si="13">IF(B56="","",IF(E56="",B56,F56-G56))</f>
         <v>0.69259999999999988</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" ref="I56" si="11">IF(C56="","",IF(F56="",C56,G56-E56))</f>
+        <f t="shared" ref="I56" si="14">IF(C56="","",IF(F56="",C56,G56-E56))</f>
         <v>0.11169999999999991</v>
       </c>
-      <c r="J56" s="2">
-        <f t="shared" si="4"/>
+      <c r="J56" s="7">
+        <f t="shared" si="1"/>
         <v>0.13887852791247041</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" ref="K56" si="12">(D56-J56)/D56</f>
-        <v>7.1538789591829743E-2</v>
+        <f t="shared" ref="K56" si="15">(D56-J56)/D56</f>
+        <v>0.21041731750430023</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="B57" s="2">
         <v>1.6083000000000001</v>
@@ -2792,8 +2848,8 @@
         <v>0.40489999999999998</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" si="1"/>
-        <v>0.2011225909000596</v>
+        <f>C56/B57</f>
+        <v>0.18678107318286388</v>
       </c>
       <c r="E57" s="2">
         <v>1.718</v>
@@ -2805,25 +2861,25 @@
         <v>1.8479000000000001</v>
       </c>
       <c r="H57" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.70149999999999979</v>
       </c>
       <c r="I57" s="2">
         <f>IF(C56="","",IF(F57="",C56,G57-E57))</f>
         <v>0.12990000000000013</v>
       </c>
-      <c r="J57" s="2">
-        <f t="shared" si="4"/>
+      <c r="J57" s="7">
+        <f t="shared" si="1"/>
         <v>0.15624248255953829</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="9"/>
-        <v>0.22314802200824277</v>
+        <f t="shared" si="12"/>
+        <v>0.16349938515144657</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="B58" s="2">
         <v>1.8976999999999999</v>
@@ -2832,29 +2888,29 @@
         <v>0.1032</v>
       </c>
       <c r="D58" s="2">
+        <f t="shared" si="9"/>
+        <v>5.4381619855614696E-2</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="10"/>
+        <v>1.8976999999999999</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="11"/>
+        <v>0.1032</v>
+      </c>
+      <c r="J58" s="7">
         <f t="shared" si="1"/>
         <v>5.1576790444300059E-2</v>
       </c>
-      <c r="H58" s="2">
-        <f t="shared" si="7"/>
-        <v>1.8976999999999999</v>
-      </c>
-      <c r="I58" s="2">
-        <f t="shared" si="8"/>
-        <v>0.1032</v>
-      </c>
-      <c r="J58" s="2">
-        <f t="shared" si="4"/>
-        <v>5.1576790444300059E-2</v>
-      </c>
       <c r="K58" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>5.1576790444300254E-2</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="B59" s="2">
         <v>1.8055000000000001</v>
@@ -2863,29 +2919,29 @@
         <v>0.21529999999999999</v>
       </c>
       <c r="D59" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11924674605372472</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="10"/>
+        <v>1.8055000000000001</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="11"/>
+        <v>0.21529999999999999</v>
+      </c>
+      <c r="J59" s="7">
         <f t="shared" si="1"/>
         <v>0.10654196357878068</v>
       </c>
-      <c r="H59" s="2">
-        <f t="shared" si="7"/>
-        <v>1.8055000000000001</v>
-      </c>
-      <c r="I59" s="2">
-        <f t="shared" si="8"/>
-        <v>0.21529999999999999</v>
-      </c>
-      <c r="J59" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10654196357878068</v>
-      </c>
       <c r="K59" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.10654196357878061</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2">
         <v>1.7188000000000001</v>
@@ -2894,29 +2950,29 @@
         <v>0.30459999999999998</v>
       </c>
       <c r="D60" s="2">
+        <f t="shared" si="9"/>
+        <v>0.17721666278799161</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="10"/>
+        <v>1.7188000000000001</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="11"/>
+        <v>0.30459999999999998</v>
+      </c>
+      <c r="J60" s="7">
         <f t="shared" si="1"/>
         <v>0.15053869724226548</v>
       </c>
-      <c r="H60" s="2">
-        <f t="shared" si="7"/>
-        <v>1.7188000000000001</v>
-      </c>
-      <c r="I60" s="2">
-        <f t="shared" si="8"/>
-        <v>0.30459999999999998</v>
-      </c>
-      <c r="J60" s="2">
-        <f t="shared" si="4"/>
-        <v>0.15053869724226548</v>
-      </c>
       <c r="K60" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.15053869724226551</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="B61" s="2">
         <v>1.6134999999999999</v>
@@ -2925,29 +2981,29 @@
         <v>0.41149999999999998</v>
       </c>
       <c r="D61" s="2">
+        <f t="shared" si="9"/>
+        <v>0.25503563681437869</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="10"/>
+        <v>1.6134999999999999</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="11"/>
+        <v>0.41149999999999998</v>
+      </c>
+      <c r="J61" s="7">
         <f t="shared" si="1"/>
         <v>0.20320987654320988</v>
       </c>
-      <c r="H61" s="2">
-        <f t="shared" si="7"/>
-        <v>1.6134999999999999</v>
-      </c>
-      <c r="I61" s="2">
-        <f t="shared" si="8"/>
-        <v>0.41149999999999998</v>
-      </c>
-      <c r="J61" s="2">
-        <f t="shared" si="4"/>
+      <c r="K61" s="1">
+        <f t="shared" si="12"/>
         <v>0.20320987654320988</v>
-      </c>
-      <c r="K61" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2">
         <v>1.9114</v>
@@ -2956,8 +3012,8 @@
         <v>0.1094</v>
       </c>
       <c r="D62" s="2">
-        <f t="shared" si="1"/>
-        <v>5.4136975455265239E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.7235534163440412E-2</v>
       </c>
       <c r="E62" s="2">
         <v>1.7264999999999999</v>
@@ -2969,25 +3025,25 @@
         <v>1.7658</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.74160000000000004</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.9300000000000113E-2</v>
       </c>
-      <c r="J62" s="2">
-        <f t="shared" si="4"/>
+      <c r="J62" s="7">
+        <f t="shared" si="1"/>
         <v>5.0326546292739284E-2</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="9"/>
-        <v>7.0384965737042504E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.12071151202978185</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2">
         <v>1.8156000000000001</v>
@@ -2996,8 +3052,8 @@
         <v>0.21110000000000001</v>
       </c>
       <c r="D63" s="2">
-        <f t="shared" si="1"/>
-        <v>0.10415947106133124</v>
+        <f t="shared" si="9"/>
+        <v>0.11627010354703679</v>
       </c>
       <c r="E63" s="2">
         <v>1.7257</v>
@@ -3009,25 +3065,25 @@
         <v>1.8092999999999999</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.69310000000000027</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.3599999999999897E-2</v>
       </c>
-      <c r="J63" s="2">
-        <f t="shared" si="4"/>
+      <c r="J63" s="7">
+        <f t="shared" si="1"/>
         <v>0.10763486545641802</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="9"/>
-        <v>-3.336609104937184E-2</v>
+        <f t="shared" si="12"/>
+        <v>7.4268774407046101E-2</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="B64" s="2">
         <v>1.7152000000000001</v>
@@ -3036,8 +3092,8 @@
         <v>0.30649999999999999</v>
       </c>
       <c r="D64" s="2">
-        <f t="shared" si="1"/>
-        <v>0.15160508482959884</v>
+        <f t="shared" si="9"/>
+        <v>0.1786963619402985</v>
       </c>
       <c r="E64" s="2">
         <v>1.7188000000000001</v>
@@ -3049,25 +3105,25 @@
         <v>1.85</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.69289999999999985</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.13119999999999998</v>
       </c>
-      <c r="J64" s="2">
-        <f t="shared" si="4"/>
+      <c r="J64" s="7">
+        <f t="shared" si="1"/>
         <v>0.15920398009950251</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="9"/>
-        <v>-5.0122957804777379E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.10908102229472524</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="B65" s="2">
         <v>1.6092</v>
@@ -3076,8 +3132,8 @@
         <v>0.4083</v>
       </c>
       <c r="D65" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20237918215613382</v>
+        <f t="shared" si="9"/>
+        <v>0.25372856077554062</v>
       </c>
       <c r="E65" s="2">
         <v>1.702</v>
@@ -3089,25 +3145,25 @@
         <v>1.8714</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.91610000000000014</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.1694</v>
       </c>
-      <c r="J65" s="2">
-        <f t="shared" si="4"/>
+      <c r="J65" s="7">
+        <f t="shared" si="1"/>
         <v>0.15605711653615842</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="9"/>
-        <v>0.22888750278790196</v>
+        <f t="shared" si="12"/>
+        <v>0.38494461932406038</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="B66" s="2">
         <v>1.911</v>
@@ -3116,29 +3172,29 @@
         <v>0.1138</v>
       </c>
       <c r="D66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
+        <v>5.9549973835688122E-2</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="10"/>
+        <v>1.911</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="11"/>
+        <v>0.1138</v>
+      </c>
+      <c r="J66" s="7">
+        <f t="shared" ref="J66:J129" si="16">I66/(H66+I66)</f>
         <v>5.6203081785855397E-2</v>
       </c>
-      <c r="H66" s="2">
-        <f t="shared" si="7"/>
-        <v>1.911</v>
-      </c>
-      <c r="I66" s="2">
-        <f t="shared" si="8"/>
-        <v>0.1138</v>
-      </c>
-      <c r="J66" s="2">
-        <f t="shared" si="4"/>
-        <v>5.6203081785855397E-2</v>
-      </c>
       <c r="K66" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>5.6203081785855341E-2</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B67" s="2">
         <v>1.8103</v>
@@ -3147,29 +3203,29 @@
         <v>0.21229999999999999</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" ref="D67:D130" si="13">C67/(B67+C67)</f>
+        <f t="shared" si="9"/>
+        <v>0.11727338010274539</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="10"/>
+        <v>1.8103</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" si="11"/>
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="J67" s="7">
+        <f t="shared" si="16"/>
         <v>0.10496390784139226</v>
       </c>
-      <c r="H67" s="2">
-        <f t="shared" si="7"/>
-        <v>1.8103</v>
-      </c>
-      <c r="I67" s="2">
-        <f t="shared" si="8"/>
-        <v>0.21229999999999999</v>
-      </c>
-      <c r="J67" s="2">
-        <f t="shared" ref="J67:J130" si="14">I67/(H67+I67)</f>
-        <v>0.10496390784139226</v>
-      </c>
       <c r="K67" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.10496390784139228</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2">
         <v>1.6982999999999999</v>
@@ -3178,29 +3234,29 @@
         <v>0.30819999999999997</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
+        <v>0.1814755932402991</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="10"/>
+        <v>1.6982999999999999</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" si="11"/>
+        <v>0.30819999999999997</v>
+      </c>
+      <c r="J68" s="7">
+        <f t="shared" si="16"/>
         <v>0.15360079740842261</v>
       </c>
-      <c r="H68" s="2">
-        <f t="shared" si="7"/>
-        <v>1.6982999999999999</v>
-      </c>
-      <c r="I68" s="2">
-        <f t="shared" si="8"/>
-        <v>0.30819999999999997</v>
-      </c>
-      <c r="J68" s="2">
-        <f t="shared" si="14"/>
+      <c r="K68" s="1">
+        <f t="shared" si="12"/>
         <v>0.15360079740842261</v>
-      </c>
-      <c r="K68" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="B69" s="2">
         <v>1.6095999999999999</v>
@@ -3209,29 +3265,29 @@
         <v>0.43240000000000001</v>
       </c>
       <c r="D69" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
+        <v>0.2686381709741551</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="10"/>
+        <v>1.6095999999999999</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="11"/>
+        <v>0.43240000000000001</v>
+      </c>
+      <c r="J69" s="7">
+        <f t="shared" si="16"/>
         <v>0.21175318315377084</v>
       </c>
-      <c r="H69" s="2">
-        <f t="shared" si="7"/>
-        <v>1.6095999999999999</v>
-      </c>
-      <c r="I69" s="2">
-        <f t="shared" si="8"/>
-        <v>0.43240000000000001</v>
-      </c>
-      <c r="J69" s="2">
-        <f t="shared" si="14"/>
-        <v>0.21175318315377084</v>
-      </c>
       <c r="K69" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.21175318315377079</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2">
         <v>1.9101999999999999</v>
@@ -3240,8 +3296,8 @@
         <v>0.1171</v>
       </c>
       <c r="D70" s="2">
-        <f t="shared" si="13"/>
-        <v>5.7761554777289996E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.130248141555858E-2</v>
       </c>
       <c r="E70" s="2">
         <v>1.7263999999999999</v>
@@ -3253,25 +3309,25 @@
         <v>1.7743</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.7266999999999999</v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.7900000000000054E-2</v>
       </c>
-      <c r="J70" s="2">
-        <f t="shared" si="14"/>
+      <c r="J70" s="7">
+        <f t="shared" si="16"/>
         <v>6.1838368190033639E-2</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="9"/>
-        <v>-7.0580049800642086E-2</v>
+        <f t="shared" si="12"/>
+        <v>-8.7416816106085336E-3</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2">
         <v>1.8045</v>
@@ -3280,8 +3336,8 @@
         <v>0.20660000000000001</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" si="13"/>
-        <v>0.10272984933618419</v>
+        <f t="shared" si="9"/>
+        <v>0.114491548905514</v>
       </c>
       <c r="E71" s="2">
         <v>1.7130000000000001</v>
@@ -3293,25 +3349,25 @@
         <v>1.7982</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.71640000000000015</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.5199999999999942E-2</v>
       </c>
-      <c r="J71" s="2">
-        <f t="shared" si="14"/>
+      <c r="J71" s="7">
+        <f t="shared" si="16"/>
         <v>0.10628742514970052</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="9"/>
-        <v>-3.4630400380264728E-2</v>
+        <f t="shared" si="12"/>
+        <v>7.1657024769435695E-2</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="B72" s="2">
         <v>1.7129000000000001</v>
@@ -3320,8 +3376,8 @@
         <v>0.30380000000000001</v>
       </c>
       <c r="D72" s="2">
-        <f t="shared" si="13"/>
-        <v>0.15064213814647692</v>
+        <f t="shared" si="9"/>
+        <v>0.17736003269309358</v>
       </c>
       <c r="E72" s="2">
         <v>1.7170000000000001</v>
@@ -3333,25 +3389,25 @@
         <v>1.8464</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.92700000000000005</v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.12939999999999996</v>
       </c>
-      <c r="J72" s="2">
-        <f t="shared" si="14"/>
+      <c r="J72" s="7">
+        <f t="shared" si="16"/>
         <v>0.12249148049981064</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="9"/>
-        <v>0.18687107069134923</v>
+        <f t="shared" si="12"/>
+        <v>0.30936255119115985</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="B73" s="2">
         <v>1.6111</v>
@@ -3360,8 +3416,8 @@
         <v>0.4299</v>
       </c>
       <c r="D73" s="2">
-        <f t="shared" si="13"/>
-        <v>0.21063204311611955</v>
+        <f t="shared" si="9"/>
+        <v>0.26683632300912419</v>
       </c>
       <c r="E73" s="2">
         <v>1.7099</v>
@@ -3373,25 +3429,25 @@
         <v>1.8915999999999999</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.65459999999999985</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.18169999999999997</v>
       </c>
-      <c r="J73" s="2">
-        <f t="shared" si="14"/>
+      <c r="J73" s="7">
+        <f t="shared" si="16"/>
         <v>0.21726653114910918</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="9"/>
-        <v>-3.1497999710006608E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.18576853143910255</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="B74" s="2">
         <v>1.9018999999999999</v>
@@ -3400,29 +3456,29 @@
         <v>0.1055</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
+        <v>5.5470844944529155E-2</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" si="10"/>
+        <v>1.9018999999999999</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" si="11"/>
+        <v>0.1055</v>
+      </c>
+      <c r="J74" s="7">
+        <f t="shared" si="16"/>
         <v>5.2555544485404004E-2</v>
       </c>
-      <c r="H74" s="2">
-        <f t="shared" si="7"/>
-        <v>1.9018999999999999</v>
-      </c>
-      <c r="I74" s="2">
-        <f t="shared" si="8"/>
-        <v>0.1055</v>
-      </c>
-      <c r="J74" s="2">
-        <f t="shared" si="14"/>
-        <v>5.2555544485404004E-2</v>
-      </c>
       <c r="K74" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>5.2555544485404011E-2</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2">
         <v>1.8076000000000001</v>
@@ -3431,29 +3487,29 @@
         <v>0.2056</v>
       </c>
       <c r="D75" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
+        <v>0.11374197831378623</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" si="10"/>
+        <v>1.8076000000000001</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="11"/>
+        <v>0.2056</v>
+      </c>
+      <c r="J75" s="7">
+        <f t="shared" si="16"/>
         <v>0.10212596860719252</v>
       </c>
-      <c r="H75" s="2">
-        <f t="shared" si="7"/>
-        <v>1.8076000000000001</v>
-      </c>
-      <c r="I75" s="2">
-        <f t="shared" si="8"/>
-        <v>0.2056</v>
-      </c>
-      <c r="J75" s="2">
-        <f t="shared" si="14"/>
-        <v>0.10212596860719252</v>
-      </c>
       <c r="K75" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.10212596860719257</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2">
         <v>1.7008000000000001</v>
@@ -3462,29 +3518,29 @@
         <v>0.30370000000000003</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
+        <v>0.17856302916274694</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" si="10"/>
+        <v>1.7008000000000001</v>
+      </c>
+      <c r="I76" s="2">
+        <f t="shared" si="11"/>
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="J76" s="7">
+        <f t="shared" si="16"/>
         <v>0.15150910451484162</v>
       </c>
-      <c r="H76" s="2">
-        <f t="shared" si="7"/>
-        <v>1.7008000000000001</v>
-      </c>
-      <c r="I76" s="2">
-        <f t="shared" si="8"/>
-        <v>0.30370000000000003</v>
-      </c>
-      <c r="J76" s="2">
-        <f t="shared" si="14"/>
-        <v>0.15150910451484162</v>
-      </c>
       <c r="K76" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.15150910451484151</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2">
         <v>1.6108</v>
@@ -3493,29 +3549,29 @@
         <v>0.40670000000000001</v>
       </c>
       <c r="D77" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
+        <v>0.25248323814253787</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" si="10"/>
+        <v>1.6108</v>
+      </c>
+      <c r="I77" s="2">
+        <f t="shared" si="11"/>
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="J77" s="7">
+        <f t="shared" si="16"/>
         <v>0.20158612143742255</v>
       </c>
-      <c r="H77" s="2">
-        <f t="shared" si="7"/>
-        <v>1.6108</v>
-      </c>
-      <c r="I77" s="2">
-        <f t="shared" si="8"/>
-        <v>0.40670000000000001</v>
-      </c>
-      <c r="J77" s="2">
-        <f t="shared" si="14"/>
-        <v>0.20158612143742255</v>
-      </c>
       <c r="K77" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.20158612143742258</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2">
         <v>1.9220999999999999</v>
@@ -3524,8 +3580,8 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="D78" s="2">
-        <f t="shared" si="13"/>
-        <v>5.0861685842674427E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.3587222308932939E-2</v>
       </c>
       <c r="E78" s="2">
         <v>1.7179</v>
@@ -3537,25 +3593,25 @@
         <v>1.7565999999999999</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.7542000000000002</v>
       </c>
       <c r="I78" s="2">
         <f>IF(C78="","",IF(F78="",C78,G78-E78))</f>
         <v>3.8699999999999957E-2</v>
       </c>
-      <c r="J78" s="2">
-        <f t="shared" si="14"/>
+      <c r="J78" s="7">
+        <f t="shared" si="16"/>
         <v>4.8808172531214465E-2</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="9"/>
-        <v>4.0374464145995818E-2</v>
+        <f t="shared" si="12"/>
+        <v>8.9182636677210464E-2</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2">
         <v>1.8108</v>
@@ -3564,8 +3620,8 @@
         <v>0.214</v>
       </c>
       <c r="D79" s="2">
-        <f t="shared" si="13"/>
-        <v>0.10568945080995654</v>
+        <f t="shared" si="9"/>
+        <v>0.11817981002871659</v>
       </c>
       <c r="E79" s="2">
         <v>1.7042999999999999</v>
@@ -3577,25 +3633,25 @@
         <v>1.7878000000000001</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.71460000000000012</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.350000000000013E-2</v>
       </c>
-      <c r="J79" s="2">
-        <f t="shared" si="14"/>
+      <c r="J79" s="7">
+        <f t="shared" si="16"/>
         <v>0.10462348076682133</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0085869828692334E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.11470935059551372</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2">
         <v>1.7101</v>
@@ -3604,8 +3660,8 @@
         <v>0.31130000000000002</v>
       </c>
       <c r="D80" s="2">
-        <f t="shared" si="13"/>
-        <v>0.15400217670921146</v>
+        <f t="shared" si="9"/>
+        <v>0.18203613823752998</v>
       </c>
       <c r="E80" s="2">
         <v>1.7116</v>
@@ -3617,25 +3673,25 @@
         <v>1.8346</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.71360000000000001</v>
       </c>
       <c r="I80" s="2">
         <f>IF(C80="","",IF(F80="",C80,G80-E80))</f>
         <v>0.123</v>
       </c>
-      <c r="J80" s="2">
-        <f t="shared" si="14"/>
+      <c r="J80" s="7">
+        <f t="shared" si="16"/>
         <v>0.14702366722448004</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="9"/>
-        <v>4.531435615944774E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.19233802338392772</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2">
         <v>1.6028</v>
@@ -3644,8 +3700,8 @@
         <v>0.3997</v>
       </c>
       <c r="D81" s="2">
-        <f t="shared" si="13"/>
-        <v>0.19960049937578028</v>
+        <f t="shared" si="9"/>
+        <v>0.24937609183928125</v>
       </c>
       <c r="E81" s="2">
         <v>1.7119</v>
@@ -3657,25 +3713,25 @@
         <v>1.8846000000000001</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.70879999999999987</v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.17270000000000008</v>
       </c>
-      <c r="J81" s="2">
-        <f t="shared" si="14"/>
+      <c r="J81" s="7">
+        <f t="shared" si="16"/>
         <v>0.19591605218377775</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="9"/>
-        <v>1.8459108086027198E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.21437516026980488</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2">
         <v>1.9097999999999999</v>
@@ -3684,8 +3740,8 @@
         <v>0.1013</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" si="13"/>
-        <v>5.037044403560241E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.3042203372080848E-2</v>
       </c>
       <c r="E82" s="2">
         <v>1.7097</v>
@@ -3697,25 +3753,25 @@
         <v>1.7485999999999999</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.752</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.8899999999999935E-2</v>
       </c>
-      <c r="J82" s="2">
-        <f t="shared" si="14"/>
+      <c r="J82" s="7">
+        <f t="shared" si="16"/>
         <v>4.9184473384751473E-2</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="9"/>
-        <v>2.3544971134514505E-2</v>
+        <f t="shared" si="12"/>
+        <v>7.2729444519265954E-2</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2">
         <v>1.8023</v>
@@ -3724,8 +3780,8 @@
         <v>0.2039</v>
       </c>
       <c r="D83" s="2">
-        <f t="shared" si="13"/>
-        <v>0.10163493171169374</v>
+        <f t="shared" si="9"/>
+        <v>0.11313321866503911</v>
       </c>
       <c r="E83" s="2">
         <v>1.7071000000000001</v>
@@ -3737,25 +3793,25 @@
         <v>1.7895000000000001</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.72589999999999999</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.2400000000000029E-2</v>
       </c>
-      <c r="J83" s="2">
-        <f t="shared" si="14"/>
+      <c r="J83" s="7">
+        <f t="shared" si="16"/>
         <v>0.10194234813806759</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="9"/>
-        <v>-3.0247122834291588E-3</v>
+        <f t="shared" si="12"/>
+        <v>9.8917635854638475E-2</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2">
         <v>1.7033</v>
@@ -3764,8 +3820,8 @@
         <v>0.31009999999999999</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" si="13"/>
-        <v>0.15401807887156055</v>
+        <f t="shared" si="9"/>
+        <v>0.18205835730640521</v>
       </c>
       <c r="E84" s="2">
         <v>1.7232000000000001</v>
@@ -3777,25 +3833,25 @@
         <v>1.8442000000000001</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.67699999999999982</v>
       </c>
       <c r="I84" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.121</v>
       </c>
-      <c r="J84" s="2">
-        <f t="shared" si="14"/>
+      <c r="J84" s="7">
+        <f t="shared" si="16"/>
         <v>0.15162907268170428</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="9"/>
-        <v>1.5511206264613386E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.16714027894631764</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2">
         <v>1.603</v>
@@ -3804,8 +3860,8 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="D85" s="2">
-        <f t="shared" si="13"/>
-        <v>0.20209059233449481</v>
+        <f t="shared" si="9"/>
+        <v>0.25327510917030571</v>
       </c>
       <c r="E85" s="2">
         <v>1.7099</v>
@@ -3817,25 +3873,25 @@
         <v>1.8755999999999999</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.6554000000000002</v>
       </c>
       <c r="I85" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.16569999999999996</v>
       </c>
-      <c r="J85" s="2">
-        <f t="shared" si="14"/>
+      <c r="J85" s="7">
+        <f t="shared" si="16"/>
         <v>0.2018024601144805</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="9"/>
-        <v>1.4257577093811486E-3</v>
+        <f t="shared" si="12"/>
+        <v>0.20322821782386161</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2">
         <v>1.9146000000000001</v>
@@ -3844,8 +3900,8 @@
         <v>0.12189999999999999</v>
       </c>
       <c r="D86" s="2">
-        <f t="shared" si="13"/>
-        <v>5.9857598821507478E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.3668651415439245E-2</v>
       </c>
       <c r="E86" s="2">
         <v>1.7141</v>
@@ -3857,25 +3913,25 @@
         <v>1.7504</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.7381000000000002</v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="J86" s="2">
-        <f t="shared" si="14"/>
+      <c r="J86" s="7">
+        <f t="shared" si="16"/>
         <v>4.6874999999999986E-2</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="9"/>
-        <v>0.21689140689089428</v>
+        <f t="shared" si="12"/>
+        <v>0.26376640689089426</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2">
         <v>1.8096000000000001</v>
@@ -3884,8 +3940,8 @@
         <v>0.2195</v>
       </c>
       <c r="D87" s="2">
-        <f t="shared" si="13"/>
-        <v>0.10817603863781972</v>
+        <f t="shared" si="9"/>
+        <v>0.12129752431476569</v>
       </c>
       <c r="E87" s="2">
         <v>1.7161999999999999</v>
@@ -3897,25 +3953,25 @@
         <v>1.7972999999999999</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.71379999999999999</v>
       </c>
       <c r="I87" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.109999999999995E-2</v>
       </c>
-      <c r="J87" s="2">
-        <f t="shared" si="14"/>
+      <c r="J87" s="7">
+        <f t="shared" si="16"/>
         <v>0.10202541200150957</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="9"/>
-        <v>5.6857569511329954E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.15888298151283956</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2">
         <v>1.7030000000000001</v>
@@ -3924,8 +3980,8 @@
         <v>0.31130000000000002</v>
       </c>
       <c r="D88" s="2">
-        <f t="shared" si="13"/>
-        <v>0.15454500322692749</v>
+        <f t="shared" si="9"/>
+        <v>0.18279506752789196</v>
       </c>
       <c r="E88" s="2">
         <v>1.7157</v>
@@ -3937,25 +3993,25 @@
         <v>1.8136000000000001</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.69850000000000012</v>
       </c>
       <c r="I88" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.7900000000000098E-2</v>
       </c>
-      <c r="J88" s="2">
-        <f t="shared" si="14"/>
+      <c r="J88" s="7">
+        <f t="shared" si="16"/>
         <v>0.1229281767955802</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="9"/>
-        <v>0.20458006257842223</v>
+        <f t="shared" si="12"/>
+        <v>0.32750823937400231</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2">
         <v>1.7</v>
@@ -3964,8 +4020,8 @@
         <v>0.43219999999999997</v>
       </c>
       <c r="D89" s="2">
-        <f t="shared" si="13"/>
-        <v>0.20270143513741673</v>
+        <f t="shared" si="9"/>
+        <v>0.25423529411764706</v>
       </c>
       <c r="E89" s="2">
         <v>1.722</v>
@@ -3977,25 +4033,25 @@
         <v>1.9091</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.71700000000000008</v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.18710000000000004</v>
       </c>
-      <c r="J89" s="2">
-        <f t="shared" si="14"/>
+      <c r="J89" s="7">
+        <f t="shared" si="16"/>
         <v>0.20694613427718175</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="9"/>
-        <v>-2.0940646704782472E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.1860054875723994</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2">
         <v>1.909</v>
@@ -4004,8 +4060,8 @@
         <v>0.1028</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" si="13"/>
-        <v>5.1098518739437319E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.3850183342063908E-2</v>
       </c>
       <c r="E90" s="2">
         <v>1.7079</v>
@@ -4017,25 +4073,25 @@
         <v>1.7459</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.72439999999999993</v>
       </c>
       <c r="I90" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.8000000000000034E-2</v>
       </c>
-      <c r="J90" s="2">
-        <f t="shared" si="14"/>
+      <c r="J90" s="7">
+        <f t="shared" si="16"/>
         <v>4.9842602308499524E-2</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="9"/>
-        <v>2.4578333421796269E-2</v>
+        <f t="shared" si="12"/>
+        <v>7.4420935730295804E-2</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2">
         <v>1.8119000000000001</v>
@@ -4044,8 +4100,8 @@
         <v>0.22509999999999999</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" si="13"/>
-        <v>0.11050564555719194</v>
+        <f t="shared" si="9"/>
+        <v>0.12423422926210055</v>
       </c>
       <c r="E91" s="2">
         <v>1.7105999999999999</v>
@@ -4057,25 +4113,25 @@
         <v>1.7951999999999999</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.7246999999999999</v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.4600000000000009E-2</v>
       </c>
-      <c r="J91" s="2">
-        <f t="shared" si="14"/>
+      <c r="J91" s="7">
+        <f t="shared" si="16"/>
         <v>0.10453478314592861</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="9"/>
-        <v>5.4032193388464753E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.15856697653439336</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2">
         <v>1.7051000000000001</v>
@@ -4084,8 +4140,8 @@
         <v>0.31559999999999999</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" si="13"/>
-        <v>0.15618350076706089</v>
+        <f t="shared" si="9"/>
+        <v>0.18509178347311006</v>
       </c>
       <c r="E92" s="2">
         <v>1.7269000000000001</v>
@@ -4097,25 +4153,25 @@
         <v>1.8483000000000001</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" ref="H92:H123" si="15">IF(B92="","",IF(E92="",B92,F92-G92))</f>
+        <f t="shared" ref="H92:H123" si="17">IF(B92="","",IF(E92="",B92,F92-G92))</f>
         <v>0.70020000000000016</v>
       </c>
       <c r="I92" s="2">
-        <f t="shared" ref="I92:I123" si="16">IF(C92="","",IF(F92="",C92,G92-E92))</f>
+        <f t="shared" ref="I92:I123" si="18">IF(C92="","",IF(F92="",C92,G92-E92))</f>
         <v>0.12139999999999995</v>
       </c>
-      <c r="J92" s="2">
-        <f t="shared" si="14"/>
+      <c r="J92" s="7">
+        <f t="shared" si="16"/>
         <v>0.14776046738072046</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="9"/>
-        <v>5.3930366171667007E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.20169083355238757</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2">
         <v>1.6086</v>
@@ -4124,8 +4180,8 @@
         <v>0.4163</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" si="13"/>
-        <v>0.2055903995259025</v>
+        <f t="shared" ref="D93:D124" si="19">C93/B93</f>
+        <v>0.25879646897923658</v>
       </c>
       <c r="E93" s="2">
         <v>1.7194</v>
@@ -4137,25 +4193,25 @@
         <v>1.8669</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.6725000000000001</v>
       </c>
       <c r="I93" s="2">
+        <f t="shared" si="18"/>
+        <v>0.14749999999999996</v>
+      </c>
+      <c r="J93" s="7">
         <f t="shared" si="16"/>
-        <v>0.14749999999999996</v>
-      </c>
-      <c r="J93" s="2">
-        <f t="shared" si="14"/>
         <v>0.17987804878048774</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" ref="K93:K124" si="17">(D93-J93)/D93</f>
-        <v>0.12506591166079831</v>
+        <f t="shared" ref="K93:K124" si="20">(D93-J93)/D93</f>
+        <v>0.30494396044128608</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2">
         <v>1.8905000000000001</v>
@@ -4164,8 +4220,8 @@
         <v>0.1145</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" si="13"/>
-        <v>5.7107231920199508E-2</v>
+        <f t="shared" si="19"/>
+        <v>6.0565987833906376E-2</v>
       </c>
       <c r="E94" s="2">
         <v>1.7189000000000001</v>
@@ -4177,25 +4233,25 @@
         <v>1.7642</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.7379</v>
       </c>
       <c r="I94" s="2">
+        <f t="shared" si="18"/>
+        <v>4.5299999999999896E-2</v>
+      </c>
+      <c r="J94" s="7">
         <f t="shared" si="16"/>
-        <v>4.5299999999999896E-2</v>
-      </c>
-      <c r="J94" s="2">
-        <f t="shared" si="14"/>
         <v>5.7839632277834396E-2</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="17"/>
-        <v>-1.2825001895702624E-2</v>
+        <f t="shared" si="20"/>
+        <v>4.501463038213168E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2">
         <v>1.8165</v>
@@ -4204,8 +4260,8 @@
         <v>0.20169999999999999</v>
       </c>
       <c r="D95" s="2">
-        <f t="shared" si="13"/>
-        <v>9.9940541076206507E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.11103770988164051</v>
       </c>
       <c r="E95" s="2">
         <v>1.7143999999999999</v>
@@ -4217,25 +4273,25 @@
         <v>1.7977000000000001</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.75180000000000002</v>
       </c>
       <c r="I95" s="2">
+        <f t="shared" si="18"/>
+        <v>8.3300000000000152E-2</v>
+      </c>
+      <c r="J95" s="7">
         <f t="shared" si="16"/>
-        <v>8.3300000000000152E-2</v>
-      </c>
-      <c r="J95" s="2">
-        <f t="shared" si="14"/>
         <v>9.9748533109807372E-2</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="17"/>
-        <v>1.9212220019173771E-3</v>
+        <f t="shared" si="20"/>
+        <v>0.10166975511172481</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2">
         <v>1.7131000000000001</v>
@@ -4244,8 +4300,8 @@
         <v>0.3075</v>
       </c>
       <c r="D96" s="2">
-        <f t="shared" si="13"/>
-        <v>0.15218252004355143</v>
+        <f t="shared" si="19"/>
+        <v>0.17949915358122701</v>
       </c>
       <c r="E96" s="2">
         <v>1.7149000000000001</v>
@@ -4257,25 +4313,25 @@
         <v>1.8588</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.6846000000000001</v>
       </c>
       <c r="I96" s="2">
+        <f t="shared" si="18"/>
+        <v>0.14389999999999992</v>
+      </c>
+      <c r="J96" s="7">
         <f t="shared" si="16"/>
-        <v>0.14389999999999992</v>
-      </c>
-      <c r="J96" s="2">
-        <f t="shared" si="14"/>
         <v>0.17368738684369331</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.14130970359794043</v>
+        <f t="shared" si="20"/>
+        <v>3.237768324575277E-2</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2">
         <v>1.6032999999999999</v>
@@ -4284,8 +4340,8 @@
         <v>0.40279999999999999</v>
       </c>
       <c r="D97" s="2">
-        <f t="shared" si="13"/>
-        <v>0.20078759782662878</v>
+        <f t="shared" si="19"/>
+        <v>0.25123183434167029</v>
       </c>
       <c r="E97" s="2">
         <v>1.7305999999999999</v>
@@ -4297,25 +4353,25 @@
         <v>1.9121999999999999</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.69890000000000008</v>
       </c>
       <c r="I97" s="2">
+        <f t="shared" si="18"/>
+        <v>0.18159999999999998</v>
+      </c>
+      <c r="J97" s="7">
         <f t="shared" si="16"/>
-        <v>0.18159999999999998</v>
-      </c>
-      <c r="J97" s="2">
-        <f t="shared" si="14"/>
         <v>0.20624645088018168</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="17"/>
-        <v>-2.7187202360309009E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.17905924851987265</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2">
         <v>1.9104000000000001</v>
@@ -4324,8 +4380,8 @@
         <v>0.1046</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" si="13"/>
-        <v>5.1910669975186098E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.4752931323283079E-2</v>
       </c>
       <c r="E98" s="2">
         <v>1.7036</v>
@@ -4337,25 +4393,25 @@
         <v>1.7433000000000001</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.75229999999999997</v>
       </c>
       <c r="I98" s="2">
+        <f t="shared" si="18"/>
+        <v>3.9700000000000069E-2</v>
+      </c>
+      <c r="J98" s="7">
         <f t="shared" si="16"/>
-        <v>3.9700000000000069E-2</v>
-      </c>
-      <c r="J98" s="2">
-        <f t="shared" si="14"/>
         <v>5.0126262626262713E-2</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="17"/>
-        <v>3.4374577515111103E-2</v>
+        <f t="shared" si="20"/>
+        <v>8.4500840141373865E-2</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2">
         <v>1.8075000000000001</v>
@@ -4364,8 +4420,8 @@
         <v>0.21829999999999999</v>
       </c>
       <c r="D99" s="2">
-        <f t="shared" si="13"/>
-        <v>0.10775989732451376</v>
+        <f t="shared" si="19"/>
+        <v>0.12077455048409404</v>
       </c>
       <c r="E99" s="2">
         <v>1.7056</v>
@@ -4377,25 +4433,25 @@
         <v>1.7968</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.70350000000000024</v>
       </c>
       <c r="I99" s="2">
+        <f t="shared" si="18"/>
+        <v>9.1199999999999948E-2</v>
+      </c>
+      <c r="J99" s="7">
         <f t="shared" si="16"/>
-        <v>9.1199999999999948E-2</v>
-      </c>
-      <c r="J99" s="2">
-        <f t="shared" si="14"/>
         <v>0.11476028690071716</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="17"/>
-        <v>-6.4962845641194922E-2</v>
+        <f t="shared" si="20"/>
+        <v>4.9797441259522277E-2</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2">
         <v>1.7162999999999999</v>
@@ -4404,8 +4460,8 @@
         <v>0.31459999999999999</v>
       </c>
       <c r="D100" s="2">
-        <f t="shared" si="13"/>
-        <v>0.15490669161455511</v>
+        <f t="shared" si="19"/>
+        <v>0.18330128765367359</v>
       </c>
       <c r="E100" s="2">
         <v>1.7050000000000001</v>
@@ -4417,25 +4473,25 @@
         <v>1.8327</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.69930000000000003</v>
       </c>
       <c r="I100" s="2">
+        <f t="shared" si="18"/>
+        <v>0.12769999999999992</v>
+      </c>
+      <c r="J100" s="7">
         <f t="shared" si="16"/>
-        <v>0.12769999999999992</v>
-      </c>
-      <c r="J100" s="2">
-        <f t="shared" si="14"/>
         <v>0.15441354292623935</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="17"/>
-        <v>3.1835208871598404E-3</v>
+        <f t="shared" si="20"/>
+        <v>0.15759706381339922</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2">
         <v>1.601</v>
@@ -4444,8 +4500,8 @@
         <v>0.4032</v>
       </c>
       <c r="D101" s="2">
-        <f t="shared" si="13"/>
-        <v>0.20117752719289492</v>
+        <f t="shared" si="19"/>
+        <v>0.25184259837601497</v>
       </c>
       <c r="E101" s="2">
         <v>1.7162999999999999</v>
@@ -4457,25 +4513,25 @@
         <v>1.8989</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.67599999999999993</v>
       </c>
       <c r="I101" s="2">
+        <f t="shared" si="18"/>
+        <v>0.1826000000000001</v>
+      </c>
+      <c r="J101" s="7">
         <f t="shared" si="16"/>
-        <v>0.1826000000000001</v>
-      </c>
-      <c r="J101" s="2">
-        <f t="shared" si="14"/>
         <v>0.21267179128814359</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="17"/>
-        <v>-5.7134930802820914E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.15553686048532261</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2">
         <v>1.9104000000000001</v>
@@ -4484,8 +4540,8 @@
         <v>0.11169999999999999</v>
       </c>
       <c r="D102" s="2">
-        <f t="shared" si="13"/>
-        <v>5.5239602393551253E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.8469430485762135E-2</v>
       </c>
       <c r="E102" s="2">
         <v>1.7116</v>
@@ -4497,25 +4553,25 @@
         <v>1.7503</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.7891999999999999</v>
       </c>
       <c r="I102" s="2">
+        <f t="shared" si="18"/>
+        <v>3.8699999999999957E-2</v>
+      </c>
+      <c r="J102" s="7">
         <f t="shared" si="16"/>
-        <v>3.8699999999999957E-2</v>
-      </c>
-      <c r="J102" s="2">
-        <f t="shared" si="14"/>
         <v>4.6744775939123039E-2</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="17"/>
-        <v>0.15378145544762126</v>
+        <f t="shared" si="20"/>
+        <v>0.20052623138674425</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2">
         <v>1.7929999999999999</v>
@@ -4524,8 +4580,8 @@
         <v>0.20780000000000001</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" si="13"/>
-        <v>0.10385845661735307</v>
+        <f t="shared" si="19"/>
+        <v>0.1158951477969883</v>
       </c>
       <c r="E103" s="2">
         <v>1.7135</v>
@@ -4537,25 +4593,25 @@
         <v>1.7735000000000001</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.72539999999999982</v>
       </c>
       <c r="I103" s="2">
+        <f t="shared" si="18"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J103" s="7">
         <f t="shared" si="16"/>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="J103" s="2">
-        <f t="shared" si="14"/>
         <v>7.6394194041252944E-2</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" si="17"/>
-        <v>0.26443934823032306</v>
+        <f t="shared" si="20"/>
+        <v>0.34083354227157597</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2">
         <v>1.7182999999999999</v>
@@ -4564,8 +4620,8 @@
         <v>0.3256</v>
       </c>
       <c r="D104" s="2">
-        <f t="shared" si="13"/>
-        <v>0.15930329272469301</v>
+        <f t="shared" si="19"/>
+        <v>0.18948961182564164</v>
       </c>
       <c r="E104" s="2">
         <v>1.7202</v>
@@ -4577,25 +4633,25 @@
         <v>1.8292999999999999</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.68950000000000022</v>
       </c>
       <c r="I104" s="2">
+        <f t="shared" si="18"/>
+        <v>0.10909999999999997</v>
+      </c>
+      <c r="J104" s="7">
         <f t="shared" si="16"/>
-        <v>0.10909999999999997</v>
-      </c>
-      <c r="J104" s="2">
-        <f t="shared" si="14"/>
         <v>0.13661407463060349</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="17"/>
-        <v>0.14242780363178617</v>
+        <f t="shared" si="20"/>
+        <v>0.27904187826238958</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2">
         <v>1.6049</v>
@@ -4604,8 +4660,8 @@
         <v>0.40820000000000001</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" si="13"/>
-        <v>0.20277184441905519</v>
+        <f t="shared" si="19"/>
+        <v>0.25434606517540032</v>
       </c>
       <c r="E105" s="2">
         <v>1.7234</v>
@@ -4617,25 +4673,25 @@
         <v>1.8754999999999999</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.68879999999999986</v>
       </c>
       <c r="I105" s="2">
+        <f t="shared" si="18"/>
+        <v>0.1520999999999999</v>
+      </c>
+      <c r="J105" s="7">
         <f t="shared" si="16"/>
-        <v>0.1520999999999999</v>
-      </c>
-      <c r="J105" s="2">
-        <f t="shared" si="14"/>
         <v>0.18087763110952546</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="17"/>
-        <v>0.10797462227686012</v>
+        <f t="shared" si="20"/>
+        <v>0.28885225338638554</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2">
         <v>1.9023000000000001</v>
@@ -4644,8 +4700,8 @@
         <v>0.11070000000000001</v>
       </c>
       <c r="D106" s="2">
-        <f t="shared" si="13"/>
-        <v>5.4992548435171394E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.8192714082952214E-2</v>
       </c>
       <c r="E106" s="2">
         <v>1.7246999999999999</v>
@@ -4657,25 +4713,25 @@
         <v>1.7673000000000001</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.78419999999999979</v>
       </c>
       <c r="I106" s="2">
+        <f t="shared" si="18"/>
+        <v>4.2600000000000193E-2</v>
+      </c>
+      <c r="J106" s="7">
         <f t="shared" si="16"/>
-        <v>4.2600000000000193E-2</v>
-      </c>
-      <c r="J106" s="2">
-        <f t="shared" si="14"/>
         <v>5.1523947750363078E-2</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="17"/>
-        <v>6.3074012452747422E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.11459796020311033</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2">
         <v>1.7949999999999999</v>
@@ -4684,8 +4740,8 @@
         <v>0.2011</v>
       </c>
       <c r="D107" s="2">
-        <f t="shared" si="13"/>
-        <v>0.10074645558839737</v>
+        <f t="shared" si="19"/>
+        <v>0.11203342618384401</v>
       </c>
       <c r="E107" s="2">
         <v>1.7204999999999999</v>
@@ -4697,25 +4753,25 @@
         <v>1.7964</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.73149999999999982</v>
       </c>
       <c r="I107" s="2">
+        <f t="shared" si="18"/>
+        <v>7.5900000000000079E-2</v>
+      </c>
+      <c r="J107" s="7">
         <f t="shared" si="16"/>
-        <v>7.5900000000000079E-2</v>
-      </c>
-      <c r="J107" s="2">
-        <f t="shared" si="14"/>
         <v>9.4005449591280765E-2</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="17"/>
-        <v>6.6910602042985864E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.1609160516342667</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2">
         <v>1.7105999999999999</v>
@@ -4724,8 +4780,8 @@
         <v>0.33379999999999999</v>
       </c>
       <c r="D108" s="2">
-        <f t="shared" si="13"/>
-        <v>0.16327528859323029</v>
+        <f t="shared" si="19"/>
+        <v>0.19513620951712848</v>
       </c>
       <c r="E108" s="2">
         <v>1.7164999999999999</v>
@@ -4737,25 +4793,25 @@
         <v>1.8466</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.70210000000000017</v>
       </c>
       <c r="I108" s="2">
+        <f t="shared" si="18"/>
+        <v>0.1301000000000001</v>
+      </c>
+      <c r="J108" s="7">
         <f t="shared" si="16"/>
-        <v>0.1301000000000001</v>
-      </c>
-      <c r="J108" s="2">
-        <f t="shared" si="14"/>
         <v>0.15633261235279988</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" si="17"/>
-        <v>4.2521292108855371E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.19885390446165521</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="B109" s="2">
         <v>1.6053999999999999</v>
@@ -4764,8 +4820,8 @@
         <v>0.42299999999999999</v>
       </c>
       <c r="D109" s="2">
-        <f t="shared" si="13"/>
-        <v>0.20853874975350029</v>
+        <f t="shared" si="19"/>
+        <v>0.26348573564220756</v>
       </c>
       <c r="E109" s="2">
         <v>1.72</v>
@@ -4777,25 +4833,25 @@
         <v>1.8743000000000001</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.67199999999999993</v>
       </c>
       <c r="I109" s="2">
+        <f t="shared" si="18"/>
+        <v>0.1543000000000001</v>
+      </c>
+      <c r="J109" s="7">
         <f t="shared" si="16"/>
-        <v>0.1543000000000001</v>
-      </c>
-      <c r="J109" s="2">
-        <f t="shared" si="14"/>
         <v>0.18673605228125389</v>
       </c>
       <c r="K109" s="1">
-        <f t="shared" si="17"/>
-        <v>0.10454986182672478</v>
+        <f t="shared" si="20"/>
+        <v>0.29128591410797877</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2">
         <v>1.8975</v>
@@ -4804,8 +4860,8 @@
         <v>0.108</v>
       </c>
       <c r="D110" s="2">
-        <f t="shared" si="13"/>
-        <v>5.3851907255048612E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.6916996047430828E-2</v>
       </c>
       <c r="E110" s="2">
         <v>1.7124999999999999</v>
@@ -4817,25 +4873,25 @@
         <v>1.7524999999999999</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.72150000000000025</v>
       </c>
       <c r="I110" s="2">
+        <f t="shared" si="18"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J110" s="7">
         <f t="shared" si="16"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="J110" s="2">
-        <f t="shared" si="14"/>
         <v>5.2527905449770214E-2</v>
       </c>
       <c r="K110" s="1">
-        <f t="shared" si="17"/>
-        <v>2.4585977967461359E-2</v>
+        <f t="shared" si="20"/>
+        <v>7.7113883417231618E-2</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="B111" s="2">
         <v>1.8031999999999999</v>
@@ -4844,8 +4900,8 @@
         <v>0.2044</v>
       </c>
       <c r="D111" s="2">
-        <f t="shared" si="13"/>
-        <v>0.10181311018131102</v>
+        <f t="shared" si="19"/>
+        <v>0.11335403726708075</v>
       </c>
       <c r="E111" s="2">
         <v>1.718</v>
@@ -4857,25 +4913,25 @@
         <v>1.8041</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.74299999999999988</v>
       </c>
       <c r="I111" s="2">
+        <f t="shared" si="18"/>
+        <v>8.6100000000000065E-2</v>
+      </c>
+      <c r="J111" s="7">
         <f t="shared" si="16"/>
-        <v>8.6100000000000065E-2</v>
-      </c>
-      <c r="J111" s="2">
-        <f t="shared" si="14"/>
         <v>0.10384754553129909</v>
       </c>
       <c r="K111" s="1">
-        <f t="shared" si="17"/>
-        <v>-1.9982056793718415E-2</v>
+        <f t="shared" si="20"/>
+        <v>8.3865488737580693E-2</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2">
         <v>1.718</v>
@@ -4884,8 +4940,8 @@
         <v>0.30420000000000003</v>
       </c>
       <c r="D112" s="2">
-        <f t="shared" si="13"/>
-        <v>0.15043022450796165</v>
+        <f t="shared" si="19"/>
+        <v>0.17706635622817232</v>
       </c>
       <c r="E112" s="2">
         <v>1.7137</v>
@@ -4897,25 +4953,25 @@
         <v>1.8414999999999999</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.67930000000000001</v>
       </c>
       <c r="I112" s="2">
+        <f t="shared" si="18"/>
+        <v>0.12779999999999991</v>
+      </c>
+      <c r="J112" s="7">
         <f t="shared" si="16"/>
-        <v>0.12779999999999991</v>
-      </c>
-      <c r="J112" s="2">
-        <f t="shared" si="14"/>
         <v>0.15834469086854161</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="17"/>
-        <v>-5.2612208659976331E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.10573248220856528</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="B113" s="2">
         <v>1.6061000000000001</v>
@@ -4924,8 +4980,8 @@
         <v>0.4007</v>
       </c>
       <c r="D113" s="2">
-        <f t="shared" si="13"/>
-        <v>0.19967111819812636</v>
+        <f t="shared" si="19"/>
+        <v>0.24948633335408754</v>
       </c>
       <c r="E113" s="2">
         <v>1.7084999999999999</v>
@@ -4937,25 +4993,25 @@
         <v>1.8900999999999999</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.70150000000000023</v>
       </c>
       <c r="I113" s="2">
+        <f t="shared" si="18"/>
+        <v>0.18159999999999998</v>
+      </c>
+      <c r="J113" s="7">
         <f t="shared" si="16"/>
-        <v>0.18159999999999998</v>
-      </c>
-      <c r="J113" s="2">
-        <f t="shared" si="14"/>
         <v>0.2056392254557807</v>
       </c>
       <c r="K113" s="1">
-        <f t="shared" si="17"/>
-        <v>-2.9889687159123372E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.1757495382966574</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2">
         <v>1.9146000000000001</v>
@@ -4964,8 +5020,8 @@
         <v>0.1002</v>
       </c>
       <c r="D114" s="2">
-        <f t="shared" si="13"/>
-        <v>4.9731983323406788E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.233469131933563E-2</v>
       </c>
       <c r="E114" s="2">
         <v>1.7175</v>
@@ -4977,25 +5033,25 @@
         <v>1.7563</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.7488999999999999</v>
       </c>
       <c r="I114" s="2">
+        <f t="shared" si="18"/>
+        <v>3.8799999999999946E-2</v>
+      </c>
+      <c r="J114" s="7">
         <f t="shared" si="16"/>
-        <v>3.8799999999999946E-2</v>
-      </c>
-      <c r="J114" s="2">
-        <f t="shared" si="14"/>
         <v>4.925733147137229E-2</v>
       </c>
       <c r="K114" s="1">
-        <f t="shared" si="17"/>
-        <v>9.5441971205499666E-3</v>
+        <f t="shared" si="20"/>
+        <v>5.8801528591922267E-2</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="B115" s="2">
         <v>1.8191999999999999</v>
@@ -5004,8 +5060,8 @@
         <v>0.20280000000000001</v>
       </c>
       <c r="D115" s="2">
-        <f t="shared" si="13"/>
-        <v>0.10029673590504452</v>
+        <f t="shared" si="19"/>
+        <v>0.11147757255936676</v>
       </c>
       <c r="E115" s="2">
         <v>1.71</v>
@@ -5017,25 +5073,25 @@
         <v>1.7916000000000001</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.73520000000000008</v>
       </c>
       <c r="I115" s="2">
+        <f t="shared" si="18"/>
+        <v>8.1600000000000117E-2</v>
+      </c>
+      <c r="J115" s="7">
         <f t="shared" si="16"/>
-        <v>8.1600000000000117E-2</v>
-      </c>
-      <c r="J115" s="2">
-        <f t="shared" si="14"/>
         <v>9.9902056807052025E-2</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" si="17"/>
-        <v>3.9351140835346687E-3</v>
+        <f t="shared" si="20"/>
+        <v>0.1038371708905866</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2">
         <v>1.6995</v>
@@ -5044,8 +5100,8 @@
         <v>0.30769999999999997</v>
       </c>
       <c r="D116" s="2">
-        <f t="shared" si="13"/>
-        <v>0.15329812674372259</v>
+        <f t="shared" si="19"/>
+        <v>0.18105325095616356</v>
       </c>
       <c r="E116" s="2">
         <v>1.7164999999999999</v>
@@ -5057,25 +5113,25 @@
         <v>1.8465</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.7024999999999999</v>
       </c>
       <c r="I116" s="2">
+        <f t="shared" si="18"/>
+        <v>0.13000000000000012</v>
+      </c>
+      <c r="J116" s="7">
         <f t="shared" si="16"/>
-        <v>0.13000000000000012</v>
-      </c>
-      <c r="J116" s="2">
-        <f t="shared" si="14"/>
         <v>0.1561561561561563</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" si="17"/>
-        <v>-1.8643602978995592E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.13751255317716071</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="B117" s="2">
         <v>1.5983000000000001</v>
@@ -5084,8 +5140,8 @@
         <v>0.41689999999999999</v>
       </c>
       <c r="D117" s="2">
-        <f t="shared" si="13"/>
-        <v>0.20687772925764192</v>
+        <f t="shared" si="19"/>
+        <v>0.26083964211975225</v>
       </c>
       <c r="E117" s="2">
         <v>1.7169000000000001</v>
@@ -5097,25 +5153,25 @@
         <v>1.8995</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.69000000000000017</v>
       </c>
       <c r="I117" s="2">
+        <f t="shared" si="18"/>
+        <v>0.18259999999999987</v>
+      </c>
+      <c r="J117" s="7">
         <f t="shared" si="16"/>
-        <v>0.18259999999999987</v>
-      </c>
-      <c r="J117" s="2">
-        <f t="shared" si="14"/>
         <v>0.20925968370387332</v>
       </c>
       <c r="K117" s="1">
-        <f t="shared" si="17"/>
-        <v>-1.1513827296823043E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.19774585640705034</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2">
         <v>1.9081999999999999</v>
@@ -5124,8 +5180,8 @@
         <v>0.1014</v>
       </c>
       <c r="D118" s="2">
-        <f t="shared" si="13"/>
-        <v>5.0457802547770707E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.3139083953464006E-2</v>
       </c>
       <c r="E118" s="2">
         <v>1.7215</v>
@@ -5137,25 +5193,25 @@
         <v>1.7574000000000001</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.72149999999999981</v>
       </c>
       <c r="I118" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5900000000000043E-2</v>
+      </c>
+      <c r="J118" s="7">
         <f t="shared" si="16"/>
-        <v>3.5900000000000043E-2</v>
-      </c>
-      <c r="J118" s="2">
-        <f t="shared" si="14"/>
         <v>4.7398996567203658E-2</v>
       </c>
       <c r="K118" s="1">
-        <f t="shared" si="17"/>
-        <v>6.0621070005399812E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.10802006657260349</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="B119" s="2">
         <v>1.7972999999999999</v>
@@ -5164,8 +5220,8 @@
         <v>0.20030000000000001</v>
       </c>
       <c r="D119" s="2">
-        <f t="shared" si="13"/>
-        <v>0.10027032438926713</v>
+        <f t="shared" si="19"/>
+        <v>0.11144494519557115</v>
       </c>
       <c r="E119" s="2">
         <v>1.7244999999999999</v>
@@ -5177,25 +5233,25 @@
         <v>1.8076000000000001</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.71500000000000008</v>
       </c>
       <c r="I119" s="2">
+        <f t="shared" si="18"/>
+        <v>8.3100000000000174E-2</v>
+      </c>
+      <c r="J119" s="7">
         <f t="shared" si="16"/>
-        <v>8.3100000000000174E-2</v>
-      </c>
-      <c r="J119" s="2">
-        <f t="shared" si="14"/>
         <v>0.10412229043979469</v>
       </c>
       <c r="K119" s="1">
-        <f t="shared" si="17"/>
-        <v>-3.8415813192880011E-2</v>
+        <f t="shared" si="20"/>
+        <v>6.5706477246914724E-2</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="B120" s="2">
         <v>1.698</v>
@@ -5204,8 +5260,8 @@
         <v>0.31290000000000001</v>
       </c>
       <c r="D120" s="2">
-        <f t="shared" si="13"/>
-        <v>0.15560196926749217</v>
+        <f t="shared" si="19"/>
+        <v>0.1842756183745583</v>
       </c>
       <c r="E120" s="2">
         <v>1.7204999999999999</v>
@@ -5217,25 +5273,25 @@
         <v>1.8964000000000001</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.6653</v>
       </c>
       <c r="I120" s="2">
+        <f t="shared" si="18"/>
+        <v>0.17590000000000017</v>
+      </c>
+      <c r="J120" s="7">
         <f t="shared" si="16"/>
-        <v>0.17590000000000017</v>
-      </c>
-      <c r="J120" s="2">
-        <f t="shared" si="14"/>
         <v>0.20910603899191646</v>
       </c>
       <c r="K120" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.34385213745236431</v>
+        <f t="shared" si="20"/>
+        <v>-0.13474609846044791</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="B121" s="2">
         <v>1.5956999999999999</v>
@@ -5244,8 +5300,8 @@
         <v>0.4022</v>
       </c>
       <c r="D121" s="2">
-        <f t="shared" si="13"/>
-        <v>0.20131137694579307</v>
+        <f t="shared" si="19"/>
+        <v>0.25205239080027575</v>
       </c>
       <c r="E121" s="2">
         <v>1.7257</v>
@@ -5257,25 +5313,25 @@
         <v>1.8907</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.68810000000000016</v>
       </c>
       <c r="I121" s="2">
+        <f t="shared" si="18"/>
+        <v>0.16500000000000004</v>
+      </c>
+      <c r="J121" s="7">
         <f t="shared" si="16"/>
-        <v>0.16500000000000004</v>
-      </c>
-      <c r="J121" s="2">
-        <f t="shared" si="14"/>
         <v>0.19341226116516236</v>
       </c>
       <c r="K121" s="1">
-        <f t="shared" si="17"/>
-        <v>3.9238297906817751E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.23265055907198021</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2">
         <v>1.9113</v>
@@ -5284,8 +5340,8 @@
         <v>0.1028</v>
       </c>
       <c r="D122" s="2">
-        <f t="shared" si="13"/>
-        <v>5.1040166823891564E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.3785381677392351E-2</v>
       </c>
       <c r="E122" s="2">
         <v>1.7091000000000001</v>
@@ -5297,25 +5353,25 @@
         <v>1.7444999999999999</v>
       </c>
       <c r="H122" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.67379999999999995</v>
       </c>
       <c r="I122" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5399999999999876E-2</v>
+      </c>
+      <c r="J122" s="7">
         <f t="shared" si="16"/>
-        <v>3.5399999999999876E-2</v>
-      </c>
-      <c r="J122" s="2">
-        <f t="shared" si="14"/>
         <v>4.9915397631133507E-2</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" si="17"/>
-        <v>2.2036941937101196E-2</v>
+        <f t="shared" si="20"/>
+        <v>7.1952339568234713E-2</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2">
         <v>2.0623999999999998</v>
@@ -5324,8 +5380,8 @@
         <v>0.25190000000000001</v>
       </c>
       <c r="D123" s="2">
-        <f t="shared" si="13"/>
-        <v>0.10884500712958564</v>
+        <f t="shared" si="19"/>
+        <v>0.12213925523661755</v>
       </c>
       <c r="E123" s="2">
         <v>1.7231000000000001</v>
@@ -5337,25 +5393,25 @@
         <v>1.8388</v>
       </c>
       <c r="H123" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.7206999999999999</v>
       </c>
       <c r="I123" s="2">
+        <f t="shared" si="18"/>
+        <v>0.11569999999999991</v>
+      </c>
+      <c r="J123" s="7">
         <f t="shared" si="16"/>
-        <v>0.11569999999999991</v>
-      </c>
-      <c r="J123" s="2">
-        <f t="shared" si="14"/>
         <v>0.13833094213295066</v>
       </c>
       <c r="K123" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.2708983699018962</v>
+        <f t="shared" si="20"/>
+        <v>-0.13256742776894567</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="B124" s="2">
         <v>1.7</v>
@@ -5364,8 +5420,8 @@
         <v>0.30270000000000002</v>
       </c>
       <c r="D124" s="2">
-        <f t="shared" si="13"/>
-        <v>0.15114595296349928</v>
+        <f t="shared" si="19"/>
+        <v>0.1780588235294118</v>
       </c>
       <c r="E124" s="2">
         <v>1.7238</v>
@@ -5377,25 +5433,25 @@
         <v>1.8856999999999999</v>
       </c>
       <c r="H124" s="2">
-        <f t="shared" ref="H124:H142" si="18">IF(B124="","",IF(E124="",B124,F124-G124))</f>
+        <f t="shared" ref="H124:H142" si="21">IF(B124="","",IF(E124="",B124,F124-G124))</f>
         <v>0.65730000000000022</v>
       </c>
       <c r="I124" s="2">
-        <f t="shared" ref="I124:I142" si="19">IF(C124="","",IF(F124="",C124,G124-E124))</f>
+        <f t="shared" ref="I124:I142" si="22">IF(C124="","",IF(F124="",C124,G124-E124))</f>
         <v>0.16189999999999993</v>
       </c>
-      <c r="J124" s="2">
-        <f t="shared" si="14"/>
+      <c r="J124" s="7">
+        <f t="shared" si="16"/>
         <v>0.19763183593749989</v>
       </c>
       <c r="K124" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.30755625316164853</v>
+        <f t="shared" si="20"/>
+        <v>-0.1099244172241485</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="B125" s="2">
         <v>1.6086</v>
@@ -5404,8 +5460,8 @@
         <v>0.4042</v>
       </c>
       <c r="D125" s="2">
-        <f t="shared" si="13"/>
-        <v>0.20081478537360892</v>
+        <f t="shared" ref="D125:D151" si="23">C125/B125</f>
+        <v>0.25127440009946539</v>
       </c>
       <c r="E125" s="2">
         <v>1.7208000000000001</v>
@@ -5417,25 +5473,25 @@
         <v>1.9124000000000001</v>
       </c>
       <c r="H125" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.69389999999999996</v>
       </c>
       <c r="I125" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.19159999999999999</v>
       </c>
-      <c r="J125" s="2">
-        <f t="shared" si="14"/>
+      <c r="J125" s="7">
+        <f t="shared" si="16"/>
         <v>0.21637492941840769</v>
       </c>
       <c r="K125" s="1">
-        <f t="shared" ref="K125:K142" si="20">(D125-J125)/D125</f>
-        <v>-7.7485051789636245E-2</v>
+        <f t="shared" ref="K125:K142" si="24">(D125-J125)/D125</f>
+        <v>0.13888987762877142</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B126" s="2">
         <v>1.9755</v>
@@ -5444,8 +5500,8 @@
         <v>1.95E-2</v>
       </c>
       <c r="D126" s="2">
-        <f t="shared" si="13"/>
-        <v>9.7744360902255641E-3</v>
+        <f t="shared" si="23"/>
+        <v>9.8709187547456334E-3</v>
       </c>
       <c r="E126" s="2">
         <v>1.7067000000000001</v>
@@ -5457,25 +5513,25 @@
         <v>1.7123999999999999</v>
       </c>
       <c r="H126" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.86760000000000015</v>
       </c>
       <c r="I126" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5.6999999999998163E-3</v>
       </c>
-      <c r="J126" s="2">
-        <f t="shared" si="14"/>
+      <c r="J126" s="7">
+        <f t="shared" si="16"/>
         <v>6.5269666781172754E-3</v>
       </c>
       <c r="K126" s="1">
-        <f t="shared" si="20"/>
-        <v>0.3322411013926172</v>
+        <f t="shared" si="24"/>
+        <v>0.33876806807073445</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="B127" s="2">
         <v>1.94</v>
@@ -5484,8 +5540,8 @@
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="D127" s="2">
-        <f t="shared" si="13"/>
-        <v>2.9466206413527443E-2</v>
+        <f t="shared" si="23"/>
+        <v>3.0360824742268044E-2</v>
       </c>
       <c r="E127" s="2">
         <v>1.6913</v>
@@ -5497,25 +5553,25 @@
         <v>1.7114</v>
       </c>
       <c r="H127" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.6540999999999999</v>
       </c>
       <c r="I127" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0100000000000007E-2</v>
       </c>
-      <c r="J127" s="2">
-        <f t="shared" si="14"/>
+      <c r="J127" s="7">
+        <f t="shared" si="16"/>
         <v>2.9813111836250385E-2</v>
       </c>
       <c r="K127" s="1">
-        <f t="shared" si="20"/>
-        <v>-1.1772992351118637E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.804011948513172E-2</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="B128" s="2">
         <v>1.897</v>
@@ -5524,8 +5580,8 @@
         <v>0.10489999999999999</v>
       </c>
       <c r="D128" s="2">
-        <f t="shared" si="13"/>
-        <v>5.2400219791198355E-2</v>
+        <f t="shared" si="23"/>
+        <v>5.5297838692672636E-2</v>
       </c>
       <c r="E128" s="2">
         <v>1.7044999999999999</v>
@@ -5537,25 +5593,25 @@
         <v>1.7392000000000001</v>
       </c>
       <c r="H128" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.65129999999999977</v>
       </c>
       <c r="I128" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.4700000000000175E-2</v>
       </c>
-      <c r="J128" s="2">
-        <f t="shared" si="14"/>
+      <c r="J128" s="7">
+        <f t="shared" si="16"/>
         <v>5.0583090379009009E-2</v>
       </c>
       <c r="K128" s="1">
-        <f t="shared" si="20"/>
-        <v>3.467789676131413E-2</v>
+        <f t="shared" si="24"/>
+        <v>8.526098714032318E-2</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="B129" s="2">
         <v>1.8576999999999999</v>
@@ -5564,8 +5620,8 @@
         <v>0.13950000000000001</v>
       </c>
       <c r="D129" s="2">
-        <f t="shared" si="13"/>
-        <v>6.9847786901662337E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.5092856758357113E-2</v>
       </c>
       <c r="E129" s="2">
         <v>1.7269000000000001</v>
@@ -5577,25 +5633,25 @@
         <v>1.7701</v>
       </c>
       <c r="H129" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.60030000000000006</v>
       </c>
       <c r="I129" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4.3199999999999905E-2</v>
       </c>
-      <c r="J129" s="2">
-        <f t="shared" si="14"/>
+      <c r="J129" s="7">
+        <f t="shared" si="16"/>
         <v>6.7132867132866994E-2</v>
       </c>
       <c r="K129" s="1">
-        <f t="shared" si="20"/>
-        <v>3.886908790134809E-2</v>
+        <f t="shared" si="24"/>
+        <v>0.106001955034215</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="B130" s="2">
         <v>1.9790000000000001</v>
@@ -5604,8 +5660,8 @@
         <v>2.1700000000000001E-2</v>
       </c>
       <c r="D130" s="2">
-        <f t="shared" si="13"/>
-        <v>1.0846203828659969E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.0965133906013138E-2</v>
       </c>
       <c r="E130" s="2">
         <v>1.6992</v>
@@ -5617,25 +5673,25 @@
         <v>1.7088000000000001</v>
       </c>
       <c r="H130" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.57669999999999977</v>
       </c>
       <c r="I130" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>9.6000000000000529E-3</v>
       </c>
-      <c r="J130" s="2">
-        <f t="shared" si="14"/>
+      <c r="J130" s="7">
+        <f t="shared" ref="J130:J135" si="25">I130/(H130+I130)</f>
         <v>1.6373870032406711E-2</v>
       </c>
       <c r="K130" s="1">
-        <f t="shared" si="20"/>
-        <v>-0.50964063473899113</v>
+        <f t="shared" si="24"/>
+        <v>-0.49326676470658443</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="B131" s="2">
         <v>1.9375</v>
@@ -5644,8 +5700,8 @@
         <v>5.9799999999999999E-2</v>
       </c>
       <c r="D131" s="2">
-        <f t="shared" ref="D131:D153" si="21">C131/(B131+C131)</f>
-        <v>2.9940419566414658E-2</v>
+        <f t="shared" si="23"/>
+        <v>3.0864516129032259E-2</v>
       </c>
       <c r="E131" s="2">
         <v>1.6886000000000001</v>
@@ -5657,25 +5713,25 @@
         <v>1.7099</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.53990000000000005</v>
       </c>
       <c r="I131" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.1299999999999875E-2</v>
       </c>
-      <c r="J131" s="2">
-        <f t="shared" ref="J131:J153" si="22">I131/(H131+I131)</f>
+      <c r="J131" s="7">
+        <f t="shared" si="25"/>
         <v>3.7954383464005481E-2</v>
       </c>
       <c r="K131" s="1">
-        <f t="shared" si="20"/>
-        <v>-0.26766371392404936</v>
+        <f t="shared" si="24"/>
+        <v>-0.22970933046004377</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="B132" s="2">
         <v>1.9661999999999999</v>
@@ -5684,8 +5740,8 @@
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="D132" s="2">
-        <f t="shared" si="21"/>
-        <v>2.1450256308167021E-2</v>
+        <f t="shared" si="23"/>
+        <v>2.1920455701352863E-2</v>
       </c>
       <c r="E132" s="2">
         <v>1.6911</v>
@@ -5697,25 +5753,25 @@
         <v>1.7097</v>
       </c>
       <c r="H132" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.64019999999999988</v>
       </c>
       <c r="I132" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.859999999999995E-2</v>
       </c>
-      <c r="J132" s="2">
-        <f t="shared" si="22"/>
+      <c r="J132" s="7">
+        <f t="shared" si="25"/>
         <v>2.8233151183970788E-2</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" si="20"/>
-        <v>-0.31621509684344573</v>
+        <f t="shared" si="24"/>
+        <v>-0.28798194565947483</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="B133" s="2">
         <v>1.9220999999999999</v>
@@ -5724,8 +5780,8 @@
         <v>8.0299999999999996E-2</v>
       </c>
       <c r="D133" s="2">
-        <f t="shared" si="21"/>
-        <v>4.0101877746703957E-2</v>
+        <f t="shared" si="23"/>
+        <v>4.1777222829197234E-2</v>
       </c>
       <c r="E133" s="2">
         <v>1.7003999999999999</v>
@@ -5737,25 +5793,25 @@
         <v>1.7274</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.62539999999999973</v>
       </c>
       <c r="I133" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.7000000000000135E-2</v>
       </c>
-      <c r="J133" s="2">
-        <f t="shared" si="22"/>
+      <c r="J133" s="7">
+        <f t="shared" si="25"/>
         <v>4.1385652973636021E-2</v>
       </c>
       <c r="K133" s="1">
-        <f t="shared" si="20"/>
-        <v>-3.2012845758515138E-2</v>
+        <f t="shared" si="24"/>
+        <v>9.3728072151209024E-3</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="B134" s="2">
         <v>1.9807999999999999</v>
@@ -5764,8 +5820,8 @@
         <v>2.06E-2</v>
       </c>
       <c r="D134" s="2">
-        <f t="shared" si="21"/>
-        <v>1.0292795043469572E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.039983844911147E-2</v>
       </c>
       <c r="E134" s="2">
         <v>1.6886000000000001</v>
@@ -5777,25 +5833,25 @@
         <v>1.6948000000000001</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.59909999999999974</v>
       </c>
       <c r="I134" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6.1999999999999833E-3</v>
       </c>
-      <c r="J134" s="2">
-        <f t="shared" si="22"/>
+      <c r="J134" s="7">
+        <f t="shared" si="25"/>
         <v>1.0242854782752331E-2</v>
       </c>
       <c r="K134" s="1">
-        <f t="shared" si="20"/>
-        <v>4.8519629999750798E-3</v>
+        <f t="shared" si="24"/>
+        <v>1.5094817782727324E-2</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2">
         <v>1.9435</v>
@@ -5804,8 +5860,8 @@
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="D135" s="2">
-        <f t="shared" si="21"/>
-        <v>3.0092823635093323E-2</v>
+        <f t="shared" si="23"/>
+        <v>3.1026498585027013E-2</v>
       </c>
       <c r="E135" s="2">
         <v>1.6956</v>
@@ -5817,65 +5873,65 @@
         <v>1.7164999999999999</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.57860000000000023</v>
       </c>
       <c r="I135" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0899999999999919E-2</v>
       </c>
-      <c r="J135" s="2">
+      <c r="J135" s="7">
+        <f t="shared" si="25"/>
+        <v>3.4862385321100774E-2</v>
+      </c>
+      <c r="K135" s="1">
+        <f t="shared" si="24"/>
+        <v>-0.12363260151839726</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" s="5">
+        <v>1.9652000000000001</v>
+      </c>
+      <c r="C136" s="5">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="D136" s="5">
+        <f t="shared" si="23"/>
+        <v>2.0913901892937105E-2</v>
+      </c>
+      <c r="E136" s="5">
+        <v>1.6919</v>
+      </c>
+      <c r="F136" s="5">
+        <v>2.2717999999999998</v>
+      </c>
+      <c r="G136" s="5">
+        <v>1.7071000000000001</v>
+      </c>
+      <c r="H136" s="5">
+        <f t="shared" si="21"/>
+        <v>0.56469999999999976</v>
+      </c>
+      <c r="I136" s="5">
         <f t="shared" si="22"/>
-        <v>3.4862385321100774E-2</v>
-      </c>
-      <c r="K135" s="1">
-        <f t="shared" si="20"/>
-        <v>-0.158494986839498</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>71</v>
-      </c>
-      <c r="B136" s="2">
-        <v>1.9652000000000001</v>
-      </c>
-      <c r="C136" s="2">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="D136" s="2">
-        <f t="shared" si="21"/>
-        <v>2.0485470767083687E-2</v>
-      </c>
-      <c r="E136" s="2">
-        <v>1.6919</v>
-      </c>
-      <c r="F136" s="2">
-        <v>2.2717999999999998</v>
-      </c>
-      <c r="G136" s="2">
-        <v>1.7071000000000001</v>
-      </c>
-      <c r="H136" s="2">
-        <f t="shared" si="18"/>
-        <v>0.56469999999999976</v>
-      </c>
-      <c r="I136" s="2">
-        <f t="shared" si="19"/>
         <v>1.5200000000000102E-2</v>
       </c>
-      <c r="J136" s="2">
-        <f t="shared" si="22"/>
+      <c r="J136" s="7">
+        <f>I136/(H136+I136)</f>
         <v>2.6211415761338345E-2</v>
       </c>
-      <c r="K136" s="1">
-        <f t="shared" si="20"/>
-        <v>-0.2795124925054287</v>
+      <c r="K136" s="6">
+        <f t="shared" si="24"/>
+        <v>-0.25330107674409047</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2">
         <v>1.9249000000000001</v>
@@ -5884,8 +5940,8 @@
         <v>8.4099999999999994E-2</v>
       </c>
       <c r="D137" s="2">
-        <f t="shared" si="21"/>
-        <v>4.1861622697859632E-2</v>
+        <f t="shared" si="23"/>
+        <v>4.3690581328900198E-2</v>
       </c>
       <c r="E137" s="2">
         <v>1.6898</v>
@@ -5897,25 +5953,25 @@
         <v>1.7222999999999999</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.61029999999999984</v>
       </c>
       <c r="I137" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.2499999999999973E-2</v>
       </c>
-      <c r="J137" s="2">
-        <f t="shared" si="22"/>
+      <c r="J137" s="7">
+        <f t="shared" ref="J137:J153" si="26">I137/(H137+I137)</f>
         <v>5.0560049782202833E-2</v>
       </c>
       <c r="K137" s="1">
-        <f t="shared" si="20"/>
-        <v>-0.20779001203859085</v>
+        <f t="shared" si="24"/>
+        <v>-0.15722996225638816</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B138" s="2">
         <v>3.9599000000000002</v>
@@ -5924,8 +5980,8 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="D138" s="2">
-        <f t="shared" si="21"/>
-        <v>1.0989285446689478E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.1111391701810651E-2</v>
       </c>
       <c r="E138" s="2">
         <v>1.6707000000000001</v>
@@ -5937,25 +5993,25 @@
         <v>1.6786000000000001</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.66700000000000004</v>
       </c>
       <c r="I138" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7.9000000000000181E-3</v>
       </c>
-      <c r="J138" s="2">
-        <f t="shared" si="22"/>
+      <c r="J138" s="7">
+        <f t="shared" si="26"/>
         <v>1.1705437842643381E-2</v>
       </c>
       <c r="K138" s="1">
-        <f t="shared" si="20"/>
-        <v>-6.5168240412723427E-2</v>
+        <f t="shared" si="24"/>
+        <v>-5.3462802570080174E-2</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B139" s="2">
         <v>3.8832</v>
@@ -5964,8 +6020,8 @@
         <v>0.12559999999999999</v>
       </c>
       <c r="D139" s="2">
-        <f t="shared" si="21"/>
-        <v>3.133107164238675E-2</v>
+        <f t="shared" si="23"/>
+        <v>3.2344458178821589E-2</v>
       </c>
       <c r="E139" s="2">
         <v>1.7161999999999999</v>
@@ -5977,25 +6033,25 @@
         <v>1.7395</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.65529999999999999</v>
       </c>
       <c r="I139" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.3300000000000098E-2</v>
       </c>
-      <c r="J139" s="2">
-        <f t="shared" si="22"/>
+      <c r="J139" s="7">
+        <f t="shared" si="26"/>
         <v>3.4335396404362062E-2</v>
       </c>
       <c r="K139" s="1">
-        <f t="shared" si="20"/>
-        <v>-9.5889626638587813E-2</v>
+        <f t="shared" si="24"/>
+        <v>-6.1554230234225835E-2</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2">
         <v>3.8012000000000001</v>
@@ -6004,8 +6060,8 @@
         <v>0.20219999999999999</v>
       </c>
       <c r="D140" s="2">
-        <f t="shared" si="21"/>
-        <v>5.0507068991357346E-2</v>
+        <f t="shared" si="23"/>
+        <v>5.3193728296327472E-2</v>
       </c>
       <c r="E140" s="2">
         <v>1.7124999999999999</v>
@@ -6017,25 +6073,25 @@
         <v>1.7507999999999999</v>
       </c>
       <c r="H140" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.65370000000000017</v>
       </c>
       <c r="I140" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="J140" s="2">
-        <f t="shared" si="22"/>
+      <c r="J140" s="7">
+        <f t="shared" si="26"/>
         <v>5.5346820809248541E-2</v>
       </c>
       <c r="K140" s="1">
-        <f t="shared" si="20"/>
-        <v>-9.5823256319216676E-2</v>
+        <f t="shared" si="24"/>
+        <v>-4.0476435509968191E-2</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B141" s="2">
         <v>3.7269999999999999</v>
@@ -6044,8 +6100,8 @@
         <v>0.28420000000000001</v>
       </c>
       <c r="D141" s="2">
-        <f t="shared" si="21"/>
-        <v>7.0851615476665339E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.6254360075127453E-2</v>
       </c>
       <c r="E141" s="2">
         <v>1.7161999999999999</v>
@@ -6057,25 +6113,25 @@
         <v>1.7656000000000001</v>
       </c>
       <c r="H141" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.41650000000000009</v>
       </c>
       <c r="I141" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4.940000000000011E-2</v>
       </c>
-      <c r="J141" s="2">
-        <f t="shared" si="22"/>
+      <c r="J141" s="7">
+        <f t="shared" si="26"/>
         <v>0.10603133719682355</v>
       </c>
       <c r="K141" s="1">
-        <f t="shared" si="20"/>
-        <v>-0.49652674090041732</v>
+        <f t="shared" si="24"/>
+        <v>-0.3904954037035937</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B142" s="2">
         <v>3.9563000000000001</v>
@@ -6084,8 +6140,8 @@
         <v>4.2900000000000001E-2</v>
       </c>
       <c r="D142" s="2">
-        <f t="shared" si="21"/>
-        <v>1.0727145429085818E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.0843464853524758E-2</v>
       </c>
       <c r="E142" s="2">
         <v>1.7292000000000001</v>
@@ -6097,25 +6153,25 @@
         <v>1.7359</v>
       </c>
       <c r="H142" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.60679999999999978</v>
       </c>
       <c r="I142" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6.6999999999999282E-3</v>
       </c>
-      <c r="J142" s="2">
-        <f t="shared" si="22"/>
+      <c r="J142" s="7">
+        <f t="shared" si="26"/>
         <v>1.0920945395272911E-2</v>
       </c>
       <c r="K142" s="1">
-        <f t="shared" si="20"/>
-        <v>-1.8066312931828081E-2</v>
+        <f t="shared" si="24"/>
+        <v>-7.1453675365551767E-3</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B143" s="2">
         <v>3.9163999999999999</v>
@@ -6124,8 +6180,8 @@
         <v>8.4400000000000003E-2</v>
       </c>
       <c r="D143" s="2">
-        <f t="shared" si="21"/>
-        <v>2.1095780843831236E-2</v>
+        <f t="shared" si="23"/>
+        <v>2.1550403431723011E-2</v>
       </c>
       <c r="E143" s="2">
         <v>1.7150000000000001</v>
@@ -6137,25 +6193,25 @@
         <v>1.7289000000000001</v>
       </c>
       <c r="H143" s="2">
-        <f t="shared" ref="H143:H153" si="23">IF(B143="","",IF(E143="",B143,F143-G143))</f>
+        <f t="shared" ref="H143:H153" si="27">IF(B143="","",IF(E143="",B143,F143-G143))</f>
         <v>0.64989999999999992</v>
       </c>
       <c r="I143" s="2">
-        <f t="shared" ref="I143:I153" si="24">IF(C143="","",IF(F143="",C143,G143-E143))</f>
+        <f t="shared" ref="I143:I153" si="28">IF(C143="","",IF(F143="",C143,G143-E143))</f>
         <v>1.3900000000000023E-2</v>
       </c>
-      <c r="J143" s="2">
-        <f t="shared" si="22"/>
+      <c r="J143" s="7">
+        <f t="shared" si="26"/>
         <v>2.0940042181379969E-2</v>
       </c>
       <c r="K143" s="1">
-        <f t="shared" ref="K143:K153" si="25">(D143-J143)/D143</f>
-        <v>7.3824554589458158E-3</v>
+        <f t="shared" ref="K143:K153" si="29">(D143-J143)/D143</f>
+        <v>2.8322497640325694E-2</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B144" s="2">
         <v>3.8834</v>
@@ -6164,29 +6220,29 @@
         <v>0.1235</v>
       </c>
       <c r="D144" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
+        <v>3.1802029149714167E-2</v>
+      </c>
+      <c r="H144" s="2">
+        <f t="shared" si="27"/>
+        <v>3.8834</v>
+      </c>
+      <c r="I144" s="2">
+        <f t="shared" si="28"/>
+        <v>0.1235</v>
+      </c>
+      <c r="J144" s="7">
+        <f t="shared" si="26"/>
         <v>3.0821832339214855E-2</v>
       </c>
-      <c r="H144" s="2">
-        <f t="shared" si="23"/>
-        <v>3.8834</v>
-      </c>
-      <c r="I144" s="2">
-        <f t="shared" si="24"/>
-        <v>0.1235</v>
-      </c>
-      <c r="J144" s="2">
-        <f t="shared" si="22"/>
-        <v>3.0821832339214855E-2</v>
-      </c>
       <c r="K144" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>3.0821832339214823E-2</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B145" s="2">
         <v>3.8393000000000002</v>
@@ -6195,8 +6251,8 @@
         <v>0.158</v>
       </c>
       <c r="D145" s="2">
-        <f t="shared" si="21"/>
-        <v>3.9526680509343805E-2</v>
+        <f t="shared" si="23"/>
+        <v>4.1153335243403741E-2</v>
       </c>
       <c r="E145" s="2">
         <v>1.72</v>
@@ -6208,25 +6264,25 @@
         <v>1.7465999999999999</v>
       </c>
       <c r="H145" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.65969999999999995</v>
       </c>
       <c r="I145" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.6599999999999957E-2</v>
       </c>
-      <c r="J145" s="2">
-        <f t="shared" si="22"/>
+      <c r="J145" s="7">
+        <f t="shared" si="26"/>
         <v>3.8758560396328079E-2</v>
       </c>
       <c r="K145" s="1">
-        <f t="shared" si="25"/>
-        <v>1.9432952707327603E-2</v>
+        <f t="shared" si="29"/>
+        <v>5.8191513103655633E-2</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B146" s="2">
         <v>3.8007</v>
@@ -6235,8 +6291,8 @@
         <v>0.1983</v>
       </c>
       <c r="D146" s="2">
-        <f t="shared" si="21"/>
-        <v>4.9587396849212304E-2</v>
+        <f t="shared" si="23"/>
+        <v>5.2174599415897076E-2</v>
       </c>
       <c r="E146" s="2">
         <v>1.7081999999999999</v>
@@ -6248,25 +6304,25 @@
         <v>1.7424999999999999</v>
       </c>
       <c r="H146" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.45289999999999986</v>
       </c>
       <c r="I146" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="J146" s="2">
-        <f t="shared" si="22"/>
+      <c r="J146" s="7">
+        <f t="shared" si="26"/>
         <v>7.0402298850574724E-2</v>
       </c>
       <c r="K146" s="1">
-        <f t="shared" si="25"/>
-        <v>-0.41976194202444939</v>
+        <f t="shared" si="29"/>
+        <v>-0.34935964317387458</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B147" s="2">
         <v>3.722</v>
@@ -6275,8 +6331,8 @@
         <v>0.27929999999999999</v>
       </c>
       <c r="D147" s="2">
-        <f t="shared" si="21"/>
-        <v>6.9802314247869451E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.5040300913487373E-2</v>
       </c>
       <c r="E147" s="2">
         <v>1.7197</v>
@@ -6288,25 +6344,25 @@
         <v>1.7666999999999999</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.63040000000000007</v>
       </c>
       <c r="I147" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4.6999999999999931E-2</v>
       </c>
-      <c r="J147" s="2">
-        <f t="shared" si="22"/>
+      <c r="J147" s="7">
+        <f t="shared" si="26"/>
         <v>6.9382934750516573E-2</v>
       </c>
       <c r="K147" s="1">
-        <f t="shared" si="25"/>
-        <v>6.00810305319754E-3</v>
+        <f t="shared" si="29"/>
+        <v>7.5391037803713992E-2</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B148" s="2">
         <v>3.9603999999999999</v>
@@ -6315,8 +6371,8 @@
         <v>3.9100000000000003E-2</v>
       </c>
       <c r="D148" s="2">
-        <f t="shared" si="21"/>
-        <v>9.7762220277534707E-3</v>
+        <f t="shared" si="23"/>
+        <v>9.8727401272598742E-3</v>
       </c>
       <c r="E148" s="2">
         <v>1.7125999999999999</v>
@@ -6328,25 +6384,25 @@
         <v>1.7198</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.59689999999999999</v>
       </c>
       <c r="I148" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>7.2000000000000952E-3</v>
       </c>
-      <c r="J148" s="2">
-        <f t="shared" si="22"/>
+      <c r="J148" s="7">
+        <f t="shared" si="26"/>
         <v>1.1918556530375922E-2</v>
       </c>
       <c r="K148" s="1">
-        <f t="shared" si="25"/>
-        <v>-0.2191372594178643</v>
+        <f t="shared" si="29"/>
+        <v>-0.20721870288748839</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B149" s="2">
         <v>3.9201999999999999</v>
@@ -6355,8 +6411,8 @@
         <v>8.0199999999999994E-2</v>
       </c>
       <c r="D149" s="2">
-        <f t="shared" si="21"/>
-        <v>2.0047995200479951E-2</v>
+        <f t="shared" si="23"/>
+        <v>2.0458139890821896E-2</v>
       </c>
       <c r="E149" s="2">
         <v>1.7192000000000001</v>
@@ -6368,25 +6424,25 @@
         <v>1.7336</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.60740000000000016</v>
       </c>
       <c r="I149" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.4399999999999968E-2</v>
       </c>
-      <c r="J149" s="2">
-        <f t="shared" si="22"/>
+      <c r="J149" s="7">
+        <f t="shared" si="26"/>
         <v>2.3158571888066849E-2</v>
       </c>
       <c r="K149" s="1">
-        <f t="shared" si="25"/>
-        <v>-0.15515649602272599</v>
+        <f t="shared" si="29"/>
+        <v>-0.13199792413465916</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B150" s="2">
         <v>3.8834</v>
@@ -6395,8 +6451,8 @@
         <v>0.1226</v>
       </c>
       <c r="D150" s="2">
-        <f t="shared" si="21"/>
-        <v>3.060409385921118E-2</v>
+        <f t="shared" si="23"/>
+        <v>3.1570273471700057E-2</v>
       </c>
       <c r="E150" s="2">
         <v>1.7178</v>
@@ -6408,25 +6464,25 @@
         <v>1.7386999999999999</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.56100000000000017</v>
       </c>
       <c r="I150" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.0899999999999919E-2</v>
       </c>
-      <c r="J150" s="2">
-        <f t="shared" si="22"/>
+      <c r="J150" s="7">
+        <f t="shared" si="26"/>
         <v>3.5916824196597211E-2</v>
       </c>
       <c r="K150" s="1">
-        <f t="shared" si="25"/>
-        <v>-0.17359541379745874</v>
+        <f t="shared" si="29"/>
+        <v>-0.13767858960086141</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B151" s="2">
         <v>3.843</v>
@@ -6435,8 +6491,8 @@
         <v>0.16009999999999999</v>
       </c>
       <c r="D151" s="2">
-        <f t="shared" si="21"/>
-        <v>3.9994004646399038E-2</v>
+        <f t="shared" si="23"/>
+        <v>4.1660161332292479E-2</v>
       </c>
       <c r="E151" s="2">
         <v>1.7165999999999999</v>
@@ -6448,25 +6504,25 @@
         <v>1.7383</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.63769999999999993</v>
       </c>
       <c r="I151" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.1700000000000053E-2</v>
       </c>
-      <c r="J151" s="2">
-        <f t="shared" si="22"/>
+      <c r="J151" s="7">
+        <f t="shared" si="26"/>
         <v>3.2908704883227259E-2</v>
       </c>
       <c r="K151" s="1">
-        <f t="shared" si="25"/>
-        <v>0.17715904735760743</v>
+        <f t="shared" si="29"/>
+        <v>0.21006775224083474</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B152" s="2">
         <v>3.8003</v>
@@ -6475,8 +6531,8 @@
         <v>0.19950000000000001</v>
       </c>
       <c r="D152" s="2">
-        <f t="shared" si="21"/>
-        <v>4.9877493874693736E-2</v>
+        <f t="shared" ref="D152:D153" si="30">C152/B152</f>
+        <v>5.2495855590348132E-2</v>
       </c>
       <c r="E152" s="2">
         <v>1.7135</v>
@@ -6488,25 +6544,25 @@
         <v>1.736</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.67009999999999992</v>
       </c>
       <c r="I152" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.2499999999999964E-2</v>
       </c>
-      <c r="J152" s="2">
-        <f t="shared" si="22"/>
+      <c r="J152" s="7">
+        <f t="shared" si="26"/>
         <v>3.2486283569159641E-2</v>
       </c>
       <c r="K152" s="1">
-        <f t="shared" si="25"/>
-        <v>0.34867851117832216</v>
+        <f t="shared" si="29"/>
+        <v>0.38116479474748183</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B153" s="2">
         <v>3.7229000000000001</v>
@@ -6515,8 +6571,8 @@
         <v>0.2802</v>
       </c>
       <c r="D153" s="2">
-        <f t="shared" si="21"/>
-        <v>6.9995753291199322E-2</v>
+        <f t="shared" si="30"/>
+        <v>7.526390716914233E-2</v>
       </c>
       <c r="E153" s="2">
         <v>1.7130000000000001</v>
@@ -6528,20 +6584,20 @@
         <v>1.7413000000000001</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.58819999999999983</v>
       </c>
       <c r="I153" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.8299999999999992E-2</v>
       </c>
-      <c r="J153" s="2">
-        <f t="shared" si="22"/>
+      <c r="J153" s="7">
+        <f t="shared" si="26"/>
         <v>4.5904298459042987E-2</v>
       </c>
       <c r="K153" s="1">
-        <f t="shared" si="25"/>
-        <v>0.34418452119416498</v>
+        <f t="shared" si="29"/>
+        <v>0.39008881965320791</v>
       </c>
     </row>
   </sheetData>
@@ -6552,14 +6608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40402C03-3200-4D23-B22A-11038E74E04A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J41"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6598,7 +6654,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2">
         <v>1.8945000000000001</v>
@@ -6607,8 +6663,8 @@
         <v>0.1043</v>
       </c>
       <c r="D2" s="2">
-        <f>C2/(B2+C2)</f>
-        <v>5.2181308785271163E-2</v>
+        <f t="shared" ref="D2:D17" si="0">C2/B2</f>
+        <v>5.5054103985220378E-2</v>
       </c>
       <c r="E2" s="2">
         <v>2.589</v>
@@ -6620,25 +6676,25 @@
         <v>2.6484999999999999</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H17" si="0">IF(B2="","",IF(E2="",B2,F2-G2))</f>
+        <f t="shared" ref="H2:H17" si="1">IF(B2="","",IF(E2="",B2,F2-G2))</f>
         <v>1.1005000000000003</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I17" si="1">IF(C2="","",IF(F2="",C2,G2-E2))</f>
+        <f t="shared" ref="I2:I17" si="2">IF(C2="","",IF(F2="",C2,G2-E2))</f>
         <v>5.9499999999999886E-2</v>
       </c>
       <c r="J2" s="2">
-        <f>I2/(H2+I2)</f>
-        <v>5.1293103448275756E-2</v>
+        <f t="shared" ref="J2:J17" si="3">I2/H2</f>
+        <v>5.406633348477953E-2</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" ref="K2:K17" si="2">(D2-J2)/D2</f>
-        <v>1.7021522795651192E-2</v>
+        <f t="shared" ref="K2:K17" si="4">(D2-J2)/D2</f>
+        <v>1.7941814123539648E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="B3" s="2">
         <v>1.8029999999999999</v>
@@ -6647,7 +6703,7 @@
         <v>0.19989999999999999</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D2:D17" si="3">C3/B3</f>
+        <f t="shared" si="0"/>
         <v>0.11087077093732668</v>
       </c>
       <c r="E3" s="2">
@@ -6660,25 +6716,25 @@
         <v>2.6947000000000001</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0070999999999999</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1036999999999999</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J41" si="4">I3/(H3+I3)</f>
-        <v>9.3356139719121281E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.10296892066329055</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" si="2"/>
-        <v>0.15797338712568454</v>
+        <f t="shared" si="4"/>
+        <v>7.1270815628249828E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="B4" s="2">
         <v>1.6969000000000001</v>
@@ -6687,7 +6743,7 @@
         <v>0.31540000000000001</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.18586834816429962</v>
       </c>
       <c r="E4" s="2">
@@ -6700,25 +6756,25 @@
         <v>2.3302999999999998</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0405000000000002</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19869999999999965</v>
       </c>
       <c r="J4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19096588178760174</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="4"/>
-        <v>0.16034538411878604</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13731743084601136</v>
+        <v>-2.7425506675273829E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="B5" s="2">
         <v>1.6099000000000001</v>
@@ -6727,7 +6783,7 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.25405304677309148</v>
       </c>
       <c r="E5" s="2">
@@ -6740,25 +6796,25 @@
         <v>2.4184999999999999</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0005000000000002</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23059999999999992</v>
       </c>
       <c r="J5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.23048475762118928</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="4"/>
-        <v>0.18731215985703834</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="2"/>
-        <v>0.26270453263118332</v>
+        <v>9.27691655394801E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="B6" s="2">
         <v>1.9008</v>
@@ -6767,7 +6823,7 @@
         <v>0.1023</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.3819444444444448E-2</v>
       </c>
       <c r="E6" s="2">
@@ -6780,25 +6836,25 @@
         <v>2.2393000000000001</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1151999999999997</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9299999999999908E-2</v>
       </c>
       <c r="J6" s="2">
+        <f t="shared" si="3"/>
+        <v>5.3174318507890894E-2</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="4"/>
-        <v>5.0489570029799855E-2</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.1871214930170497E-2</v>
+        <v>1.1986856111446667E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="B7" s="2">
         <v>1.8109999999999999</v>
@@ -6807,7 +6863,7 @@
         <v>0.20419999999999999</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.11275538376587521</v>
       </c>
       <c r="E7" s="2">
@@ -6820,25 +6876,25 @@
         <v>2.7073999999999998</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0407000000000002</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11589999999999989</v>
       </c>
       <c r="J7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11136734889977887</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="4"/>
-        <v>0.10020750475531721</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="2"/>
-        <v>0.11128407878609467</v>
+        <v>1.2310142715477368E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="B8" s="2">
         <v>1.7028000000000001</v>
@@ -6847,7 +6903,7 @@
         <v>0.30009999999999998</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.17623913554146109</v>
       </c>
       <c r="E8" s="2">
@@ -6860,25 +6916,25 @@
         <v>2.7650999999999999</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0306000000000002</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18789999999999996</v>
       </c>
       <c r="J8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18232097807102651</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>0.15420599097250712</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12501845575479784</v>
+        <v>-3.4509035186084655E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="B9" s="2">
         <v>1.6085</v>
@@ -6887,7 +6943,7 @@
         <v>0.4032</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.25066832452595583</v>
       </c>
       <c r="E9" s="2">
@@ -6900,25 +6956,25 @@
         <v>2.8098999999999998</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99490000000000034</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24479999999999968</v>
       </c>
       <c r="J9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24605487988742547</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="4"/>
-        <v>0.19746712914414752</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="2"/>
-        <v>0.21223740766775467</v>
+        <v>1.8404577631637123E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B10" s="2">
         <v>1.8962000000000001</v>
@@ -6927,7 +6983,7 @@
         <v>0.1007</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.3106212424849697E-2</v>
       </c>
       <c r="E10" s="2">
@@ -6940,25 +6996,25 @@
         <v>2.1833</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0991</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7799999999999851E-2</v>
       </c>
       <c r="J10" s="2">
+        <f t="shared" si="3"/>
+        <v>5.258848148485111E-2</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="4"/>
-        <v>4.9961102947532081E-2</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="2"/>
-        <v>5.9223004874773229E-2</v>
+        <v>9.7489712852564109E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B11" s="2">
         <v>1.7962</v>
@@ -6967,7 +7023,7 @@
         <v>0.2092</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.11646809932078833</v>
       </c>
       <c r="E11" s="2">
@@ -6980,25 +7036,25 @@
         <v>2.7025000000000001</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0255000000000001</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1221000000000001</v>
       </c>
       <c r="J11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11906387128230141</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="4"/>
-        <v>0.1063959567793657</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="2"/>
-        <v>8.647983954542704E-2</v>
+        <v>-2.2287407252723632E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B12" s="2">
         <v>1.7007000000000001</v>
@@ -7007,7 +7063,7 @@
         <v>0.30980000000000002</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.18216028694067149</v>
       </c>
       <c r="E12" s="2">
@@ -7020,25 +7076,25 @@
         <v>2.718</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97719999999999985</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18259999999999987</v>
       </c>
       <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18686041751944321</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="4"/>
-        <v>0.15744093809277454</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13570108646100174</v>
+        <v>-2.5802169384496667E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B13" s="2">
         <v>1.5967</v>
@@ -7047,7 +7103,7 @@
         <v>0.42009999999999997</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.26310515438091059</v>
       </c>
       <c r="E13" s="2">
@@ -7060,25 +7116,25 @@
         <v>2.3988</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0329000000000002</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28500000000000014</v>
       </c>
       <c r="J13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.27592216090618654</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="4"/>
-        <v>0.21625312997951293</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17807338100859713</v>
+        <v>-4.8714387809826516E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B14" s="2">
         <v>1.8991</v>
@@ -7087,7 +7143,7 @@
         <v>0.1002</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.2761834553209416E-2</v>
       </c>
       <c r="E14" s="2">
@@ -7100,25 +7156,25 @@
         <v>2.206</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0927000000000002</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7999999999999829E-2</v>
       </c>
       <c r="J14" s="2">
+        <f t="shared" si="3"/>
+        <v>5.3079527775235488E-2</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="4"/>
-        <v>5.0404101851047038E-2</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4686329088588543E-2</v>
+        <v>-6.0212694406159006E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B15" s="2">
         <v>1.7968</v>
@@ -7127,7 +7183,7 @@
         <v>0.20180000000000001</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.11231077471059663</v>
       </c>
       <c r="E15" s="2">
@@ -7140,25 +7196,25 @@
         <v>2.2587000000000002</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1057999999999999</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10329999999999995</v>
       </c>
       <c r="J15" s="2">
+        <f t="shared" si="3"/>
+        <v>9.3416531018267274E-2</v>
+      </c>
+      <c r="K15" s="1">
         <f t="shared" si="4"/>
-        <v>8.5435447853775506E-2</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23929428789066493</v>
+        <v>0.16823179913963021</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2">
         <v>1.6966000000000001</v>
@@ -7167,7 +7223,7 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.2169043970293528</v>
       </c>
       <c r="E16" s="2">
@@ -7180,25 +7236,25 @@
         <v>2.4327999999999999</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0256000000000003</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22059999999999969</v>
       </c>
       <c r="J16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2150936037441494</v>
+      </c>
+      <c r="K16" s="1">
         <f t="shared" si="4"/>
-        <v>0.17701813513079737</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18388867374209009</v>
+        <v>8.3483475208589071E-3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2">
         <v>1.5994999999999999</v>
@@ -7207,7 +7263,7 @@
         <v>0.40839999999999999</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.25532979055954985</v>
       </c>
       <c r="E17" s="2">
@@ -7220,25 +7276,25 @@
         <v>2.4201999999999999</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0094000000000003</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2647999999999997</v>
       </c>
       <c r="J17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26233405983752689</v>
+      </c>
+      <c r="K17" s="1">
         <f t="shared" si="4"/>
-        <v>0.20781666928268694</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18608530235637177</v>
+        <v>-2.7432244637914476E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B18" s="2">
         <v>3.9599000000000002</v>
@@ -7268,17 +7324,17 @@
         <v>1.4299999999999979E-2</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="4"/>
-        <v>1.4569536423841038E-2</v>
+        <f t="shared" ref="J18:J25" si="8">I18/H18</f>
+        <v>1.4784946236559118E-2</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" ref="K18:K25" si="8">(D18-J18)/D18</f>
-        <v>-0.31122516556291202</v>
+        <f t="shared" ref="K18:K25" si="9">(D18-J18)/D18</f>
+        <v>-0.33061155913978307</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B19" s="2">
         <v>3.8832</v>
@@ -7308,17 +7364,17 @@
         <v>3.3199999999999896E-2</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="4"/>
-        <v>3.5756596661281538E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.7082542164637446E-2</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.10549375919656429</v>
+        <f t="shared" si="9"/>
+        <v>-0.14648827813471446</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B20" s="2">
         <v>3.8012000000000001</v>
@@ -7348,17 +7404,17 @@
         <v>5.7399999999999896E-2</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="4"/>
-        <v>5.6859831599801798E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.0287784896544391E-2</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="8"/>
-        <v>-6.8919841133366022E-2</v>
+        <f t="shared" si="9"/>
+        <v>-0.13336265058726288</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B21" s="2">
         <v>3.7269999999999999</v>
@@ -7388,17 +7444,17 @@
         <v>7.6399999999999579E-2</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="4"/>
-        <v>7.9741154368019609E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.6650788249971133E-2</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="8"/>
-        <v>-4.5725835079553363E-2</v>
+        <f t="shared" si="9"/>
+        <v>-0.13633880298255593</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B22" s="2">
         <v>3.9563000000000001</v>
@@ -7428,17 +7484,17 @@
         <v>1.089999999999991E-2</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0690466849744909E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.0805987905224456E-2</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="8"/>
-        <v>1.4109697024573847E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.4561783347432993E-3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B23" s="2">
         <v>3.9163999999999999</v>
@@ -7468,17 +7524,17 @@
         <v>2.3200000000000109E-2</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="4"/>
-        <v>2.3181454836131207E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3731587561374914E-2</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="8"/>
-        <v>-7.5685423225405904E-2</v>
+        <f t="shared" si="9"/>
+        <v>-0.10121314603517433</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B24" s="2">
         <v>3.8834</v>
@@ -7508,17 +7564,17 @@
         <v>3.1200000000000117E-2</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="4"/>
-        <v>3.0930901159908906E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.1918158567775051E-2</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="8"/>
-        <v>2.7392214053520259E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.651635482571961E-3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B25" s="2">
         <v>3.8393000000000002</v>
@@ -7548,17 +7604,17 @@
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="4"/>
-        <v>4.1173443129181725E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.2941492216854588E-2</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="8"/>
-        <v>-4.8860889789502664E-4</v>
+        <f t="shared" si="9"/>
+        <v>-4.3451082709935675E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2">
         <v>3.8007</v>
@@ -7567,7 +7623,7 @@
         <v>0.1983</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" ref="D26:D33" si="9">C26/B26</f>
+        <f t="shared" ref="D26:D33" si="10">C26/B26</f>
         <v>5.2174599415897076E-2</v>
       </c>
       <c r="E26" s="2">
@@ -7580,25 +7636,25 @@
         <v>2.2439</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" ref="H26:H33" si="10">IF(B26="","",IF(E26="",B26,F26-G26))</f>
+        <f t="shared" ref="H26:H33" si="11">IF(B26="","",IF(E26="",B26,F26-G26))</f>
         <v>0.96189999999999998</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" ref="I26:I33" si="11">IF(C26="","",IF(F26="",C26,G26-E26))</f>
+        <f t="shared" ref="I26:I33" si="12">IF(C26="","",IF(F26="",C26,G26-E26))</f>
         <v>5.0499999999999989E-2</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="4"/>
-        <v>4.9881469774792561E-2</v>
+        <f t="shared" ref="J26:J33" si="13">I26/H26</f>
+        <v>5.2500259902276733E-2</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" ref="K26:K33" si="12">(D26-J26)/D26</f>
-        <v>4.3951073257417692E-2</v>
+        <f t="shared" ref="K26:K33" si="14">(D26-J26)/D26</f>
+        <v>-6.2417438758606307E-3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B27" s="2">
         <v>3.722</v>
@@ -7607,7 +7663,7 @@
         <v>0.27929999999999999</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.5040300913487373E-2</v>
       </c>
       <c r="E27" s="2">
@@ -7620,25 +7676,25 @@
         <v>2.2561</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.95509999999999984</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.6600000000000001E-2</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="4"/>
-        <v>7.4246389454298747E-2</v>
+        <f t="shared" si="13"/>
+        <v>8.0201026070568546E-2</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="12"/>
-        <v>1.0579801113856304E-2</v>
+        <f t="shared" si="14"/>
+        <v>-6.8772714051758402E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B28" s="2">
         <v>3.9603999999999999</v>
@@ -7647,7 +7703,7 @@
         <v>3.9100000000000003E-2</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.8727401272598742E-3</v>
       </c>
       <c r="E28" s="2">
@@ -7660,25 +7716,25 @@
         <v>2.1726000000000001</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0194000000000001</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1299999999999866E-2</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0963422916464408E-2</v>
+        <f t="shared" si="13"/>
+        <v>1.1084951932509187E-2</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="12"/>
-        <v>-0.11047417182520809</v>
+        <f t="shared" si="14"/>
+        <v>-0.12278372464218358</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B29" s="2">
         <v>3.9201999999999999</v>
@@ -7687,7 +7743,7 @@
         <v>8.0199999999999994E-2</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0458139890821896E-2</v>
       </c>
       <c r="E29" s="2">
@@ -7700,25 +7756,25 @@
         <v>2.1515</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0013000000000001</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9099999999999895E-2</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="4"/>
-        <v>1.8718149745197858E-2</v>
+        <f t="shared" si="13"/>
+        <v>1.9075202237091676E-2</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="12"/>
-        <v>8.5051239013408372E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.7598406361012581E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B30" s="2">
         <v>3.8834</v>
@@ -7727,7 +7783,7 @@
         <v>0.1226</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.1570273471700057E-2</v>
       </c>
       <c r="E30" s="2">
@@ -7740,25 +7796,25 @@
         <v>2.2176</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.98030000000000017</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.1600000000000072E-2</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="4"/>
-        <v>3.1228382251210659E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.2235030092828791E-2</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="12"/>
-        <v>1.08295298992539E-2</v>
+        <f t="shared" si="14"/>
+        <v>-2.105640997138113E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B31" s="2">
         <v>3.843</v>
@@ -7767,7 +7823,7 @@
         <v>0.16009999999999999</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.1660161332292479E-2</v>
       </c>
       <c r="E31" s="2">
@@ -7780,25 +7836,25 @@
         <v>2.1852999999999998</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.96580000000000021</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5099999999999909E-2</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="4"/>
-        <v>3.5068438405435012E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.6342928142472461E-2</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="12"/>
-        <v>0.15822605376585414</v>
+        <f t="shared" si="14"/>
+        <v>0.12763352372566103</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B32" s="2">
         <v>3.8003</v>
@@ -7807,7 +7863,7 @@
         <v>0.19950000000000001</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.2495855590348132E-2</v>
       </c>
       <c r="E32" s="2">
@@ -7820,25 +7876,25 @@
         <v>2.2010999999999998</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0005000000000002</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.4199999999999786E-2</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="4"/>
-        <v>3.3053058857639692E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.418290854572692E-2</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="12"/>
-        <v>0.37036822267324254</v>
+        <f t="shared" si="14"/>
+        <v>0.34884557721139847</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B33" s="2">
         <v>3.7229000000000001</v>
@@ -7847,7 +7903,7 @@
         <v>0.2802</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.526390716914233E-2</v>
       </c>
       <c r="E33" s="2">
@@ -7860,20 +7916,20 @@
         <v>2.2256999999999998</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.96760000000000002</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.9699999999999633E-2</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="4"/>
-        <v>4.8854811756610293E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.1364200082678411E-2</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="12"/>
-        <v>0.35088658569348868</v>
+        <f t="shared" si="14"/>
+        <v>0.31754539440469853</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -7887,7 +7943,7 @@
         <v>2.02</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:D37" si="13">0.5*C34/(B34+C34)</f>
+        <f t="shared" ref="D34:D37" si="15">0.5*C34/(B34+C34)</f>
         <v>0.5</v>
       </c>
       <c r="H34" s="2">
@@ -7899,12 +7955,12 @@
         <v>1.01</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="J34" si="16">I34/H34</f>
+        <v>0.5</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" ref="K34" si="14">(D34-J34)/D34</f>
-        <v>0.33333333333333337</v>
+        <f t="shared" ref="K34" si="17">(D34-J34)/D34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -7918,24 +7974,24 @@
         <v>1.2024999999999999</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.30053483954813554</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" ref="H35:H37" si="15">IF(B35="","",IF(E35="",B35+C35,F35-G35))</f>
+        <f t="shared" ref="H35:H37" si="18">IF(B35="","",IF(E35="",B35+C35,F35-G35))</f>
         <v>2.0005999999999999</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" ref="I35:I37" si="16">IF(C35="","",IF(F35="",C35*0.5,G35-E35))</f>
+        <f t="shared" ref="I35:I37" si="19">IF(C35="","",IF(F35="",C35*0.5,G35-E35))</f>
         <v>0.60124999999999995</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="4"/>
-        <v>0.23108557372638699</v>
+        <f t="shared" ref="J35:J37" si="20">I35/H35</f>
+        <v>0.30053483954813554</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" ref="K35:K37" si="17">(D35-J35)/D35</f>
-        <v>0.23108557372638694</v>
+        <f t="shared" ref="K35:K37" si="21">(D35-J35)/D35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -7949,24 +8005,24 @@
         <v>0.40439999999999998</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.10102927950434697</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.0013999999999998</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.20219999999999999</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="4"/>
-        <v>9.1758939916500276E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.10102927950434697</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="17"/>
-        <v>9.1758939916500318E-2</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -7980,24 +8036,24 @@
         <v>0.20749999999999999</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.1732734978808273E-2</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.0055000000000001</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.10375</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="4"/>
-        <v>4.9188100035557666E-2</v>
+        <f t="shared" si="20"/>
+        <v>5.1732734978808273E-2</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="17"/>
-        <v>4.9188100035557514E-2</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -8011,24 +8067,24 @@
         <v>2.0023</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" ref="D38:D41" si="18">0.5*C38/(B38+C38)</f>
+        <f t="shared" ref="D38:D41" si="22">0.5*C38/(B38+C38)</f>
         <v>0.5</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" ref="H38:H41" si="19">IF(B38="","",IF(E38="",B38+C38,F38-G38))</f>
+        <f t="shared" ref="H38:H41" si="23">IF(B38="","",IF(E38="",B38+C38,F38-G38))</f>
         <v>2.0023</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" ref="I38:I41" si="20">IF(C38="","",IF(F38="",C38*0.5,G38-E38))</f>
+        <f t="shared" ref="I38:I41" si="24">IF(C38="","",IF(F38="",C38*0.5,G38-E38))</f>
         <v>1.00115</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="J38:J41" si="25">I38/H38</f>
+        <v>0.5</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" ref="K38:K41" si="21">(D38-J38)/D38</f>
-        <v>0.33333333333333337</v>
+        <f t="shared" ref="K38:K41" si="26">(D38-J38)/D38</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -8042,24 +8098,24 @@
         <v>1.21</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.30102497760971242</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2.0097999999999998</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.60499999999999998</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="4"/>
-        <v>0.23137524858497782</v>
+        <f t="shared" si="25"/>
+        <v>0.30102497760971242</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="21"/>
-        <v>0.23137524858497782</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -8073,24 +8129,24 @@
         <v>0.41139999999999999</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.1011655928785718</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2.0332999999999997</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.20569999999999999</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="4"/>
-        <v>9.1871371147833863E-2</v>
+        <f t="shared" si="25"/>
+        <v>0.1011655928785718</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="21"/>
-        <v>9.1871371147833919E-2</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -8104,24 +8160,24 @@
         <v>0.20730000000000001</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5.178874787648647E-2</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2.0013999999999998</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.10365000000000001</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="4"/>
-        <v>4.9238735421961478E-2</v>
+        <f t="shared" si="25"/>
+        <v>5.178874787648647E-2</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="21"/>
-        <v>4.9238735421961569E-2</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8131,12 +8187,590 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF2F39C-D11D-4E2A-8159-8E8BA276F6D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.802</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2/(B2+C2)</f>
+        <v>4.9878730359590846E-2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
+        <f>IF(B2="","",IF(E2="",B2,F2-G2))</f>
+        <v>1.802</v>
+      </c>
+      <c r="I2" s="2">
+        <f>IF(C2="","",IF(F2="",C2,G2-E2))</f>
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="J2" s="2">
+        <f>I2/(H2+I2)</f>
+        <v>4.9878730359590846E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" ref="K2" si="0">(D2-J2)/D2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.7994000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.1996</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D13" si="1">C3/(B3+C3)</f>
+        <v>9.984992496248124E-2</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H13" si="2">IF(B3="","",IF(E3="",B3,F3-G3))</f>
+        <v>1.7994000000000001</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I13" si="3">IF(C3="","",IF(F3="",C3,G3-E3))</f>
+        <v>0.1996</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J13" si="4">I3/(H3+I3)</f>
+        <v>9.984992496248124E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K13" si="5">(D3-J3)/D3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.802</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.4501</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19985791039474268</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <f t="shared" si="2"/>
+        <v>1.802</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.4501</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.19985791039474268</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.7998000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.7712</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29996110462854919</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7998000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7712</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29996110462854919</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.8192999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>4.9477533960292586E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.7081</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.4740000000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.748</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7260000000000002</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>3.9900000000000047E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>5.2095573834704312E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.2913709816515768E-2</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9950024987506256E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.7243999999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.5474000000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.8085</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.73890000000000011</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>8.4100000000000064E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.1021871202916161</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.2382138517618975E-2</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.8052999999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.4501</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19956548727498449</v>
+      </c>
+      <c r="E8">
+        <v>1.7205999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.8904000000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.68959999999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.16980000000000017</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.1975797067721668</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="5"/>
+        <v>9.9505206533104483E-3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.8032999999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2996893203883495</v>
+      </c>
+      <c r="E9">
+        <v>1.7109000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.6233</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.9786999999999999</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.64460000000000006</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26779999999999982</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29351161771152989</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0613689766503161E-2</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.8026</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0013175230566538E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.6735</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.4470999999999998</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.7121999999999999</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.73489999999999989</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>3.8699999999999957E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="4"/>
+        <v>5.0025853154084754E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.5349167413924823E-4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.8078000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>4.9726661059714045E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.7233000000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.5413000000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.8048</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.73650000000000015</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>8.1499999999999906E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
+        <v>9.9633251833740707E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <f>(D11-J11)/D11</f>
+        <v>-1.0036183751427941</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.44979999999999998</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19966264204545456</v>
+      </c>
+      <c r="E12">
+        <v>1.7192000000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.5962999999999998</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.8903000000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.70599999999999974</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17110000000000003</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.19507467791585917</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2978580682864593E-2</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29954596608327833</v>
+      </c>
+      <c r="E13">
+        <v>1.7235</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.6356999999999999</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.7169000000000001</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.91879999999999984</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>-6.5999999999999392E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="4"/>
+        <v>-7.235255426441504E-3</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="5"/>
+        <v>1.024154073984191</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="6">C14/(B14+C14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <f t="shared" ref="H14" si="7">IF(B14="","",IF(E14="",B14,F14-G14))</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" ref="I14" si="8">IF(C14="","",IF(F14="",C14,G14-E14))</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" ref="J14" si="9">I14/(H14+I14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="e">
+        <f t="shared" ref="K14" si="10">(D14-J14)/D14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" sqref="A1:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8188,10 +8822,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="e">
-        <f>C2/(B2+C2)</f>
+        <f t="shared" ref="D2" si="0">C2/B2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H2" s="2" t="str">
@@ -8203,11 +8837,11 @@
         <v/>
       </c>
       <c r="J2" s="2" t="e">
-        <f>I2/(H2+I2)</f>
+        <f>I2/H2</f>
         <v>#VALUE!</v>
       </c>
       <c r="K2" s="1" t="e">
-        <f t="shared" ref="K2" si="0">(D2-J2)/D2</f>
+        <f t="shared" ref="K2" si="1">(D2-J2)/D2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M2" s="3" t="s">
